--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="932">
   <si>
     <t>id</t>
   </si>
@@ -2298,6 +2298,9 @@
     <t>ns_lay6</t>
   </si>
   <si>
+    <t>n-lumcol,S44</t>
+  </si>
+  <si>
     <t>ac_col-lay5_c</t>
   </si>
   <si>
@@ -2307,10 +2310,7 @@
     <t>ns_lay4</t>
   </si>
   <si>
-    <t>7,6,5</t>
-  </si>
-  <si>
-    <t>S42,S42,S42</t>
+    <t>n-lumcol,S44,S45, S43</t>
   </si>
   <si>
     <t>ac_col-lay3_c</t>
@@ -2322,10 +2322,10 @@
     <t>ns_lay2</t>
   </si>
   <si>
-    <t>7,6,5,4,3</t>
-  </si>
-  <si>
-    <t>S42,S42,S42,S42,S42</t>
+    <t>0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>n-lumcol,S44,S45, S43, S46, S47</t>
   </si>
   <si>
     <t>ac_col-lay2_c</t>
@@ -2337,10 +2337,10 @@
     <t>ns_lay1</t>
   </si>
   <si>
-    <t>7,6,5,4,3,2</t>
-  </si>
-  <si>
-    <t>S42,S42,S42,S42,S42,S42</t>
+    <t>0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>n-lumcol,S44,S45, S43, S46, S47, S48</t>
   </si>
   <si>
     <t>dc-img_d</t>
@@ -2358,10 +2358,10 @@
     <t>ns35_5</t>
   </si>
   <si>
-    <t>0,0,7,6,5,4,3,2,0</t>
-  </si>
-  <si>
-    <t>S41, n-lumcol, S42, S42, S42, S42, S42, S42, S52</t>
+    <t>0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>S41, n-lumcol, S44, S45, S43, S46, S47, S48, S52</t>
   </si>
   <si>
     <t>dc-img_f</t>
@@ -2400,10 +2400,7 @@
     <t>ns41</t>
   </si>
   <si>
-    <t>0,0,7,6,5</t>
-  </si>
-  <si>
-    <t>S41, n-lumcol, S42, S42, S42</t>
+    <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>dc-img_h</t>
@@ -2421,12 +2418,6 @@
     <t>ns44</t>
   </si>
   <si>
-    <t>0,0,7,6,5,4,3</t>
-  </si>
-  <si>
-    <t>S41, n-lumcol, S42, S42, S42, S42, S42</t>
-  </si>
-  <si>
     <t>dc-mp_i</t>
   </si>
   <si>
@@ -2457,193 +2448,199 @@
     <t>ns50</t>
   </si>
   <si>
-    <t>5,6</t>
+    <t>0, 0</t>
+  </si>
+  <si>
+    <t>S43, S45</t>
+  </si>
+  <si>
+    <t>dc_mp2_j</t>
+  </si>
+  <si>
+    <t>Dendrite chain of excitatory motor neuron in myenteric plexus of colon_Neuron J' (fcolon)</t>
+  </si>
+  <si>
+    <t>ac_mp2_j</t>
+  </si>
+  <si>
+    <t>Axon chain of excitatory motor neuron in myenteric plexus of colon_Neuron J' (fcolon)</t>
+  </si>
+  <si>
+    <t>ns53</t>
+  </si>
+  <si>
+    <t>S43, S46</t>
+  </si>
+  <si>
+    <t>dc-mp_k</t>
+  </si>
+  <si>
+    <t>Dendrite chain of interneuron in myenteric plexus_Neuron K(fcolon)</t>
+  </si>
+  <si>
+    <t>ac-mp_k</t>
+  </si>
+  <si>
+    <t>Axon chain of interneuron in myenteric plexus_Neuron K(fcolon)</t>
+  </si>
+  <si>
+    <t>ns56</t>
+  </si>
+  <si>
+    <t>dc-mp_l</t>
+  </si>
+  <si>
+    <t>Dendrite chain of inhibitory motor neuron in myenteric plexus_Neuron L(fcolon)</t>
+  </si>
+  <si>
+    <t>ac-mp_l</t>
+  </si>
+  <si>
+    <t>Axon chain of inhibitory motor neuron in myenteric plexus_Neuron L(fcolon)</t>
+  </si>
+  <si>
+    <t>ns59</t>
+  </si>
+  <si>
+    <t>dc-mp2_l</t>
+  </si>
+  <si>
+    <t>Dendrite chain of inhibitory motor neuron in myenteric plexus_Neuron L'(fcolon)</t>
+  </si>
+  <si>
+    <t>ac-mp2_l</t>
+  </si>
+  <si>
+    <t>Axon chain of inhibitory motor neuron in myenteric plexus_Neuron L'(fcolon)</t>
+  </si>
+  <si>
+    <t>ns62</t>
+  </si>
+  <si>
+    <t>dc-mp_m</t>
+  </si>
+  <si>
+    <t>Dendrite chain of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M(fcolon)</t>
+  </si>
+  <si>
+    <t>ac-mp_m</t>
+  </si>
+  <si>
+    <t>Axon chain of intrinsic primary afferent neuron to layer 5_Neuron M(fcolon)</t>
+  </si>
+  <si>
+    <t>ns65</t>
+  </si>
+  <si>
+    <t>ac-mp23_m</t>
+  </si>
+  <si>
+    <t>Axon chain of intrinsic primary afferent neuron to layer 3_Neuron M(fcolon)</t>
+  </si>
+  <si>
+    <t>ns66</t>
+  </si>
+  <si>
+    <t>5,4,3</t>
+  </si>
+  <si>
+    <t>S42, S42, S42</t>
+  </si>
+  <si>
+    <t>ac-mp22_m</t>
+  </si>
+  <si>
+    <t>Axon chain of intrinsic primary afferent neuron to layer 2_Neuron M(fcolon)</t>
+  </si>
+  <si>
+    <t>ns67</t>
+  </si>
+  <si>
+    <t>5,4,3,2</t>
+  </si>
+  <si>
+    <t>S42, S42, S42, S42</t>
+  </si>
+  <si>
+    <t>dc-mp_n</t>
+  </si>
+  <si>
+    <t>Dendrite chain of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N(fcolon)</t>
+  </si>
+  <si>
+    <t>ac-mp2_n</t>
+  </si>
+  <si>
+    <t>Axon chain of intrinsic primary afferent neurons to layer 2 of colon_Neuron N(fcolon)</t>
+  </si>
+  <si>
+    <t>ns70</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>S42,S42</t>
+  </si>
+  <si>
+    <t>ac-mp3_n</t>
+  </si>
+  <si>
+    <t>Axon chain of intrinsic primary afferent neurons connect in layer 3 _Neuron N(fcolon)</t>
+  </si>
+  <si>
+    <t>ns71</t>
+  </si>
+  <si>
+    <t>ac-mp5_n</t>
+  </si>
+  <si>
+    <t>Axon chain of intrinsic primary afferent neurons to from connect to layer 5_Neuron N(fcolon)</t>
+  </si>
+  <si>
+    <t>ns72</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>dc-sp_o</t>
+  </si>
+  <si>
+    <t>Dendrite chain of vasodilatory motor neuron in submucosal plexus_Neuron O(fcolon)</t>
+  </si>
+  <si>
+    <t>ac-sp_o</t>
+  </si>
+  <si>
+    <t>Axon chain of vasodilatory motor neuron in submucosal plexus_Neuron O(fcolon)</t>
+  </si>
+  <si>
+    <t>ns75</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>S42,S64</t>
+  </si>
+  <si>
+    <t>dc-mp-p</t>
+  </si>
+  <si>
+    <t>Dendrite chain of secretomotor neuron in submucosal plexus of colon_Neuron P (fcolon)</t>
+  </si>
+  <si>
+    <t>ac-mp-p</t>
+  </si>
+  <si>
+    <t>Axon chain of secretomotor neuron in submucosal plexus of colon_Neuron P (fcolon)</t>
+  </si>
+  <si>
+    <t>ns78</t>
   </si>
   <si>
     <t>S42, S42</t>
-  </si>
-  <si>
-    <t>dc_mp2_j</t>
-  </si>
-  <si>
-    <t>Dendrite chain of excitatory motor neuron in myenteric plexus of colon_Neuron J' (fcolon)</t>
-  </si>
-  <si>
-    <t>ac_mp2_j</t>
-  </si>
-  <si>
-    <t>Axon chain of excitatory motor neuron in myenteric plexus of colon_Neuron J' (fcolon)</t>
-  </si>
-  <si>
-    <t>ns53</t>
-  </si>
-  <si>
-    <t>dc-mp_k</t>
-  </si>
-  <si>
-    <t>Dendrite chain of interneuron in myenteric plexus_Neuron K(fcolon)</t>
-  </si>
-  <si>
-    <t>ac-mp_k</t>
-  </si>
-  <si>
-    <t>Axon chain of interneuron in myenteric plexus_Neuron K(fcolon)</t>
-  </si>
-  <si>
-    <t>ns56</t>
-  </si>
-  <si>
-    <t>dc-mp_l</t>
-  </si>
-  <si>
-    <t>Dendrite chain of inhibitory motor neuron in myenteric plexus_Neuron L(fcolon)</t>
-  </si>
-  <si>
-    <t>ac-mp_l</t>
-  </si>
-  <si>
-    <t>Axon chain of inhibitory motor neuron in myenteric plexus_Neuron L(fcolon)</t>
-  </si>
-  <si>
-    <t>ns59</t>
-  </si>
-  <si>
-    <t>dc-mp2_l</t>
-  </si>
-  <si>
-    <t>Dendrite chain of inhibitory motor neuron in myenteric plexus_Neuron L'(fcolon)</t>
-  </si>
-  <si>
-    <t>ac-mp2_l</t>
-  </si>
-  <si>
-    <t>Axon chain of inhibitory motor neuron in myenteric plexus_Neuron L'(fcolon)</t>
-  </si>
-  <si>
-    <t>ns62</t>
-  </si>
-  <si>
-    <t>dc-mp_m</t>
-  </si>
-  <si>
-    <t>Dendrite chain of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M(fcolon)</t>
-  </si>
-  <si>
-    <t>ac-mp_m</t>
-  </si>
-  <si>
-    <t>Axon chain of intrinsic primary afferent neuron to layer 5_Neuron M(fcolon)</t>
-  </si>
-  <si>
-    <t>ns65</t>
-  </si>
-  <si>
-    <t>ac-mp23_m</t>
-  </si>
-  <si>
-    <t>Axon chain of intrinsic primary afferent neuron to layer 3_Neuron M(fcolon)</t>
-  </si>
-  <si>
-    <t>ns66</t>
-  </si>
-  <si>
-    <t>5,4,3</t>
-  </si>
-  <si>
-    <t>S42, S42, S42</t>
-  </si>
-  <si>
-    <t>ac-mp22_m</t>
-  </si>
-  <si>
-    <t>Axon chain of intrinsic primary afferent neuron to layer 2_Neuron M(fcolon)</t>
-  </si>
-  <si>
-    <t>ns67</t>
-  </si>
-  <si>
-    <t>5,4,3,2</t>
-  </si>
-  <si>
-    <t>S42, S42, S42, S42</t>
-  </si>
-  <si>
-    <t>dc-mp_n</t>
-  </si>
-  <si>
-    <t>Dendrite chain of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N(fcolon)</t>
-  </si>
-  <si>
-    <t>ac-mp2_n</t>
-  </si>
-  <si>
-    <t>Axon chain of intrinsic primary afferent neurons to layer 2 of colon_Neuron N(fcolon)</t>
-  </si>
-  <si>
-    <t>ns70</t>
-  </si>
-  <si>
-    <t>3,2</t>
-  </si>
-  <si>
-    <t>S42,S42</t>
-  </si>
-  <si>
-    <t>ac-mp3_n</t>
-  </si>
-  <si>
-    <t>Axon chain of intrinsic primary afferent neurons connect in layer 3 _Neuron N(fcolon)</t>
-  </si>
-  <si>
-    <t>ns71</t>
-  </si>
-  <si>
-    <t>ac-mp5_n</t>
-  </si>
-  <si>
-    <t>Axon chain of intrinsic primary afferent neurons to from connect to layer 5_Neuron N(fcolon)</t>
-  </si>
-  <si>
-    <t>ns72</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>dc-sp_o</t>
-  </si>
-  <si>
-    <t>Dendrite chain of vasodilatory motor neuron in submucosal plexus_Neuron O(fcolon)</t>
-  </si>
-  <si>
-    <t>ac-sp_o</t>
-  </si>
-  <si>
-    <t>Axon chain of vasodilatory motor neuron in submucosal plexus_Neuron O(fcolon)</t>
-  </si>
-  <si>
-    <t>ns75</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>S42,S64</t>
-  </si>
-  <si>
-    <t>dc-mp-p</t>
-  </si>
-  <si>
-    <t>Dendrite chain of secretomotor neuron in submucosal plexus of colon_Neuron P (fcolon)</t>
-  </si>
-  <si>
-    <t>ac-mp-p</t>
-  </si>
-  <si>
-    <t>Axon chain of secretomotor neuron in submucosal plexus of colon_Neuron P (fcolon)</t>
-  </si>
-  <si>
-    <t>ns78</t>
   </si>
   <si>
     <t>dc-mp_q</t>
@@ -2894,9 +2891,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -2947,6 +2941,9 @@
       <b/>
       <sz val="9.0"/>
       <color rgb="FF660E7A"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -3026,7 +3023,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3123,34 +3120,28 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3160,9 +3151,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3189,7 +3177,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3201,19 +3189,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3222,10 +3210,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3234,13 +3222,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3255,23 +3243,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -3279,16 +3261,56 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3615,11 +3637,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="101" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>909</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>910</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -3648,12 +3670,12 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
+        <v>910</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>911</v>
       </c>
-      <c r="B2" s="93" t="s">
-        <v>912</v>
-      </c>
-      <c r="C2" s="94"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -3680,12 +3702,12 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="B3" s="104" t="s">
         <v>913</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>914</v>
-      </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="103"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -3712,10 +3734,10 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="B4" s="104" t="s">
         <v>915</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>916</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -3744,10 +3766,10 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B5" s="104" t="s">
         <v>917</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>918</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -3776,10 +3798,10 @@
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>919</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>920</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -3808,10 +3830,10 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="B7" s="104" t="s">
         <v>921</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>922</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -3840,10 +3862,10 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="B8" s="104" t="s">
         <v>923</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>924</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -3872,12 +3894,12 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="B9" s="104" t="s">
         <v>925</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>926</v>
-      </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -3904,12 +3926,12 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="B10" s="104" t="s">
         <v>927</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>928</v>
-      </c>
-      <c r="C10" s="94"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -3936,10 +3958,10 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="B11" s="104" t="s">
         <v>929</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>930</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -3968,12 +3990,12 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="B12" s="105" t="s">
         <v>931</v>
       </c>
-      <c r="B12" s="96" t="s">
-        <v>932</v>
-      </c>
-      <c r="C12" s="94"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -5176,35 +5198,35 @@
       <c r="Q42" s="15"/>
     </row>
     <row r="43">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36" t="b">
+      <c r="D43" s="34"/>
+      <c r="E43" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="32" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="M43" s="40" t="s">
+      <c r="M43" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
@@ -5222,10 +5244,10 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="41" t="s">
+      <c r="J44" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K44" s="42"/>
+      <c r="K44" s="40"/>
       <c r="L44" s="3" t="s">
         <v>159</v>
       </c>
@@ -5253,11 +5275,11 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
-      <c r="J45" s="41" t="s">
+      <c r="J45" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K45" s="42"/>
-      <c r="L45" s="43" t="s">
+      <c r="K45" s="40"/>
+      <c r="L45" s="41" t="s">
         <v>163</v>
       </c>
       <c r="M45" s="20" t="s">
@@ -5265,8 +5287,8 @@
       </c>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
@@ -5279,12 +5301,12 @@
         <v>166</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="45"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="11"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="41" t="s">
+      <c r="I46" s="43"/>
+      <c r="J46" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K46" s="15"/>
@@ -5296,8 +5318,8 @@
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
@@ -5310,12 +5332,12 @@
         <v>170</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="45"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="11"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="41" t="s">
+      <c r="I47" s="43"/>
+      <c r="J47" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K47" s="15"/>
@@ -5327,8 +5349,8 @@
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
@@ -5341,25 +5363,25 @@
         <v>174</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="45"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
-      <c r="J48" s="41" t="s">
+      <c r="J48" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K48" s="42"/>
-      <c r="L48" s="44" t="s">
+      <c r="K48" s="40"/>
+      <c r="L48" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="M48" s="47">
+      <c r="M48" s="44">
         <v>0.0</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
@@ -5372,16 +5394,16 @@
         <v>178</v>
       </c>
       <c r="D49" s="15"/>
-      <c r="E49" s="45"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="41" t="s">
+      <c r="J49" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="47" t="s">
+      <c r="K49" s="40"/>
+      <c r="L49" s="44" t="s">
         <v>179</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -5389,8 +5411,8 @@
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
@@ -5403,15 +5425,15 @@
         <v>183</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="E50" s="45"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="41" t="s">
+      <c r="J50" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K50" s="42"/>
+      <c r="K50" s="40"/>
       <c r="L50" s="20" t="s">
         <v>184</v>
       </c>
@@ -5432,15 +5454,15 @@
         <v>187</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="E51" s="45"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
-      <c r="J51" s="41" t="s">
+      <c r="J51" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K51" s="42"/>
+      <c r="K51" s="40"/>
       <c r="L51" s="20" t="s">
         <v>188</v>
       </c>
@@ -5461,11 +5483,11 @@
         <v>191</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="45"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="11"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
-      <c r="I52" s="46"/>
+      <c r="I52" s="43"/>
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
       <c r="L52" s="11"/>
@@ -5492,7 +5514,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="42"/>
+      <c r="K53" s="40"/>
       <c r="L53" s="3"/>
       <c r="M53" s="17"/>
       <c r="N53" s="15"/>
@@ -5517,7 +5539,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
-      <c r="I54" s="46"/>
+      <c r="I54" s="43"/>
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
       <c r="L54" s="14"/>
@@ -5542,11 +5564,11 @@
       <c r="F55" s="11"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="46"/>
+      <c r="I55" s="43"/>
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
       <c r="L55" s="11"/>
-      <c r="M55" s="48"/>
+      <c r="M55" s="45"/>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
@@ -5567,7 +5589,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
-      <c r="I56" s="49"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
       <c r="L56" s="14"/>
@@ -5592,7 +5614,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
-      <c r="I57" s="49"/>
+      <c r="I57" s="46"/>
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
       <c r="L57" s="14"/>
@@ -5617,7 +5639,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="49"/>
+      <c r="I58" s="46"/>
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
       <c r="L58" s="14"/>
@@ -5642,7 +5664,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
-      <c r="I59" s="49"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
       <c r="L59" s="14"/>
@@ -5659,7 +5681,7 @@
       <c r="B60" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="47" t="s">
         <v>210</v>
       </c>
       <c r="D60" s="15"/>
@@ -5669,7 +5691,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
-      <c r="I60" s="49" t="s">
+      <c r="I60" s="46" t="s">
         <v>211</v>
       </c>
       <c r="J60" s="14"/>
@@ -5690,11 +5712,11 @@
       <c r="B61" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="47" t="s">
         <v>215</v>
       </c>
       <c r="D61" s="15"/>
-      <c r="E61" s="51" t="b">
+      <c r="E61" s="48" t="b">
         <v>1</v>
       </c>
       <c r="F61" s="14"/>
@@ -5711,17 +5733,17 @@
       <c r="Q61" s="15"/>
     </row>
     <row r="62">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="45" t="s">
         <v>216</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="47" t="s">
         <v>215</v>
       </c>
       <c r="D62" s="15"/>
-      <c r="E62" s="52" t="b">
+      <c r="E62" s="49" t="b">
         <v>1</v>
       </c>
       <c r="F62" s="11" t="s">
@@ -5730,7 +5752,7 @@
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
-      <c r="J62" s="53">
+      <c r="J62" s="50">
         <v>229.0</v>
       </c>
       <c r="K62" s="15"/>
@@ -5742,7 +5764,7 @@
       <c r="Q62" s="15"/>
     </row>
     <row r="63">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="42" t="s">
         <v>218</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -5752,7 +5774,7 @@
         <v>220</v>
       </c>
       <c r="D63" s="15"/>
-      <c r="E63" s="51" t="b">
+      <c r="E63" s="48" t="b">
         <v>1</v>
       </c>
       <c r="F63" s="14"/>
@@ -5763,7 +5785,7 @@
       </c>
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="48"/>
+      <c r="L63" s="45"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
       <c r="O63" s="15"/>
@@ -5771,7 +5793,7 @@
       <c r="Q63" s="15"/>
     </row>
     <row r="64">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="42" t="s">
         <v>163</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -5789,14 +5811,14 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
       <c r="L64" s="11"/>
-      <c r="M64" s="48"/>
+      <c r="M64" s="45"/>
       <c r="N64" s="17"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
     <row r="65">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="42" t="s">
         <v>223</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -5814,14 +5836,14 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
       <c r="L65" s="11"/>
-      <c r="M65" s="48"/>
+      <c r="M65" s="45"/>
       <c r="N65" s="17"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
     <row r="66">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="42" t="s">
         <v>159</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -5835,18 +5857,18 @@
       <c r="F66" s="11"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
-      <c r="I66" s="46"/>
+      <c r="I66" s="43"/>
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
       <c r="L66" s="11"/>
-      <c r="M66" s="48"/>
+      <c r="M66" s="45"/>
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
     <row r="67">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="42" t="s">
         <v>226</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -5860,18 +5882,18 @@
       <c r="F67" s="11"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
-      <c r="I67" s="46"/>
+      <c r="I67" s="43"/>
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
       <c r="L67" s="11"/>
-      <c r="M67" s="48"/>
+      <c r="M67" s="45"/>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
     <row r="68">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="42" t="s">
         <v>175</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -5885,17 +5907,17 @@
       <c r="F68" s="11"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
-      <c r="I68" s="46"/>
+      <c r="I68" s="43"/>
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
       <c r="L68" s="11"/>
-      <c r="M68" s="48"/>
+      <c r="M68" s="45"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
     </row>
     <row r="69">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="42" t="s">
         <v>229</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -5909,11 +5931,11 @@
       <c r="F69" s="11"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
-      <c r="I69" s="46"/>
+      <c r="I69" s="43"/>
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
       <c r="L69" s="11"/>
-      <c r="M69" s="48"/>
+      <c r="M69" s="45"/>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
       <c r="P69" s="15"/>
@@ -5926,7 +5948,7 @@
       <c r="B70" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D70" s="15"/>
@@ -5934,11 +5956,11 @@
       <c r="F70" s="11"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
-      <c r="I70" s="46"/>
+      <c r="I70" s="43"/>
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
       <c r="L70" s="11"/>
-      <c r="M70" s="48"/>
+      <c r="M70" s="45"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
@@ -5953,7 +5975,7 @@
       <c r="B71" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D71" s="15"/>
@@ -5961,11 +5983,11 @@
       <c r="F71" s="11"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
-      <c r="I71" s="46"/>
+      <c r="I71" s="43"/>
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
       <c r="L71" s="11"/>
-      <c r="M71" s="48"/>
+      <c r="M71" s="45"/>
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
       <c r="P71" s="15"/>
@@ -5977,7 +5999,7 @@
       <c r="B72" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D72" s="15"/>
@@ -5985,11 +6007,11 @@
       <c r="F72" s="11"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
-      <c r="I72" s="46"/>
+      <c r="I72" s="43"/>
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
       <c r="L72" s="11"/>
-      <c r="M72" s="48"/>
+      <c r="M72" s="45"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
@@ -6004,7 +6026,7 @@
       <c r="B73" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D73" s="15"/>
@@ -6012,11 +6034,11 @@
       <c r="F73" s="11"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
-      <c r="I73" s="46"/>
+      <c r="I73" s="43"/>
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
       <c r="L73" s="11"/>
-      <c r="M73" s="48"/>
+      <c r="M73" s="45"/>
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
       <c r="P73" s="15"/>
@@ -6028,7 +6050,7 @@
       <c r="B74" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D74" s="15"/>
@@ -6036,11 +6058,11 @@
       <c r="F74" s="11"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
-      <c r="I74" s="46"/>
+      <c r="I74" s="43"/>
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
       <c r="L74" s="11"/>
-      <c r="M74" s="48"/>
+      <c r="M74" s="45"/>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
       <c r="P74" s="15"/>
@@ -6053,7 +6075,7 @@
       <c r="B75" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D75" s="15"/>
@@ -6061,11 +6083,11 @@
       <c r="F75" s="11"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
-      <c r="I75" s="46"/>
+      <c r="I75" s="43"/>
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
       <c r="L75" s="11"/>
-      <c r="M75" s="48"/>
+      <c r="M75" s="45"/>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
@@ -6078,7 +6100,7 @@
       <c r="B76" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D76" s="15"/>
@@ -6086,11 +6108,11 @@
       <c r="F76" s="11"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="46"/>
+      <c r="I76" s="43"/>
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
       <c r="L76" s="11"/>
-      <c r="M76" s="48"/>
+      <c r="M76" s="45"/>
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
@@ -6103,7 +6125,7 @@
       <c r="B77" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D77" s="15"/>
@@ -6111,11 +6133,11 @@
       <c r="F77" s="11"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
-      <c r="I77" s="46"/>
+      <c r="I77" s="43"/>
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="48"/>
+      <c r="M77" s="45"/>
       <c r="N77" s="15"/>
       <c r="O77" s="15"/>
       <c r="P77" s="15"/>
@@ -6128,7 +6150,7 @@
       <c r="B78" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C78" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D78" s="15"/>
@@ -6136,11 +6158,11 @@
       <c r="F78" s="11"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
-      <c r="I78" s="46"/>
+      <c r="I78" s="43"/>
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
       <c r="L78" s="11"/>
-      <c r="M78" s="48"/>
+      <c r="M78" s="45"/>
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="15"/>
@@ -6155,7 +6177,7 @@
       <c r="B79" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D79" s="15"/>
@@ -6163,11 +6185,11 @@
       <c r="F79" s="11"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
-      <c r="I79" s="46"/>
+      <c r="I79" s="43"/>
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
       <c r="L79" s="11"/>
-      <c r="M79" s="48"/>
+      <c r="M79" s="45"/>
       <c r="N79" s="15"/>
       <c r="O79" s="15"/>
       <c r="P79" s="15"/>
@@ -6182,7 +6204,7 @@
       <c r="B80" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D80" s="15"/>
@@ -6190,11 +6212,11 @@
       <c r="F80" s="11"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
-      <c r="I80" s="46"/>
+      <c r="I80" s="43"/>
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
       <c r="L80" s="11"/>
-      <c r="M80" s="48"/>
+      <c r="M80" s="45"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
@@ -6209,7 +6231,7 @@
       <c r="B81" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D81" s="15"/>
@@ -6217,11 +6239,11 @@
       <c r="F81" s="11"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
-      <c r="I81" s="46"/>
+      <c r="I81" s="43"/>
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
       <c r="L81" s="11"/>
-      <c r="M81" s="48"/>
+      <c r="M81" s="45"/>
       <c r="N81" s="15"/>
       <c r="O81" s="15"/>
       <c r="P81" s="15"/>
@@ -6236,7 +6258,7 @@
       <c r="B82" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D82" s="15"/>
@@ -6244,11 +6266,11 @@
       <c r="F82" s="11"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
-      <c r="I82" s="46"/>
+      <c r="I82" s="43"/>
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
       <c r="L82" s="11"/>
-      <c r="M82" s="48"/>
+      <c r="M82" s="45"/>
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
       <c r="P82" s="15"/>
@@ -6263,7 +6285,7 @@
       <c r="B83" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D83" s="15"/>
@@ -6271,11 +6293,11 @@
       <c r="F83" s="11"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
-      <c r="I83" s="46"/>
+      <c r="I83" s="43"/>
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
       <c r="L83" s="11"/>
-      <c r="M83" s="48"/>
+      <c r="M83" s="45"/>
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
       <c r="P83" s="15"/>
@@ -6290,7 +6312,7 @@
       <c r="B84" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D84" s="15"/>
@@ -6298,11 +6320,11 @@
       <c r="F84" s="11"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
-      <c r="I84" s="46"/>
+      <c r="I84" s="43"/>
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
       <c r="L84" s="11"/>
-      <c r="M84" s="48"/>
+      <c r="M84" s="45"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
       <c r="P84" s="15"/>
@@ -6317,7 +6339,7 @@
       <c r="B85" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D85" s="15"/>
@@ -6325,11 +6347,11 @@
       <c r="F85" s="11"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
-      <c r="I85" s="46"/>
+      <c r="I85" s="43"/>
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
       <c r="L85" s="11"/>
-      <c r="M85" s="48"/>
+      <c r="M85" s="45"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
       <c r="P85" s="15"/>
@@ -6344,7 +6366,7 @@
       <c r="B86" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D86" s="15"/>
@@ -6352,11 +6374,11 @@
       <c r="F86" s="11"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
-      <c r="I86" s="46"/>
+      <c r="I86" s="43"/>
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
       <c r="L86" s="11"/>
-      <c r="M86" s="48"/>
+      <c r="M86" s="45"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
       <c r="P86" s="15"/>
@@ -6371,7 +6393,7 @@
       <c r="B87" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D87" s="15"/>
@@ -6379,11 +6401,11 @@
       <c r="F87" s="11"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
-      <c r="I87" s="46"/>
+      <c r="I87" s="43"/>
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="48"/>
+      <c r="M87" s="45"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
       <c r="P87" s="15"/>
@@ -6398,7 +6420,7 @@
       <c r="B88" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D88" s="15"/>
@@ -6406,11 +6428,11 @@
       <c r="F88" s="11"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
-      <c r="I88" s="46"/>
+      <c r="I88" s="43"/>
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
       <c r="L88" s="11"/>
-      <c r="M88" s="48"/>
+      <c r="M88" s="45"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
       <c r="P88" s="15"/>
@@ -6425,7 +6447,7 @@
       <c r="B89" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D89" s="15"/>
@@ -6433,11 +6455,11 @@
       <c r="F89" s="11"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
-      <c r="I89" s="46"/>
+      <c r="I89" s="43"/>
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
       <c r="L89" s="11"/>
-      <c r="M89" s="48"/>
+      <c r="M89" s="45"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
@@ -6452,7 +6474,7 @@
       <c r="B90" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D90" s="15"/>
@@ -6460,11 +6482,11 @@
       <c r="F90" s="11"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
-      <c r="I90" s="46"/>
+      <c r="I90" s="43"/>
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
       <c r="L90" s="11"/>
-      <c r="M90" s="48"/>
+      <c r="M90" s="45"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
@@ -6479,7 +6501,7 @@
       <c r="B91" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D91" s="15"/>
@@ -6487,11 +6509,11 @@
       <c r="F91" s="11"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
-      <c r="I91" s="46"/>
+      <c r="I91" s="43"/>
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
       <c r="L91" s="11"/>
-      <c r="M91" s="48"/>
+      <c r="M91" s="45"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
       <c r="P91" s="15"/>
@@ -6506,7 +6528,7 @@
       <c r="B92" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="C92" s="54" t="s">
+      <c r="C92" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D92" s="15"/>
@@ -6514,11 +6536,11 @@
       <c r="F92" s="11"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
-      <c r="I92" s="46"/>
+      <c r="I92" s="43"/>
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
       <c r="L92" s="11"/>
-      <c r="M92" s="48"/>
+      <c r="M92" s="45"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
       <c r="P92" s="15"/>
@@ -6541,11 +6563,11 @@
       <c r="F93" s="11"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
-      <c r="I93" s="46"/>
+      <c r="I93" s="43"/>
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
       <c r="L93" s="11"/>
-      <c r="M93" s="48"/>
+      <c r="M93" s="45"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
       <c r="P93" s="15"/>
@@ -6566,11 +6588,11 @@
       <c r="F94" s="11"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
-      <c r="I94" s="46"/>
+      <c r="I94" s="43"/>
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
       <c r="L94" s="11"/>
-      <c r="M94" s="48"/>
+      <c r="M94" s="45"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
       <c r="P94" s="15"/>
@@ -6783,7 +6805,7 @@
       <c r="A12" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>311</v>
       </c>
       <c r="C12" s="15"/>
@@ -6800,7 +6822,7 @@
       <c r="A13" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="52" t="s">
         <v>313</v>
       </c>
       <c r="C13" s="15"/>
@@ -6817,7 +6839,7 @@
       <c r="A14" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="52" t="s">
         <v>315</v>
       </c>
       <c r="C14" s="15"/>
@@ -6834,7 +6856,7 @@
       <c r="A15" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>317</v>
       </c>
       <c r="C15" s="15"/>
@@ -6851,7 +6873,7 @@
       <c r="A16" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>319</v>
       </c>
       <c r="C16" s="15"/>
@@ -6868,7 +6890,7 @@
       <c r="A17" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>321</v>
       </c>
       <c r="C17" s="15"/>
@@ -6898,7 +6920,7 @@
       <c r="A19" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="53" t="s">
         <v>323</v>
       </c>
       <c r="C19" s="15"/>
@@ -6918,15 +6940,15 @@
       <c r="B20" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
@@ -6955,37 +6977,37 @@
       <c r="A27" s="15"/>
     </row>
     <row r="28">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="55" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="55" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="54" t="s">
         <v>331</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
@@ -6999,16 +7021,16 @@
     </row>
     <row r="33">
       <c r="A33" s="15"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7046,63 +7068,63 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>337</v>
       </c>
       <c r="D2" s="15"/>
     </row>
     <row r="3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>340</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="60" t="s">
         <v>341</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="47"/>
     </row>
     <row r="5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>346</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -7110,27 +7132,27 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="60" t="s">
         <v>347</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="61" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="60" t="s">
         <v>351</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="47" t="s">
         <v>353</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -7138,115 +7160,115 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="47" t="s">
         <v>356</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="47" t="s">
         <v>359</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="60" t="s">
         <v>360</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="47" t="s">
         <v>362</v>
       </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="60" t="s">
         <v>363</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="47" t="s">
         <v>365</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="60" t="s">
         <v>366</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="47" t="s">
         <v>368</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="60" t="s">
         <v>369</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="47" t="s">
         <v>371</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="60" t="s">
         <v>372</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="47" t="s">
         <v>374</v>
       </c>
       <c r="D14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="60" t="s">
         <v>375</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="47" t="s">
         <v>377</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="60" t="s">
         <v>378</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="47" t="s">
         <v>380</v>
       </c>
       <c r="D16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="60" t="s">
         <v>381</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -7258,10 +7280,10 @@
       <c r="D17" s="15"/>
     </row>
     <row r="18">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="47" t="s">
         <v>384</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -7270,13 +7292,13 @@
       <c r="D18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="60" t="s">
         <v>386</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="62" t="s">
         <v>388</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -7284,37 +7306,37 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="60" t="s">
         <v>389</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="63" t="s">
         <v>391</v>
       </c>
       <c r="D20" s="15"/>
     </row>
     <row r="21">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="60" t="s">
         <v>392</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="63" t="s">
         <v>394</v>
       </c>
       <c r="D21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="60" t="s">
         <v>395</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="63" t="s">
         <v>397</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -7322,13 +7344,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="47" t="s">
         <v>400</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -7336,31 +7358,31 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="47" t="s">
         <v>403</v>
       </c>
       <c r="D24" s="15"/>
     </row>
     <row r="25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="47" t="s">
         <v>406</v>
       </c>
       <c r="D25" s="15"/>
     </row>
     <row r="26">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="64" t="s">
         <v>407</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -7372,7 +7394,7 @@
       <c r="D26" s="23"/>
     </row>
     <row r="27">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="64" t="s">
         <v>410</v>
       </c>
       <c r="B27" s="24" t="s">
@@ -7384,7 +7406,7 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="64" t="s">
         <v>413</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -7396,7 +7418,7 @@
       <c r="D28" s="23"/>
     </row>
     <row r="29">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="64" t="s">
         <v>416</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -7408,7 +7430,7 @@
       <c r="D29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="64" t="s">
         <v>419</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -7420,7 +7442,7 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="64" t="s">
         <v>422</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -7432,7 +7454,7 @@
       <c r="D31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="64" t="s">
         <v>425</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -7444,7 +7466,7 @@
       <c r="D32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="64" t="s">
         <v>428</v>
       </c>
       <c r="B33" s="24" t="s">
@@ -7456,7 +7478,7 @@
       <c r="D33" s="23"/>
     </row>
     <row r="34">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="64" t="s">
         <v>431</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -7468,7 +7490,7 @@
       <c r="D34" s="23"/>
     </row>
     <row r="35">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="64" t="s">
         <v>434</v>
       </c>
       <c r="B35" s="24" t="s">
@@ -7480,73 +7502,73 @@
       <c r="D35" s="23"/>
     </row>
     <row r="36">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="65" t="s">
         <v>437</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="66" t="s">
         <v>439</v>
       </c>
       <c r="D36" s="15"/>
     </row>
     <row r="37">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="65" t="s">
         <v>440</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="66" t="s">
         <v>442</v>
       </c>
       <c r="D37" s="15"/>
     </row>
     <row r="38">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="65" t="s">
         <v>443</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="66" t="s">
         <v>445</v>
       </c>
       <c r="D38" s="15"/>
     </row>
     <row r="39">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="65" t="s">
         <v>446</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="67" t="s">
         <v>447</v>
       </c>
       <c r="D39" s="15"/>
     </row>
     <row r="40">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="65" t="s">
         <v>448</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="67" t="s">
         <v>450</v>
       </c>
       <c r="D40" s="15"/>
     </row>
     <row r="41">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="65" t="s">
         <v>451</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="68" t="s">
         <v>453</v>
       </c>
       <c r="D41" s="15"/>
@@ -7576,25 +7598,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>454</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="70" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="70" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7614,7 +7636,7 @@
       <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3">
@@ -7633,14 +7655,14 @@
       <c r="E3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="72" t="s">
         <v>467</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7652,14 +7674,14 @@
       <c r="E4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="72" t="s">
         <v>471</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -7671,14 +7693,14 @@
       <c r="E5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="72" t="s">
         <v>475</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -7690,14 +7712,14 @@
       <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="72" t="s">
         <v>479</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -7709,14 +7731,14 @@
       <c r="E7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="72" t="s">
         <v>483</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -7728,14 +7750,14 @@
       <c r="E8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="72" t="s">
         <v>487</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -7747,14 +7769,14 @@
       <c r="E9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="72" t="s">
         <v>491</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -7766,14 +7788,14 @@
       <c r="E10" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="72" t="s">
         <v>495</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -7785,14 +7807,14 @@
       <c r="E11" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="74"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="72" t="s">
         <v>499</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -7804,7 +7826,7 @@
       <c r="E12" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13">
@@ -7823,14 +7845,14 @@
       <c r="E13" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="72" t="s">
         <v>506</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -7842,14 +7864,14 @@
       <c r="E14" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="72" t="s">
         <v>510</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -7861,14 +7883,14 @@
       <c r="E15" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="72" t="s">
         <v>514</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -7880,7 +7902,7 @@
       <c r="E16" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="74"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="14"/>
     </row>
     <row r="17">
@@ -7899,14 +7921,14 @@
       <c r="E17" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="74"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="72" t="s">
         <v>522</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -7918,14 +7940,14 @@
       <c r="E18" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="74"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="14"/>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="72" t="s">
         <v>526</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -7937,14 +7959,14 @@
       <c r="E19" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="74"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="72" t="s">
         <v>530</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -7956,14 +7978,14 @@
       <c r="E20" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="74"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="72" t="s">
         <v>534</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -7975,14 +7997,14 @@
       <c r="E21" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="F21" s="74"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="72" t="s">
         <v>538</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -7994,14 +8016,14 @@
       <c r="E22" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F22" s="74"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="72" t="s">
         <v>542</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -8013,14 +8035,14 @@
       <c r="E23" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="F23" s="74"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="72" t="s">
         <v>546</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -8032,7 +8054,7 @@
       <c r="E24" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="74"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="14"/>
     </row>
   </sheetData>
@@ -8059,49 +8081,50 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.14"/>
     <col customWidth="1" min="2" max="2" width="80.29"/>
-    <col customWidth="1" min="3" max="3" width="18.43"/>
-    <col customWidth="1" min="4" max="4" width="44.0"/>
-    <col customWidth="1" min="5" max="5" width="11.43"/>
+    <col customWidth="1" hidden="1" min="3" max="3" width="18.43"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="44.0"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="11.43"/>
+    <col hidden="1" min="6" max="6" width="14.43"/>
     <col customWidth="1" min="10" max="10" width="15.0"/>
     <col customWidth="1" min="11" max="11" width="20.29"/>
     <col customWidth="1" min="12" max="12" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
         <v>549</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="70" t="s">
         <v>551</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="70" t="s">
         <v>553</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="75" t="s">
         <v>554</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="74" t="s">
         <v>555</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="74" t="s">
         <v>556</v>
       </c>
       <c r="M1" s="15" t="s">
@@ -8115,7 +8138,7 @@
       <c r="B2" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="35" t="s">
         <v>559</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -8127,7 +8150,7 @@
       <c r="F2" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="3"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
@@ -8142,7 +8165,7 @@
       <c r="B3" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>565</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -8154,7 +8177,7 @@
       <c r="F3" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="3"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
@@ -8169,10 +8192,10 @@
       <c r="B4" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="27" t="s">
         <v>572</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -8181,7 +8204,7 @@
       <c r="F4" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="3"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
@@ -8206,7 +8229,7 @@
         <v>577</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="74"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="3"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
@@ -8231,7 +8254,7 @@
         <v>580</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="74"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="3"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
@@ -8246,7 +8269,7 @@
       <c r="B7" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>583</v>
       </c>
       <c r="D7" s="28"/>
@@ -8254,7 +8277,7 @@
         <v>460</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="74"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="3" t="s">
         <v>216</v>
       </c>
@@ -8275,17 +8298,17 @@
       <c r="B8" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="3" t="s">
         <v>461</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="3" t="s">
         <v>216</v>
       </c>
@@ -8306,15 +8329,15 @@
       <c r="B9" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>583</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="3" t="s">
         <v>464</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="3" t="s">
         <v>216</v>
       </c>
@@ -8335,10 +8358,10 @@
       <c r="B10" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="3" t="s">
         <v>465</v>
       </c>
@@ -8351,10 +8374,10 @@
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="78" t="s">
         <v>594</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="79" t="s">
         <v>595</v>
       </c>
       <c r="M10" s="15"/>
@@ -8366,10 +8389,10 @@
       <c r="B11" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="3" t="s">
         <v>587</v>
       </c>
@@ -8382,1456 +8405,1458 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="79" t="s">
         <v>600</v>
       </c>
       <c r="M11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="80" t="s">
         <v>602</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="81" t="s">
         <v>583</v>
       </c>
       <c r="D12" s="82"/>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="83">
         <v>0.0</v>
       </c>
       <c r="L12" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="15"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="80" t="s">
         <v>604</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D13" s="82"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
+      <c r="G13" s="36"/>
+      <c r="H13" s="25">
         <v>229.0</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="83" t="s">
         <v>150</v>
       </c>
       <c r="L13" s="84" t="s">
         <v>606</v>
       </c>
-      <c r="M13" s="15"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="80" t="s">
         <v>608</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D14" s="82"/>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
+      <c r="G14" s="36"/>
+      <c r="H14" s="25">
         <v>229.0</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="83" t="s">
         <v>610</v>
       </c>
       <c r="L14" s="84" t="s">
         <v>611</v>
       </c>
-      <c r="M14" s="15"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="80" t="s">
         <v>613</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D15" s="82"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="35" t="s">
         <v>614</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12">
+      <c r="G15" s="36"/>
+      <c r="H15" s="25">
         <v>229.0</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="83" t="s">
         <v>615</v>
       </c>
       <c r="L15" s="84" t="s">
         <v>616</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="80" t="s">
         <v>618</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D16" s="82"/>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12">
+      <c r="G16" s="36"/>
+      <c r="H16" s="25">
         <v>229.0</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="83" t="s">
         <v>620</v>
       </c>
       <c r="L16" s="84" t="s">
         <v>616</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="80" t="s">
         <v>622</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D17" s="82"/>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12">
+      <c r="G17" s="36"/>
+      <c r="H17" s="25">
         <v>229.0</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="83" t="s">
         <v>624</v>
       </c>
       <c r="L17" s="84" t="s">
         <v>616</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="25" t="s">
         <v>625</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="80" t="s">
         <v>626</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D18" s="82"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12">
+      <c r="G18" s="36"/>
+      <c r="H18" s="25">
         <v>229.0</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="83" t="s">
         <v>628</v>
       </c>
       <c r="L18" s="84" t="s">
         <v>616</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="80" t="s">
         <v>630</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="81" t="s">
         <v>583</v>
       </c>
       <c r="D19" s="82"/>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="83">
         <v>0.0</v>
       </c>
       <c r="L19" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="15"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="80" t="s">
         <v>632</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D20" s="82"/>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12">
+      <c r="G20" s="36"/>
+      <c r="H20" s="25">
         <v>229.0</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="83" t="s">
         <v>150</v>
       </c>
       <c r="L20" s="84" t="s">
         <v>633</v>
       </c>
-      <c r="M20" s="15"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="80" t="s">
         <v>635</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D21" s="82"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12">
+      <c r="G21" s="36"/>
+      <c r="H21" s="25">
         <v>229.0</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="83" t="s">
         <v>610</v>
       </c>
       <c r="L21" s="84" t="s">
         <v>637</v>
       </c>
-      <c r="M21" s="15"/>
+      <c r="M21" s="34"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="25" t="s">
         <v>638</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="80" t="s">
         <v>639</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D22" s="82"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12">
+      <c r="G22" s="36"/>
+      <c r="H22" s="25">
         <v>229.0</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="83" t="s">
         <v>615</v>
       </c>
       <c r="L22" s="84" t="s">
         <v>641</v>
       </c>
-      <c r="M22" s="15"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="80" t="s">
         <v>643</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D23" s="82"/>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12">
+      <c r="G23" s="36"/>
+      <c r="H23" s="25">
         <v>229.0</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="83" t="s">
         <v>620</v>
       </c>
       <c r="L23" s="84" t="s">
         <v>641</v>
       </c>
-      <c r="M23" s="15"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="25" t="s">
         <v>645</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="80" t="s">
         <v>646</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D24" s="82"/>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="35" t="s">
         <v>647</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12">
+      <c r="G24" s="36"/>
+      <c r="H24" s="25">
         <v>229.0</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="83" t="s">
         <v>624</v>
       </c>
       <c r="L24" s="84" t="s">
         <v>641</v>
       </c>
-      <c r="M24" s="15"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="81" t="s">
         <v>586</v>
       </c>
       <c r="D25" s="82"/>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12">
+      <c r="G25" s="36"/>
+      <c r="H25" s="25">
         <v>229.0</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="34"/>
       <c r="K25" s="83" t="s">
         <v>628</v>
       </c>
       <c r="L25" s="84" t="s">
         <v>641</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="80" t="s">
         <v>652</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="81" t="s">
         <v>583</v>
       </c>
       <c r="D26" s="82"/>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12" t="s">
+      <c r="F26" s="38"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="34"/>
       <c r="K26" s="83">
         <v>0.0</v>
       </c>
       <c r="L26" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="M26" s="15"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="3">
+      <c r="G27" s="38"/>
+      <c r="H27" s="35">
         <v>229.0</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="83" t="s">
         <v>150</v>
       </c>
       <c r="L27" s="84" t="s">
         <v>655</v>
       </c>
-      <c r="M27" s="15"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="80" t="s">
         <v>657</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="3">
+      <c r="G28" s="38"/>
+      <c r="H28" s="35">
         <v>229.0</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="34"/>
       <c r="K28" s="83" t="s">
         <v>610</v>
       </c>
       <c r="L28" s="84" t="s">
         <v>659</v>
       </c>
-      <c r="M28" s="15"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="80" t="s">
         <v>661</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="3">
+      <c r="G29" s="38"/>
+      <c r="H29" s="35">
         <v>229.0</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="34"/>
       <c r="K29" s="83" t="s">
         <v>615</v>
       </c>
       <c r="L29" s="84" t="s">
         <v>663</v>
       </c>
-      <c r="M29" s="15"/>
+      <c r="M29" s="34"/>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="80" t="s">
         <v>665</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="3">
+      <c r="G30" s="38"/>
+      <c r="H30" s="35">
         <v>229.0</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="34"/>
       <c r="K30" s="83" t="s">
         <v>620</v>
       </c>
       <c r="L30" s="84" t="s">
         <v>663</v>
       </c>
-      <c r="M30" s="15"/>
+      <c r="M30" s="34"/>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="80" t="s">
         <v>668</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="35" t="s">
         <v>669</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="3">
+      <c r="G31" s="38"/>
+      <c r="H31" s="35">
         <v>229.0</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="34"/>
       <c r="K31" s="83" t="s">
         <v>624</v>
       </c>
       <c r="L31" s="84" t="s">
         <v>663</v>
       </c>
-      <c r="M31" s="15"/>
+      <c r="M31" s="34"/>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="80" t="s">
         <v>671</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="38"/>
+      <c r="E32" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="3">
+      <c r="G32" s="38"/>
+      <c r="H32" s="35">
         <v>229.0</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="34"/>
       <c r="K32" s="83" t="s">
         <v>628</v>
       </c>
       <c r="L32" s="84" t="s">
         <v>663</v>
       </c>
-      <c r="M32" s="15"/>
+      <c r="M32" s="34"/>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="80" t="s">
         <v>674</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="3" t="s">
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="34"/>
       <c r="K33" s="83">
         <v>0.0</v>
       </c>
       <c r="L33" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="M33" s="15"/>
+      <c r="M33" s="34"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="80" t="s">
         <v>676</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="3">
+      <c r="G34" s="38"/>
+      <c r="H34" s="35">
         <v>229.0</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="34"/>
       <c r="K34" s="83" t="s">
         <v>150</v>
       </c>
       <c r="L34" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="M34" s="15"/>
+      <c r="M34" s="34"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="80" t="s">
         <v>679</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="38"/>
+      <c r="E35" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="3">
+      <c r="G35" s="38"/>
+      <c r="H35" s="35">
         <v>229.0</v>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="34"/>
       <c r="K35" s="83" t="s">
         <v>610</v>
       </c>
       <c r="L35" s="84" t="s">
         <v>681</v>
       </c>
-      <c r="M35" s="15"/>
+      <c r="M35" s="34"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="80" t="s">
         <v>683</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="38"/>
+      <c r="E36" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="3">
+      <c r="G36" s="38"/>
+      <c r="H36" s="35">
         <v>229.0</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="34"/>
       <c r="K36" s="83" t="s">
         <v>615</v>
       </c>
       <c r="L36" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="M36" s="15"/>
+      <c r="M36" s="34"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="80" t="s">
         <v>687</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="38"/>
+      <c r="E37" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="35" t="s">
         <v>688</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="3">
+      <c r="G37" s="38"/>
+      <c r="H37" s="35">
         <v>229.0</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="34"/>
       <c r="K37" s="83" t="s">
         <v>620</v>
       </c>
       <c r="L37" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="M37" s="15"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="25" t="s">
         <v>689</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="80" t="s">
         <v>690</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="38"/>
+      <c r="E38" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="3">
+      <c r="G38" s="38"/>
+      <c r="H38" s="35">
         <v>229.0</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="34"/>
       <c r="K38" s="83" t="s">
         <v>624</v>
       </c>
       <c r="L38" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="M38" s="15"/>
+      <c r="M38" s="34"/>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="80" t="s">
         <v>693</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="35" t="s">
         <v>694</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="3">
+      <c r="G39" s="38"/>
+      <c r="H39" s="35">
         <v>229.0</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="34"/>
       <c r="K39" s="83" t="s">
         <v>628</v>
       </c>
       <c r="L39" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="M39" s="15"/>
+      <c r="M39" s="34"/>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="25" t="s">
         <v>695</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="80" t="s">
         <v>696</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="3" t="s">
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="34"/>
       <c r="K40" s="83">
         <v>0.0</v>
       </c>
       <c r="L40" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="M40" s="15"/>
+      <c r="M40" s="34"/>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="80" t="s">
         <v>698</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="3">
+      <c r="G41" s="38"/>
+      <c r="H41" s="35">
         <v>229.0</v>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="34"/>
       <c r="K41" s="83" t="s">
         <v>150</v>
       </c>
       <c r="L41" s="84" t="s">
         <v>699</v>
       </c>
-      <c r="M41" s="15"/>
+      <c r="M41" s="34"/>
     </row>
     <row r="42">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="25" t="s">
         <v>700</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="80" t="s">
         <v>701</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="3">
+      <c r="G42" s="38"/>
+      <c r="H42" s="35">
         <v>229.0</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="34"/>
       <c r="K42" s="83" t="s">
         <v>610</v>
       </c>
       <c r="L42" s="84" t="s">
         <v>703</v>
       </c>
-      <c r="M42" s="15"/>
+      <c r="M42" s="34"/>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="80" t="s">
         <v>705</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="38"/>
+      <c r="E43" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="35" t="s">
         <v>706</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="3">
+      <c r="G43" s="38"/>
+      <c r="H43" s="35">
         <v>229.0</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="34"/>
       <c r="K43" s="83" t="s">
         <v>615</v>
       </c>
       <c r="L43" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="M43" s="15"/>
+      <c r="M43" s="34"/>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="80" t="s">
         <v>709</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="38"/>
+      <c r="E44" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="3">
+      <c r="G44" s="38"/>
+      <c r="H44" s="35">
         <v>229.0</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="34"/>
       <c r="K44" s="83" t="s">
         <v>620</v>
       </c>
       <c r="L44" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="M44" s="15"/>
+      <c r="M44" s="34"/>
     </row>
     <row r="45">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="25" t="s">
         <v>711</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="80" t="s">
         <v>712</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="35" t="s">
         <v>713</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="3">
+      <c r="G45" s="38"/>
+      <c r="H45" s="35">
         <v>229.0</v>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="34"/>
       <c r="K45" s="83" t="s">
         <v>624</v>
       </c>
       <c r="L45" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="M45" s="15"/>
+      <c r="M45" s="34"/>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="80" t="s">
         <v>715</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="38"/>
+      <c r="E46" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="3">
+      <c r="G46" s="38"/>
+      <c r="H46" s="35">
         <v>229.0</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="34"/>
       <c r="K46" s="83" t="s">
         <v>628</v>
       </c>
       <c r="L46" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="M46" s="15"/>
+      <c r="M46" s="34"/>
     </row>
     <row r="47">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="80" t="s">
         <v>718</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="38"/>
+      <c r="E47" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="3" t="s">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="34"/>
       <c r="K47" s="83">
         <v>0.0</v>
       </c>
       <c r="L47" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="M47" s="15"/>
+      <c r="M47" s="34"/>
     </row>
     <row r="48">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="80" t="s">
         <v>720</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="38"/>
+      <c r="E48" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="3">
+      <c r="G48" s="38"/>
+      <c r="H48" s="35">
         <v>229.0</v>
       </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="34"/>
       <c r="K48" s="83" t="s">
         <v>150</v>
       </c>
       <c r="L48" s="84" t="s">
         <v>721</v>
       </c>
-      <c r="M48" s="15"/>
+      <c r="M48" s="34"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="80" t="s">
         <v>723</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="3">
+      <c r="G49" s="38"/>
+      <c r="H49" s="35">
         <v>229.0</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="34"/>
       <c r="K49" s="83" t="s">
         <v>610</v>
       </c>
       <c r="L49" s="84" t="s">
         <v>725</v>
       </c>
-      <c r="M49" s="15"/>
+      <c r="M49" s="34"/>
     </row>
     <row r="50">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="80" t="s">
         <v>727</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="38"/>
+      <c r="E50" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="35" t="s">
         <v>728</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="3">
+      <c r="G50" s="38"/>
+      <c r="H50" s="35">
         <v>229.0</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="34"/>
       <c r="K50" s="83" t="s">
         <v>615</v>
       </c>
       <c r="L50" s="84" t="s">
         <v>729</v>
       </c>
-      <c r="M50" s="15"/>
+      <c r="M50" s="34"/>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="80" t="s">
         <v>731</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="35" t="s">
         <v>732</v>
       </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="3">
+      <c r="G51" s="38"/>
+      <c r="H51" s="35">
         <v>229.0</v>
       </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="34"/>
       <c r="K51" s="83" t="s">
         <v>620</v>
       </c>
       <c r="L51" s="84" t="s">
         <v>729</v>
       </c>
-      <c r="M51" s="15"/>
+      <c r="M51" s="34"/>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="80" t="s">
         <v>734</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="38"/>
+      <c r="E52" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="3">
+      <c r="G52" s="38"/>
+      <c r="H52" s="35">
         <v>229.0</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="34"/>
       <c r="K52" s="83" t="s">
         <v>624</v>
       </c>
       <c r="L52" s="84" t="s">
         <v>729</v>
       </c>
-      <c r="M52" s="15"/>
+      <c r="M52" s="34"/>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="80" t="s">
         <v>737</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="38"/>
+      <c r="E53" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="35" t="s">
         <v>738</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="3">
+      <c r="G53" s="38"/>
+      <c r="H53" s="35">
         <v>229.0</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="34"/>
       <c r="K53" s="83" t="s">
         <v>628</v>
       </c>
       <c r="L53" s="84" t="s">
         <v>729</v>
       </c>
-      <c r="M53" s="15"/>
+      <c r="M53" s="34"/>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="80" t="s">
         <v>740</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="38"/>
+      <c r="E54" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="3">
+      <c r="G54" s="38"/>
+      <c r="H54" s="35">
         <v>229.0</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="83"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="83">
+        <v>0.0</v>
+      </c>
       <c r="L54" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="M54" s="15"/>
+      <c r="M54" s="34"/>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="80" t="s">
         <v>743</v>
       </c>
-      <c r="C55" s="85" t="s">
+      <c r="C55" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="38"/>
+      <c r="E55" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="35" t="s">
         <v>744</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" s="38"/>
+      <c r="J55" s="34"/>
       <c r="K55" s="83">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="L55" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="M55" s="15"/>
+        <v>745</v>
+      </c>
+      <c r="M55" s="34"/>
     </row>
     <row r="56">
-      <c r="A56" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="B56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="B56" s="80" t="s">
+        <v>747</v>
+      </c>
+      <c r="C56" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="38"/>
+      <c r="E56" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
+      <c r="F56" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="G56" s="38"/>
+      <c r="H56" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="38"/>
+      <c r="J56" s="34"/>
       <c r="K56" s="83" t="s">
-        <v>748</v>
+        <v>180</v>
       </c>
       <c r="L56" s="84" t="s">
         <v>749</v>
       </c>
-      <c r="M56" s="15"/>
+      <c r="M56" s="34"/>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="80" t="s">
         <v>751</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="38"/>
+      <c r="E57" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="35" t="s">
         <v>752</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="38"/>
+      <c r="J57" s="34"/>
       <c r="K57" s="83" t="s">
         <v>753</v>
       </c>
       <c r="L57" s="84" t="s">
         <v>754</v>
       </c>
-      <c r="M57" s="15"/>
+      <c r="M57" s="34"/>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="80" t="s">
         <v>756</v>
       </c>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="35" t="s">
         <v>757</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I58" s="38"/>
+      <c r="J58" s="34"/>
       <c r="K58" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="L58" s="86" t="s">
+      <c r="L58" s="84" t="s">
         <v>759</v>
       </c>
-      <c r="M58" s="15"/>
+      <c r="M58" s="34"/>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
@@ -9854,10 +9879,10 @@
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="83">
+      <c r="K59" s="78">
         <v>0.0</v>
       </c>
-      <c r="L59" s="84" t="s">
+      <c r="L59" s="79" t="s">
         <v>146</v>
       </c>
       <c r="M59" s="15"/>
@@ -9869,7 +9894,7 @@
       <c r="B60" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="51" t="s">
         <v>586</v>
       </c>
       <c r="D60" s="14"/>
@@ -9880,12 +9905,12 @@
         <v>764</v>
       </c>
       <c r="G60" s="14"/>
-      <c r="H60" s="3">
-        <v>229.0</v>
+      <c r="H60" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="84" t="s">
+      <c r="K60" s="78" t="s">
         <v>765</v>
       </c>
       <c r="L60" s="26" t="s">
@@ -9913,10 +9938,10 @@
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="83">
+      <c r="K61" s="78">
         <v>0.0</v>
       </c>
-      <c r="L61" s="47" t="s">
+      <c r="L61" s="44" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9927,7 +9952,7 @@
       <c r="B62" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="51" t="s">
         <v>586</v>
       </c>
       <c r="D62" s="14"/>
@@ -9938,15 +9963,15 @@
         <v>771</v>
       </c>
       <c r="G62" s="14"/>
-      <c r="H62" s="3">
-        <v>229.0</v>
+      <c r="H62" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="83" t="s">
+      <c r="K62" s="78" t="s">
         <v>772</v>
       </c>
-      <c r="L62" s="84" t="s">
+      <c r="L62" s="79" t="s">
         <v>773</v>
       </c>
       <c r="M62" s="15"/>
@@ -9972,8 +9997,8 @@
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="84" t="s">
+      <c r="K63" s="50"/>
+      <c r="L63" s="79" t="s">
         <v>146</v>
       </c>
       <c r="M63" s="15"/>
@@ -9985,7 +10010,7 @@
       <c r="B64" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="85" t="s">
         <v>586</v>
       </c>
       <c r="D64" s="14"/>
@@ -9996,25 +10021,25 @@
         <v>778</v>
       </c>
       <c r="G64" s="14"/>
-      <c r="H64" s="3">
-        <v>229.0</v>
+      <c r="H64" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="83" t="s">
+      <c r="K64" s="78" t="s">
         <v>779</v>
       </c>
-      <c r="L64" s="84" t="s">
-        <v>780</v>
+      <c r="L64" s="79" t="s">
+        <v>766</v>
       </c>
       <c r="M64" s="15"/>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="B65" s="26" t="s">
         <v>781</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>782</v>
       </c>
       <c r="C65" s="85" t="s">
         <v>583</v>
@@ -10030,19 +10055,19 @@
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="15"/>
-      <c r="L65" s="47" t="s">
+      <c r="L65" s="44" t="s">
         <v>146</v>
       </c>
       <c r="M65" s="15"/>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="B66" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="85" t="s">
         <v>586</v>
       </c>
       <c r="D66" s="14"/>
@@ -10050,28 +10075,28 @@
         <v>504</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G66" s="14"/>
-      <c r="H66" s="3">
-        <v>229.0</v>
+      <c r="H66" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="83" t="s">
-        <v>786</v>
-      </c>
-      <c r="L66" s="84" t="s">
-        <v>787</v>
+      <c r="K66" s="78" t="s">
+        <v>758</v>
+      </c>
+      <c r="L66" s="79" t="s">
+        <v>766</v>
       </c>
       <c r="M66" s="15"/>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C67" s="85" t="s">
         <v>583</v>
@@ -10087,22 +10112,22 @@
       </c>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="83">
-        <v>5.0</v>
-      </c>
-      <c r="L67" s="84" t="s">
-        <v>151</v>
+      <c r="K67" s="78">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="79" t="s">
+        <v>156</v>
       </c>
       <c r="M67" s="15"/>
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="C68" s="54" t="s">
+        <v>788</v>
+      </c>
+      <c r="C68" s="85" t="s">
         <v>586</v>
       </c>
       <c r="D68" s="14"/>
@@ -10110,28 +10135,28 @@
         <v>508</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G68" s="14"/>
-      <c r="H68" s="3">
-        <v>229.0</v>
+      <c r="H68" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="68">
-        <v>5.0</v>
-      </c>
-      <c r="L68" s="84" t="s">
-        <v>151</v>
+      <c r="K68" s="65">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="79" t="s">
+        <v>156</v>
       </c>
       <c r="M68" s="15"/>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C69" s="85" t="s">
         <v>583</v>
@@ -10147,20 +10172,20 @@
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="68">
-        <v>5.0</v>
+      <c r="K69" s="65">
+        <v>0.0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M69" s="15"/>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C70" s="85" t="s">
         <v>586</v>
@@ -10170,28 +10195,28 @@
         <v>512</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G70" s="14"/>
-      <c r="H70" s="3">
-        <v>229.0</v>
+      <c r="H70" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="I70" s="14"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="3" t="s">
-        <v>798</v>
+      <c r="K70" s="65" t="s">
+        <v>795</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="M70" s="15"/>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C71" s="85" t="s">
         <v>583</v>
@@ -10207,20 +10232,20 @@
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="68">
-        <v>5.0</v>
+      <c r="K71" s="65">
+        <v>0.0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M71" s="15"/>
     </row>
     <row r="72">
       <c r="A72" s="12" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C72" s="85" t="s">
         <v>586</v>
@@ -10230,624 +10255,625 @@
         <v>516</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G72" s="14"/>
-      <c r="H72" s="3">
-        <v>229.0</v>
+      <c r="H72" s="35" t="s">
+        <v>216</v>
       </c>
       <c r="I72" s="14"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="3" t="s">
-        <v>798</v>
+      <c r="K72" s="65" t="s">
+        <v>795</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="M72" s="15"/>
     </row>
     <row r="73">
-      <c r="A73" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>806</v>
+      <c r="A73" s="86" t="s">
+        <v>803</v>
+      </c>
+      <c r="B73" s="87" t="s">
+        <v>804</v>
       </c>
       <c r="C73" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="88"/>
+      <c r="E73" s="89" t="s">
         <v>519</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="3" t="s">
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="68">
-        <v>5.0</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M73" s="15"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="91">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="M73" s="90"/>
     </row>
     <row r="74">
-      <c r="A74" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>808</v>
+      <c r="A74" s="86" t="s">
+        <v>805</v>
+      </c>
+      <c r="B74" s="87" t="s">
+        <v>806</v>
       </c>
       <c r="C74" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="88"/>
+      <c r="E74" s="89" t="s">
         <v>520</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="89" t="s">
+        <v>807</v>
+      </c>
+      <c r="G74" s="88"/>
+      <c r="H74" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="I74" s="88"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="91">
+        <v>0.0</v>
+      </c>
+      <c r="L74" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="M74" s="90"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="86" t="s">
+        <v>808</v>
+      </c>
+      <c r="B75" s="87" t="s">
         <v>809</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="3">
+      <c r="C75" s="85" t="s">
+        <v>583</v>
+      </c>
+      <c r="D75" s="88"/>
+      <c r="E75" s="89" t="s">
+        <v>523</v>
+      </c>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" s="88"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="91">
+        <v>0.0</v>
+      </c>
+      <c r="L75" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="M75" s="90"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="86" t="s">
+        <v>810</v>
+      </c>
+      <c r="B76" s="87" t="s">
+        <v>811</v>
+      </c>
+      <c r="C76" s="85" t="s">
+        <v>586</v>
+      </c>
+      <c r="D76" s="88"/>
+      <c r="E76" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F76" s="89" t="s">
+        <v>812</v>
+      </c>
+      <c r="G76" s="88"/>
+      <c r="H76" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="I76" s="88"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="L76" s="89" t="s">
+        <v>796</v>
+      </c>
+      <c r="M76" s="90"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="86" t="s">
+        <v>813</v>
+      </c>
+      <c r="B77" s="87" t="s">
+        <v>814</v>
+      </c>
+      <c r="C77" s="85" t="s">
+        <v>583</v>
+      </c>
+      <c r="D77" s="88"/>
+      <c r="E77" s="89" t="s">
+        <v>527</v>
+      </c>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="I77" s="88"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="91">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="M77" s="90"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="86" t="s">
+        <v>815</v>
+      </c>
+      <c r="B78" s="87" t="s">
+        <v>816</v>
+      </c>
+      <c r="C78" s="85" t="s">
+        <v>586</v>
+      </c>
+      <c r="D78" s="88"/>
+      <c r="E78" s="89" t="s">
+        <v>528</v>
+      </c>
+      <c r="F78" s="89" t="s">
+        <v>817</v>
+      </c>
+      <c r="G78" s="88"/>
+      <c r="H78" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="I78" s="88"/>
+      <c r="J78" s="90"/>
+      <c r="K78" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="L78" s="89" t="s">
+        <v>802</v>
+      </c>
+      <c r="M78" s="90"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B79" s="80" t="s">
+        <v>819</v>
+      </c>
+      <c r="C79" s="81" t="s">
+        <v>583</v>
+      </c>
+      <c r="D79" s="38"/>
+      <c r="E79" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I79" s="38"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="92">
+        <v>5.0</v>
+      </c>
+      <c r="L79" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="M79" s="34"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="B80" s="80" t="s">
+        <v>821</v>
+      </c>
+      <c r="C80" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D80" s="38"/>
+      <c r="E80" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="G80" s="93"/>
+      <c r="H80" s="35">
         <v>229.0</v>
       </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="68">
+      <c r="I80" s="38"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="92">
         <v>5.0</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L80" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="M74" s="15"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>811</v>
-      </c>
-      <c r="C75" s="54" t="s">
+      <c r="M80" s="34"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="B81" s="80" t="s">
+        <v>824</v>
+      </c>
+      <c r="C81" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D81" s="38"/>
+      <c r="E81" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="G81" s="38"/>
+      <c r="H81" s="35">
+        <v>229.0</v>
+      </c>
+      <c r="I81" s="38"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="92" t="s">
+        <v>826</v>
+      </c>
+      <c r="L81" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="M81" s="34"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="B82" s="80" t="s">
+        <v>829</v>
+      </c>
+      <c r="C82" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D82" s="38"/>
+      <c r="E82" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>830</v>
+      </c>
+      <c r="G82" s="38"/>
+      <c r="H82" s="35">
+        <v>229.0</v>
+      </c>
+      <c r="I82" s="38"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="92" t="s">
+        <v>831</v>
+      </c>
+      <c r="L82" s="35" t="s">
+        <v>832</v>
+      </c>
+      <c r="M82" s="34"/>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="B83" s="80" t="s">
+        <v>834</v>
+      </c>
+      <c r="C83" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="3" t="s">
+      <c r="D83" s="38"/>
+      <c r="E83" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="68">
+      <c r="I83" s="38"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="92">
+        <v>3.0</v>
+      </c>
+      <c r="L83" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="M83" s="34"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="B84" s="80" t="s">
+        <v>836</v>
+      </c>
+      <c r="C84" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D84" s="38"/>
+      <c r="E84" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="G84" s="38"/>
+      <c r="H84" s="35">
+        <v>229.0</v>
+      </c>
+      <c r="I84" s="38"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="L84" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="M84" s="34"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="B85" s="80" t="s">
+        <v>841</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D85" s="38"/>
+      <c r="E85" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>842</v>
+      </c>
+      <c r="G85" s="38"/>
+      <c r="H85" s="35">
+        <v>229.0</v>
+      </c>
+      <c r="I85" s="38"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="94">
+        <v>3.0</v>
+      </c>
+      <c r="L85" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="M85" s="34"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="B86" s="80" t="s">
+        <v>844</v>
+      </c>
+      <c r="C86" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D86" s="38"/>
+      <c r="E86" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="G86" s="38"/>
+      <c r="H86" s="35">
+        <v>229.0</v>
+      </c>
+      <c r="I86" s="38"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="35" t="s">
+        <v>846</v>
+      </c>
+      <c r="L86" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="M86" s="34"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="B87" s="80" t="s">
+        <v>848</v>
+      </c>
+      <c r="C87" s="81" t="s">
+        <v>583</v>
+      </c>
+      <c r="D87" s="38"/>
+      <c r="E87" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I87" s="38"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="L87" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="M87" s="34"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="B88" s="80" t="s">
+        <v>850</v>
+      </c>
+      <c r="C88" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D88" s="38"/>
+      <c r="E88" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="F88" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="G88" s="38"/>
+      <c r="H88" s="35">
+        <v>229.0</v>
+      </c>
+      <c r="I88" s="38"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="92" t="s">
+        <v>852</v>
+      </c>
+      <c r="L88" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="M88" s="34"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="B89" s="80" t="s">
+        <v>855</v>
+      </c>
+      <c r="C89" s="81" t="s">
+        <v>583</v>
+      </c>
+      <c r="D89" s="38"/>
+      <c r="E89" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I89" s="38"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="92">
+        <v>3.0</v>
+      </c>
+      <c r="L89" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="M89" s="34"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="25" t="s">
+        <v>856</v>
+      </c>
+      <c r="B90" s="80" t="s">
+        <v>857</v>
+      </c>
+      <c r="C90" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D90" s="38"/>
+      <c r="E90" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="G90" s="38"/>
+      <c r="H90" s="35">
+        <v>229.0</v>
+      </c>
+      <c r="I90" s="38"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="92" t="s">
+        <v>838</v>
+      </c>
+      <c r="L90" s="35" t="s">
+        <v>859</v>
+      </c>
+      <c r="M90" s="34"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>861</v>
+      </c>
+      <c r="C91" s="81" t="s">
+        <v>583</v>
+      </c>
+      <c r="D91" s="38"/>
+      <c r="E91" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I91" s="38"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="92">
         <v>5.0</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L91" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="M75" s="15"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="C76" s="54" t="s">
+      <c r="M91" s="34"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="95" t="s">
+        <v>862</v>
+      </c>
+      <c r="B92" s="80" t="s">
+        <v>863</v>
+      </c>
+      <c r="C92" s="81" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="3">
+      <c r="D92" s="38"/>
+      <c r="E92" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="F92" s="35" t="s">
+        <v>864</v>
+      </c>
+      <c r="G92" s="38"/>
+      <c r="H92" s="35">
         <v>229.0</v>
       </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="M76" s="15"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>816</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="68">
-        <v>5.0</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M77" s="15"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>818</v>
-      </c>
-      <c r="C78" s="54" t="s">
-        <v>586</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="M78" s="15"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>821</v>
-      </c>
-      <c r="C79" s="85" t="s">
-        <v>583</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="68">
-        <v>5.0</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M79" s="15"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>823</v>
-      </c>
-      <c r="C80" s="85" t="s">
-        <v>586</v>
-      </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="H80" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="68">
-        <v>5.0</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M80" s="15"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>826</v>
-      </c>
-      <c r="C81" s="85" t="s">
-        <v>586</v>
-      </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="68" t="s">
-        <v>828</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="M81" s="15"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="C82" s="85" t="s">
-        <v>586</v>
-      </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="G82" s="14"/>
-      <c r="H82" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="68" t="s">
-        <v>833</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="M82" s="15"/>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>583</v>
-      </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M83" s="15"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>838</v>
-      </c>
-      <c r="C84" s="85" t="s">
-        <v>586</v>
-      </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="G84" s="14"/>
-      <c r="H84" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="M84" s="15"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>843</v>
-      </c>
-      <c r="C85" s="85" t="s">
-        <v>586</v>
-      </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="G85" s="14"/>
-      <c r="H85" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="47">
-        <v>3.0</v>
-      </c>
-      <c r="L85" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="M85" s="15"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="12" t="s">
-        <v>845</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>846</v>
-      </c>
-      <c r="C86" s="85" t="s">
-        <v>586</v>
-      </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="M86" s="15"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="12" t="s">
-        <v>849</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>850</v>
-      </c>
-      <c r="C87" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M87" s="15"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="12" t="s">
-        <v>851</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>852</v>
-      </c>
-      <c r="C88" s="54" t="s">
-        <v>586</v>
-      </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="68" t="s">
-        <v>854</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="M88" s="15"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>857</v>
-      </c>
-      <c r="C89" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M89" s="15"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="12" t="s">
-        <v>858</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>859</v>
-      </c>
-      <c r="C90" s="54" t="s">
-        <v>586</v>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="G90" s="14"/>
-      <c r="H90" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I90" s="14"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="68" t="s">
-        <v>840</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="M90" s="15"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>862</v>
-      </c>
-      <c r="C91" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I91" s="14"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="68">
-        <v>5.0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M91" s="15"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="44" t="s">
-        <v>863</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>864</v>
-      </c>
-      <c r="C92" s="54" t="s">
-        <v>586</v>
-      </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="I92" s="38"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35" t="s">
         <v>865</v>
       </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="3">
-        <v>229.0</v>
-      </c>
-      <c r="I92" s="14"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="3" t="s">
+      <c r="L92" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="L92" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="M92" s="15"/>
+      <c r="M92" s="34"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -10871,20 +10897,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
+        <v>867</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>868</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>869</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -10912,10 +10938,10 @@
       <c r="A2" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
@@ -10944,10 +10970,10 @@
       <c r="A3" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
@@ -10976,9 +11002,9 @@
       <c r="A4" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="87" t="s">
-        <v>872</v>
+      <c r="C4" s="70"/>
+      <c r="D4" s="96" t="s">
+        <v>871</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
@@ -11007,9 +11033,9 @@
       <c r="A5" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="87" t="s">
-        <v>873</v>
+      <c r="C5" s="70"/>
+      <c r="D5" s="96" t="s">
+        <v>872</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
@@ -11038,9 +11064,9 @@
       <c r="A6" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="87" t="s">
-        <v>874</v>
+      <c r="C6" s="70"/>
+      <c r="D6" s="96" t="s">
+        <v>873</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
@@ -11069,10 +11095,10 @@
       <c r="A7" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="87" t="s">
-        <v>875</v>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="96" t="s">
+        <v>874</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
@@ -11098,21 +11124,21 @@
       <c r="Z7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>876</v>
+      <c r="D8" s="96" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="87" t="s">
-        <v>877</v>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="96" t="s">
+        <v>876</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
@@ -11162,28 +11188,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="74" t="s">
         <v>549</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="74" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>878</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="F1" s="97" t="s">
         <v>879</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="G1" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="54" t="s">
         <v>457</v>
       </c>
     </row>
@@ -11192,11 +11218,11 @@
         <v>233</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="89"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="15"/>
@@ -11206,11 +11232,11 @@
         <v>236</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="90"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="27"/>
       <c r="G3" s="3"/>
       <c r="H3" s="15"/>
@@ -11220,11 +11246,11 @@
         <v>244</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="90"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="27"/>
       <c r="G4" s="3"/>
       <c r="H4" s="15"/>
@@ -11234,11 +11260,11 @@
         <v>247</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="C5" s="84"/>
+        <v>884</v>
+      </c>
+      <c r="C5" s="79"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="89"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="27"/>
       <c r="G5" s="3"/>
       <c r="H5" s="15"/>
@@ -11248,11 +11274,11 @@
         <v>250</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="89"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="27"/>
       <c r="G6" s="3"/>
       <c r="H6" s="15"/>
@@ -11262,11 +11288,11 @@
         <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="89"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="27"/>
       <c r="G7" s="3"/>
       <c r="H7" s="15"/>
@@ -11276,11 +11302,11 @@
         <v>256</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="C8" s="84"/>
+        <v>887</v>
+      </c>
+      <c r="C8" s="79"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="89"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="27"/>
       <c r="G8" s="3"/>
       <c r="H8" s="15"/>
@@ -11290,11 +11316,11 @@
         <v>259</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="89"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="27"/>
       <c r="G9" s="3"/>
       <c r="H9" s="15"/>
@@ -11304,11 +11330,11 @@
         <v>262</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="89"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="27"/>
       <c r="G10" s="3"/>
       <c r="H10" s="15"/>
@@ -11318,11 +11344,11 @@
         <v>265</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="90"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="27"/>
       <c r="G11" s="3"/>
       <c r="H11" s="15"/>
@@ -11332,11 +11358,11 @@
         <v>268</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="89"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="27"/>
       <c r="G12" s="3"/>
       <c r="H12" s="15"/>
@@ -11346,11 +11372,11 @@
         <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="90"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="27"/>
       <c r="G13" s="3"/>
       <c r="H13" s="15"/>
@@ -11360,11 +11386,11 @@
         <v>274</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="90"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="27"/>
       <c r="G14" s="3"/>
       <c r="H14" s="15"/>
@@ -11374,11 +11400,11 @@
         <v>277</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="90"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="27"/>
       <c r="G15" s="3"/>
       <c r="H15" s="15"/>
@@ -11388,11 +11414,11 @@
         <v>280</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="90"/>
+      <c r="E16" s="99"/>
       <c r="F16" s="27"/>
       <c r="G16" s="3"/>
       <c r="H16" s="15"/>
@@ -11402,7 +11428,7 @@
         <v>283</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="12"/>
@@ -11416,7 +11442,7 @@
         <v>286</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="12"/>
@@ -11451,42 +11477,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="44" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="47" t="s">
+      <c r="C2" s="100" t="s">
         <v>901</v>
       </c>
-      <c r="C2" s="91" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="44" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="47" t="s">
+      <c r="C3" s="100" t="s">
         <v>903</v>
       </c>
-      <c r="C3" s="91" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="44" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="47" t="s">
+      <c r="C4" s="100" t="s">
         <v>905</v>
       </c>
-      <c r="C4" s="91" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="44" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="47" t="s">
+      <c r="C5" s="100" t="s">
         <v>907</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>908</v>
       </c>
     </row>
   </sheetData>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="932">
   <si>
     <t>id</t>
   </si>
@@ -500,7 +500,7 @@
     <t>L4 white ramus (fcolon)</t>
   </si>
   <si>
-    <t>housing#img</t>
+    <t>S41</t>
   </si>
   <si>
     <t>Inferior Mesenteric Ganglion (fcolon)</t>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>UBERON:0001155</t>
+  </si>
+  <si>
+    <t>S44, S45, S43, S46, S47, S48, S49, S50</t>
   </si>
   <si>
     <t>dcn-mp_i,dcn_mp_j,dcn_mp2_j,dcn-mp_k,dcn-mp_l, dcn-mp2_l, dcn-mp_m,dcn-mp_n,dcn-sp-o, dcn-mp-p, dcn-mp_q</t>
@@ -1899,7 +1902,7 @@
     <t>0,0,0,0</t>
   </si>
   <si>
-    <t>S40, S34, n-lumspl, housing#img</t>
+    <t>S40, S34, n-lumspl, S41</t>
   </si>
   <si>
     <t>dc-t13drg_c</t>
@@ -2280,7 +2283,7 @@
     <t>ns_lay6</t>
   </si>
   <si>
-    <t>n-lumcol,S44</t>
+    <t>n-lumcol,S42</t>
   </si>
   <si>
     <t>dc_col-lay5_c</t>
@@ -2292,7 +2295,10 @@
     <t>ns_lay4</t>
   </si>
   <si>
-    <t>n-lumcol,S44,S45, S43</t>
+    <t>0,0,1,2</t>
+  </si>
+  <si>
+    <t>n-lumcol,S42,S42, S42</t>
   </si>
   <si>
     <t>dc_col-lay3_c</t>
@@ -2304,10 +2310,10 @@
     <t>ns_lay2</t>
   </si>
   <si>
-    <t>0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>n-lumcol,S44,S45, S43, S46, S47</t>
+    <t>0,0,1,2,3,4</t>
+  </si>
+  <si>
+    <t>n-lumcol,S42,S42, S42, S42, S42</t>
   </si>
   <si>
     <t>dc_col-lay2_c</t>
@@ -2319,10 +2325,10 @@
     <t>ns_lay1</t>
   </si>
   <si>
-    <t>0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>n-lumcol,S44,S45, S43, S46, S47, S48</t>
+    <t>0,0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>n-lumcol,S42,S42, S42, S42, S42, S42</t>
   </si>
   <si>
     <t>dc-img_d</t>
@@ -2343,7 +2349,7 @@
     <t>0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>housing#img, n-lumcol, S44, S45, S43, S46, S47, S48, S52</t>
+    <t>S41, n-lumcol, S44, S45, S43, S46, S47, S48, S52</t>
   </si>
   <si>
     <t>dc-img_f</t>
@@ -2364,7 +2370,7 @@
     <t>0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>housing#img, n-lumcol, S60, S61, S62, S63, S64, S65</t>
+    <t>S41, n-lumcol, S60, S61, S62, S63, S64, S65</t>
   </si>
   <si>
     <t>dc-img_g</t>
@@ -2382,7 +2388,10 @@
     <t>ns41</t>
   </si>
   <si>
-    <t>0,0,0,0,0</t>
+    <t>0,0,0,1,2</t>
+  </si>
+  <si>
+    <t>S41, n-lumcol, S42, S42, S42</t>
   </si>
   <si>
     <t>dc-img_h</t>
@@ -2400,6 +2409,12 @@
     <t>ns44</t>
   </si>
   <si>
+    <t>0,0,0,01,2,3,4</t>
+  </si>
+  <si>
+    <t>S41, n-lumcol, S42, S42, S42, 42, S42</t>
+  </si>
+  <si>
     <t>dc-mp_i</t>
   </si>
   <si>
@@ -2430,10 +2445,10 @@
     <t>ns50</t>
   </si>
   <si>
-    <t>0, 0</t>
-  </si>
-  <si>
-    <t>S43, S45</t>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>S43, S42</t>
   </si>
   <si>
     <t>dc_mp2_j</t>
@@ -2451,7 +2466,7 @@
     <t>ns53</t>
   </si>
   <si>
-    <t>S43, S46</t>
+    <t>2,3</t>
   </si>
   <si>
     <t>dc-mp_k</t>
@@ -2484,6 +2499,9 @@
     <t>ns59</t>
   </si>
   <si>
+    <t>S42, S42</t>
+  </si>
+  <si>
     <t>dc-mp2_l</t>
   </si>
   <si>
@@ -2523,7 +2541,10 @@
     <t>ns66</t>
   </si>
   <si>
-    <t>S43, S46, S47</t>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>S42, S42, S42</t>
   </si>
   <si>
     <t>ac-mp22_m</t>
@@ -2535,7 +2556,10 @@
     <t>ns67</t>
   </si>
   <si>
-    <t>S43, S46, S47, S48</t>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>S42, S42, S42, S42</t>
   </si>
   <si>
     <t>dc-mp_n</t>
@@ -2553,7 +2577,7 @@
     <t>ns70</t>
   </si>
   <si>
-    <t>S47,S48</t>
+    <t>4,5</t>
   </si>
   <si>
     <t>ac-mp3_n</t>
@@ -2574,7 +2598,7 @@
     <t>ns72</t>
   </si>
   <si>
-    <t>S47, S46, S43</t>
+    <t>4,3,2</t>
   </si>
   <si>
     <t>dc-sp_o</t>
@@ -2592,7 +2616,10 @@
     <t>ns75</t>
   </si>
   <si>
-    <t>S47,S64</t>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>S42,S64</t>
   </si>
   <si>
     <t>dc-mp-p</t>
@@ -2610,9 +2637,6 @@
     <t>ns78</t>
   </si>
   <si>
-    <t>S47, S48</t>
-  </si>
-  <si>
     <t>dc-mp_q</t>
   </si>
   <si>
@@ -2628,10 +2652,10 @@
     <t>ns81</t>
   </si>
   <si>
-    <t>0, 0, 0, 0, 0</t>
-  </si>
-  <si>
-    <t>S43, S45, S44, n-lumcol, housing#img</t>
+    <t>2,1,0,0,0</t>
+  </si>
+  <si>
+    <t>S43, S45, S44, n-lumcol, S41</t>
   </si>
   <si>
     <t>layout</t>
@@ -2839,7 +2863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2878,7 +2902,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color rgb="FF3C4043"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -2920,6 +2944,10 @@
     <font>
       <color rgb="FF333333"/>
       <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -3005,7 +3033,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3108,9 +3136,6 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3126,8 +3151,8 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3167,9 +3192,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3237,13 +3259,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3255,28 +3277,25 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3288,22 +3307,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3603,11 +3622,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="95" t="s">
-        <v>900</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>901</v>
+      <c r="A1" s="92" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>909</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -3636,12 +3655,12 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>903</v>
-      </c>
-      <c r="C2" s="97"/>
+        <v>910</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>911</v>
+      </c>
+      <c r="C2" s="94"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -3668,12 +3687,12 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>904</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>905</v>
-      </c>
-      <c r="C3" s="97"/>
+        <v>912</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>913</v>
+      </c>
+      <c r="C3" s="94"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -3700,10 +3719,10 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>907</v>
+        <v>914</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>915</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -3732,10 +3751,10 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>909</v>
+        <v>916</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>917</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -3764,10 +3783,10 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>910</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>911</v>
+        <v>918</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>919</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3796,10 +3815,10 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>913</v>
+        <v>920</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>921</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -3828,10 +3847,10 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>915</v>
+        <v>922</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>923</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -3860,12 +3879,12 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>917</v>
-      </c>
-      <c r="C9" s="97"/>
+        <v>924</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>925</v>
+      </c>
+      <c r="C9" s="94"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -3892,12 +3911,12 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>919</v>
-      </c>
-      <c r="C10" s="97"/>
+        <v>926</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>927</v>
+      </c>
+      <c r="C10" s="94"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -3924,10 +3943,10 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>920</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>921</v>
+        <v>928</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>929</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3956,12 +3975,12 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>923</v>
-      </c>
-      <c r="C12" s="97"/>
+        <v>930</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" s="94"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -5196,7 +5215,7 @@
       <c r="L42" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M42" s="34"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -5207,41 +5226,43 @@
       <c r="A43" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="37"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="40"/>
+      <c r="K43" s="36"/>
       <c r="L43" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="M43" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
+      <c r="M43" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="15"/>
@@ -5249,12 +5270,10 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="K44" s="43"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="42"/>
       <c r="L44" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M44" s="21" t="s">
         <v>47</v>
@@ -5267,13 +5286,13 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="15"/>
@@ -5281,95 +5300,89 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44" t="s">
-        <v>162</v>
+      <c r="J45" s="13"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>47</v>
       </c>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="3"/>
       <c r="F46" s="12"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="I46" s="45"/>
+      <c r="J46" s="13"/>
       <c r="K46" s="16"/>
       <c r="L46" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="3"/>
       <c r="F47" s="12"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="I47" s="45"/>
+      <c r="J47" s="13"/>
       <c r="K47" s="16"/>
       <c r="L47" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="3"/>
@@ -5377,31 +5390,29 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="K48" s="43"/>
-      <c r="L48" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="M48" s="47">
+      <c r="J48" s="13"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="M48" s="46">
         <v>0.0</v>
       </c>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="3"/>
@@ -5409,31 +5420,29 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="K49" s="43"/>
-      <c r="L49" s="47" t="s">
-        <v>179</v>
+      <c r="J49" s="13"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="46" t="s">
+        <v>180</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="3"/>
@@ -5441,28 +5450,26 @@
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="K50" s="43"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="42"/>
       <c r="L50" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="3"/>
@@ -5470,28 +5477,26 @@
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="K51" s="43"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="42"/>
       <c r="L51" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="3" t="b">
@@ -5500,7 +5505,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
-      <c r="I52" s="46"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="13"/>
       <c r="K52" s="16"/>
       <c r="L52" s="12"/>
@@ -5513,13 +5518,13 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="15"/>
@@ -5528,7 +5533,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="43"/>
+      <c r="K53" s="42"/>
       <c r="L53" s="3"/>
       <c r="M53" s="18"/>
       <c r="N53" s="16"/>
@@ -5539,13 +5544,13 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="3" t="b">
@@ -5554,7 +5559,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="46"/>
+      <c r="I54" s="45"/>
       <c r="J54" s="15"/>
       <c r="K54" s="16"/>
       <c r="L54" s="15"/>
@@ -5567,24 +5572,24 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="3"/>
       <c r="F55" s="12"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="46"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="15"/>
       <c r="K55" s="16"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="48"/>
+      <c r="M55" s="47"/>
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
@@ -5593,20 +5598,20 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="32"/>
       <c r="F56" s="15"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="49"/>
+      <c r="I56" s="48"/>
       <c r="J56" s="15"/>
       <c r="K56" s="16"/>
       <c r="L56" s="15"/>
@@ -5619,20 +5624,20 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="32"/>
       <c r="F57" s="15"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
-      <c r="I57" s="49"/>
+      <c r="I57" s="48"/>
       <c r="J57" s="15"/>
       <c r="K57" s="16"/>
       <c r="L57" s="15"/>
@@ -5645,20 +5650,20 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="32"/>
       <c r="F58" s="15"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
-      <c r="I58" s="49"/>
+      <c r="I58" s="48"/>
       <c r="J58" s="15"/>
       <c r="K58" s="16"/>
       <c r="L58" s="15"/>
@@ -5671,20 +5676,20 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="32"/>
       <c r="F59" s="15"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
-      <c r="I59" s="49"/>
+      <c r="I59" s="48"/>
       <c r="J59" s="15"/>
       <c r="K59" s="16"/>
       <c r="L59" s="15"/>
@@ -5700,10 +5705,10 @@
         <v>24</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="50" t="s">
         <v>210</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>211</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="32" t="b">
@@ -5712,8 +5717,8 @@
       <c r="F60" s="15"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
-      <c r="I60" s="49" t="s">
-        <v>211</v>
+      <c r="I60" s="48" t="s">
+        <v>212</v>
       </c>
       <c r="J60" s="15"/>
       <c r="K60" s="16"/>
@@ -5722,23 +5727,23 @@
       <c r="N60" s="18"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
     </row>
     <row r="61">
       <c r="A61" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="50" t="s">
         <v>215</v>
       </c>
+      <c r="C61" s="49" t="s">
+        <v>216</v>
+      </c>
       <c r="D61" s="16"/>
-      <c r="E61" s="51" t="b">
+      <c r="E61" s="50" t="b">
         <v>1</v>
       </c>
       <c r="F61" s="15"/>
@@ -5756,26 +5761,26 @@
       <c r="R61" s="16"/>
     </row>
     <row r="62">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>215</v>
-      </c>
       <c r="D62" s="16"/>
-      <c r="E62" s="52" t="b">
+      <c r="E62" s="51" t="b">
         <v>1</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
-      <c r="J62" s="53">
+      <c r="J62" s="52">
         <v>229.0</v>
       </c>
       <c r="K62" s="16"/>
@@ -5788,26 +5793,26 @@
       <c r="R62" s="16"/>
     </row>
     <row r="63">
-      <c r="A63" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="B63" s="3" t="s">
         <v>220</v>
       </c>
+      <c r="C63" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="D63" s="16"/>
-      <c r="E63" s="52" t="b">
+      <c r="E63" s="51" t="b">
         <v>1</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
       <c r="I63" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="16"/>
@@ -5820,26 +5825,26 @@
       <c r="R63" s="16"/>
     </row>
     <row r="64">
-      <c r="A64" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B64" s="54" t="s">
+      <c r="A64" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="C64" s="50" t="s">
-        <v>220</v>
+      <c r="B64" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="D64" s="16"/>
-      <c r="E64" s="52" t="b">
+      <c r="E64" s="51" t="b">
         <v>1</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J64" s="15"/>
       <c r="K64" s="16"/>
@@ -5852,26 +5857,26 @@
       <c r="R64" s="16"/>
     </row>
     <row r="65">
-      <c r="A65" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="B65" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="C65" s="49" t="s">
+        <v>229</v>
+      </c>
       <c r="D65" s="16"/>
-      <c r="E65" s="52" t="b">
+      <c r="E65" s="51" t="b">
         <v>1</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
       <c r="I65" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J65" s="15"/>
       <c r="K65" s="16"/>
@@ -5884,26 +5889,26 @@
       <c r="R65" s="16"/>
     </row>
     <row r="66">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="B66" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>228</v>
-      </c>
       <c r="D66" s="16"/>
-      <c r="E66" s="52" t="b">
+      <c r="E66" s="51" t="b">
         <v>1</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="16"/>
@@ -5916,28 +5921,28 @@
       <c r="R66" s="16"/>
     </row>
     <row r="67">
-      <c r="A67" s="45" t="s">
-        <v>231</v>
+      <c r="A67" s="44" t="s">
+        <v>232</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D67" s="16"/>
-      <c r="E67" s="51" t="b">
+      <c r="E67" s="50" t="b">
         <v>1</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
       <c r="I67" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J67" s="15"/>
       <c r="K67" s="16"/>
-      <c r="L67" s="48"/>
+      <c r="L67" s="47"/>
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
       <c r="O67" s="16"/>
@@ -5946,14 +5951,14 @@
       <c r="R67" s="16"/>
     </row>
     <row r="68">
-      <c r="A68" s="45" t="s">
-        <v>162</v>
+      <c r="A68" s="44" t="s">
+        <v>163</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="15"/>
@@ -5964,7 +5969,7 @@
       <c r="J68" s="15"/>
       <c r="K68" s="16"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="48"/>
+      <c r="M68" s="47"/>
       <c r="N68" s="18"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
@@ -5972,14 +5977,14 @@
       <c r="R68" s="16"/>
     </row>
     <row r="69">
-      <c r="A69" s="45" t="s">
-        <v>236</v>
+      <c r="A69" s="44" t="s">
+        <v>237</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="15"/>
@@ -5990,7 +5995,7 @@
       <c r="J69" s="15"/>
       <c r="K69" s="16"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="48"/>
+      <c r="M69" s="47"/>
       <c r="N69" s="18"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
@@ -5998,25 +6003,25 @@
       <c r="R69" s="16"/>
     </row>
     <row r="70">
-      <c r="A70" s="45" t="s">
-        <v>158</v>
+      <c r="A70" s="44" t="s">
+        <v>159</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="15"/>
       <c r="F70" s="12"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
-      <c r="I70" s="46"/>
+      <c r="I70" s="45"/>
       <c r="J70" s="15"/>
       <c r="K70" s="16"/>
       <c r="L70" s="12"/>
-      <c r="M70" s="48"/>
+      <c r="M70" s="47"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
@@ -6024,25 +6029,25 @@
       <c r="R70" s="16"/>
     </row>
     <row r="71">
-      <c r="A71" s="45" t="s">
-        <v>239</v>
+      <c r="A71" s="44" t="s">
+        <v>240</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="15"/>
       <c r="F71" s="12"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
-      <c r="I71" s="46"/>
+      <c r="I71" s="45"/>
       <c r="J71" s="15"/>
       <c r="K71" s="16"/>
       <c r="L71" s="12"/>
-      <c r="M71" s="48"/>
+      <c r="M71" s="47"/>
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
@@ -6050,49 +6055,49 @@
       <c r="R71" s="16"/>
     </row>
     <row r="72">
-      <c r="A72" s="45" t="s">
-        <v>175</v>
+      <c r="A72" s="44" t="s">
+        <v>176</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="15"/>
       <c r="F72" s="12"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
-      <c r="I72" s="46"/>
+      <c r="I72" s="45"/>
       <c r="J72" s="15"/>
       <c r="K72" s="16"/>
       <c r="L72" s="12"/>
-      <c r="M72" s="48"/>
+      <c r="M72" s="47"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
     <row r="73">
-      <c r="A73" s="45" t="s">
-        <v>242</v>
+      <c r="A73" s="44" t="s">
+        <v>243</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="15"/>
       <c r="F73" s="12"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
-      <c r="I73" s="46"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="15"/>
       <c r="K73" s="16"/>
       <c r="L73" s="12"/>
-      <c r="M73" s="48"/>
+      <c r="M73" s="47"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
       <c r="P73" s="16"/>
@@ -6104,28 +6109,28 @@
         <v>34</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C74" s="55" t="s">
         <v>245</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="15"/>
       <c r="F74" s="12"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="54">
+      <c r="I74" s="45"/>
+      <c r="J74" s="3">
         <v>229.0</v>
       </c>
       <c r="K74" s="16"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="48"/>
+      <c r="M74" s="47"/>
       <c r="N74" s="16"/>
       <c r="O74" s="16"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R74" s="3"/>
     </row>
@@ -6134,23 +6139,23 @@
         <v>39</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C75" s="55" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="C75" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="15"/>
       <c r="F75" s="12"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="54">
+      <c r="I75" s="45"/>
+      <c r="J75" s="3">
         <v>229.0</v>
       </c>
       <c r="K75" s="16"/>
       <c r="L75" s="12"/>
-      <c r="M75" s="48"/>
+      <c r="M75" s="47"/>
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
       <c r="P75" s="16"/>
@@ -6160,28 +6165,28 @@
         <v>46</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" s="55" t="s">
-        <v>245</v>
+        <v>249</v>
+      </c>
+      <c r="C76" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="15"/>
       <c r="F76" s="12"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="54">
+      <c r="I76" s="45"/>
+      <c r="J76" s="3">
         <v>229.0</v>
       </c>
       <c r="K76" s="16"/>
       <c r="L76" s="12"/>
-      <c r="M76" s="48"/>
+      <c r="M76" s="47"/>
       <c r="N76" s="16"/>
       <c r="O76" s="16"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R76" s="3"/>
     </row>
@@ -6190,23 +6195,23 @@
         <v>51</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>245</v>
+        <v>251</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="15"/>
       <c r="F77" s="12"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="54">
+      <c r="I77" s="45"/>
+      <c r="J77" s="3">
         <v>229.0</v>
       </c>
       <c r="K77" s="16"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="48"/>
+      <c r="M77" s="47"/>
       <c r="N77" s="16"/>
       <c r="O77" s="16"/>
       <c r="P77" s="16"/>
@@ -6216,23 +6221,23 @@
         <v>55</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="55" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="15"/>
       <c r="F78" s="12"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="54">
+      <c r="I78" s="45"/>
+      <c r="J78" s="3">
         <v>229.0</v>
       </c>
       <c r="K78" s="16"/>
       <c r="L78" s="12"/>
-      <c r="M78" s="48"/>
+      <c r="M78" s="47"/>
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
       <c r="P78" s="16"/>
@@ -6244,23 +6249,23 @@
         <v>59</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="55" t="s">
-        <v>245</v>
+        <v>253</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="15"/>
       <c r="F79" s="12"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="54">
+      <c r="I79" s="45"/>
+      <c r="J79" s="3">
         <v>229.0</v>
       </c>
       <c r="K79" s="16"/>
       <c r="L79" s="12"/>
-      <c r="M79" s="48"/>
+      <c r="M79" s="47"/>
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
@@ -6272,23 +6277,23 @@
         <v>63</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80" s="55" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="15"/>
       <c r="F80" s="12"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="54">
+      <c r="I80" s="45"/>
+      <c r="J80" s="3">
         <v>229.0</v>
       </c>
       <c r="K80" s="16"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="48"/>
+      <c r="M80" s="47"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
@@ -6300,23 +6305,23 @@
         <v>67</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81" s="55" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="15"/>
       <c r="F81" s="12"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="54">
+      <c r="I81" s="45"/>
+      <c r="J81" s="3">
         <v>229.0</v>
       </c>
       <c r="K81" s="16"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="48"/>
+      <c r="M81" s="47"/>
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
@@ -6325,474 +6330,474 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="55" t="s">
-        <v>245</v>
+        <v>257</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="15"/>
       <c r="F82" s="12"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="54">
+      <c r="I82" s="45"/>
+      <c r="J82" s="3">
         <v>229.0</v>
       </c>
       <c r="K82" s="16"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="48"/>
+      <c r="M82" s="47"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="55" t="s">
-        <v>245</v>
+        <v>260</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="15"/>
       <c r="F83" s="12"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="54">
+      <c r="I83" s="45"/>
+      <c r="J83" s="3">
         <v>229.0</v>
       </c>
       <c r="K83" s="16"/>
       <c r="L83" s="12"/>
-      <c r="M83" s="48"/>
+      <c r="M83" s="47"/>
       <c r="N83" s="16"/>
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="55" t="s">
-        <v>245</v>
+        <v>263</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="15"/>
       <c r="F84" s="12"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="54">
+      <c r="I84" s="45"/>
+      <c r="J84" s="3">
         <v>229.0</v>
       </c>
       <c r="K84" s="16"/>
       <c r="L84" s="12"/>
-      <c r="M84" s="48"/>
+      <c r="M84" s="47"/>
       <c r="N84" s="16"/>
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C85" s="55" t="s">
-        <v>245</v>
+        <v>266</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="15"/>
       <c r="F85" s="12"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="54">
+      <c r="I85" s="45"/>
+      <c r="J85" s="3">
         <v>229.0</v>
       </c>
       <c r="K85" s="16"/>
       <c r="L85" s="12"/>
-      <c r="M85" s="48"/>
+      <c r="M85" s="47"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="C86" s="55" t="s">
-        <v>245</v>
+        <v>269</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="15"/>
       <c r="F86" s="12"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="54">
+      <c r="I86" s="45"/>
+      <c r="J86" s="3">
         <v>229.0</v>
       </c>
       <c r="K86" s="16"/>
       <c r="L86" s="12"/>
-      <c r="M86" s="48"/>
+      <c r="M86" s="47"/>
       <c r="N86" s="16"/>
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
       <c r="Q86" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="55" t="s">
-        <v>245</v>
+        <v>272</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="15"/>
       <c r="F87" s="12"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="54">
+      <c r="I87" s="45"/>
+      <c r="J87" s="3">
         <v>229.0</v>
       </c>
       <c r="K87" s="16"/>
       <c r="L87" s="12"/>
-      <c r="M87" s="48"/>
+      <c r="M87" s="47"/>
       <c r="N87" s="16"/>
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
       <c r="Q87" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C88" s="55" t="s">
-        <v>245</v>
+        <v>275</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="15"/>
       <c r="F88" s="12"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="54">
+      <c r="I88" s="45"/>
+      <c r="J88" s="3">
         <v>229.0</v>
       </c>
       <c r="K88" s="16"/>
       <c r="L88" s="12"/>
-      <c r="M88" s="48"/>
+      <c r="M88" s="47"/>
       <c r="N88" s="16"/>
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
       <c r="Q88" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="C89" s="55" t="s">
-        <v>245</v>
+        <v>278</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="15"/>
       <c r="F89" s="12"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="54">
+      <c r="I89" s="45"/>
+      <c r="J89" s="3">
         <v>229.0</v>
       </c>
       <c r="K89" s="16"/>
       <c r="L89" s="12"/>
-      <c r="M89" s="48"/>
+      <c r="M89" s="47"/>
       <c r="N89" s="16"/>
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
       <c r="Q89" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="55" t="s">
-        <v>245</v>
+        <v>281</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="15"/>
       <c r="F90" s="12"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="54">
+      <c r="I90" s="45"/>
+      <c r="J90" s="3">
         <v>229.0</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="12"/>
-      <c r="M90" s="48"/>
+      <c r="M90" s="47"/>
       <c r="N90" s="16"/>
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
       <c r="Q90" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="C91" s="55" t="s">
-        <v>245</v>
+        <v>284</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="15"/>
       <c r="F91" s="12"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="54">
+      <c r="I91" s="45"/>
+      <c r="J91" s="3">
         <v>229.0</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="48"/>
+      <c r="M91" s="47"/>
       <c r="N91" s="16"/>
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
       <c r="Q91" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C92" s="55" t="s">
-        <v>245</v>
+        <v>287</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="15"/>
       <c r="F92" s="12"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="54">
+      <c r="I92" s="45"/>
+      <c r="J92" s="3">
         <v>229.0</v>
       </c>
       <c r="K92" s="16"/>
       <c r="L92" s="12"/>
-      <c r="M92" s="48"/>
+      <c r="M92" s="47"/>
       <c r="N92" s="16"/>
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
       <c r="Q92" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" s="55" t="s">
-        <v>245</v>
+        <v>290</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="15"/>
       <c r="F93" s="12"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="54">
+      <c r="I93" s="45"/>
+      <c r="J93" s="3">
         <v>229.0</v>
       </c>
       <c r="K93" s="16"/>
       <c r="L93" s="12"/>
-      <c r="M93" s="48"/>
+      <c r="M93" s="47"/>
       <c r="N93" s="16"/>
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
       <c r="Q93" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C94" s="55" t="s">
-        <v>245</v>
+        <v>293</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="15"/>
       <c r="F94" s="12"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="54">
+      <c r="I94" s="45"/>
+      <c r="J94" s="3">
         <v>229.0</v>
       </c>
       <c r="K94" s="16"/>
       <c r="L94" s="12"/>
-      <c r="M94" s="48"/>
+      <c r="M94" s="47"/>
       <c r="N94" s="16"/>
       <c r="O94" s="16"/>
       <c r="P94" s="16"/>
       <c r="Q94" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="C95" s="55" t="s">
-        <v>245</v>
+        <v>296</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="15"/>
       <c r="F95" s="12"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="54">
+      <c r="I95" s="45"/>
+      <c r="J95" s="3">
         <v>229.0</v>
       </c>
       <c r="K95" s="16"/>
       <c r="L95" s="12"/>
-      <c r="M95" s="48"/>
+      <c r="M95" s="47"/>
       <c r="N95" s="16"/>
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
       <c r="Q95" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C96" s="55" t="s">
-        <v>245</v>
+        <v>299</v>
+      </c>
+      <c r="C96" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="15"/>
       <c r="F96" s="12"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="54">
+      <c r="I96" s="45"/>
+      <c r="J96" s="3">
         <v>229.0</v>
       </c>
       <c r="K96" s="16"/>
       <c r="L96" s="12"/>
-      <c r="M96" s="48"/>
+      <c r="M96" s="47"/>
       <c r="N96" s="16"/>
       <c r="O96" s="16"/>
       <c r="P96" s="16"/>
       <c r="Q96" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="15"/>
       <c r="F97" s="12"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
-      <c r="I97" s="46"/>
+      <c r="I97" s="45"/>
       <c r="J97" s="15"/>
       <c r="K97" s="16"/>
       <c r="L97" s="12"/>
-      <c r="M97" s="48"/>
+      <c r="M97" s="47"/>
       <c r="N97" s="16"/>
       <c r="O97" s="16"/>
       <c r="P97" s="16"/>
@@ -6801,24 +6806,24 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="15"/>
       <c r="F98" s="12"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
-      <c r="I98" s="46"/>
+      <c r="I98" s="45"/>
       <c r="J98" s="15"/>
       <c r="K98" s="16"/>
       <c r="L98" s="12"/>
-      <c r="M98" s="48"/>
+      <c r="M98" s="47"/>
       <c r="N98" s="16"/>
       <c r="O98" s="16"/>
       <c r="P98" s="16"/>
@@ -6843,16 +6848,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -6867,13 +6872,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -6911,13 +6916,13 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -6933,10 +6938,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -6950,10 +6955,10 @@
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>318</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -6967,10 +6972,10 @@
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -6984,10 +6989,10 @@
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -7013,10 +7018,10 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7030,10 +7035,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="56" t="s">
         <v>324</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>325</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -7047,10 +7052,10 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" s="56" t="s">
         <v>326</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>327</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -7064,10 +7069,10 @@
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="56" t="s">
         <v>328</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>329</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7081,10 +7086,10 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="B15" s="56" t="s">
         <v>330</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>331</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -7098,10 +7103,10 @@
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="B16" s="56" t="s">
         <v>332</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>333</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7115,10 +7120,10 @@
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B17" s="56" t="s">
         <v>334</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>335</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -7145,9 +7150,9 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="16"/>
@@ -7162,27 +7167,27 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22">
@@ -7204,69 +7209,69 @@
       <c r="A27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="59" t="s">
+      <c r="A28" s="56" t="s">
         <v>340</v>
       </c>
+      <c r="B28" s="57" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+      <c r="B29" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
     </row>
     <row r="30">
-      <c r="A30" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
+      <c r="B30" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="16"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7303,508 +7308,508 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>349</v>
       </c>
+      <c r="C2" s="49" t="s">
+        <v>350</v>
+      </c>
       <c r="D2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>352</v>
       </c>
+      <c r="C3" s="49" t="s">
+        <v>353</v>
+      </c>
       <c r="D3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
-        <v>353</v>
+      <c r="A4" s="62" t="s">
+        <v>354</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="C4" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="49"/>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
-        <v>356</v>
+      <c r="A5" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C5" s="50" t="s">
         <v>358</v>
       </c>
+      <c r="C5" s="49" t="s">
+        <v>359</v>
+      </c>
       <c r="D5" s="17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="64" t="s">
-        <v>359</v>
+      <c r="A6" s="62" t="s">
+        <v>360</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="65" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="62" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="62" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="64" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="64" t="s">
-        <v>378</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="64" t="s">
-        <v>387</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>403</v>
-      </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>406</v>
-      </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="64" t="s">
-        <v>407</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" s="64" t="s">
-        <v>413</v>
-      </c>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="62" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>415</v>
       </c>
+      <c r="C24" s="49" t="s">
+        <v>416</v>
+      </c>
       <c r="D24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="64" t="s">
-        <v>416</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="62" t="s">
         <v>417</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>418</v>
       </c>
+      <c r="C25" s="49" t="s">
+        <v>419</v>
+      </c>
       <c r="D25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="68" t="s">
-        <v>419</v>
+      <c r="A26" s="66" t="s">
+        <v>420</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D26" s="24"/>
     </row>
     <row r="27">
-      <c r="A27" s="68" t="s">
-        <v>422</v>
+      <c r="A27" s="66" t="s">
+        <v>423</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D27" s="24"/>
     </row>
     <row r="28">
-      <c r="A28" s="68" t="s">
-        <v>425</v>
+      <c r="A28" s="66" t="s">
+        <v>426</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D28" s="24"/>
     </row>
     <row r="29">
-      <c r="A29" s="68" t="s">
-        <v>428</v>
+      <c r="A29" s="66" t="s">
+        <v>429</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D29" s="24"/>
     </row>
     <row r="30">
-      <c r="A30" s="68" t="s">
-        <v>431</v>
+      <c r="A30" s="66" t="s">
+        <v>432</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D30" s="24"/>
     </row>
     <row r="31">
-      <c r="A31" s="68" t="s">
-        <v>434</v>
+      <c r="A31" s="66" t="s">
+        <v>435</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D31" s="24"/>
     </row>
     <row r="32">
-      <c r="A32" s="68" t="s">
-        <v>437</v>
+      <c r="A32" s="66" t="s">
+        <v>438</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D32" s="24"/>
     </row>
     <row r="33">
-      <c r="A33" s="68" t="s">
-        <v>440</v>
+      <c r="A33" s="66" t="s">
+        <v>441</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D33" s="24"/>
     </row>
     <row r="34">
-      <c r="A34" s="68" t="s">
-        <v>443</v>
+      <c r="A34" s="66" t="s">
+        <v>444</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D34" s="24"/>
     </row>
     <row r="35">
-      <c r="A35" s="68" t="s">
-        <v>446</v>
+      <c r="A35" s="66" t="s">
+        <v>447</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D35" s="24"/>
     </row>
     <row r="36">
-      <c r="A36" s="69" t="s">
-        <v>449</v>
+      <c r="A36" s="67" t="s">
+        <v>450</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C36" s="70" t="s">
         <v>451</v>
       </c>
+      <c r="C36" s="68" t="s">
+        <v>452</v>
+      </c>
       <c r="D36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="69" t="s">
-        <v>452</v>
+      <c r="A37" s="67" t="s">
+        <v>453</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="C37" s="70" t="s">
         <v>454</v>
       </c>
+      <c r="C37" s="68" t="s">
+        <v>455</v>
+      </c>
       <c r="D37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="69" t="s">
-        <v>455</v>
+      <c r="A38" s="67" t="s">
+        <v>456</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C38" s="70" t="s">
         <v>457</v>
       </c>
+      <c r="C38" s="68" t="s">
+        <v>458</v>
+      </c>
       <c r="D38" s="16"/>
     </row>
     <row r="39">
-      <c r="A39" s="69" t="s">
-        <v>458</v>
+      <c r="A39" s="67" t="s">
+        <v>459</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C39" s="71" t="s">
-        <v>459</v>
+        <v>352</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>460</v>
       </c>
       <c r="D39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="69" t="s">
-        <v>460</v>
+      <c r="A40" s="67" t="s">
+        <v>461</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="C40" s="71" t="s">
         <v>462</v>
       </c>
+      <c r="C40" s="69" t="s">
+        <v>463</v>
+      </c>
       <c r="D40" s="16"/>
     </row>
     <row r="41">
-      <c r="A41" s="69" t="s">
-        <v>463</v>
+      <c r="A41" s="67" t="s">
+        <v>464</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C41" s="72" t="s">
         <v>465</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>466</v>
       </c>
       <c r="D41" s="16"/>
     </row>
@@ -7833,463 +7838,463 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="72" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="D1" s="72" t="s">
         <v>468</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="74" t="s">
-        <v>469</v>
+      <c r="G1" s="72" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="B4" s="76" t="s">
         <v>479</v>
       </c>
+      <c r="B4" s="74" t="s">
+        <v>480</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="B5" s="76" t="s">
         <v>483</v>
       </c>
+      <c r="B5" s="74" t="s">
+        <v>484</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B6" s="76" t="s">
         <v>487</v>
       </c>
+      <c r="B6" s="74" t="s">
+        <v>488</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B7" s="76" t="s">
         <v>491</v>
       </c>
+      <c r="B7" s="74" t="s">
+        <v>492</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="B8" s="76" t="s">
         <v>495</v>
       </c>
+      <c r="B8" s="74" t="s">
+        <v>496</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B9" s="76" t="s">
         <v>499</v>
       </c>
+      <c r="B9" s="74" t="s">
+        <v>500</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="B10" s="76" t="s">
         <v>503</v>
       </c>
+      <c r="B10" s="74" t="s">
+        <v>504</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="75"/>
+        <v>256</v>
+      </c>
+      <c r="F10" s="73"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B11" s="76" t="s">
         <v>507</v>
       </c>
+      <c r="B11" s="74" t="s">
+        <v>508</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="75"/>
+        <v>259</v>
+      </c>
+      <c r="F11" s="73"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="B12" s="76" t="s">
         <v>511</v>
       </c>
+      <c r="B12" s="74" t="s">
+        <v>512</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="75"/>
+        <v>262</v>
+      </c>
+      <c r="F12" s="73"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="B14" s="76" t="s">
         <v>518</v>
       </c>
+      <c r="B14" s="74" t="s">
+        <v>519</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" s="75"/>
+        <v>268</v>
+      </c>
+      <c r="F14" s="73"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="B15" s="76" t="s">
         <v>522</v>
       </c>
+      <c r="B15" s="74" t="s">
+        <v>523</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F15" s="75"/>
+        <v>271</v>
+      </c>
+      <c r="F15" s="73"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="76" t="s">
         <v>526</v>
       </c>
+      <c r="B16" s="74" t="s">
+        <v>527</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="75"/>
+        <v>274</v>
+      </c>
+      <c r="F16" s="73"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="75"/>
+        <v>277</v>
+      </c>
+      <c r="F17" s="73"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="B18" s="76" t="s">
         <v>534</v>
       </c>
+      <c r="B18" s="74" t="s">
+        <v>535</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="75"/>
+        <v>280</v>
+      </c>
+      <c r="F18" s="73"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B19" s="76" t="s">
         <v>538</v>
       </c>
+      <c r="B19" s="74" t="s">
+        <v>539</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="75"/>
+        <v>283</v>
+      </c>
+      <c r="F19" s="73"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="B20" s="76" t="s">
         <v>542</v>
       </c>
+      <c r="B20" s="74" t="s">
+        <v>543</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" s="75"/>
+        <v>286</v>
+      </c>
+      <c r="F20" s="73"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="B21" s="76" t="s">
         <v>546</v>
       </c>
+      <c r="B21" s="74" t="s">
+        <v>547</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="F21" s="75"/>
+        <v>289</v>
+      </c>
+      <c r="F21" s="73"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="B22" s="76" t="s">
         <v>550</v>
       </c>
+      <c r="B22" s="74" t="s">
+        <v>551</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="F22" s="75"/>
+        <v>292</v>
+      </c>
+      <c r="F22" s="73"/>
       <c r="G22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="B23" s="76" t="s">
         <v>554</v>
       </c>
+      <c r="B23" s="74" t="s">
+        <v>555</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="75"/>
+        <v>295</v>
+      </c>
+      <c r="F23" s="73"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="B24" s="76" t="s">
         <v>558</v>
       </c>
+      <c r="B24" s="74" t="s">
+        <v>559</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="F24" s="75"/>
+        <v>298</v>
+      </c>
+      <c r="F24" s="73"/>
       <c r="G24" s="15"/>
     </row>
   </sheetData>
@@ -8324,66 +8329,66 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
-        <v>561</v>
-      </c>
-      <c r="E1" s="74" t="s">
+      <c r="D1" s="72" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="72" t="s">
         <v>563</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="F1" s="72" t="s">
+        <v>564</v>
+      </c>
+      <c r="G1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="74" t="s">
-        <v>564</v>
-      </c>
-      <c r="I1" s="74" t="s">
+      <c r="H1" s="72" t="s">
         <v>565</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="I1" s="72" t="s">
         <v>566</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="J1" s="77" t="s">
         <v>567</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="K1" s="76" t="s">
         <v>568</v>
       </c>
+      <c r="L1" s="76" t="s">
+        <v>569</v>
+      </c>
       <c r="M1" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="C2" s="38" t="s">
         <v>571</v>
       </c>
+      <c r="C2" s="37" t="s">
+        <v>572</v>
+      </c>
       <c r="D2" s="28" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G2" s="75"/>
+        <v>575</v>
+      </c>
+      <c r="G2" s="73"/>
       <c r="H2" s="3"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
@@ -8393,24 +8398,24 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" s="80" t="s">
         <v>577</v>
       </c>
+      <c r="C3" s="78" t="s">
+        <v>578</v>
+      </c>
       <c r="D3" s="28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="G3" s="75"/>
+        <v>581</v>
+      </c>
+      <c r="G3" s="73"/>
       <c r="H3" s="3"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
@@ -8420,24 +8425,24 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="C4" s="80" t="s">
         <v>583</v>
       </c>
+      <c r="C4" s="78" t="s">
+        <v>584</v>
+      </c>
       <c r="D4" s="28" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G4" s="75"/>
+        <v>587</v>
+      </c>
+      <c r="G4" s="73"/>
       <c r="H4" s="3"/>
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
@@ -8446,23 +8451,23 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
-        <v>587</v>
+      <c r="A5" s="13" t="s">
+        <v>588</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="79" t="s">
         <v>146</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="75"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="3"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
@@ -8472,10 +8477,10 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>152</v>
@@ -8484,10 +8489,10 @@
         <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="75"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="3"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
@@ -8497,22 +8502,22 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>594</v>
-      </c>
-      <c r="C7" s="55" t="s">
         <v>595</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>596</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="75"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
@@ -8526,53 +8531,53 @@
     </row>
     <row r="8" ht="20.25" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="C8" s="55" t="s">
         <v>598</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="C8" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="80"/>
       <c r="E8" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54" t="s">
-        <v>223</v>
+        <v>600</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="L8" s="54" t="s">
         <v>601</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="M8" s="16"/>
     </row>
     <row r="9" ht="20.25" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>595</v>
-      </c>
-      <c r="D9" s="82"/>
+        <v>604</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>596</v>
+      </c>
+      <c r="D9" s="80"/>
       <c r="E9" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
@@ -8586,2350 +8591,2350 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>598</v>
-      </c>
-      <c r="D10" s="82"/>
+        <v>606</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="D10" s="80"/>
       <c r="E10" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="83" t="s">
-        <v>606</v>
-      </c>
-      <c r="L10" s="84" t="s">
+      <c r="K10" s="81" t="s">
         <v>607</v>
+      </c>
+      <c r="L10" s="82" t="s">
+        <v>608</v>
       </c>
       <c r="M10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>598</v>
-      </c>
-      <c r="D11" s="82"/>
+        <v>610</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" s="80"/>
       <c r="E11" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="83" t="s">
-        <v>611</v>
-      </c>
-      <c r="L11" s="84" t="s">
+      <c r="K11" s="81" t="s">
         <v>612</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>613</v>
       </c>
       <c r="M11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>595</v>
-      </c>
-      <c r="D12" s="82"/>
+        <v>615</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" s="80"/>
       <c r="E12" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="86">
+      <c r="K12" s="81">
         <v>0.0</v>
       </c>
-      <c r="L12" s="84" t="s">
+      <c r="L12" s="82" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>617</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D13" s="82"/>
+        <v>618</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" s="80"/>
       <c r="E13" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="86" t="s">
-        <v>619</v>
-      </c>
-      <c r="L13" s="84" t="s">
+      <c r="K13" s="81" t="s">
         <v>620</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>621</v>
       </c>
       <c r="M13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>622</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D14" s="82"/>
+        <v>623</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D14" s="80"/>
       <c r="E14" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="86" t="s">
-        <v>624</v>
-      </c>
-      <c r="L14" s="84" t="s">
+      <c r="K14" s="81" t="s">
         <v>625</v>
+      </c>
+      <c r="L14" s="82" t="s">
+        <v>626</v>
       </c>
       <c r="M14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>627</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D15" s="82"/>
+        <v>628</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D15" s="80"/>
       <c r="E15" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="86" t="s">
-        <v>629</v>
-      </c>
-      <c r="L15" s="84" t="s">
-        <v>625</v>
+      <c r="K15" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L15" s="82" t="s">
+        <v>626</v>
       </c>
       <c r="M15" s="16"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>631</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D16" s="82"/>
+        <v>632</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D16" s="80"/>
       <c r="E16" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="86" t="s">
-        <v>633</v>
-      </c>
-      <c r="L16" s="84" t="s">
-        <v>625</v>
+      <c r="K16" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L16" s="82" t="s">
+        <v>626</v>
       </c>
       <c r="M16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D17" s="82"/>
+        <v>636</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D17" s="80"/>
       <c r="E17" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="86" t="s">
-        <v>637</v>
-      </c>
-      <c r="L17" s="84" t="s">
-        <v>625</v>
+      <c r="K17" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>626</v>
       </c>
       <c r="M17" s="16"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>639</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>595</v>
-      </c>
-      <c r="D18" s="82"/>
+        <v>640</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>596</v>
+      </c>
+      <c r="D18" s="80"/>
       <c r="E18" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="86">
+      <c r="K18" s="81">
         <v>0.0</v>
       </c>
-      <c r="L18" s="84" t="s">
+      <c r="L18" s="82" t="s">
         <v>48</v>
       </c>
       <c r="M18" s="16"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>641</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D19" s="82"/>
+        <v>642</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19" s="80"/>
       <c r="E19" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="86" t="s">
-        <v>619</v>
-      </c>
-      <c r="L19" s="84" t="s">
-        <v>643</v>
+      <c r="K19" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="L19" s="82" t="s">
+        <v>644</v>
       </c>
       <c r="M19" s="16"/>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D20" s="82"/>
+        <v>646</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D20" s="80"/>
       <c r="E20" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="86" t="s">
-        <v>624</v>
-      </c>
-      <c r="L20" s="84" t="s">
-        <v>647</v>
+      <c r="K20" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="L20" s="82" t="s">
+        <v>648</v>
       </c>
       <c r="M20" s="16"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D21" s="82"/>
+        <v>650</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D21" s="80"/>
       <c r="E21" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="86" t="s">
-        <v>629</v>
-      </c>
-      <c r="L21" s="84" t="s">
-        <v>647</v>
+      <c r="K21" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L21" s="82" t="s">
+        <v>648</v>
       </c>
       <c r="M21" s="16"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>652</v>
-      </c>
-      <c r="C22" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D22" s="82"/>
+        <v>653</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D22" s="80"/>
       <c r="E22" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="86" t="s">
-        <v>633</v>
-      </c>
-      <c r="L22" s="84" t="s">
-        <v>647</v>
+      <c r="K22" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L22" s="82" t="s">
+        <v>648</v>
       </c>
       <c r="M22" s="16"/>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>655</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>598</v>
-      </c>
-      <c r="D23" s="82"/>
+        <v>656</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D23" s="80"/>
       <c r="E23" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="86" t="s">
-        <v>637</v>
-      </c>
-      <c r="L23" s="84" t="s">
-        <v>647</v>
+      <c r="K23" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="L23" s="82" t="s">
+        <v>648</v>
       </c>
       <c r="M23" s="16"/>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>595</v>
-      </c>
-      <c r="D24" s="82"/>
+        <v>659</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" s="80"/>
       <c r="E24" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="86">
+      <c r="K24" s="81">
         <v>0.0</v>
       </c>
-      <c r="L24" s="84" t="s">
+      <c r="L24" s="82" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="16"/>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="C25" s="85" t="s">
-        <v>598</v>
+        <v>661</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="86" t="s">
-        <v>619</v>
-      </c>
-      <c r="L25" s="84" t="s">
-        <v>662</v>
+      <c r="K25" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="L25" s="82" t="s">
+        <v>663</v>
       </c>
       <c r="M25" s="16"/>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>598</v>
+        <v>665</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="86" t="s">
-        <v>624</v>
-      </c>
-      <c r="L26" s="84" t="s">
-        <v>666</v>
+      <c r="K26" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="L26" s="82" t="s">
+        <v>667</v>
       </c>
       <c r="M26" s="16"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>668</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>598</v>
+        <v>669</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="86" t="s">
-        <v>629</v>
-      </c>
-      <c r="L27" s="84" t="s">
-        <v>666</v>
+      <c r="K27" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L27" s="82" t="s">
+        <v>667</v>
       </c>
       <c r="M27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>671</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>598</v>
+        <v>672</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="86" t="s">
-        <v>633</v>
-      </c>
-      <c r="L28" s="84" t="s">
-        <v>666</v>
+      <c r="K28" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L28" s="82" t="s">
+        <v>667</v>
       </c>
       <c r="M28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>674</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>598</v>
+        <v>675</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="86" t="s">
-        <v>637</v>
-      </c>
-      <c r="L29" s="84" t="s">
-        <v>666</v>
+      <c r="K29" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="L29" s="82" t="s">
+        <v>667</v>
       </c>
       <c r="M29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="C30" s="85" t="s">
-        <v>595</v>
+        <v>678</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="86">
+      <c r="K30" s="81">
         <v>0.0</v>
       </c>
-      <c r="L30" s="84" t="s">
+      <c r="L30" s="82" t="s">
         <v>73</v>
       </c>
       <c r="M30" s="16"/>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>598</v>
+        <v>680</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="86" t="s">
-        <v>619</v>
-      </c>
-      <c r="L31" s="84" t="s">
-        <v>681</v>
+      <c r="K31" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="L31" s="82" t="s">
+        <v>682</v>
       </c>
       <c r="M31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="C32" s="85" t="s">
-        <v>598</v>
+        <v>684</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="86" t="s">
-        <v>624</v>
-      </c>
-      <c r="L32" s="84" t="s">
-        <v>685</v>
+      <c r="K32" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="L32" s="82" t="s">
+        <v>686</v>
       </c>
       <c r="M32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>687</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>598</v>
+        <v>688</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="86" t="s">
-        <v>629</v>
-      </c>
-      <c r="L33" s="84" t="s">
-        <v>685</v>
+      <c r="K33" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L33" s="82" t="s">
+        <v>686</v>
       </c>
       <c r="M33" s="16"/>
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>690</v>
-      </c>
-      <c r="C34" s="85" t="s">
-        <v>598</v>
+        <v>691</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="86" t="s">
-        <v>633</v>
-      </c>
-      <c r="L34" s="84" t="s">
-        <v>685</v>
+      <c r="K34" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L34" s="82" t="s">
+        <v>686</v>
       </c>
       <c r="M34" s="16"/>
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>598</v>
+        <v>694</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="86" t="s">
-        <v>637</v>
-      </c>
-      <c r="L35" s="84" t="s">
-        <v>685</v>
+      <c r="K35" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="L35" s="82" t="s">
+        <v>686</v>
       </c>
       <c r="M35" s="16"/>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="C36" s="85" t="s">
-        <v>595</v>
+        <v>697</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="86">
+      <c r="K36" s="81">
         <v>0.0</v>
       </c>
-      <c r="L36" s="84" t="s">
+      <c r="L36" s="82" t="s">
         <v>60</v>
       </c>
       <c r="M36" s="16"/>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>698</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>598</v>
+        <v>699</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="86" t="s">
-        <v>619</v>
-      </c>
-      <c r="L37" s="84" t="s">
-        <v>700</v>
+      <c r="K37" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="L37" s="82" t="s">
+        <v>701</v>
       </c>
       <c r="M37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>598</v>
+        <v>703</v>
+      </c>
+      <c r="C38" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="86" t="s">
-        <v>624</v>
-      </c>
-      <c r="L38" s="84" t="s">
-        <v>704</v>
+      <c r="K38" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="L38" s="82" t="s">
+        <v>705</v>
       </c>
       <c r="M38" s="16"/>
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>598</v>
+        <v>707</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="86" t="s">
-        <v>629</v>
-      </c>
-      <c r="L39" s="84" t="s">
-        <v>704</v>
+      <c r="K39" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L39" s="82" t="s">
+        <v>705</v>
       </c>
       <c r="M39" s="16"/>
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="C40" s="85" t="s">
-        <v>598</v>
+        <v>710</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="86" t="s">
-        <v>633</v>
-      </c>
-      <c r="L40" s="84" t="s">
-        <v>704</v>
+      <c r="K40" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L40" s="82" t="s">
+        <v>705</v>
       </c>
       <c r="M40" s="16"/>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="C41" s="85" t="s">
-        <v>598</v>
+        <v>713</v>
+      </c>
+      <c r="C41" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="86" t="s">
-        <v>637</v>
-      </c>
-      <c r="L41" s="84" t="s">
-        <v>704</v>
+      <c r="K41" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="L41" s="82" t="s">
+        <v>705</v>
       </c>
       <c r="M41" s="16"/>
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="C42" s="85" t="s">
-        <v>595</v>
+        <v>716</v>
+      </c>
+      <c r="C42" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="86">
+      <c r="K42" s="81">
         <v>0.0</v>
       </c>
-      <c r="L42" s="84" t="s">
+      <c r="L42" s="82" t="s">
         <v>64</v>
       </c>
       <c r="M42" s="16"/>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="C43" s="85" t="s">
-        <v>598</v>
+        <v>718</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="86" t="s">
-        <v>619</v>
-      </c>
-      <c r="L43" s="84" t="s">
-        <v>719</v>
+      <c r="K43" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="L43" s="82" t="s">
+        <v>720</v>
       </c>
       <c r="M43" s="16"/>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>721</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>598</v>
+        <v>722</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="86" t="s">
-        <v>624</v>
-      </c>
-      <c r="L44" s="84" t="s">
-        <v>723</v>
+      <c r="K44" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="L44" s="82" t="s">
+        <v>724</v>
       </c>
       <c r="M44" s="16"/>
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>725</v>
-      </c>
-      <c r="C45" s="85" t="s">
-        <v>598</v>
+        <v>726</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="86" t="s">
-        <v>629</v>
-      </c>
-      <c r="L45" s="84" t="s">
-        <v>723</v>
+      <c r="K45" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L45" s="82" t="s">
+        <v>724</v>
       </c>
       <c r="M45" s="16"/>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="C46" s="85" t="s">
-        <v>598</v>
+        <v>729</v>
+      </c>
+      <c r="C46" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="86" t="s">
-        <v>633</v>
-      </c>
-      <c r="L46" s="84" t="s">
-        <v>723</v>
+      <c r="K46" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L46" s="82" t="s">
+        <v>724</v>
       </c>
       <c r="M46" s="16"/>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="C47" s="85" t="s">
-        <v>598</v>
+        <v>732</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="86" t="s">
-        <v>637</v>
-      </c>
-      <c r="L47" s="84" t="s">
-        <v>723</v>
+      <c r="K47" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="L47" s="82" t="s">
+        <v>724</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="C48" s="85" t="s">
-        <v>598</v>
+        <v>735</v>
+      </c>
+      <c r="C48" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="86">
+      <c r="K48" s="81">
         <v>0.0</v>
       </c>
-      <c r="L48" s="84" t="s">
-        <v>303</v>
+      <c r="L48" s="82" t="s">
+        <v>304</v>
       </c>
       <c r="M48" s="16"/>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="C49" s="85" t="s">
-        <v>598</v>
+        <v>738</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="L49" s="84" t="s">
-        <v>739</v>
+      <c r="K49" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="L49" s="82" t="s">
+        <v>740</v>
       </c>
       <c r="M49" s="16"/>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>741</v>
-      </c>
-      <c r="C50" s="85" t="s">
-        <v>598</v>
+        <v>742</v>
+      </c>
+      <c r="C50" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="L50" s="84" t="s">
-        <v>743</v>
+      <c r="K50" s="81" t="s">
+        <v>744</v>
+      </c>
+      <c r="L50" s="82" t="s">
+        <v>745</v>
       </c>
       <c r="M50" s="16"/>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>745</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>598</v>
+        <v>747</v>
+      </c>
+      <c r="C51" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="86" t="s">
-        <v>747</v>
-      </c>
-      <c r="L51" s="84" t="s">
-        <v>748</v>
+      <c r="K51" s="81" t="s">
+        <v>749</v>
+      </c>
+      <c r="L51" s="82" t="s">
+        <v>750</v>
       </c>
       <c r="M51" s="16"/>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="C52" s="85" t="s">
-        <v>598</v>
+        <v>752</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="86" t="s">
-        <v>752</v>
-      </c>
-      <c r="L52" s="84" t="s">
-        <v>753</v>
+      <c r="K52" s="81" t="s">
+        <v>754</v>
+      </c>
+      <c r="L52" s="82" t="s">
+        <v>755</v>
       </c>
       <c r="M52" s="16"/>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>755</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>595</v>
+        <v>757</v>
+      </c>
+      <c r="C53" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="86">
+      <c r="K53" s="81">
         <v>0.0</v>
       </c>
-      <c r="L53" s="84" t="s">
+      <c r="L53" s="82" t="s">
         <v>146</v>
       </c>
       <c r="M53" s="16"/>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>598</v>
+        <v>759</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>599</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="86" t="s">
-        <v>759</v>
-      </c>
-      <c r="L54" s="87" t="s">
-        <v>760</v>
+      <c r="K54" s="81" t="s">
+        <v>761</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>762</v>
-      </c>
-      <c r="C55" s="85" t="s">
-        <v>595</v>
+        <v>764</v>
+      </c>
+      <c r="C55" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="15"/>
       <c r="H55" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="16"/>
-      <c r="K55" s="86">
+      <c r="K55" s="81">
         <v>0.0</v>
       </c>
-      <c r="L55" s="88" t="s">
+      <c r="L55" s="46" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="C56" s="55" t="s">
-        <v>598</v>
+        <v>766</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>599</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="16"/>
-      <c r="K56" s="86" t="s">
-        <v>766</v>
-      </c>
-      <c r="L56" s="84" t="s">
-        <v>767</v>
+      <c r="K56" s="81" t="s">
+        <v>768</v>
+      </c>
+      <c r="L56" s="82" t="s">
+        <v>769</v>
       </c>
       <c r="M56" s="16"/>
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>769</v>
-      </c>
-      <c r="C57" s="85" t="s">
-        <v>595</v>
+        <v>771</v>
+      </c>
+      <c r="C57" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="16"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="84" t="s">
+      <c r="K57" s="52"/>
+      <c r="L57" s="82" t="s">
         <v>146</v>
       </c>
       <c r="M57" s="16"/>
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="C58" s="85" t="s">
-        <v>598</v>
+        <v>773</v>
+      </c>
+      <c r="C58" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="86" t="s">
-        <v>773</v>
-      </c>
-      <c r="L58" s="84" t="s">
-        <v>760</v>
+      <c r="K58" s="81" t="s">
+        <v>775</v>
+      </c>
+      <c r="L58" s="82" t="s">
+        <v>776</v>
       </c>
       <c r="M58" s="16"/>
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="C59" s="85" t="s">
-        <v>595</v>
+        <v>778</v>
+      </c>
+      <c r="C59" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="16"/>
-      <c r="L59" s="88" t="s">
+      <c r="L59" s="46" t="s">
         <v>146</v>
       </c>
       <c r="M59" s="16"/>
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>777</v>
-      </c>
-      <c r="C60" s="85" t="s">
-        <v>598</v>
+        <v>780</v>
+      </c>
+      <c r="C60" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="86" t="s">
-        <v>752</v>
-      </c>
-      <c r="L60" s="84" t="s">
-        <v>760</v>
+      <c r="K60" s="81" t="s">
+        <v>782</v>
+      </c>
+      <c r="L60" s="82" t="s">
+        <v>783</v>
       </c>
       <c r="M60" s="16"/>
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="C61" s="85" t="s">
-        <v>595</v>
+        <v>785</v>
+      </c>
+      <c r="C61" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
-      <c r="K61" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="84" t="s">
-        <v>155</v>
+      <c r="K61" s="81">
+        <v>2.0</v>
+      </c>
+      <c r="L61" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="M61" s="16"/>
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="C62" s="85" t="s">
-        <v>598</v>
+        <v>787</v>
+      </c>
+      <c r="C62" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="84" t="s">
-        <v>155</v>
+      <c r="K62" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L62" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="M62" s="16"/>
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="C63" s="85" t="s">
-        <v>595</v>
+        <v>790</v>
+      </c>
+      <c r="C63" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>155</v>
+      <c r="K63" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L63" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="M63" s="16"/>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>598</v>
+        <v>792</v>
+      </c>
+      <c r="C64" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="16"/>
-      <c r="K64" s="69" t="s">
-        <v>789</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>790</v>
+      <c r="K64" s="84" t="s">
+        <v>794</v>
+      </c>
+      <c r="L64" s="85" t="s">
+        <v>795</v>
       </c>
       <c r="M64" s="16"/>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="C65" s="85" t="s">
-        <v>595</v>
+        <v>797</v>
+      </c>
+      <c r="C65" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
       <c r="H65" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>155</v>
+      <c r="K65" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L65" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="M65" s="16"/>
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="C66" s="85" t="s">
-        <v>598</v>
+        <v>799</v>
+      </c>
+      <c r="C66" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="69" t="s">
-        <v>789</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>796</v>
+      <c r="K66" s="84" t="s">
+        <v>801</v>
+      </c>
+      <c r="L66" s="85" t="s">
+        <v>795</v>
       </c>
       <c r="M66" s="16"/>
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="C67" s="85" t="s">
-        <v>595</v>
+        <v>803</v>
+      </c>
+      <c r="C67" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>155</v>
+      <c r="K67" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L67" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="M67" s="16"/>
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="C68" s="85" t="s">
-        <v>598</v>
+        <v>805</v>
+      </c>
+      <c r="C68" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>155</v>
+      <c r="K68" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L68" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="M68" s="16"/>
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="C69" s="85" t="s">
-        <v>595</v>
+        <v>808</v>
+      </c>
+      <c r="C69" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>155</v>
+      <c r="K69" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L69" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="M69" s="16"/>
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="C70" s="85" t="s">
-        <v>598</v>
+        <v>810</v>
+      </c>
+      <c r="C70" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>790</v>
+      <c r="K70" s="85" t="s">
+        <v>794</v>
+      </c>
+      <c r="L70" s="85" t="s">
+        <v>812</v>
       </c>
       <c r="M70" s="16"/>
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="C71" s="85" t="s">
-        <v>595</v>
+        <v>814</v>
+      </c>
+      <c r="C71" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>155</v>
+      <c r="K71" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L71" s="85" t="s">
+        <v>150</v>
       </c>
       <c r="M71" s="16"/>
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="C72" s="85" t="s">
-        <v>598</v>
+        <v>816</v>
+      </c>
+      <c r="C72" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>796</v>
+      <c r="K72" s="85" t="s">
+        <v>801</v>
+      </c>
+      <c r="L72" s="85" t="s">
+        <v>812</v>
       </c>
       <c r="M72" s="16"/>
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="C73" s="85" t="s">
-        <v>595</v>
+        <v>819</v>
+      </c>
+      <c r="C73" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>155</v>
+      <c r="K73" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L73" s="85" t="s">
+        <v>150</v>
       </c>
       <c r="M73" s="16"/>
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="C74" s="85" t="s">
-        <v>598</v>
+        <v>821</v>
+      </c>
+      <c r="C74" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
-      <c r="K74" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>155</v>
+      <c r="K74" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="L74" s="85" t="s">
+        <v>150</v>
       </c>
       <c r="M74" s="16"/>
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>818</v>
-      </c>
-      <c r="C75" s="85" t="s">
-        <v>598</v>
+        <v>824</v>
+      </c>
+      <c r="C75" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>820</v>
+      <c r="K75" s="84" t="s">
+        <v>826</v>
+      </c>
+      <c r="L75" s="85" t="s">
+        <v>827</v>
       </c>
       <c r="M75" s="16"/>
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>822</v>
-      </c>
-      <c r="C76" s="85" t="s">
-        <v>598</v>
+        <v>829</v>
+      </c>
+      <c r="C76" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="69" t="s">
-        <v>611</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>824</v>
+      <c r="K76" s="84" t="s">
+        <v>831</v>
+      </c>
+      <c r="L76" s="85" t="s">
+        <v>832</v>
       </c>
       <c r="M76" s="16"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>826</v>
-      </c>
-      <c r="C77" s="85" t="s">
-        <v>595</v>
+        <v>834</v>
+      </c>
+      <c r="C77" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>172</v>
+      <c r="K77" s="84">
+        <v>4.0</v>
+      </c>
+      <c r="L77" s="85" t="s">
+        <v>150</v>
       </c>
       <c r="M77" s="16"/>
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="C78" s="85" t="s">
-        <v>598</v>
+        <v>836</v>
+      </c>
+      <c r="C78" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="16"/>
-      <c r="K78" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>830</v>
+      <c r="K78" s="84" t="s">
+        <v>838</v>
+      </c>
+      <c r="L78" s="85" t="s">
+        <v>812</v>
       </c>
       <c r="M78" s="16"/>
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>832</v>
-      </c>
-      <c r="C79" s="85" t="s">
-        <v>598</v>
+        <v>840</v>
+      </c>
+      <c r="C79" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="89">
-        <v>0.0</v>
-      </c>
-      <c r="L79" s="47" t="s">
-        <v>172</v>
+      <c r="K79" s="86">
+        <v>4.0</v>
+      </c>
+      <c r="L79" s="85" t="s">
+        <v>150</v>
       </c>
       <c r="M79" s="16"/>
     </row>
     <row r="80">
       <c r="A80" s="13" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="C80" s="85" t="s">
-        <v>598</v>
+        <v>843</v>
+      </c>
+      <c r="C80" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>837</v>
+      <c r="K80" s="84" t="s">
+        <v>845</v>
+      </c>
+      <c r="L80" s="85" t="s">
+        <v>827</v>
       </c>
       <c r="M80" s="16"/>
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="C81" s="85" t="s">
-        <v>595</v>
+        <v>847</v>
+      </c>
+      <c r="C81" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
       <c r="H81" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="16"/>
-      <c r="K81" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>172</v>
+      <c r="K81" s="84">
+        <v>4.0</v>
+      </c>
+      <c r="L81" s="85" t="s">
+        <v>150</v>
       </c>
       <c r="M81" s="16"/>
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>841</v>
-      </c>
-      <c r="C82" s="85" t="s">
-        <v>598</v>
+        <v>849</v>
+      </c>
+      <c r="C82" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="16"/>
-      <c r="K82" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>843</v>
+      <c r="K82" s="84" t="s">
+        <v>851</v>
+      </c>
+      <c r="L82" s="85" t="s">
+        <v>852</v>
       </c>
       <c r="M82" s="16"/>
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>845</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>595</v>
+        <v>854</v>
+      </c>
+      <c r="C83" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
       <c r="H83" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="16"/>
-      <c r="K83" s="69">
-        <v>0.0</v>
+      <c r="K83" s="84">
+        <v>4.0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M83" s="16"/>
     </row>
     <row r="84">
       <c r="A84" s="13" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>847</v>
-      </c>
-      <c r="C84" s="85" t="s">
-        <v>598</v>
+        <v>856</v>
+      </c>
+      <c r="C84" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="16"/>
-      <c r="K84" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>849</v>
+      <c r="K84" s="84" t="s">
+        <v>838</v>
+      </c>
+      <c r="L84" s="85" t="s">
+        <v>812</v>
       </c>
       <c r="M84" s="16"/>
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>851</v>
-      </c>
-      <c r="C85" s="85" t="s">
-        <v>595</v>
+        <v>859</v>
+      </c>
+      <c r="C85" s="83" t="s">
+        <v>596</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="69">
-        <v>5.0</v>
+      <c r="K85" s="84">
+        <v>2.0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M85" s="16"/>
     </row>
     <row r="86">
-      <c r="A86" s="45" t="s">
-        <v>852</v>
+      <c r="A86" s="44" t="s">
+        <v>860</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>853</v>
-      </c>
-      <c r="C86" s="85" t="s">
-        <v>598</v>
+        <v>861</v>
+      </c>
+      <c r="C86" s="83" t="s">
+        <v>599</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="16"/>
-      <c r="K86" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="L86" s="54" t="s">
-        <v>856</v>
+      <c r="K86" s="85" t="s">
+        <v>863</v>
+      </c>
+      <c r="L86" s="85" t="s">
+        <v>864</v>
       </c>
       <c r="M86" s="16"/>
     </row>
@@ -10955,20 +10960,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
-        <v>857</v>
+      <c r="D1" s="72" t="s">
+        <v>865</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
@@ -10994,12 +10999,12 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
+        <v>574</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="3" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
@@ -11026,12 +11031,12 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+        <v>575</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="3" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -11058,11 +11063,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="90" t="s">
-        <v>861</v>
+        <v>580</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="87" t="s">
+        <v>869</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
@@ -11089,11 +11094,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="90" t="s">
-        <v>862</v>
+        <v>581</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="87" t="s">
+        <v>870</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
@@ -11120,11 +11125,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="90" t="s">
-        <v>863</v>
+        <v>586</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="87" t="s">
+        <v>871</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
@@ -11151,12 +11156,12 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="90" t="s">
-        <v>864</v>
+        <v>587</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="87" t="s">
+        <v>872</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
@@ -11182,21 +11187,21 @@
       <c r="Z7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
-        <v>589</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>865</v>
+      <c r="A8" s="46" t="s">
+        <v>590</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="90" t="s">
-        <v>866</v>
+        <v>593</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="87" t="s">
+        <v>874</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
@@ -11248,247 +11253,247 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
-        <v>561</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>867</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>868</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>869</v>
+      <c r="C1" s="76" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>876</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>877</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>870</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>469</v>
+        <v>878</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="92"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="16"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="93"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="28"/>
       <c r="G3" s="3"/>
       <c r="H3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="93"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
       <c r="H4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C5" s="84"/>
+        <v>882</v>
+      </c>
+      <c r="C5" s="82"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="92"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="28"/>
       <c r="G5" s="3"/>
       <c r="H5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="92"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
       <c r="H6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="92"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="28"/>
       <c r="G7" s="3"/>
       <c r="H7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="C8" s="84"/>
+        <v>885</v>
+      </c>
+      <c r="C8" s="82"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="92"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="92"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="28"/>
       <c r="G9" s="3"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="92"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="93"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="28"/>
       <c r="G11" s="3"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="92"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="28"/>
       <c r="G12" s="3"/>
       <c r="H12" s="16"/>
     </row>
     <row r="13" ht="36.0" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="93"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="28"/>
       <c r="G13" s="3"/>
       <c r="H13" s="16"/>
     </row>
     <row r="14" ht="36.0" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="93"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="28"/>
       <c r="G14" s="3"/>
       <c r="H14" s="16"/>
     </row>
     <row r="15" ht="36.0" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="93"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="28"/>
       <c r="G15" s="3"/>
       <c r="H15" s="16"/>
     </row>
     <row r="16" ht="36.0" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="93"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
       <c r="H16" s="16"/>
     </row>
     <row r="17" ht="36.0" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="13"/>
@@ -11499,10 +11504,10 @@
     </row>
     <row r="18" ht="36.0" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="13"/>
@@ -11512,11 +11517,11 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" ht="36.0" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>888</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>889</v>
+      <c r="A19" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>897</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>146</v>
@@ -11553,42 +11558,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>892</v>
-      </c>
-      <c r="C2" s="94" t="s">
-        <v>893</v>
+      <c r="A2" s="46" t="s">
+        <v>900</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>894</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>895</v>
+      <c r="A3" s="46" t="s">
+        <v>902</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>896</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>897</v>
+      <c r="A4" s="46" t="s">
+        <v>904</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="47" t="s">
-        <v>898</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>899</v>
+      <c r="A5" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>907</v>
       </c>
     </row>
   </sheetData>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="951">
   <si>
     <t>id</t>
   </si>
@@ -80,7 +80,7 @@
     <t>SAWG ApiNATOMY model of the distal colon</t>
   </si>
   <si>
-    <t>fcolon</t>
+    <t>sdcol</t>
   </si>
   <si>
     <t>subtypes</t>
@@ -128,7 +128,7 @@
     <t>S1</t>
   </si>
   <si>
-    <t>T13 spinal segment (fcolon)</t>
+    <t>T13 spinal segment (sdcol)</t>
   </si>
   <si>
     <t>EMAPA:19554</t>
@@ -140,7 +140,7 @@
     <t>S2</t>
   </si>
   <si>
-    <t>L1 spinal segment (fcolon)</t>
+    <t>L1 spinal segment (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0006448</t>
@@ -149,7 +149,7 @@
     <t>S3</t>
   </si>
   <si>
-    <t>L2 spinal segment (fcolon)</t>
+    <t>L2 spinal segment (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0006450</t>
@@ -158,7 +158,7 @@
     <t>S4</t>
   </si>
   <si>
-    <t>L3 spinal segment (fcolon)</t>
+    <t>L3 spinal segment (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0006449</t>
@@ -173,7 +173,7 @@
     <t>S5</t>
   </si>
   <si>
-    <t>L4 spinal segment (fcolon)</t>
+    <t>L4 spinal segment (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0006451</t>
@@ -185,7 +185,7 @@
     <t>S6</t>
   </si>
   <si>
-    <t>L5 spinal segment (fcolon)</t>
+    <t>L5 spinal segment (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0006447</t>
@@ -194,7 +194,7 @@
     <t>S7</t>
   </si>
   <si>
-    <t>T13 Dorsal Root ganglion (fcolon)</t>
+    <t>T13 Dorsal Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>EMAPA:25186</t>
@@ -209,7 +209,7 @@
     <t>S8</t>
   </si>
   <si>
-    <t>L1 Dorsal Root ganglion (fcolon)</t>
+    <t>L1 Dorsal Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0002857</t>
@@ -221,7 +221,7 @@
     <t>S9</t>
   </si>
   <si>
-    <t>L2 Dorsal Root ganglion (fcolon)</t>
+    <t>L2 Dorsal Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0002856</t>
@@ -233,7 +233,7 @@
     <t>S10</t>
   </si>
   <si>
-    <t>L3 Dorsal Root ganglion (fcolon)</t>
+    <t>L3 Dorsal Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0002858</t>
@@ -245,7 +245,7 @@
     <t>S11</t>
   </si>
   <si>
-    <t>L4 Dorsal Root ganglion (fcolon)</t>
+    <t>L4 Dorsal Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0003943</t>
@@ -257,7 +257,7 @@
     <t>S12</t>
   </si>
   <si>
-    <t>L5 Dorsal Root ganglion (fcolon)</t>
+    <t>L5 Dorsal Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0002261</t>
@@ -269,7 +269,7 @@
     <t>S13</t>
   </si>
   <si>
-    <t>T13 Ventral Root ganglion (fcolon)</t>
+    <t>T13 Ventral Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0002260</t>
@@ -278,25 +278,25 @@
     <t>S14</t>
   </si>
   <si>
-    <t>L1 Ventral Root ganglion (fcolon)</t>
+    <t>L1 Ventral Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>S15</t>
   </si>
   <si>
-    <t>L2 Ventral Root ganglion (fcolon)</t>
+    <t>L2 Ventral Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>S16</t>
   </si>
   <si>
-    <t>L3 Ventral Root ganglion (fcolon)</t>
+    <t>L3 Ventral Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>S17</t>
   </si>
   <si>
-    <t>L4 Ventral Root ganglion (fcolon)</t>
+    <t>L4 Ventral Root ganglion (sdcol)</t>
   </si>
   <si>
     <t>S18</t>
@@ -308,7 +308,7 @@
     <t>S19</t>
   </si>
   <si>
-    <t>T13 - L1 Interganglionic segment (fcolon)</t>
+    <t>T13 - L1 Interganglionic segment (sdcol)</t>
   </si>
   <si>
     <t>ILX:0777087</t>
@@ -317,7 +317,7 @@
     <t>S20</t>
   </si>
   <si>
-    <t>L1 - L2 Interganglionic segment (fcolon)</t>
+    <t>L1 - L2 Interganglionic segment (sdcol)</t>
   </si>
   <si>
     <t>ILX:0777088</t>
@@ -326,7 +326,7 @@
     <t>S21</t>
   </si>
   <si>
-    <t>L2 - L3 Interganglionic segment (fcolon)</t>
+    <t>L2 - L3 Interganglionic segment (sdcol)</t>
   </si>
   <si>
     <t>ILX:0777089</t>
@@ -335,7 +335,7 @@
     <t>S22</t>
   </si>
   <si>
-    <t>L3 - L4 Interganglionic segment (fcolon)</t>
+    <t>L3 - L4 Interganglionic segment (sdcol)</t>
   </si>
   <si>
     <t>ILX:0777090</t>
@@ -344,7 +344,7 @@
     <t>S23</t>
   </si>
   <si>
-    <t>L4 - L5 Interganglionic segment (fcolon)</t>
+    <t>L4 - L5 Interganglionic segment (sdcol)</t>
   </si>
   <si>
     <t>ILX:0777091</t>
@@ -353,7 +353,7 @@
     <t>S24</t>
   </si>
   <si>
-    <t>T13 sympathetic ganglion (fcolon)</t>
+    <t>T13 sympathetic ganglion (sdcol)</t>
   </si>
   <si>
     <t>ILX:0739295</t>
@@ -362,7 +362,7 @@
     <t>S25</t>
   </si>
   <si>
-    <t>L1 sympathetic ganglion (fcolon)</t>
+    <t>L1 sympathetic ganglion (sdcol)</t>
   </si>
   <si>
     <t>FMA:6540</t>
@@ -371,7 +371,7 @@
     <t>S26</t>
   </si>
   <si>
-    <t>L2 sympathetic ganglion (fcolon)</t>
+    <t>L2 sympathetic ganglion (sdcol)</t>
   </si>
   <si>
     <t>FMA:6541</t>
@@ -380,7 +380,7 @@
     <t>S27</t>
   </si>
   <si>
-    <t>L3 sympathetic ganglion (fcolon)</t>
+    <t>L3 sympathetic ganglion (sdcol)</t>
   </si>
   <si>
     <t>FMA:6542</t>
@@ -389,7 +389,7 @@
     <t>S28</t>
   </si>
   <si>
-    <t>L4 sympathetic ganglion (fcolon)</t>
+    <t>L4 sympathetic ganglion (sdcol)</t>
   </si>
   <si>
     <t>FMA:6543</t>
@@ -398,7 +398,7 @@
     <t>S29</t>
   </si>
   <si>
-    <t>L5 sympathetic ganglion (fcolon)</t>
+    <t>L5 sympathetic ganglion (sdcol)</t>
   </si>
   <si>
     <t>ILX:0739296</t>
@@ -407,7 +407,7 @@
     <t>S30</t>
   </si>
   <si>
-    <t>T13 gray ramus (fcolon)</t>
+    <t>T13 gray ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:5876</t>
@@ -416,7 +416,7 @@
     <t>S31</t>
   </si>
   <si>
-    <t>L1 gray ramus (fcolon)</t>
+    <t>L1 gray ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:65910</t>
@@ -425,7 +425,7 @@
     <t>S32</t>
   </si>
   <si>
-    <t>L2 gray ramus (fcolon)</t>
+    <t>L2 gray ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:65911</t>
@@ -434,7 +434,7 @@
     <t>S33</t>
   </si>
   <si>
-    <t>L3 gray ramus (fcolon)</t>
+    <t>L3 gray ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:65912</t>
@@ -443,7 +443,7 @@
     <t>S34</t>
   </si>
   <si>
-    <t>L4 gray ramus (fcolon)</t>
+    <t>L4 gray ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:65913</t>
@@ -452,7 +452,7 @@
     <t>S35</t>
   </si>
   <si>
-    <t>L5 gray ramus (fcolon)</t>
+    <t>L5 gray ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:65914</t>
@@ -461,7 +461,7 @@
     <t>S36</t>
   </si>
   <si>
-    <t>T13 white ramus (fcolon)</t>
+    <t>T13 white ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:5875</t>
@@ -470,7 +470,7 @@
     <t>S37</t>
   </si>
   <si>
-    <t>L1 white ramus (fcolon)</t>
+    <t>L1 white ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:12697</t>
@@ -479,7 +479,7 @@
     <t>S38</t>
   </si>
   <si>
-    <t>L2 white ramus (fcolon)</t>
+    <t>L2 white ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:12698</t>
@@ -488,7 +488,7 @@
     <t>S39</t>
   </si>
   <si>
-    <t>L3 white ramus (fcolon)</t>
+    <t>L3 white ramus (sdcol)</t>
   </si>
   <si>
     <t>FMA:12699</t>
@@ -497,13 +497,13 @@
     <t>S40</t>
   </si>
   <si>
-    <t>L4 white ramus (fcolon)</t>
+    <t>L4 white ramus (sdcol)</t>
   </si>
   <si>
     <t>S41</t>
   </si>
   <si>
-    <t>Inferior Mesenteric Ganglion (fcolon)</t>
+    <t>Inferior Mesenteric Ganglion (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0005453</t>
@@ -515,7 +515,7 @@
     <t>S42</t>
   </si>
   <si>
-    <t>colon (fcolon)</t>
+    <t>colon (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0001155</t>
@@ -533,7 +533,7 @@
     <t>S43</t>
   </si>
   <si>
-    <t>myenteric nerve plexus (fcolon)</t>
+    <t>myenteric nerve plexus (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0002439</t>
@@ -545,7 +545,7 @@
     <t>S44</t>
   </si>
   <si>
-    <t>serosa of colon (fcolon)</t>
+    <t>serosa of colon (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0003335</t>
@@ -557,7 +557,7 @@
     <t>S45</t>
   </si>
   <si>
-    <t>Longitudinal muscle layer of colon (fcolon)</t>
+    <t>Longitudinal muscle layer of colon (sdcol)</t>
   </si>
   <si>
     <t>FMA:14987</t>
@@ -572,7 +572,7 @@
     <t>S46</t>
   </si>
   <si>
-    <t>circular muscle layer of colon (fcolon)</t>
+    <t>circular muscle layer of colon (sdcol)</t>
   </si>
   <si>
     <t>FMA:14988</t>
@@ -584,7 +584,7 @@
     <t>S47</t>
   </si>
   <si>
-    <t>submucosal nerve plexus (fcolon)</t>
+    <t>submucosal nerve plexus (sdcol)</t>
   </si>
   <si>
     <t>FMA:21542</t>
@@ -596,7 +596,7 @@
     <t>S48</t>
   </si>
   <si>
-    <t>lamina propria of mucosa of colon (fcolon)</t>
+    <t>lamina propria of mucosa of colon (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0007177</t>
@@ -611,7 +611,7 @@
     <t>S49</t>
   </si>
   <si>
-    <t>epithelium of colon (fcolon)</t>
+    <t>epithelium of colon (sdcol)</t>
   </si>
   <si>
     <t>FMA:17302</t>
@@ -623,7 +623,7 @@
     <t>S50</t>
   </si>
   <si>
-    <t>lumen of colon (fcolon)</t>
+    <t>lumen of colon (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0007159</t>
@@ -635,7 +635,7 @@
     <t>S51</t>
   </si>
   <si>
-    <t>smooth muscle fiber of colon (fcolon)</t>
+    <t>smooth muscle fiber of colon (sdcol)</t>
   </si>
   <si>
     <t>FMA:15663</t>
@@ -644,7 +644,7 @@
     <t>S52</t>
   </si>
   <si>
-    <t>Peyer's patch in lamina propria (fcolon)</t>
+    <t>Peyer's patch in lamina propria (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0001211</t>
@@ -653,7 +653,7 @@
     <t>S53</t>
   </si>
   <si>
-    <t>goblet cell (fcolon)</t>
+    <t>goblet cell (sdcol)</t>
   </si>
   <si>
     <t>FMA:13148</t>
@@ -662,7 +662,7 @@
     <t>S54</t>
   </si>
   <si>
-    <t>enterocyte (fcolon)</t>
+    <t>enterocyte (sdcol)</t>
   </si>
   <si>
     <t>FMA:62122</t>
@@ -671,28 +671,28 @@
     <t>S55</t>
   </si>
   <si>
-    <t>goblet cell in lumen of colon (fcolon)</t>
+    <t>goblet cell in lumen of colon (sdcol)</t>
   </si>
   <si>
     <t>S56</t>
   </si>
   <si>
-    <t>goblet cell in epitehium of colon (fcolon)</t>
+    <t>goblet cell in epitehium of colon (sdcol)</t>
   </si>
   <si>
     <t>S57</t>
   </si>
   <si>
-    <t>enterocyte cell in lumen of colon (fcolon)</t>
+    <t>enterocyte cell in lumen of colon (sdcol)</t>
   </si>
   <si>
     <t>S58</t>
   </si>
   <si>
-    <t>enterocyte cell in epitehium of colon (fcolon)</t>
-  </si>
-  <si>
-    <t>Segment of Spinal Cord (fcolon)</t>
+    <t>enterocyte cell in epitehium of colon (sdcol)</t>
+  </si>
+  <si>
+    <t>Segment of Spinal Cord (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0005844</t>
@@ -708,7 +708,7 @@
     <t>229</t>
   </si>
   <si>
-    <t>Segment of neuron (fcolon)</t>
+    <t>Segment of neuron (sdcol)</t>
   </si>
   <si>
     <t>CL:0000540</t>
@@ -723,7 +723,7 @@
     <t>axon-bag</t>
   </si>
   <si>
-    <t>Axon terminal (fcolon)</t>
+    <t>Axon terminal (sdcol)</t>
   </si>
   <si>
     <t>SAO:280355188</t>
@@ -738,7 +738,7 @@
     <t>axon-tube</t>
   </si>
   <si>
-    <t>Axon segment (fcolon)</t>
+    <t>Axon segment (sdcol)</t>
   </si>
   <si>
     <t>TUBE</t>
@@ -747,7 +747,7 @@
     <t>dend-bag</t>
   </si>
   <si>
-    <t>Dendrite terminal (fcolon)</t>
+    <t>Dendrite terminal (sdcol)</t>
   </si>
   <si>
     <t>SAO:420754792</t>
@@ -756,13 +756,13 @@
     <t>dend-tube</t>
   </si>
   <si>
-    <t>Dendrite segment (fcolon)</t>
+    <t>Dendrite segment (sdcol)</t>
   </si>
   <si>
     <t>S59</t>
   </si>
   <si>
-    <t>Blood vessel (fcolon)</t>
+    <t>Blood vessel (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0001981</t>
@@ -771,34 +771,34 @@
     <t>SM_26, SM_7</t>
   </si>
   <si>
-    <t>Blood vessel in serosa of colon (fcolon)</t>
+    <t>Blood vessel in serosa of colon (sdcol)</t>
   </si>
   <si>
     <t>S61</t>
   </si>
   <si>
-    <t>Blood vessel in longitudinal muscle layer of colon (fcolon)</t>
-  </si>
-  <si>
-    <t>Blood vessel in myenteric nerve plexus in colon (fcolon)</t>
+    <t>Blood vessel in longitudinal muscle layer of colon (sdcol)</t>
+  </si>
+  <si>
+    <t>Blood vessel in myenteric nerve plexus in colon (sdcol)</t>
   </si>
   <si>
     <t>S63</t>
   </si>
   <si>
-    <t>Blood vessel in circular muscle layer in colon (fcolon)</t>
-  </si>
-  <si>
-    <t>Blood vessel in submucosal nerve plexus of colon (fcolon)</t>
+    <t>Blood vessel in circular muscle layer in colon (sdcol)</t>
+  </si>
+  <si>
+    <t>Blood vessel in submucosal nerve plexus of colon (sdcol)</t>
   </si>
   <si>
     <t>S65</t>
   </si>
   <si>
-    <t>Blood vessel in lamina propria of mucosa of colon (fcolon)</t>
-  </si>
-  <si>
-    <t>Soma of Symp preganglionic neuron in L3_Neuron B (fcolon)</t>
+    <t>Blood vessel in lamina propria of mucosa of colon (sdcol)</t>
+  </si>
+  <si>
+    <t>Soma of Symp preganglionic neuron in L3_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>NLX:154731</t>
@@ -807,34 +807,34 @@
     <t>neuron-b</t>
   </si>
   <si>
-    <t>Soma of Symp preganglionic neuron in L4_Neuron B (fcolon)</t>
-  </si>
-  <si>
-    <t>Soma of spinal afferent neuron in T13 DRG_Neuron C (fcolon)</t>
+    <t>Soma of Symp preganglionic neuron in L4_Neuron B (sdcol)</t>
+  </si>
+  <si>
+    <t>Soma of spinal afferent neuron in T13 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>neuron-c</t>
   </si>
   <si>
-    <t>Soma of spinal afferent neuron in L1 DRG_Neuron C (fcolon)</t>
-  </si>
-  <si>
-    <t>Soma of spinal afferent neuron in L2 DRG_Neuron C (fcolon)</t>
-  </si>
-  <si>
-    <t>Soma of spinal afferent neuron in L3 DRG_Neuron C (fcolon)</t>
-  </si>
-  <si>
-    <t>Soma of spinal afferent neuron in L4 DRG_Neuron C (fcolon)</t>
-  </si>
-  <si>
-    <t>Soma of spinal afferent neuron in L5 DRG_Neuron C (fcolon)</t>
+    <t>Soma of spinal afferent neuron in L1 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>Soma of spinal afferent neuron in L2 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>Soma of spinal afferent neuron in L3 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>Soma of spinal afferent neuron in L4 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>Soma of spinal afferent neuron in L5 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>dcn-img_d</t>
   </si>
   <si>
-    <t>Soma of Symp postganglionic neuron in IMG_Neuron D (fcolon)</t>
+    <t>Soma of Symp postganglionic neuron in IMG_Neuron D (sdcol)</t>
   </si>
   <si>
     <t>neuron-d</t>
@@ -843,7 +843,7 @@
     <t>dcn-img_f</t>
   </si>
   <si>
-    <t>Soma of Symp postganglionic neuron in IMG_Neuron F (fcolon)</t>
+    <t>Soma of Symp postganglionic neuron in IMG_Neuron F (sdcol)</t>
   </si>
   <si>
     <t>neuron-f</t>
@@ -852,7 +852,7 @@
     <t>dcn-img_g</t>
   </si>
   <si>
-    <t>Soma of Symp postganglionic neuron in IMG_Neuron G (fcolon)</t>
+    <t>Soma of Symp postganglionic neuron in IMG_Neuron G (sdcol)</t>
   </si>
   <si>
     <t>neuron-g</t>
@@ -861,7 +861,7 @@
     <t>dcn-img_h</t>
   </si>
   <si>
-    <t>Soma of Symp postganglionic neuron in IMG_Neuron H (fcolon)</t>
+    <t>Soma of Symp postganglionic neuron in IMG_Neuron H (sdcol)</t>
   </si>
   <si>
     <t>neuron-h</t>
@@ -870,7 +870,7 @@
     <t>dcn-mp_i</t>
   </si>
   <si>
-    <t>Soma of interneuron neuron in myenteric plexus of colon_Neuron I (fcolon)</t>
+    <t>Soma of interneuron neuron in myenteric plexus of colon_Neuron I (sdcol)</t>
   </si>
   <si>
     <t>neuron-i</t>
@@ -879,7 +879,7 @@
     <t>dcn_mp_j</t>
   </si>
   <si>
-    <t>Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J (fcolon)</t>
+    <t>Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J (sdcol)</t>
   </si>
   <si>
     <t>neuron-j</t>
@@ -888,7 +888,7 @@
     <t>dcn_mp2_j</t>
   </si>
   <si>
-    <t>Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J' (fcolon)</t>
+    <t>Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J' (sdcol)</t>
   </si>
   <si>
     <t>neuron-j2</t>
@@ -897,7 +897,7 @@
     <t>dcn-mp_k</t>
   </si>
   <si>
-    <t>Soma of interneuron in myenteric plexus_Neuron K(fcolon)</t>
+    <t>Soma of interneuron in myenteric plexus_Neuron K(sdcol)</t>
   </si>
   <si>
     <t>neuron-k</t>
@@ -906,7 +906,7 @@
     <t>dcn-mp_l</t>
   </si>
   <si>
-    <t>Soma of inhibitory motor neuron in myenteric plexus_Neuron L(fcolon)</t>
+    <t>Soma of inhibitory motor neuron in myenteric plexus_Neuron L (sdcol)</t>
   </si>
   <si>
     <t>neuron-l</t>
@@ -915,7 +915,7 @@
     <t>dcn-mp2_l</t>
   </si>
   <si>
-    <t>Soma of inhibitory motor neuron in myenteric plexus_Neuron L'(fcolon)</t>
+    <t>Soma of inhibitory motor neuron in myenteric plexus_Neuron L' (sdcol)</t>
   </si>
   <si>
     <t>neuron-l2</t>
@@ -924,7 +924,7 @@
     <t>dcn-mp_m</t>
   </si>
   <si>
-    <t>Soma of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M(fcolon)</t>
+    <t>Soma of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M (sdcol)</t>
   </si>
   <si>
     <t>neuron-m</t>
@@ -933,7 +933,7 @@
     <t>dcn-mp_n</t>
   </si>
   <si>
-    <t>Soma of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N(fcolon)</t>
+    <t>Soma of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N (sdcol)</t>
   </si>
   <si>
     <t>neuron-n</t>
@@ -942,7 +942,7 @@
     <t>dcn-sp-o</t>
   </si>
   <si>
-    <t>Soma of vasodilatory motor neuron in submucosal plexus_Neuron O(fcolon)</t>
+    <t>Soma of vasodilatory motor neuron in submucosal plexus_Neuron O (sdcol)</t>
   </si>
   <si>
     <t>neuron-o</t>
@@ -951,7 +951,7 @@
     <t>dcn-mp-p</t>
   </si>
   <si>
-    <t>Soma of secretomotor neuron in submucosal plexus of colon_Neuron P (fcolon)</t>
+    <t>Soma of secretomotor neuron in submucosal plexus of colon_Neuron P (sdcol)</t>
   </si>
   <si>
     <t>neuron-p</t>
@@ -960,7 +960,7 @@
     <t>dcn-mp_q</t>
   </si>
   <si>
-    <t>Soma of intestinafugal neuron in myenteric plexus of colon_Neuron Q (fcolon)</t>
+    <t>Soma of intestinafugal neuron in myenteric plexus of colon_Neuron Q (sdcol)</t>
   </si>
   <si>
     <t>neuron-q</t>
@@ -1479,7 +1479,7 @@
     <t>lnk-dcn-l3_b</t>
   </si>
   <si>
-    <t>link to Soma of Symp preganglionic neuron in L3_Neuron B (fcolon)</t>
+    <t>link to Soma of Symp preganglionic neuron in L3_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>ns1</t>
@@ -1491,7 +1491,7 @@
     <t>lnk-dcn-l4_b</t>
   </si>
   <si>
-    <t>link to Soma of Symp preganglionic neuron in L4_Neuron B (fcolon)</t>
+    <t>link to Soma of Symp preganglionic neuron in L4_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>ns3</t>
@@ -1503,7 +1503,7 @@
     <t>lnk-dcn-t13drg_c</t>
   </si>
   <si>
-    <t>link to Soma of spinal afferent neuron in T13 DRG_Neuron C (fcolon)</t>
+    <t>link to Soma of spinal afferent neuron in T13 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns7</t>
@@ -1515,7 +1515,7 @@
     <t>lnk-dcn-l1drg_c</t>
   </si>
   <si>
-    <t>link to Soma of spinal afferent neuron in L1 DRG_Neuron C (fcolon)</t>
+    <t>link to Soma of spinal afferent neuron in L1 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns12</t>
@@ -1527,7 +1527,7 @@
     <t>lnk-dcn-l2drg_c</t>
   </si>
   <si>
-    <t>link to Soma of spinal afferent neuron in L2 DRG_Neuron C (fcolon)</t>
+    <t>link to Soma of spinal afferent neuron in L2 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns17</t>
@@ -1539,7 +1539,7 @@
     <t>lnk-dcn-l3drg_c</t>
   </si>
   <si>
-    <t>link to Soma of spinal afferent neuron in L3 DRG_Neuron C (fcolon)</t>
+    <t>link to Soma of spinal afferent neuron in L3 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns22</t>
@@ -1551,7 +1551,7 @@
     <t>lnk-dcn-l4drg_c</t>
   </si>
   <si>
-    <t>link to Soma of spinal afferent neuron in L4 DRG_Neuron C (fcolon)</t>
+    <t>link to Soma of spinal afferent neuron in L4 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns26</t>
@@ -1563,7 +1563,7 @@
     <t>lnk-dcn-l5drg_c</t>
   </si>
   <si>
-    <t>link to Soma of spinal afferent neuron in L5 DRG_Neuron C (fcolon)</t>
+    <t>link to Soma of spinal afferent neuron in L5 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns30</t>
@@ -1575,7 +1575,7 @@
     <t>lnk-dcn-img_d</t>
   </si>
   <si>
-    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron D (fcolon)</t>
+    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron D (sdcol)</t>
   </si>
   <si>
     <t>ns34</t>
@@ -1587,7 +1587,7 @@
     <t>lnk-dcn-img_f</t>
   </si>
   <si>
-    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron F (fcolon)</t>
+    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron F (sdcol)</t>
   </si>
   <si>
     <t>ns36</t>
@@ -1599,7 +1599,7 @@
     <t>lnk-dcn-img_g</t>
   </si>
   <si>
-    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron G (fcolon)</t>
+    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron G (sdcol)</t>
   </si>
   <si>
     <t>ns39</t>
@@ -1620,7 +1620,7 @@
     <t>lnk-dcn-mp_i</t>
   </si>
   <si>
-    <t>link to Soma of interneuron neuron in myenteric plexus of colon_Neuron I (fcolon)</t>
+    <t>link to Soma of interneuron neuron in myenteric plexus of colon_Neuron I (sdcol)</t>
   </si>
   <si>
     <t>ns45</t>
@@ -1632,7 +1632,7 @@
     <t>lnk-dcn_mp_j</t>
   </si>
   <si>
-    <t>link to Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J (fcolon)</t>
+    <t>link to Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J (sdcol)</t>
   </si>
   <si>
     <t>ns48</t>
@@ -1644,7 +1644,7 @@
     <t>lnk-dcn_mp2_j</t>
   </si>
   <si>
-    <t>link to Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J' (fcolon)</t>
+    <t>link to Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J' (sdcol)</t>
   </si>
   <si>
     <t>ns51</t>
@@ -1656,7 +1656,7 @@
     <t>lnk-mp_k</t>
   </si>
   <si>
-    <t>link to Soma of interneuron in myenteric plexus_Neuron K(fcolon)</t>
+    <t>link to Soma of interneuron in myenteric plexus_Neuron K(sdcol)</t>
   </si>
   <si>
     <t>ns54</t>
@@ -1668,7 +1668,7 @@
     <t>lnk-dcn-mp_l</t>
   </si>
   <si>
-    <t>link to Soma of inhibitory motor neuron in myenteric plexus_Neuron L(fcolon)</t>
+    <t>link to Soma of inhibitory motor neuron in myenteric plexus_Neuron L(sdcol)</t>
   </si>
   <si>
     <t>ns57</t>
@@ -1680,7 +1680,7 @@
     <t>lnk-dcn-mp2_l</t>
   </si>
   <si>
-    <t>link to Soma of inhibitory motor neuron in myenteric plexus_Neuron L'(fcolon)</t>
+    <t>link to Soma of inhibitory motor neuron in myenteric plexus_Neuron L'(sdcol)</t>
   </si>
   <si>
     <t>ns60</t>
@@ -1692,7 +1692,7 @@
     <t>lnk-dcn-mp_m</t>
   </si>
   <si>
-    <t>link to Soma of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M(fcolon)</t>
+    <t>link to Soma of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M(sdcol)</t>
   </si>
   <si>
     <t>ns63</t>
@@ -1704,7 +1704,7 @@
     <t>lnk-dcn-mp_n</t>
   </si>
   <si>
-    <t>link to Soma of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N(fcolon)</t>
+    <t>link to Soma of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N(sdcol)</t>
   </si>
   <si>
     <t>ns68</t>
@@ -1716,7 +1716,7 @@
     <t>lnk-dcn-sp-o</t>
   </si>
   <si>
-    <t>link to Soma of vasodilatory motor neuron in submucosal plexus_Neuron O(fcolon)</t>
+    <t>link to Soma of vasodilatory motor neuron in submucosal plexus_Neuron O(sdcol)</t>
   </si>
   <si>
     <t>ns73</t>
@@ -1728,7 +1728,7 @@
     <t>lnk-dcn-mp-p</t>
   </si>
   <si>
-    <t>link to Soma of secretomotor neuron in submucosal plexus of colon_Neuron P (fcolon)</t>
+    <t>link to Soma of secretomotor neuron in submucosal plexus of colon_Neuron P (sdcol)</t>
   </si>
   <si>
     <t>ns76</t>
@@ -1740,7 +1740,7 @@
     <t>lnk-dcn-mp_q</t>
   </si>
   <si>
-    <t>link to Soma of intestinafugal neuron in myenteric plexus of colon_Neuron Q (fcolon)</t>
+    <t>link to Soma of intestinafugal neuron in myenteric plexus of colon_Neuron Q (sdcol)</t>
   </si>
   <si>
     <t>ns79</t>
@@ -1848,7 +1848,7 @@
     <t>dc-l3_b</t>
   </si>
   <si>
-    <t>Dendrite chain of Symp preganglionic neuron in L3_Neuron B (fcolon)</t>
+    <t>Dendrite chain of Symp preganglionic neuron in L3_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>SAO:1211023249</t>
@@ -1857,7 +1857,7 @@
     <t>ac-l3_b</t>
   </si>
   <si>
-    <t>Axon chain of Symp preganglionic neuron in L3_Neuron B (fcolon)</t>
+    <t>Axon chain of Symp preganglionic neuron in L3_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>SAO:1770195789</t>
@@ -1875,13 +1875,13 @@
     <t>dc-l4_b</t>
   </si>
   <si>
-    <t>Dendrite chain of Symp preganglionic neuron in L4_Neuron B (fcolon)</t>
+    <t>Dendrite chain of Symp preganglionic neuron in L4_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>ac-l4_b</t>
   </si>
   <si>
-    <t>Axon chain of Symp preganglionic neuron in L4_Neuron B (fcolon)</t>
+    <t>Axon chain of Symp preganglionic neuron in L4_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>6,0,0</t>
@@ -1893,7 +1893,7 @@
     <t>ac-l42_b</t>
   </si>
   <si>
-    <t>Axon chain from L3 and L4 Symp preganglionic neuron to IMG_Neuron B (fcolon)</t>
+    <t>Axon chain from L3 and L4 Symp preganglionic neuron to IMG_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>ns6</t>
@@ -1908,7 +1908,7 @@
     <t>dc-t13drg_c</t>
   </si>
   <si>
-    <t>Dendrite chain of spinal afferent neuron in T13 DRG_Neuron C (fcolon)</t>
+    <t>Dendrite chain of spinal afferent neuron in T13 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns7_1</t>
@@ -1917,7 +1917,7 @@
     <t>ac-t13drgsc_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns10</t>
@@ -1932,7 +1932,7 @@
     <t>ac-t13drgl11_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment layer11_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment layer11_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns11_1</t>
@@ -1947,7 +1947,7 @@
     <t>ac-t13drgl8_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment layer8_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment layer8_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns11_8</t>
@@ -1959,7 +1959,7 @@
     <t>ac-t13drgl6_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment layer6_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment layer6_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns11_6</t>
@@ -1971,7 +1971,7 @@
     <t>ac-t13drgl2_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment layer 2_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in T13 DRG to T13 segment layer 2_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns11_2</t>
@@ -1983,13 +1983,13 @@
     <t>dc-l1drg_c</t>
   </si>
   <si>
-    <t>Dendrite chain of spinal afferent neuron in L1 DRG_Neuron C (fcolon)</t>
+    <t>Dendrite chain of spinal afferent neuron in L1 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ac-l1drgl12_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer12_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer12_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns15</t>
@@ -2001,7 +2001,7 @@
     <t>ac-l1drgl11_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer11_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer11_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns16_1</t>
@@ -2013,7 +2013,7 @@
     <t>ac-l1drgl8_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer8_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer8_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns16_8</t>
@@ -2022,7 +2022,7 @@
     <t>ac-l1drgl6_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer6_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer6_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns16_6</t>
@@ -2031,7 +2031,7 @@
     <t>ac-l1drgl2_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer 2_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L1 DRG to L1 segment layer 2_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns16_2</t>
@@ -2040,13 +2040,13 @@
     <t>dc-l2drg_c</t>
   </si>
   <si>
-    <t>Dendrite chain of spinal afferent neuron in L2 DRG_Neuron C (fcolon)</t>
+    <t>Dendrite chain of spinal afferent neuron in L2 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ac-l2drgl12_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer12_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer12_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns20</t>
@@ -2058,7 +2058,7 @@
     <t>ac-l2drgl11_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer11_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer11_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns21_1</t>
@@ -2070,7 +2070,7 @@
     <t>ac-l2drgl8_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer8_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer8_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns21_8</t>
@@ -2079,7 +2079,7 @@
     <t>ac-l2drgl6_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer6_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer6_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns21_6</t>
@@ -2088,7 +2088,7 @@
     <t>ac-l2drgl2_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer 2_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L2 DRG to L2 segment layer 2_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns21_2</t>
@@ -2097,13 +2097,13 @@
     <t>dc-l3drg_c</t>
   </si>
   <si>
-    <t>Dendrite chain of spinal afferent neuron in L3 DRG_Neuron C (fcolon)</t>
+    <t>Dendrite chain of spinal afferent neuron in L3 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ac-l3drgl12_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer12_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer12_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns25</t>
@@ -2115,7 +2115,7 @@
     <t>ac-l3drgl11_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer11_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer11_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns25_1</t>
@@ -2127,7 +2127,7 @@
     <t>ac-l3drgl8_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer8_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer8_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns25_8</t>
@@ -2136,7 +2136,7 @@
     <t>ac-l3drgl6_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer6_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer6_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns25_6</t>
@@ -2145,7 +2145,7 @@
     <t>ac-l3drgl2_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer 2_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L3 DRG to L3 segment layer 2_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns25_2</t>
@@ -2154,13 +2154,13 @@
     <t>dc-l4drg_c</t>
   </si>
   <si>
-    <t>Dendrite chain of spinal afferent neuron in L4 DRG_Neuron C (fcolon)</t>
+    <t>Dendrite chain of spinal afferent neuron in L4 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ac-l4drgl12_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer12_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer12_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns29</t>
@@ -2172,7 +2172,7 @@
     <t>ac-l4drgl11_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer11_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer11_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns29_1</t>
@@ -2184,7 +2184,7 @@
     <t>ac-l4drgl8_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer8_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer8_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns29_8</t>
@@ -2193,7 +2193,7 @@
     <t>ac-l4drgl6_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer6_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer6_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns29_6</t>
@@ -2202,7 +2202,7 @@
     <t>ac-l4drgl2_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer 2_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L4 DRG to L4 segment layer 2_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns29_2</t>
@@ -2211,13 +2211,13 @@
     <t>dc-l5drg_c</t>
   </si>
   <si>
-    <t>Dendrite chain of spinal afferent neuron in L5 DRG_Neuron C (fcolon)</t>
+    <t>Dendrite chain of spinal afferent neuron in L5 DRG_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ac-l5drgl12_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer12_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer12_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns33</t>
@@ -2229,7 +2229,7 @@
     <t>ac-l5drgl11_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer11_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer11_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns33_1</t>
@@ -2241,7 +2241,7 @@
     <t>ac-l5drgl8_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer8_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer8_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns33_8</t>
@@ -2250,7 +2250,7 @@
     <t>ac-l5drgl6_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer6_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer6_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns33_6</t>
@@ -2259,7 +2259,7 @@
     <t>ac-l5drgl2_c</t>
   </si>
   <si>
-    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer 2_Neuron C (fcolon)</t>
+    <t>Axon chain of spinal afferent neuron in L5 DRG to L5 segment layer 2_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns33_2</t>
@@ -2268,7 +2268,7 @@
     <t>dc_col_c</t>
   </si>
   <si>
-    <t>Dendrite chain from DRG to colon_layer1_Neuron C (fcolon)</t>
+    <t>Dendrite chain from DRG to colon_layer1_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns9_5</t>
@@ -2277,7 +2277,7 @@
     <t>dc_col-lay7_c</t>
   </si>
   <si>
-    <t>Dendrite chain to colon layer 7_Neuron C (fcolon)</t>
+    <t>Dendrite chain to colon layer 7_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns_lay6</t>
@@ -2289,7 +2289,7 @@
     <t>dc_col-lay5_c</t>
   </si>
   <si>
-    <t>Dendrite chain to colon layer 5_Neuron C (fcolon)</t>
+    <t>Dendrite chain to colon layer 5_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns_lay4</t>
@@ -2304,7 +2304,7 @@
     <t>dc_col-lay3_c</t>
   </si>
   <si>
-    <t>Dendrite chain to colon layer 3_Neuron C (fcolon)</t>
+    <t>Dendrite chain to colon layer 3_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns_lay2</t>
@@ -2319,7 +2319,7 @@
     <t>dc_col-lay2_c</t>
   </si>
   <si>
-    <t>Dendrite chain to colon layer 2_Neuron C (fcolon)</t>
+    <t>Dendrite chain to colon layer 2_Neuron C (sdcol)</t>
   </si>
   <si>
     <t>ns_lay1</t>
@@ -2334,13 +2334,13 @@
     <t>dc-img_d</t>
   </si>
   <si>
-    <t>Dendrite chain of Symp postganglionic neuron in IMG_Neuron D (fcolon)</t>
+    <t>Dendrite chain of Symp postganglionic neuron in IMG_Neuron D (sdcol)</t>
   </si>
   <si>
     <t>ac-img_d</t>
   </si>
   <si>
-    <t>Axon chain of Symp postganglionic neuron in IMG_Neuron D (fcolon)</t>
+    <t>Axon chain of Symp postganglionic neuron in IMG_Neuron D (sdcol)</t>
   </si>
   <si>
     <t>ns35_5</t>
@@ -2355,13 +2355,13 @@
     <t>dc-img_f</t>
   </si>
   <si>
-    <t>Dendrite chain of Symp postganglionic neuron in IMG_Neuron F (fcolon)</t>
+    <t>Dendrite chain of Symp postganglionic neuron in IMG_Neuron F (sdcol)</t>
   </si>
   <si>
     <t>ac-img_f</t>
   </si>
   <si>
-    <t>Axon chain of Symp postganglionic neuron in IMG_Neuron F (fcolon)</t>
+    <t>Axon chain of Symp postganglionic neuron in IMG_Neuron F (sdcol)</t>
   </si>
   <si>
     <t>ns38</t>
@@ -2376,13 +2376,13 @@
     <t>dc-img_g</t>
   </si>
   <si>
-    <t>Dendrite chain of Symp postganglionic neuron in IMG_Neuron G (fcolon)</t>
+    <t>Dendrite chain of Symp postganglionic neuron in IMG_Neuron G (sdcol)</t>
   </si>
   <si>
     <t>ac-img_g</t>
   </si>
   <si>
-    <t>Axon chain of Symp postganglionic neuron in IMG_Neuron G (fcolon)</t>
+    <t>Axon chain of Symp postganglionic neuron in IMG_Neuron G (sdcol)</t>
   </si>
   <si>
     <t>ns41</t>
@@ -2397,13 +2397,13 @@
     <t>dc-img_h</t>
   </si>
   <si>
-    <t>Dendrite chain of Symp postganglionic neuron in IMG_Neuron H (fcolon)</t>
+    <t>Dendrite chain of Symp postganglionic neuron in IMG_Neuron H (sdcol)</t>
   </si>
   <si>
     <t>ac-img_h</t>
   </si>
   <si>
-    <t>Axon chain of Symp postganglionic neuron in IMG_Neuron H (fcolon)</t>
+    <t>Axon chain of Symp postganglionic neuron in IMG_Neuron H (sdcol)</t>
   </si>
   <si>
     <t>ns44</t>
@@ -2418,13 +2418,13 @@
     <t>dc-mp_i</t>
   </si>
   <si>
-    <t>Dendrite chain of interneuron neuron in myenteric plexus of colon_Neuron I (fcolon)</t>
+    <t>Dendrite chain of interneuron neuron in myenteric plexus of colon_Neuron I (sdcol)</t>
   </si>
   <si>
     <t>ac-mp_i</t>
   </si>
   <si>
-    <t>Axon chain of interneuron neuron in myenteric plexus of colon_Neuron I (fcolon)</t>
+    <t>Axon chain of interneuron neuron in myenteric plexus of colon_Neuron I (sdcol)</t>
   </si>
   <si>
     <t>ns47</t>
@@ -2433,13 +2433,13 @@
     <t>dc_mp_j</t>
   </si>
   <si>
-    <t>Dendrite chain of excitatory motor neuron in myenteric plexus of colon_Neuron J (fcolon)</t>
+    <t>Dendrite chain of excitatory motor neuron in myenteric plexus of colon_Neuron J (sdcol)</t>
   </si>
   <si>
     <t>ac_mp_j</t>
   </si>
   <si>
-    <t>Axon chain of excitatory motor neuron in myenteric plexus of colon_Neuron J (fcolon)</t>
+    <t>Axon chain of excitatory motor neuron in myenteric plexus of colon_Neuron J (sdcol)</t>
   </si>
   <si>
     <t>ns50</t>
@@ -2454,13 +2454,13 @@
     <t>dc_mp2_j</t>
   </si>
   <si>
-    <t>Dendrite chain of excitatory motor neuron in myenteric plexus of colon_Neuron J' (fcolon)</t>
+    <t>Dendrite chain of excitatory motor neuron in myenteric plexus of colon_Neuron J' (sdcol)</t>
   </si>
   <si>
     <t>ac_mp2_j</t>
   </si>
   <si>
-    <t>Axon chain of excitatory motor neuron in myenteric plexus of colon_Neuron J' (fcolon)</t>
+    <t>Axon chain of excitatory motor neuron in myenteric plexus of colon_Neuron J' (sdcol)</t>
   </si>
   <si>
     <t>ns53</t>
@@ -2472,13 +2472,13 @@
     <t>dc-mp_k</t>
   </si>
   <si>
-    <t>Dendrite chain of interneuron in myenteric plexus_Neuron K(fcolon)</t>
+    <t>Dendrite chain of interneuron in myenteric plexus_Neuron K(sdcol)</t>
   </si>
   <si>
     <t>ac-mp_k</t>
   </si>
   <si>
-    <t>Axon chain of interneuron in myenteric plexus_Neuron K(fcolon)</t>
+    <t>Axon chain of interneuron in myenteric plexus_Neuron K(sdcol)</t>
   </si>
   <si>
     <t>ns56</t>
@@ -2487,13 +2487,13 @@
     <t>dc-mp_l</t>
   </si>
   <si>
-    <t>Dendrite chain of inhibitory motor neuron in myenteric plexus_Neuron L(fcolon)</t>
+    <t>Dendrite chain of inhibitory motor neuron in myenteric plexus_Neuron L(sdcol)</t>
   </si>
   <si>
     <t>ac-mp_l</t>
   </si>
   <si>
-    <t>Axon chain of inhibitory motor neuron in myenteric plexus_Neuron L(fcolon)</t>
+    <t>Axon chain of inhibitory motor neuron in myenteric plexus_Neuron L(sdcol)</t>
   </si>
   <si>
     <t>ns59</t>
@@ -2505,13 +2505,13 @@
     <t>dc-mp2_l</t>
   </si>
   <si>
-    <t>Dendrite chain of inhibitory motor neuron in myenteric plexus_Neuron L'(fcolon)</t>
+    <t>Dendrite chain of inhibitory motor neuron in myenteric plexus_Neuron L'(sdcol)</t>
   </si>
   <si>
     <t>ac-mp2_l</t>
   </si>
   <si>
-    <t>Axon chain of inhibitory motor neuron in myenteric plexus_Neuron L'(fcolon)</t>
+    <t>Axon chain of inhibitory motor neuron in myenteric plexus_Neuron L'(sdcol)</t>
   </si>
   <si>
     <t>ns62</t>
@@ -2520,13 +2520,13 @@
     <t>dc-mp_m</t>
   </si>
   <si>
-    <t>Dendrite chain of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M(fcolon)</t>
+    <t>Dendrite chain of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M(sdcol)</t>
   </si>
   <si>
     <t>ac-mp_m</t>
   </si>
   <si>
-    <t>Axon chain of intrinsic primary afferent neuron to layer 5_Neuron M(fcolon)</t>
+    <t>Axon chain of intrinsic primary afferent neuron to layer 5_Neuron M(sdcol)</t>
   </si>
   <si>
     <t>ns65</t>
@@ -2535,7 +2535,7 @@
     <t>ac-mp23_m</t>
   </si>
   <si>
-    <t>Axon chain of intrinsic primary afferent neuron to layer 3_Neuron M(fcolon)</t>
+    <t>Axon chain of intrinsic primary afferent neuron to layer 3_Neuron M(sdcol)</t>
   </si>
   <si>
     <t>ns66</t>
@@ -2550,7 +2550,7 @@
     <t>ac-mp22_m</t>
   </si>
   <si>
-    <t>Axon chain of intrinsic primary afferent neuron to layer 2_Neuron M(fcolon)</t>
+    <t>Axon chain of intrinsic primary afferent neuron to layer 2_Neuron M(sdcol)</t>
   </si>
   <si>
     <t>ns67</t>
@@ -2565,13 +2565,13 @@
     <t>dc-mp_n</t>
   </si>
   <si>
-    <t>Dendrite chain of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N(fcolon)</t>
+    <t>Dendrite chain of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N(sdcol)</t>
   </si>
   <si>
     <t>ac-mp2_n</t>
   </si>
   <si>
-    <t>Axon chain of intrinsic primary afferent neurons to layer 2 of colon_Neuron N(fcolon)</t>
+    <t>Axon chain of intrinsic primary afferent neurons to layer 2 of colon_Neuron N(sdcol)</t>
   </si>
   <si>
     <t>ns70</t>
@@ -2583,7 +2583,7 @@
     <t>ac-mp3_n</t>
   </si>
   <si>
-    <t>Axon chain of intrinsic primary afferent neurons connect in layer 3 _Neuron N(fcolon)</t>
+    <t>Axon chain of intrinsic primary afferent neurons connect in layer 3 _Neuron N(sdcol)</t>
   </si>
   <si>
     <t>ns71</t>
@@ -2592,7 +2592,7 @@
     <t>ac-mp5_n</t>
   </si>
   <si>
-    <t>Axon chain of intrinsic primary afferent neurons to from connect to layer 5_Neuron N(fcolon)</t>
+    <t>Axon chain of intrinsic primary afferent neurons to from connect to layer 5_Neuron N(sdcol)</t>
   </si>
   <si>
     <t>ns72</t>
@@ -2604,13 +2604,13 @@
     <t>dc-sp_o</t>
   </si>
   <si>
-    <t>Dendrite chain of vasodilatory motor neuron in submucosal plexus_Neuron O(fcolon)</t>
+    <t>Dendrite chain of vasodilatory motor neuron in submucosal plexus_Neuron O(sdcol)</t>
   </si>
   <si>
     <t>ac-sp_o</t>
   </si>
   <si>
-    <t>Axon chain of vasodilatory motor neuron in submucosal plexus_Neuron O(fcolon)</t>
+    <t>Axon chain of vasodilatory motor neuron in submucosal plexus_Neuron O(sdcol)</t>
   </si>
   <si>
     <t>ns75</t>
@@ -2625,13 +2625,13 @@
     <t>dc-mp-p</t>
   </si>
   <si>
-    <t>Dendrite chain of secretomotor neuron in submucosal plexus of colon_Neuron P (fcolon)</t>
+    <t>Dendrite chain of secretomotor neuron in submucosal plexus of colon_Neuron P (sdcol)</t>
   </si>
   <si>
     <t>ac-mp-p</t>
   </si>
   <si>
-    <t>Axon chain of secretomotor neuron in submucosal plexus of colon_Neuron P (fcolon)</t>
+    <t>Axon chain of secretomotor neuron in submucosal plexus of colon_Neuron P (sdcol)</t>
   </si>
   <si>
     <t>ns78</t>
@@ -2640,13 +2640,13 @@
     <t>dc-mp_q</t>
   </si>
   <si>
-    <t>Dendrite chain of intestinafugal neuron in myenteric plexus of colon_Neuron Q (fcolon)</t>
+    <t>Dendrite chain of intestinafugal neuron in myenteric plexus of colon_Neuron Q (sdcol)</t>
   </si>
   <si>
     <t>ac-mp_q</t>
   </si>
   <si>
-    <t>Axon chain of intestinafugal neuron in myenteric plexus of colon_Neuron Q (fcolon)</t>
+    <t>Axon chain of intestinafugal neuron in myenteric plexus of colon_Neuron Q (sdcol)</t>
   </si>
   <si>
     <t>ns81</t>
@@ -2703,54 +2703,105 @@
     <t>Neuron b</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-b</t>
+  </si>
+  <si>
     <t>Neuron c</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-c</t>
+  </si>
+  <si>
     <t>Neuron d</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-d</t>
+  </si>
+  <si>
     <t>Neuron f</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-f</t>
+  </si>
+  <si>
     <t>Neuron g</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-g</t>
+  </si>
+  <si>
     <t>Neuron h</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-h</t>
+  </si>
+  <si>
     <t>Neuron i</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-i</t>
+  </si>
+  <si>
     <t>Neuron j</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-j</t>
+  </si>
+  <si>
     <t>Neuron j2</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-j-prime</t>
+  </si>
+  <si>
     <t>Neuron k</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-k</t>
+  </si>
+  <si>
     <t>Neuron l</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-l</t>
+  </si>
+  <si>
     <t>Neuron l2</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-l-prime</t>
+  </si>
+  <si>
     <t>Neuron m</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-m</t>
+  </si>
+  <si>
     <t>Neuron n</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-n</t>
+  </si>
+  <si>
     <t>Neuron o</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-o</t>
+  </si>
+  <si>
     <t>Neuron p</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-p</t>
+  </si>
+  <si>
     <t>Neuron q</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sdcol-q</t>
+  </si>
+  <si>
     <t>img-group</t>
   </si>
   <si>
@@ -2857,13 +2908,19 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_</t>
+  </si>
+  <si>
+    <t>ilxtr</t>
+  </si>
+  <si>
+    <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2896,9 +2953,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -2955,25 +3009,13 @@
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3002,7 +3044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -3015,25 +3057,11 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3127,9 +3155,6 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -3151,7 +3176,7 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3193,7 +3218,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3205,19 +3230,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3226,10 +3251,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3238,13 +3263,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3259,20 +3284,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -3280,22 +3302,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3307,24 +3323,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3577,7 +3583,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="4" width="19.43"/>
+    <col customWidth="1" min="1" max="1" width="15.43"/>
+    <col customWidth="1" min="2" max="2" width="38.71"/>
+    <col customWidth="1" min="3" max="4" width="19.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3620,390 +3628,113 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="35.57"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="92" t="s">
-        <v>908</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>909</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="A1" s="88" t="s">
+        <v>925</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>910</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>911</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="A2" s="89" t="s">
+        <v>927</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>913</v>
-      </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
+      <c r="A3" s="89" t="s">
+        <v>929</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>915</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="A4" s="89" t="s">
+        <v>931</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>917</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
+      <c r="A5" s="89" t="s">
+        <v>933</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>919</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
+      <c r="A6" s="89" t="s">
+        <v>935</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>920</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>921</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
+      <c r="A7" s="89" t="s">
+        <v>937</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>922</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>923</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
+      <c r="A8" s="89" t="s">
+        <v>939</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="s">
-        <v>924</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>925</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="A9" s="89" t="s">
+        <v>941</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
-        <v>926</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>927</v>
-      </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
+      <c r="A10" s="89" t="s">
+        <v>943</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>929</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
+      <c r="A11" s="89" t="s">
+        <v>945</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>931</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
+      <c r="A12" s="89" t="s">
+        <v>947</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="89" t="s">
+        <v>949</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>950</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4018,8 +3749,9 @@
     <hyperlink r:id="rId9" ref="B10"/>
     <hyperlink r:id="rId10" ref="B11"/>
     <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -5195,7 +4927,7 @@
       <c r="R41" s="16"/>
     </row>
     <row r="42">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B42" s="22" t="s">
@@ -5205,11 +4937,11 @@
         <v>148</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="32"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="15"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
-      <c r="I42" s="33"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="15"/>
       <c r="K42" s="16"/>
       <c r="L42" s="3" t="s">
@@ -5226,33 +4958,33 @@
       <c r="A43" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="39" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="40"/>
-      <c r="K43" s="36"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="35"/>
       <c r="L43" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="M43" s="41" t="s">
+      <c r="M43" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
@@ -5271,7 +5003,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="42"/>
+      <c r="K44" s="41"/>
       <c r="L44" s="3" t="s">
         <v>159</v>
       </c>
@@ -5301,8 +5033,8 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="43" t="s">
+      <c r="K45" s="41"/>
+      <c r="L45" s="42" t="s">
         <v>163</v>
       </c>
       <c r="M45" s="21" t="s">
@@ -5310,9 +5042,9 @@
       </c>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
@@ -5329,7 +5061,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
-      <c r="I46" s="45"/>
+      <c r="I46" s="44"/>
       <c r="J46" s="13"/>
       <c r="K46" s="16"/>
       <c r="L46" s="13" t="s">
@@ -5340,9 +5072,9 @@
       </c>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
@@ -5359,7 +5091,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
-      <c r="I47" s="45"/>
+      <c r="I47" s="44"/>
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
       <c r="L47" s="13" t="s">
@@ -5370,9 +5102,9 @@
       </c>
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
@@ -5391,18 +5123,18 @@
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="44" t="s">
+      <c r="K48" s="41"/>
+      <c r="L48" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="45">
         <v>0.0</v>
       </c>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
@@ -5421,8 +5153,8 @@
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="46" t="s">
+      <c r="K49" s="41"/>
+      <c r="L49" s="45" t="s">
         <v>180</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -5430,9 +5162,9 @@
       </c>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
@@ -5451,7 +5183,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="42"/>
+      <c r="K50" s="41"/>
       <c r="L50" s="21" t="s">
         <v>185</v>
       </c>
@@ -5478,7 +5210,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="42"/>
+      <c r="K51" s="41"/>
       <c r="L51" s="21" t="s">
         <v>189</v>
       </c>
@@ -5505,7 +5237,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
-      <c r="I52" s="45"/>
+      <c r="I52" s="44"/>
       <c r="J52" s="13"/>
       <c r="K52" s="16"/>
       <c r="L52" s="12"/>
@@ -5533,7 +5265,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="42"/>
+      <c r="K53" s="41"/>
       <c r="L53" s="3"/>
       <c r="M53" s="18"/>
       <c r="N53" s="16"/>
@@ -5559,7 +5291,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="45"/>
+      <c r="I54" s="44"/>
       <c r="J54" s="15"/>
       <c r="K54" s="16"/>
       <c r="L54" s="15"/>
@@ -5585,11 +5317,11 @@
       <c r="F55" s="12"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="45"/>
+      <c r="I55" s="44"/>
       <c r="J55" s="15"/>
       <c r="K55" s="16"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="47"/>
+      <c r="M55" s="46"/>
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
@@ -5607,11 +5339,11 @@
         <v>198</v>
       </c>
       <c r="D56" s="16"/>
-      <c r="E56" s="32"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="15"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="48"/>
+      <c r="I56" s="47"/>
       <c r="J56" s="15"/>
       <c r="K56" s="16"/>
       <c r="L56" s="15"/>
@@ -5633,11 +5365,11 @@
         <v>198</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="32"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="15"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
-      <c r="I57" s="48"/>
+      <c r="I57" s="47"/>
       <c r="J57" s="15"/>
       <c r="K57" s="16"/>
       <c r="L57" s="15"/>
@@ -5659,11 +5391,11 @@
         <v>201</v>
       </c>
       <c r="D58" s="16"/>
-      <c r="E58" s="32"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="15"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
-      <c r="I58" s="48"/>
+      <c r="I58" s="47"/>
       <c r="J58" s="15"/>
       <c r="K58" s="16"/>
       <c r="L58" s="15"/>
@@ -5685,11 +5417,11 @@
         <v>201</v>
       </c>
       <c r="D59" s="16"/>
-      <c r="E59" s="32"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="15"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
-      <c r="I59" s="48"/>
+      <c r="I59" s="47"/>
       <c r="J59" s="15"/>
       <c r="K59" s="16"/>
       <c r="L59" s="15"/>
@@ -5707,17 +5439,17 @@
       <c r="B60" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="48" t="s">
         <v>211</v>
       </c>
       <c r="D60" s="16"/>
-      <c r="E60" s="32" t="b">
+      <c r="E60" s="31" t="b">
         <v>1</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="47" t="s">
         <v>212</v>
       </c>
       <c r="J60" s="15"/>
@@ -5739,11 +5471,11 @@
       <c r="B61" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="48" t="s">
         <v>216</v>
       </c>
       <c r="D61" s="16"/>
-      <c r="E61" s="50" t="b">
+      <c r="E61" s="49" t="b">
         <v>1</v>
       </c>
       <c r="F61" s="15"/>
@@ -5761,17 +5493,17 @@
       <c r="R61" s="16"/>
     </row>
     <row r="62">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="46" t="s">
         <v>217</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="48" t="s">
         <v>216</v>
       </c>
       <c r="D62" s="16"/>
-      <c r="E62" s="51" t="b">
+      <c r="E62" s="50" t="b">
         <v>1</v>
       </c>
       <c r="F62" s="12" t="s">
@@ -5780,7 +5512,7 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
-      <c r="J62" s="52">
+      <c r="J62" s="51">
         <v>229.0</v>
       </c>
       <c r="K62" s="16"/>
@@ -5793,17 +5525,17 @@
       <c r="R62" s="16"/>
     </row>
     <row r="63">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="46" t="s">
         <v>219</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="48" t="s">
         <v>221</v>
       </c>
       <c r="D63" s="16"/>
-      <c r="E63" s="51" t="b">
+      <c r="E63" s="50" t="b">
         <v>1</v>
       </c>
       <c r="F63" s="12" t="s">
@@ -5825,17 +5557,17 @@
       <c r="R63" s="16"/>
     </row>
     <row r="64">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="46" t="s">
         <v>224</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="48" t="s">
         <v>221</v>
       </c>
       <c r="D64" s="16"/>
-      <c r="E64" s="51" t="b">
+      <c r="E64" s="50" t="b">
         <v>1</v>
       </c>
       <c r="F64" s="12" t="s">
@@ -5857,17 +5589,17 @@
       <c r="R64" s="16"/>
     </row>
     <row r="65">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="46" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="48" t="s">
         <v>229</v>
       </c>
       <c r="D65" s="16"/>
-      <c r="E65" s="51" t="b">
+      <c r="E65" s="50" t="b">
         <v>1</v>
       </c>
       <c r="F65" s="12" t="s">
@@ -5889,17 +5621,17 @@
       <c r="R65" s="16"/>
     </row>
     <row r="66">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="46" t="s">
         <v>230</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="48" t="s">
         <v>229</v>
       </c>
       <c r="D66" s="16"/>
-      <c r="E66" s="51" t="b">
+      <c r="E66" s="50" t="b">
         <v>1</v>
       </c>
       <c r="F66" s="12" t="s">
@@ -5921,7 +5653,7 @@
       <c r="R66" s="16"/>
     </row>
     <row r="67">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="43" t="s">
         <v>232</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -5931,7 +5663,7 @@
         <v>234</v>
       </c>
       <c r="D67" s="16"/>
-      <c r="E67" s="50" t="b">
+      <c r="E67" s="49" t="b">
         <v>1</v>
       </c>
       <c r="F67" s="15"/>
@@ -5942,7 +5674,7 @@
       </c>
       <c r="J67" s="15"/>
       <c r="K67" s="16"/>
-      <c r="L67" s="47"/>
+      <c r="L67" s="46"/>
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
       <c r="O67" s="16"/>
@@ -5951,7 +5683,7 @@
       <c r="R67" s="16"/>
     </row>
     <row r="68">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="43" t="s">
         <v>163</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -5969,7 +5701,7 @@
       <c r="J68" s="15"/>
       <c r="K68" s="16"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="47"/>
+      <c r="M68" s="46"/>
       <c r="N68" s="18"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
@@ -5977,7 +5709,7 @@
       <c r="R68" s="16"/>
     </row>
     <row r="69">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="43" t="s">
         <v>237</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -5995,7 +5727,7 @@
       <c r="J69" s="15"/>
       <c r="K69" s="16"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="47"/>
+      <c r="M69" s="46"/>
       <c r="N69" s="18"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
@@ -6003,7 +5735,7 @@
       <c r="R69" s="16"/>
     </row>
     <row r="70">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="43" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -6017,11 +5749,11 @@
       <c r="F70" s="12"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
-      <c r="I70" s="45"/>
+      <c r="I70" s="44"/>
       <c r="J70" s="15"/>
       <c r="K70" s="16"/>
       <c r="L70" s="12"/>
-      <c r="M70" s="47"/>
+      <c r="M70" s="46"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
@@ -6029,7 +5761,7 @@
       <c r="R70" s="16"/>
     </row>
     <row r="71">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="43" t="s">
         <v>240</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -6043,11 +5775,11 @@
       <c r="F71" s="12"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
-      <c r="I71" s="45"/>
+      <c r="I71" s="44"/>
       <c r="J71" s="15"/>
       <c r="K71" s="16"/>
       <c r="L71" s="12"/>
-      <c r="M71" s="47"/>
+      <c r="M71" s="46"/>
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
@@ -6055,7 +5787,7 @@
       <c r="R71" s="16"/>
     </row>
     <row r="72">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -6069,17 +5801,17 @@
       <c r="F72" s="12"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
-      <c r="I72" s="45"/>
+      <c r="I72" s="44"/>
       <c r="J72" s="15"/>
       <c r="K72" s="16"/>
       <c r="L72" s="12"/>
-      <c r="M72" s="47"/>
+      <c r="M72" s="46"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
     <row r="73">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="43" t="s">
         <v>243</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -6093,11 +5825,11 @@
       <c r="F73" s="12"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
-      <c r="I73" s="45"/>
+      <c r="I73" s="44"/>
       <c r="J73" s="15"/>
       <c r="K73" s="16"/>
       <c r="L73" s="12"/>
-      <c r="M73" s="47"/>
+      <c r="M73" s="46"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
       <c r="P73" s="16"/>
@@ -6111,7 +5843,7 @@
       <c r="B74" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D74" s="16"/>
@@ -6119,13 +5851,13 @@
       <c r="F74" s="12"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
-      <c r="I74" s="45"/>
+      <c r="I74" s="44"/>
       <c r="J74" s="3">
         <v>229.0</v>
       </c>
       <c r="K74" s="16"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="47"/>
+      <c r="M74" s="46"/>
       <c r="N74" s="16"/>
       <c r="O74" s="16"/>
       <c r="P74" s="16"/>
@@ -6141,7 +5873,7 @@
       <c r="B75" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D75" s="16"/>
@@ -6149,13 +5881,13 @@
       <c r="F75" s="12"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
-      <c r="I75" s="45"/>
+      <c r="I75" s="44"/>
       <c r="J75" s="3">
         <v>229.0</v>
       </c>
       <c r="K75" s="16"/>
       <c r="L75" s="12"/>
-      <c r="M75" s="47"/>
+      <c r="M75" s="46"/>
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
       <c r="P75" s="16"/>
@@ -6167,7 +5899,7 @@
       <c r="B76" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D76" s="16"/>
@@ -6175,13 +5907,13 @@
       <c r="F76" s="12"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
-      <c r="I76" s="45"/>
+      <c r="I76" s="44"/>
       <c r="J76" s="3">
         <v>229.0</v>
       </c>
       <c r="K76" s="16"/>
       <c r="L76" s="12"/>
-      <c r="M76" s="47"/>
+      <c r="M76" s="46"/>
       <c r="N76" s="16"/>
       <c r="O76" s="16"/>
       <c r="P76" s="16"/>
@@ -6197,7 +5929,7 @@
       <c r="B77" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D77" s="16"/>
@@ -6205,13 +5937,13 @@
       <c r="F77" s="12"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
-      <c r="I77" s="45"/>
+      <c r="I77" s="44"/>
       <c r="J77" s="3">
         <v>229.0</v>
       </c>
       <c r="K77" s="16"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="47"/>
+      <c r="M77" s="46"/>
       <c r="N77" s="16"/>
       <c r="O77" s="16"/>
       <c r="P77" s="16"/>
@@ -6223,7 +5955,7 @@
       <c r="B78" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D78" s="16"/>
@@ -6231,13 +5963,13 @@
       <c r="F78" s="12"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
-      <c r="I78" s="45"/>
+      <c r="I78" s="44"/>
       <c r="J78" s="3">
         <v>229.0</v>
       </c>
       <c r="K78" s="16"/>
       <c r="L78" s="12"/>
-      <c r="M78" s="47"/>
+      <c r="M78" s="46"/>
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
       <c r="P78" s="16"/>
@@ -6251,7 +5983,7 @@
       <c r="B79" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D79" s="16"/>
@@ -6259,13 +5991,13 @@
       <c r="F79" s="12"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
-      <c r="I79" s="45"/>
+      <c r="I79" s="44"/>
       <c r="J79" s="3">
         <v>229.0</v>
       </c>
       <c r="K79" s="16"/>
       <c r="L79" s="12"/>
-      <c r="M79" s="47"/>
+      <c r="M79" s="46"/>
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
@@ -6279,7 +6011,7 @@
       <c r="B80" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="16"/>
@@ -6287,13 +6019,13 @@
       <c r="F80" s="12"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
-      <c r="I80" s="45"/>
+      <c r="I80" s="44"/>
       <c r="J80" s="3">
         <v>229.0</v>
       </c>
       <c r="K80" s="16"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="47"/>
+      <c r="M80" s="46"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
@@ -6307,7 +6039,7 @@
       <c r="B81" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D81" s="16"/>
@@ -6315,13 +6047,13 @@
       <c r="F81" s="12"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
-      <c r="I81" s="45"/>
+      <c r="I81" s="44"/>
       <c r="J81" s="3">
         <v>229.0</v>
       </c>
       <c r="K81" s="16"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="47"/>
+      <c r="M81" s="46"/>
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
@@ -6335,7 +6067,7 @@
       <c r="B82" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D82" s="16"/>
@@ -6343,13 +6075,13 @@
       <c r="F82" s="12"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
-      <c r="I82" s="45"/>
+      <c r="I82" s="44"/>
       <c r="J82" s="3">
         <v>229.0</v>
       </c>
       <c r="K82" s="16"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="47"/>
+      <c r="M82" s="46"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
@@ -6365,7 +6097,7 @@
       <c r="B83" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D83" s="16"/>
@@ -6373,13 +6105,13 @@
       <c r="F83" s="12"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
-      <c r="I83" s="45"/>
+      <c r="I83" s="44"/>
       <c r="J83" s="3">
         <v>229.0</v>
       </c>
       <c r="K83" s="16"/>
       <c r="L83" s="12"/>
-      <c r="M83" s="47"/>
+      <c r="M83" s="46"/>
       <c r="N83" s="16"/>
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
@@ -6395,7 +6127,7 @@
       <c r="B84" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="53" t="s">
+      <c r="C84" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D84" s="16"/>
@@ -6403,13 +6135,13 @@
       <c r="F84" s="12"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
-      <c r="I84" s="45"/>
+      <c r="I84" s="44"/>
       <c r="J84" s="3">
         <v>229.0</v>
       </c>
       <c r="K84" s="16"/>
       <c r="L84" s="12"/>
-      <c r="M84" s="47"/>
+      <c r="M84" s="46"/>
       <c r="N84" s="16"/>
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
@@ -6425,7 +6157,7 @@
       <c r="B85" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="53" t="s">
+      <c r="C85" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D85" s="16"/>
@@ -6433,13 +6165,13 @@
       <c r="F85" s="12"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
-      <c r="I85" s="45"/>
+      <c r="I85" s="44"/>
       <c r="J85" s="3">
         <v>229.0</v>
       </c>
       <c r="K85" s="16"/>
       <c r="L85" s="12"/>
-      <c r="M85" s="47"/>
+      <c r="M85" s="46"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
@@ -6455,7 +6187,7 @@
       <c r="B86" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D86" s="16"/>
@@ -6463,13 +6195,13 @@
       <c r="F86" s="12"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
-      <c r="I86" s="45"/>
+      <c r="I86" s="44"/>
       <c r="J86" s="3">
         <v>229.0</v>
       </c>
       <c r="K86" s="16"/>
       <c r="L86" s="12"/>
-      <c r="M86" s="47"/>
+      <c r="M86" s="46"/>
       <c r="N86" s="16"/>
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
@@ -6485,7 +6217,7 @@
       <c r="B87" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D87" s="16"/>
@@ -6493,13 +6225,13 @@
       <c r="F87" s="12"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
-      <c r="I87" s="45"/>
+      <c r="I87" s="44"/>
       <c r="J87" s="3">
         <v>229.0</v>
       </c>
       <c r="K87" s="16"/>
       <c r="L87" s="12"/>
-      <c r="M87" s="47"/>
+      <c r="M87" s="46"/>
       <c r="N87" s="16"/>
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
@@ -6515,7 +6247,7 @@
       <c r="B88" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D88" s="16"/>
@@ -6523,13 +6255,13 @@
       <c r="F88" s="12"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
-      <c r="I88" s="45"/>
+      <c r="I88" s="44"/>
       <c r="J88" s="3">
         <v>229.0</v>
       </c>
       <c r="K88" s="16"/>
       <c r="L88" s="12"/>
-      <c r="M88" s="47"/>
+      <c r="M88" s="46"/>
       <c r="N88" s="16"/>
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
@@ -6545,7 +6277,7 @@
       <c r="B89" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D89" s="16"/>
@@ -6553,13 +6285,13 @@
       <c r="F89" s="12"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
-      <c r="I89" s="45"/>
+      <c r="I89" s="44"/>
       <c r="J89" s="3">
         <v>229.0</v>
       </c>
       <c r="K89" s="16"/>
       <c r="L89" s="12"/>
-      <c r="M89" s="47"/>
+      <c r="M89" s="46"/>
       <c r="N89" s="16"/>
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
@@ -6575,7 +6307,7 @@
       <c r="B90" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="C90" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D90" s="16"/>
@@ -6583,13 +6315,13 @@
       <c r="F90" s="12"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
-      <c r="I90" s="45"/>
+      <c r="I90" s="44"/>
       <c r="J90" s="3">
         <v>229.0</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="12"/>
-      <c r="M90" s="47"/>
+      <c r="M90" s="46"/>
       <c r="N90" s="16"/>
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
@@ -6605,7 +6337,7 @@
       <c r="B91" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D91" s="16"/>
@@ -6613,13 +6345,13 @@
       <c r="F91" s="12"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
-      <c r="I91" s="45"/>
+      <c r="I91" s="44"/>
       <c r="J91" s="3">
         <v>229.0</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="47"/>
+      <c r="M91" s="46"/>
       <c r="N91" s="16"/>
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
@@ -6635,7 +6367,7 @@
       <c r="B92" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C92" s="53" t="s">
+      <c r="C92" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D92" s="16"/>
@@ -6643,13 +6375,13 @@
       <c r="F92" s="12"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
-      <c r="I92" s="45"/>
+      <c r="I92" s="44"/>
       <c r="J92" s="3">
         <v>229.0</v>
       </c>
       <c r="K92" s="16"/>
       <c r="L92" s="12"/>
-      <c r="M92" s="47"/>
+      <c r="M92" s="46"/>
       <c r="N92" s="16"/>
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
@@ -6665,7 +6397,7 @@
       <c r="B93" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C93" s="53" t="s">
+      <c r="C93" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D93" s="16"/>
@@ -6673,13 +6405,13 @@
       <c r="F93" s="12"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
-      <c r="I93" s="45"/>
+      <c r="I93" s="44"/>
       <c r="J93" s="3">
         <v>229.0</v>
       </c>
       <c r="K93" s="16"/>
       <c r="L93" s="12"/>
-      <c r="M93" s="47"/>
+      <c r="M93" s="46"/>
       <c r="N93" s="16"/>
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
@@ -6695,7 +6427,7 @@
       <c r="B94" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D94" s="16"/>
@@ -6703,13 +6435,13 @@
       <c r="F94" s="12"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
-      <c r="I94" s="45"/>
+      <c r="I94" s="44"/>
       <c r="J94" s="3">
         <v>229.0</v>
       </c>
       <c r="K94" s="16"/>
       <c r="L94" s="12"/>
-      <c r="M94" s="47"/>
+      <c r="M94" s="46"/>
       <c r="N94" s="16"/>
       <c r="O94" s="16"/>
       <c r="P94" s="16"/>
@@ -6725,7 +6457,7 @@
       <c r="B95" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D95" s="16"/>
@@ -6733,13 +6465,13 @@
       <c r="F95" s="12"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
-      <c r="I95" s="45"/>
+      <c r="I95" s="44"/>
       <c r="J95" s="3">
         <v>229.0</v>
       </c>
       <c r="K95" s="16"/>
       <c r="L95" s="12"/>
-      <c r="M95" s="47"/>
+      <c r="M95" s="46"/>
       <c r="N95" s="16"/>
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
@@ -6755,7 +6487,7 @@
       <c r="B96" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D96" s="16"/>
@@ -6763,13 +6495,13 @@
       <c r="F96" s="12"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
-      <c r="I96" s="45"/>
+      <c r="I96" s="44"/>
       <c r="J96" s="3">
         <v>229.0</v>
       </c>
       <c r="K96" s="16"/>
       <c r="L96" s="12"/>
-      <c r="M96" s="47"/>
+      <c r="M96" s="46"/>
       <c r="N96" s="16"/>
       <c r="O96" s="16"/>
       <c r="P96" s="16"/>
@@ -6793,11 +6525,11 @@
       <c r="F97" s="12"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
-      <c r="I97" s="45"/>
+      <c r="I97" s="44"/>
       <c r="J97" s="15"/>
       <c r="K97" s="16"/>
       <c r="L97" s="12"/>
-      <c r="M97" s="47"/>
+      <c r="M97" s="46"/>
       <c r="N97" s="16"/>
       <c r="O97" s="16"/>
       <c r="P97" s="16"/>
@@ -6819,11 +6551,11 @@
       <c r="F98" s="12"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
-      <c r="I98" s="45"/>
+      <c r="I98" s="44"/>
       <c r="J98" s="15"/>
       <c r="K98" s="16"/>
       <c r="L98" s="12"/>
-      <c r="M98" s="47"/>
+      <c r="M98" s="46"/>
       <c r="N98" s="16"/>
       <c r="O98" s="16"/>
       <c r="P98" s="16"/>
@@ -7037,7 +6769,7 @@
       <c r="A12" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>325</v>
       </c>
       <c r="C12" s="16"/>
@@ -7054,7 +6786,7 @@
       <c r="A13" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>327</v>
       </c>
       <c r="C13" s="16"/>
@@ -7071,7 +6803,7 @@
       <c r="A14" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>329</v>
       </c>
       <c r="C14" s="16"/>
@@ -7088,7 +6820,7 @@
       <c r="A15" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>331</v>
       </c>
       <c r="C15" s="16"/>
@@ -7105,7 +6837,7 @@
       <c r="A16" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>333</v>
       </c>
       <c r="C16" s="16"/>
@@ -7122,7 +6854,7 @@
       <c r="A17" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="53" t="s">
         <v>335</v>
       </c>
       <c r="C17" s="16"/>
@@ -7152,7 +6884,7 @@
       <c r="A19" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="16"/>
@@ -7172,15 +6904,15 @@
       <c r="B20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
@@ -7209,46 +6941,46 @@
       <c r="A27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
@@ -7262,16 +6994,16 @@
     </row>
     <row r="33">
       <c r="A33" s="16"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7308,63 +7040,63 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>350</v>
       </c>
       <c r="D2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>353</v>
       </c>
       <c r="D3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>354</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>357</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>359</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -7372,27 +7104,27 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>360</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>364</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>366</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -7400,115 +7132,115 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>369</v>
       </c>
       <c r="D8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>372</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>373</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>375</v>
       </c>
       <c r="D10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>376</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>378</v>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>379</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>381</v>
       </c>
       <c r="D12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>382</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>384</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="61" t="s">
         <v>385</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="48" t="s">
         <v>387</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>388</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>390</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="61" t="s">
         <v>391</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>393</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="61" t="s">
         <v>394</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -7520,10 +7252,10 @@
       <c r="D17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="61" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>397</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -7532,13 +7264,13 @@
       <c r="D18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="61" t="s">
         <v>399</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>401</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -7546,37 +7278,37 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="61" t="s">
         <v>402</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>404</v>
       </c>
       <c r="D20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="61" t="s">
         <v>405</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>407</v>
       </c>
       <c r="D21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="61" t="s">
         <v>408</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="64" t="s">
         <v>410</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -7584,13 +7316,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="61" t="s">
         <v>411</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>413</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -7598,31 +7330,31 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>416</v>
       </c>
       <c r="D24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="65" t="s">
         <v>420</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -7634,7 +7366,7 @@
       <c r="D26" s="24"/>
     </row>
     <row r="27">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="65" t="s">
         <v>423</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -7646,7 +7378,7 @@
       <c r="D27" s="24"/>
     </row>
     <row r="28">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="65" t="s">
         <v>426</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -7658,7 +7390,7 @@
       <c r="D28" s="24"/>
     </row>
     <row r="29">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="65" t="s">
         <v>429</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -7670,7 +7402,7 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="65" t="s">
         <v>432</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -7682,7 +7414,7 @@
       <c r="D30" s="24"/>
     </row>
     <row r="31">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="65" t="s">
         <v>435</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -7694,7 +7426,7 @@
       <c r="D31" s="24"/>
     </row>
     <row r="32">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="65" t="s">
         <v>438</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -7706,7 +7438,7 @@
       <c r="D32" s="24"/>
     </row>
     <row r="33">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="65" t="s">
         <v>441</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -7718,7 +7450,7 @@
       <c r="D33" s="24"/>
     </row>
     <row r="34">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="65" t="s">
         <v>444</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -7730,7 +7462,7 @@
       <c r="D34" s="24"/>
     </row>
     <row r="35">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="65" t="s">
         <v>447</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -7742,73 +7474,73 @@
       <c r="D35" s="24"/>
     </row>
     <row r="36">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="66" t="s">
         <v>450</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="67" t="s">
         <v>452</v>
       </c>
       <c r="D36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="66" t="s">
         <v>453</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="67" t="s">
         <v>455</v>
       </c>
       <c r="D37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="66" t="s">
         <v>456</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="67" t="s">
         <v>458</v>
       </c>
       <c r="D38" s="16"/>
     </row>
     <row r="39">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="66" t="s">
         <v>459</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="68" t="s">
         <v>460</v>
       </c>
       <c r="D39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="66" t="s">
         <v>461</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="68" t="s">
         <v>463</v>
       </c>
       <c r="D40" s="16"/>
     </row>
     <row r="41">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="66" t="s">
         <v>464</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="69" t="s">
         <v>466</v>
       </c>
       <c r="D41" s="16"/>
@@ -7833,30 +7565,30 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="2" max="2" width="22.86"/>
+    <col customWidth="1" min="2" max="2" width="80.86"/>
     <col customWidth="1" min="5" max="5" width="20.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>467</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>468</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>469</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7876,7 +7608,7 @@
       <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
@@ -7895,14 +7627,14 @@
       <c r="E3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>480</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7914,14 +7646,14 @@
       <c r="E4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="75"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="73" t="s">
         <v>484</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -7933,14 +7665,14 @@
       <c r="E5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>488</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -7952,14 +7684,14 @@
       <c r="E6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>492</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -7971,14 +7703,14 @@
       <c r="E7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>496</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -7990,14 +7722,14 @@
       <c r="E8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>500</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -8009,14 +7741,14 @@
       <c r="E9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="73" t="s">
         <v>504</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -8028,14 +7760,14 @@
       <c r="E10" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>508</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -8047,14 +7779,14 @@
       <c r="E11" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
         <v>512</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -8066,7 +7798,7 @@
       <c r="E12" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13">
@@ -8085,14 +7817,14 @@
       <c r="E13" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>519</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -8104,14 +7836,14 @@
       <c r="E14" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="73" t="s">
         <v>523</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -8123,14 +7855,14 @@
       <c r="E15" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>527</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -8142,7 +7874,7 @@
       <c r="E16" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17">
@@ -8161,14 +7893,14 @@
       <c r="E17" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>535</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -8180,14 +7912,14 @@
       <c r="E18" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>539</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -8199,14 +7931,14 @@
       <c r="E19" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>543</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -8218,14 +7950,14 @@
       <c r="E20" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="F20" s="73"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="73" t="s">
         <v>547</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -8237,14 +7969,14 @@
       <c r="E21" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="73"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="73" t="s">
         <v>551</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -8256,14 +7988,14 @@
       <c r="E22" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="73"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="73" t="s">
         <v>555</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -8275,14 +8007,14 @@
       <c r="E23" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>559</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -8294,7 +8026,7 @@
       <c r="E24" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="15"/>
     </row>
   </sheetData>
@@ -8329,40 +8061,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>562</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>564</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="71" t="s">
         <v>565</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="71" t="s">
         <v>566</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="75" t="s">
         <v>568</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="75" t="s">
         <v>569</v>
       </c>
       <c r="M1" s="16" t="s">
@@ -8376,7 +8108,7 @@
       <c r="B2" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>572</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -8388,7 +8120,7 @@
       <c r="F2" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="G2" s="73"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="3"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
@@ -8403,7 +8135,7 @@
       <c r="B3" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>578</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -8415,7 +8147,7 @@
       <c r="F3" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="3"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
@@ -8430,7 +8162,7 @@
       <c r="B4" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>584</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -8442,7 +8174,7 @@
       <c r="F4" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="3"/>
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
@@ -8460,14 +8192,14 @@
       <c r="C5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="28" t="s">
         <v>146</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>590</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="73"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="3"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
@@ -8492,7 +8224,7 @@
         <v>593</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="73"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="3"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
@@ -8507,7 +8239,7 @@
       <c r="B7" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>596</v>
       </c>
       <c r="D7" s="29"/>
@@ -8515,7 +8247,7 @@
         <v>473</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="73"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="3" t="s">
         <v>227</v>
       </c>
@@ -8536,17 +8268,17 @@
       <c r="B8" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>599</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="3" t="s">
         <v>474</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="3" t="s">
         <v>224</v>
       </c>
@@ -8567,15 +8299,15 @@
       <c r="B9" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>596</v>
       </c>
-      <c r="D9" s="80"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="3" t="s">
         <v>477</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="52"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="3" t="s">
         <v>227</v>
       </c>
@@ -8596,10 +8328,10 @@
       <c r="B10" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>599</v>
       </c>
-      <c r="D10" s="80"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="3" t="s">
         <v>478</v>
       </c>
@@ -8612,10 +8344,10 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="79" t="s">
         <v>607</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="80" t="s">
         <v>608</v>
       </c>
       <c r="M10" s="16"/>
@@ -8627,10 +8359,10 @@
       <c r="B11" s="27" t="s">
         <v>610</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>599</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="3" t="s">
         <v>600</v>
       </c>
@@ -8643,10 +8375,10 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="79" t="s">
         <v>612</v>
       </c>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="80" t="s">
         <v>613</v>
       </c>
       <c r="M11" s="16"/>
@@ -8658,10 +8390,10 @@
       <c r="B12" s="27" t="s">
         <v>615</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="81" t="s">
         <v>596</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="3" t="s">
         <v>481</v>
       </c>
@@ -8674,10 +8406,10 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="81">
+      <c r="K12" s="79">
         <v>0.0</v>
       </c>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="80" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="16"/>
@@ -8689,10 +8421,10 @@
       <c r="B13" s="27" t="s">
         <v>618</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D13" s="80"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="3" t="s">
         <v>482</v>
       </c>
@@ -8705,10 +8437,10 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="L13" s="82" t="s">
+      <c r="L13" s="80" t="s">
         <v>621</v>
       </c>
       <c r="M13" s="16"/>
@@ -8720,10 +8452,10 @@
       <c r="B14" s="27" t="s">
         <v>623</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="3" t="s">
         <v>619</v>
       </c>
@@ -8736,10 +8468,10 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="79" t="s">
         <v>625</v>
       </c>
-      <c r="L14" s="82" t="s">
+      <c r="L14" s="80" t="s">
         <v>626</v>
       </c>
       <c r="M14" s="16"/>
@@ -8751,10 +8483,10 @@
       <c r="B15" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="3" t="s">
         <v>619</v>
       </c>
@@ -8767,10 +8499,10 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="81" t="s">
+      <c r="K15" s="79" t="s">
         <v>630</v>
       </c>
-      <c r="L15" s="82" t="s">
+      <c r="L15" s="80" t="s">
         <v>626</v>
       </c>
       <c r="M15" s="16"/>
@@ -8782,10 +8514,10 @@
       <c r="B16" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D16" s="80"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="3" t="s">
         <v>619</v>
       </c>
@@ -8798,10 +8530,10 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="81" t="s">
+      <c r="K16" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="L16" s="82" t="s">
+      <c r="L16" s="80" t="s">
         <v>626</v>
       </c>
       <c r="M16" s="16"/>
@@ -8813,10 +8545,10 @@
       <c r="B17" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D17" s="80"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="3" t="s">
         <v>619</v>
       </c>
@@ -8829,10 +8561,10 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="79" t="s">
         <v>638</v>
       </c>
-      <c r="L17" s="82" t="s">
+      <c r="L17" s="80" t="s">
         <v>626</v>
       </c>
       <c r="M17" s="16"/>
@@ -8844,10 +8576,10 @@
       <c r="B18" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="81" t="s">
         <v>596</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="3" t="s">
         <v>485</v>
       </c>
@@ -8860,10 +8592,10 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="81">
+      <c r="K18" s="79">
         <v>0.0</v>
       </c>
-      <c r="L18" s="82" t="s">
+      <c r="L18" s="80" t="s">
         <v>48</v>
       </c>
       <c r="M18" s="16"/>
@@ -8875,10 +8607,10 @@
       <c r="B19" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="3" t="s">
         <v>486</v>
       </c>
@@ -8891,10 +8623,10 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="L19" s="82" t="s">
+      <c r="L19" s="80" t="s">
         <v>644</v>
       </c>
       <c r="M19" s="16"/>
@@ -8906,10 +8638,10 @@
       <c r="B20" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="3" t="s">
         <v>643</v>
       </c>
@@ -8922,10 +8654,10 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="81" t="s">
+      <c r="K20" s="79" t="s">
         <v>625</v>
       </c>
-      <c r="L20" s="82" t="s">
+      <c r="L20" s="80" t="s">
         <v>648</v>
       </c>
       <c r="M20" s="16"/>
@@ -8937,10 +8669,10 @@
       <c r="B21" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D21" s="80"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="3" t="s">
         <v>643</v>
       </c>
@@ -8953,10 +8685,10 @@
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="79" t="s">
         <v>630</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="L21" s="80" t="s">
         <v>648</v>
       </c>
       <c r="M21" s="16"/>
@@ -8968,10 +8700,10 @@
       <c r="B22" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="3" t="s">
         <v>643</v>
       </c>
@@ -8984,10 +8716,10 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="81" t="s">
+      <c r="K22" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="L22" s="82" t="s">
+      <c r="L22" s="80" t="s">
         <v>648</v>
       </c>
       <c r="M22" s="16"/>
@@ -8999,10 +8731,10 @@
       <c r="B23" s="27" t="s">
         <v>656</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="3" t="s">
         <v>643</v>
       </c>
@@ -9015,10 +8747,10 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="81" t="s">
+      <c r="K23" s="79" t="s">
         <v>638</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="80" t="s">
         <v>648</v>
       </c>
       <c r="M23" s="16"/>
@@ -9030,10 +8762,10 @@
       <c r="B24" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="81" t="s">
         <v>596</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="3" t="s">
         <v>489</v>
       </c>
@@ -9046,10 +8778,10 @@
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="81">
+      <c r="K24" s="79">
         <v>0.0</v>
       </c>
-      <c r="L24" s="82" t="s">
+      <c r="L24" s="80" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="16"/>
@@ -9061,7 +8793,7 @@
       <c r="B25" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D25" s="15"/>
@@ -9077,10 +8809,10 @@
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="L25" s="82" t="s">
+      <c r="L25" s="80" t="s">
         <v>663</v>
       </c>
       <c r="M25" s="16"/>
@@ -9092,7 +8824,7 @@
       <c r="B26" s="27" t="s">
         <v>665</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D26" s="15"/>
@@ -9108,10 +8840,10 @@
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="79" t="s">
         <v>625</v>
       </c>
-      <c r="L26" s="82" t="s">
+      <c r="L26" s="80" t="s">
         <v>667</v>
       </c>
       <c r="M26" s="16"/>
@@ -9123,7 +8855,7 @@
       <c r="B27" s="27" t="s">
         <v>669</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D27" s="15"/>
@@ -9139,10 +8871,10 @@
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="79" t="s">
         <v>630</v>
       </c>
-      <c r="L27" s="82" t="s">
+      <c r="L27" s="80" t="s">
         <v>667</v>
       </c>
       <c r="M27" s="16"/>
@@ -9154,7 +8886,7 @@
       <c r="B28" s="27" t="s">
         <v>672</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D28" s="15"/>
@@ -9170,10 +8902,10 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="L28" s="82" t="s">
+      <c r="L28" s="80" t="s">
         <v>667</v>
       </c>
       <c r="M28" s="16"/>
@@ -9185,7 +8917,7 @@
       <c r="B29" s="27" t="s">
         <v>675</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D29" s="15"/>
@@ -9201,10 +8933,10 @@
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="79" t="s">
         <v>638</v>
       </c>
-      <c r="L29" s="82" t="s">
+      <c r="L29" s="80" t="s">
         <v>667</v>
       </c>
       <c r="M29" s="16"/>
@@ -9216,7 +8948,7 @@
       <c r="B30" s="27" t="s">
         <v>678</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D30" s="15"/>
@@ -9232,10 +8964,10 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="81">
+      <c r="K30" s="79">
         <v>0.0</v>
       </c>
-      <c r="L30" s="82" t="s">
+      <c r="L30" s="80" t="s">
         <v>73</v>
       </c>
       <c r="M30" s="16"/>
@@ -9247,7 +8979,7 @@
       <c r="B31" s="27" t="s">
         <v>680</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D31" s="15"/>
@@ -9263,10 +8995,10 @@
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="L31" s="82" t="s">
+      <c r="L31" s="80" t="s">
         <v>682</v>
       </c>
       <c r="M31" s="16"/>
@@ -9278,7 +9010,7 @@
       <c r="B32" s="27" t="s">
         <v>684</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D32" s="15"/>
@@ -9294,10 +9026,10 @@
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="81" t="s">
+      <c r="K32" s="79" t="s">
         <v>625</v>
       </c>
-      <c r="L32" s="82" t="s">
+      <c r="L32" s="80" t="s">
         <v>686</v>
       </c>
       <c r="M32" s="16"/>
@@ -9309,7 +9041,7 @@
       <c r="B33" s="27" t="s">
         <v>688</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D33" s="15"/>
@@ -9325,10 +9057,10 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="81" t="s">
+      <c r="K33" s="79" t="s">
         <v>630</v>
       </c>
-      <c r="L33" s="82" t="s">
+      <c r="L33" s="80" t="s">
         <v>686</v>
       </c>
       <c r="M33" s="16"/>
@@ -9340,7 +9072,7 @@
       <c r="B34" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D34" s="15"/>
@@ -9356,10 +9088,10 @@
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="81" t="s">
+      <c r="K34" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="L34" s="82" t="s">
+      <c r="L34" s="80" t="s">
         <v>686</v>
       </c>
       <c r="M34" s="16"/>
@@ -9371,7 +9103,7 @@
       <c r="B35" s="27" t="s">
         <v>694</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D35" s="15"/>
@@ -9387,10 +9119,10 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="81" t="s">
+      <c r="K35" s="79" t="s">
         <v>638</v>
       </c>
-      <c r="L35" s="82" t="s">
+      <c r="L35" s="80" t="s">
         <v>686</v>
       </c>
       <c r="M35" s="16"/>
@@ -9402,7 +9134,7 @@
       <c r="B36" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D36" s="15"/>
@@ -9418,10 +9150,10 @@
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="81">
+      <c r="K36" s="79">
         <v>0.0</v>
       </c>
-      <c r="L36" s="82" t="s">
+      <c r="L36" s="80" t="s">
         <v>60</v>
       </c>
       <c r="M36" s="16"/>
@@ -9433,7 +9165,7 @@
       <c r="B37" s="27" t="s">
         <v>699</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D37" s="15"/>
@@ -9449,10 +9181,10 @@
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="81" t="s">
+      <c r="K37" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="L37" s="82" t="s">
+      <c r="L37" s="80" t="s">
         <v>701</v>
       </c>
       <c r="M37" s="16"/>
@@ -9464,7 +9196,7 @@
       <c r="B38" s="27" t="s">
         <v>703</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D38" s="15"/>
@@ -9480,10 +9212,10 @@
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="81" t="s">
+      <c r="K38" s="79" t="s">
         <v>625</v>
       </c>
-      <c r="L38" s="82" t="s">
+      <c r="L38" s="80" t="s">
         <v>705</v>
       </c>
       <c r="M38" s="16"/>
@@ -9495,7 +9227,7 @@
       <c r="B39" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D39" s="15"/>
@@ -9511,10 +9243,10 @@
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="81" t="s">
+      <c r="K39" s="79" t="s">
         <v>630</v>
       </c>
-      <c r="L39" s="82" t="s">
+      <c r="L39" s="80" t="s">
         <v>705</v>
       </c>
       <c r="M39" s="16"/>
@@ -9526,7 +9258,7 @@
       <c r="B40" s="27" t="s">
         <v>710</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D40" s="15"/>
@@ -9542,10 +9274,10 @@
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="81" t="s">
+      <c r="K40" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="L40" s="82" t="s">
+      <c r="L40" s="80" t="s">
         <v>705</v>
       </c>
       <c r="M40" s="16"/>
@@ -9557,7 +9289,7 @@
       <c r="B41" s="27" t="s">
         <v>713</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D41" s="15"/>
@@ -9573,10 +9305,10 @@
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="81" t="s">
+      <c r="K41" s="79" t="s">
         <v>638</v>
       </c>
-      <c r="L41" s="82" t="s">
+      <c r="L41" s="80" t="s">
         <v>705</v>
       </c>
       <c r="M41" s="16"/>
@@ -9588,7 +9320,7 @@
       <c r="B42" s="27" t="s">
         <v>716</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D42" s="15"/>
@@ -9604,10 +9336,10 @@
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="81">
+      <c r="K42" s="79">
         <v>0.0</v>
       </c>
-      <c r="L42" s="82" t="s">
+      <c r="L42" s="80" t="s">
         <v>64</v>
       </c>
       <c r="M42" s="16"/>
@@ -9619,7 +9351,7 @@
       <c r="B43" s="27" t="s">
         <v>718</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D43" s="15"/>
@@ -9635,10 +9367,10 @@
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="81" t="s">
+      <c r="K43" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="L43" s="82" t="s">
+      <c r="L43" s="80" t="s">
         <v>720</v>
       </c>
       <c r="M43" s="16"/>
@@ -9650,7 +9382,7 @@
       <c r="B44" s="27" t="s">
         <v>722</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D44" s="15"/>
@@ -9666,10 +9398,10 @@
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="81" t="s">
+      <c r="K44" s="79" t="s">
         <v>625</v>
       </c>
-      <c r="L44" s="82" t="s">
+      <c r="L44" s="80" t="s">
         <v>724</v>
       </c>
       <c r="M44" s="16"/>
@@ -9681,7 +9413,7 @@
       <c r="B45" s="27" t="s">
         <v>726</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D45" s="15"/>
@@ -9697,10 +9429,10 @@
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="81" t="s">
+      <c r="K45" s="79" t="s">
         <v>630</v>
       </c>
-      <c r="L45" s="82" t="s">
+      <c r="L45" s="80" t="s">
         <v>724</v>
       </c>
       <c r="M45" s="16"/>
@@ -9712,7 +9444,7 @@
       <c r="B46" s="27" t="s">
         <v>729</v>
       </c>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D46" s="15"/>
@@ -9728,10 +9460,10 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="81" t="s">
+      <c r="K46" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="L46" s="82" t="s">
+      <c r="L46" s="80" t="s">
         <v>724</v>
       </c>
       <c r="M46" s="16"/>
@@ -9743,7 +9475,7 @@
       <c r="B47" s="27" t="s">
         <v>732</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D47" s="15"/>
@@ -9759,10 +9491,10 @@
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="81" t="s">
+      <c r="K47" s="79" t="s">
         <v>638</v>
       </c>
-      <c r="L47" s="82" t="s">
+      <c r="L47" s="80" t="s">
         <v>724</v>
       </c>
       <c r="M47" s="16"/>
@@ -9774,7 +9506,7 @@
       <c r="B48" s="27" t="s">
         <v>735</v>
       </c>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D48" s="15"/>
@@ -9790,10 +9522,10 @@
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="81">
+      <c r="K48" s="79">
         <v>0.0</v>
       </c>
-      <c r="L48" s="82" t="s">
+      <c r="L48" s="80" t="s">
         <v>304</v>
       </c>
       <c r="M48" s="16"/>
@@ -9805,7 +9537,7 @@
       <c r="B49" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D49" s="15"/>
@@ -9821,10 +9553,10 @@
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="81" t="s">
+      <c r="K49" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="L49" s="82" t="s">
+      <c r="L49" s="80" t="s">
         <v>740</v>
       </c>
       <c r="M49" s="16"/>
@@ -9836,7 +9568,7 @@
       <c r="B50" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D50" s="15"/>
@@ -9852,10 +9584,10 @@
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="81" t="s">
+      <c r="K50" s="79" t="s">
         <v>744</v>
       </c>
-      <c r="L50" s="82" t="s">
+      <c r="L50" s="80" t="s">
         <v>745</v>
       </c>
       <c r="M50" s="16"/>
@@ -9867,7 +9599,7 @@
       <c r="B51" s="27" t="s">
         <v>747</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D51" s="15"/>
@@ -9883,10 +9615,10 @@
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="81" t="s">
+      <c r="K51" s="79" t="s">
         <v>749</v>
       </c>
-      <c r="L51" s="82" t="s">
+      <c r="L51" s="80" t="s">
         <v>750</v>
       </c>
       <c r="M51" s="16"/>
@@ -9898,7 +9630,7 @@
       <c r="B52" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D52" s="15"/>
@@ -9914,10 +9646,10 @@
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="81" t="s">
+      <c r="K52" s="79" t="s">
         <v>754</v>
       </c>
-      <c r="L52" s="82" t="s">
+      <c r="L52" s="80" t="s">
         <v>755</v>
       </c>
       <c r="M52" s="16"/>
@@ -9929,7 +9661,7 @@
       <c r="B53" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D53" s="15"/>
@@ -9943,10 +9675,10 @@
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="81">
+      <c r="K53" s="79">
         <v>0.0</v>
       </c>
-      <c r="L53" s="82" t="s">
+      <c r="L53" s="80" t="s">
         <v>146</v>
       </c>
       <c r="M53" s="16"/>
@@ -9958,7 +9690,7 @@
       <c r="B54" s="27" t="s">
         <v>759</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="52" t="s">
         <v>599</v>
       </c>
       <c r="D54" s="15"/>
@@ -9974,7 +9706,7 @@
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="81" t="s">
+      <c r="K54" s="79" t="s">
         <v>761</v>
       </c>
       <c r="L54" s="27" t="s">
@@ -9988,7 +9720,7 @@
       <c r="B55" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D55" s="15"/>
@@ -10002,10 +9734,10 @@
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="16"/>
-      <c r="K55" s="81">
+      <c r="K55" s="79">
         <v>0.0</v>
       </c>
-      <c r="L55" s="46" t="s">
+      <c r="L55" s="45" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10016,7 +9748,7 @@
       <c r="B56" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="52" t="s">
         <v>599</v>
       </c>
       <c r="D56" s="15"/>
@@ -10032,10 +9764,10 @@
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="16"/>
-      <c r="K56" s="81" t="s">
+      <c r="K56" s="79" t="s">
         <v>768</v>
       </c>
-      <c r="L56" s="82" t="s">
+      <c r="L56" s="80" t="s">
         <v>769</v>
       </c>
       <c r="M56" s="16"/>
@@ -10047,7 +9779,7 @@
       <c r="B57" s="27" t="s">
         <v>771</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D57" s="15"/>
@@ -10061,8 +9793,8 @@
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="16"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="82" t="s">
+      <c r="K57" s="51"/>
+      <c r="L57" s="80" t="s">
         <v>146</v>
       </c>
       <c r="M57" s="16"/>
@@ -10074,7 +9806,7 @@
       <c r="B58" s="27" t="s">
         <v>773</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="C58" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D58" s="15"/>
@@ -10090,10 +9822,10 @@
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="81" t="s">
+      <c r="K58" s="79" t="s">
         <v>775</v>
       </c>
-      <c r="L58" s="82" t="s">
+      <c r="L58" s="80" t="s">
         <v>776</v>
       </c>
       <c r="M58" s="16"/>
@@ -10105,7 +9837,7 @@
       <c r="B59" s="27" t="s">
         <v>778</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D59" s="15"/>
@@ -10119,7 +9851,7 @@
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="16"/>
-      <c r="L59" s="46" t="s">
+      <c r="L59" s="45" t="s">
         <v>146</v>
       </c>
       <c r="M59" s="16"/>
@@ -10131,7 +9863,7 @@
       <c r="B60" s="27" t="s">
         <v>780</v>
       </c>
-      <c r="C60" s="83" t="s">
+      <c r="C60" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D60" s="15"/>
@@ -10147,10 +9879,10 @@
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="81" t="s">
+      <c r="K60" s="79" t="s">
         <v>782</v>
       </c>
-      <c r="L60" s="82" t="s">
+      <c r="L60" s="80" t="s">
         <v>783</v>
       </c>
       <c r="M60" s="16"/>
@@ -10162,7 +9894,7 @@
       <c r="B61" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D61" s="15"/>
@@ -10176,10 +9908,10 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
-      <c r="K61" s="81">
+      <c r="K61" s="79">
         <v>2.0</v>
       </c>
-      <c r="L61" s="82" t="s">
+      <c r="L61" s="80" t="s">
         <v>150</v>
       </c>
       <c r="M61" s="16"/>
@@ -10191,7 +9923,7 @@
       <c r="B62" s="27" t="s">
         <v>787</v>
       </c>
-      <c r="C62" s="83" t="s">
+      <c r="C62" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D62" s="15"/>
@@ -10207,10 +9939,10 @@
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="84">
+      <c r="K62" s="66">
         <v>2.0</v>
       </c>
-      <c r="L62" s="82" t="s">
+      <c r="L62" s="80" t="s">
         <v>150</v>
       </c>
       <c r="M62" s="16"/>
@@ -10222,7 +9954,7 @@
       <c r="B63" s="27" t="s">
         <v>790</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="C63" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D63" s="15"/>
@@ -10236,10 +9968,10 @@
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="84">
+      <c r="K63" s="66">
         <v>2.0</v>
       </c>
-      <c r="L63" s="82" t="s">
+      <c r="L63" s="80" t="s">
         <v>150</v>
       </c>
       <c r="M63" s="16"/>
@@ -10251,7 +9983,7 @@
       <c r="B64" s="27" t="s">
         <v>792</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D64" s="15"/>
@@ -10267,10 +9999,10 @@
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="16"/>
-      <c r="K64" s="84" t="s">
+      <c r="K64" s="66" t="s">
         <v>794</v>
       </c>
-      <c r="L64" s="85" t="s">
+      <c r="L64" s="3" t="s">
         <v>795</v>
       </c>
       <c r="M64" s="16"/>
@@ -10282,7 +10014,7 @@
       <c r="B65" s="27" t="s">
         <v>797</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D65" s="15"/>
@@ -10296,10 +10028,10 @@
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="84">
+      <c r="K65" s="66">
         <v>2.0</v>
       </c>
-      <c r="L65" s="82" t="s">
+      <c r="L65" s="80" t="s">
         <v>150</v>
       </c>
       <c r="M65" s="16"/>
@@ -10311,7 +10043,7 @@
       <c r="B66" s="27" t="s">
         <v>799</v>
       </c>
-      <c r="C66" s="83" t="s">
+      <c r="C66" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D66" s="15"/>
@@ -10327,10 +10059,10 @@
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="84" t="s">
+      <c r="K66" s="66" t="s">
         <v>801</v>
       </c>
-      <c r="L66" s="85" t="s">
+      <c r="L66" s="3" t="s">
         <v>795</v>
       </c>
       <c r="M66" s="16"/>
@@ -10342,7 +10074,7 @@
       <c r="B67" s="27" t="s">
         <v>803</v>
       </c>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D67" s="15"/>
@@ -10356,10 +10088,10 @@
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="84">
+      <c r="K67" s="66">
         <v>2.0</v>
       </c>
-      <c r="L67" s="82" t="s">
+      <c r="L67" s="80" t="s">
         <v>150</v>
       </c>
       <c r="M67" s="16"/>
@@ -10371,7 +10103,7 @@
       <c r="B68" s="27" t="s">
         <v>805</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="C68" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D68" s="15"/>
@@ -10387,10 +10119,10 @@
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="84">
+      <c r="K68" s="66">
         <v>2.0</v>
       </c>
-      <c r="L68" s="82" t="s">
+      <c r="L68" s="80" t="s">
         <v>150</v>
       </c>
       <c r="M68" s="16"/>
@@ -10402,7 +10134,7 @@
       <c r="B69" s="27" t="s">
         <v>808</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D69" s="15"/>
@@ -10416,10 +10148,10 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="84">
+      <c r="K69" s="66">
         <v>2.0</v>
       </c>
-      <c r="L69" s="82" t="s">
+      <c r="L69" s="80" t="s">
         <v>150</v>
       </c>
       <c r="M69" s="16"/>
@@ -10431,7 +10163,7 @@
       <c r="B70" s="27" t="s">
         <v>810</v>
       </c>
-      <c r="C70" s="83" t="s">
+      <c r="C70" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D70" s="15"/>
@@ -10447,10 +10179,10 @@
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="85" t="s">
+      <c r="K70" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="L70" s="85" t="s">
+      <c r="L70" s="3" t="s">
         <v>812</v>
       </c>
       <c r="M70" s="16"/>
@@ -10462,7 +10194,7 @@
       <c r="B71" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="C71" s="83" t="s">
+      <c r="C71" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D71" s="15"/>
@@ -10476,10 +10208,10 @@
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="84">
+      <c r="K71" s="66">
         <v>2.0</v>
       </c>
-      <c r="L71" s="85" t="s">
+      <c r="L71" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M71" s="16"/>
@@ -10491,7 +10223,7 @@
       <c r="B72" s="27" t="s">
         <v>816</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="C72" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D72" s="15"/>
@@ -10507,10 +10239,10 @@
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="85" t="s">
+      <c r="K72" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="L72" s="85" t="s">
+      <c r="L72" s="3" t="s">
         <v>812</v>
       </c>
       <c r="M72" s="16"/>
@@ -10522,7 +10254,7 @@
       <c r="B73" s="27" t="s">
         <v>819</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D73" s="15"/>
@@ -10536,10 +10268,10 @@
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="84">
+      <c r="K73" s="66">
         <v>2.0</v>
       </c>
-      <c r="L73" s="85" t="s">
+      <c r="L73" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M73" s="16"/>
@@ -10551,7 +10283,7 @@
       <c r="B74" s="27" t="s">
         <v>821</v>
       </c>
-      <c r="C74" s="83" t="s">
+      <c r="C74" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D74" s="15"/>
@@ -10566,10 +10298,10 @@
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
-      <c r="K74" s="84">
+      <c r="K74" s="66">
         <v>2.0</v>
       </c>
-      <c r="L74" s="85" t="s">
+      <c r="L74" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M74" s="16"/>
@@ -10581,7 +10313,7 @@
       <c r="B75" s="27" t="s">
         <v>824</v>
       </c>
-      <c r="C75" s="83" t="s">
+      <c r="C75" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D75" s="15"/>
@@ -10597,10 +10329,10 @@
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="84" t="s">
+      <c r="K75" s="66" t="s">
         <v>826</v>
       </c>
-      <c r="L75" s="85" t="s">
+      <c r="L75" s="3" t="s">
         <v>827</v>
       </c>
       <c r="M75" s="16"/>
@@ -10612,7 +10344,7 @@
       <c r="B76" s="27" t="s">
         <v>829</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D76" s="15"/>
@@ -10628,10 +10360,10 @@
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="84" t="s">
+      <c r="K76" s="66" t="s">
         <v>831</v>
       </c>
-      <c r="L76" s="85" t="s">
+      <c r="L76" s="3" t="s">
         <v>832</v>
       </c>
       <c r="M76" s="16"/>
@@ -10643,7 +10375,7 @@
       <c r="B77" s="27" t="s">
         <v>834</v>
       </c>
-      <c r="C77" s="83" t="s">
+      <c r="C77" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D77" s="15"/>
@@ -10657,10 +10389,10 @@
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="84">
+      <c r="K77" s="66">
         <v>4.0</v>
       </c>
-      <c r="L77" s="85" t="s">
+      <c r="L77" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M77" s="16"/>
@@ -10672,7 +10404,7 @@
       <c r="B78" s="27" t="s">
         <v>836</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D78" s="15"/>
@@ -10688,10 +10420,10 @@
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="16"/>
-      <c r="K78" s="84" t="s">
+      <c r="K78" s="66" t="s">
         <v>838</v>
       </c>
-      <c r="L78" s="85" t="s">
+      <c r="L78" s="3" t="s">
         <v>812</v>
       </c>
       <c r="M78" s="16"/>
@@ -10703,7 +10435,7 @@
       <c r="B79" s="27" t="s">
         <v>840</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D79" s="15"/>
@@ -10719,10 +10451,10 @@
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="86">
+      <c r="K79" s="82">
         <v>4.0</v>
       </c>
-      <c r="L79" s="85" t="s">
+      <c r="L79" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M79" s="16"/>
@@ -10734,7 +10466,7 @@
       <c r="B80" s="27" t="s">
         <v>843</v>
       </c>
-      <c r="C80" s="83" t="s">
+      <c r="C80" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D80" s="15"/>
@@ -10750,10 +10482,10 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="84" t="s">
+      <c r="K80" s="66" t="s">
         <v>845</v>
       </c>
-      <c r="L80" s="85" t="s">
+      <c r="L80" s="3" t="s">
         <v>827</v>
       </c>
       <c r="M80" s="16"/>
@@ -10765,7 +10497,7 @@
       <c r="B81" s="27" t="s">
         <v>847</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D81" s="15"/>
@@ -10779,10 +10511,10 @@
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="16"/>
-      <c r="K81" s="84">
+      <c r="K81" s="66">
         <v>4.0</v>
       </c>
-      <c r="L81" s="85" t="s">
+      <c r="L81" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M81" s="16"/>
@@ -10794,7 +10526,7 @@
       <c r="B82" s="27" t="s">
         <v>849</v>
       </c>
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D82" s="15"/>
@@ -10810,10 +10542,10 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="16"/>
-      <c r="K82" s="84" t="s">
+      <c r="K82" s="66" t="s">
         <v>851</v>
       </c>
-      <c r="L82" s="85" t="s">
+      <c r="L82" s="3" t="s">
         <v>852</v>
       </c>
       <c r="M82" s="16"/>
@@ -10825,7 +10557,7 @@
       <c r="B83" s="27" t="s">
         <v>854</v>
       </c>
-      <c r="C83" s="83" t="s">
+      <c r="C83" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D83" s="15"/>
@@ -10839,7 +10571,7 @@
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="16"/>
-      <c r="K83" s="84">
+      <c r="K83" s="66">
         <v>4.0</v>
       </c>
       <c r="L83" s="3" t="s">
@@ -10854,7 +10586,7 @@
       <c r="B84" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="C84" s="83" t="s">
+      <c r="C84" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D84" s="15"/>
@@ -10870,10 +10602,10 @@
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="16"/>
-      <c r="K84" s="84" t="s">
+      <c r="K84" s="66" t="s">
         <v>838</v>
       </c>
-      <c r="L84" s="85" t="s">
+      <c r="L84" s="3" t="s">
         <v>812</v>
       </c>
       <c r="M84" s="16"/>
@@ -10885,7 +10617,7 @@
       <c r="B85" s="27" t="s">
         <v>859</v>
       </c>
-      <c r="C85" s="83" t="s">
+      <c r="C85" s="81" t="s">
         <v>596</v>
       </c>
       <c r="D85" s="15"/>
@@ -10899,7 +10631,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="84">
+      <c r="K85" s="66">
         <v>2.0</v>
       </c>
       <c r="L85" s="3" t="s">
@@ -10908,13 +10640,13 @@
       <c r="M85" s="16"/>
     </row>
     <row r="86">
-      <c r="A86" s="44" t="s">
+      <c r="A86" s="43" t="s">
         <v>860</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="C86" s="83" t="s">
+      <c r="C86" s="81" t="s">
         <v>599</v>
       </c>
       <c r="D86" s="15"/>
@@ -10930,10 +10662,10 @@
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="16"/>
-      <c r="K86" s="85" t="s">
+      <c r="K86" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="L86" s="85" t="s">
+      <c r="L86" s="3" t="s">
         <v>864</v>
       </c>
       <c r="M86" s="16"/>
@@ -10960,237 +10692,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>865</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="3" t="s">
         <v>867</v>
       </c>
       <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="3" t="s">
         <v>868</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="83" t="s">
         <v>869</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="87" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="83" t="s">
         <v>870</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="83" t="s">
         <v>871</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="87" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="83" t="s">
         <v>872</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>590</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="83" t="s">
         <v>873</v>
       </c>
     </row>
@@ -11198,33 +10783,12 @@
       <c r="A9" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="87" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="83" t="s">
         <v>874</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11246,35 +10810,38 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="29.14"/>
-    <col customWidth="1" min="4" max="4" width="30.86"/>
-    <col customWidth="1" min="5" max="5" width="35.43"/>
-    <col customWidth="1" min="6" max="6" width="40.71"/>
+    <col customWidth="1" min="3" max="4" width="29.14"/>
+    <col customWidth="1" min="5" max="5" width="30.86"/>
+    <col customWidth="1" min="6" max="6" width="35.43"/>
+    <col customWidth="1" min="7" max="7" width="40.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>875</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>876</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="G1" s="84" t="s">
         <v>877</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>470</v>
       </c>
     </row>
@@ -11285,252 +10852,304 @@
       <c r="B2" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="16"/>
+        <v>881</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="16"/>
+        <v>883</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="16"/>
+        <v>885</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="16"/>
+        <v>887</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="16"/>
+        <v>889</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="16"/>
+        <v>891</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="16"/>
+        <v>893</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="16"/>
+        <v>895</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="16"/>
+        <v>897</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="16"/>
+        <v>899</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" ht="36.0" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="16"/>
+        <v>901</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" ht="36.0" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="16"/>
+        <v>903</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" ht="36.0" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="16"/>
+        <v>905</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" ht="36.0" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="16"/>
+        <v>907</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" ht="36.0" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="16"/>
+        <v>909</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" ht="36.0" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="16"/>
+        <v>911</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" ht="36.0" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="C19" s="31" t="s">
+        <v>914</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11558,42 +11177,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
-        <v>900</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>901</v>
+      <c r="A2" s="45" t="s">
+        <v>917</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>902</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>903</v>
+      <c r="A3" s="45" t="s">
+        <v>919</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
-        <v>904</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>905</v>
+      <c r="A4" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="46" t="s">
-        <v>906</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>907</v>
+      <c r="A5" s="45" t="s">
+        <v>923</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -12,7 +12,8 @@
     <sheet state="visible" name="nodes" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="groups" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="publications" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="localConventions" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="contributors" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="localConventions" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="959">
   <si>
     <t>id</t>
   </si>
@@ -2836,6 +2837,30 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/4044909/</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Gary Mawe</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2308-8813</t>
+  </si>
+  <si>
+    <t>Monique Surles-Zeigler</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7509-4801</t>
+  </si>
+  <si>
+    <t>Thomas H Gillespie</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0638-5274</t>
+  </si>
+  <si>
+    <t>Bernard de Bono</t>
   </si>
   <si>
     <t>prefix</t>
@@ -2920,7 +2945,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3015,6 +3040,14 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
@@ -3044,7 +3077,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -3057,11 +3090,25 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3326,11 +3373,20 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3344,6 +3400,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3628,112 +3688,177 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89" t="s">
+        <v>926</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="88" t="s">
+        <v>927</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>928</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="88" t="s">
+        <v>929</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="88" t="s">
+        <v>931</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink r:id="rId2" ref="A4"/>
+    <hyperlink r:id="rId3" ref="A5"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="35.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="88" t="s">
-        <v>925</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>926</v>
+      <c r="A1" s="91" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89" t="s">
-        <v>927</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>928</v>
+      <c r="A2" s="92" t="s">
+        <v>935</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="s">
-        <v>929</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>930</v>
+      <c r="A3" s="92" t="s">
+        <v>937</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="s">
-        <v>931</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>932</v>
+      <c r="A4" s="92" t="s">
+        <v>939</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="s">
-        <v>933</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>934</v>
+      <c r="A5" s="92" t="s">
+        <v>941</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="89" t="s">
-        <v>935</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>936</v>
+      <c r="A6" s="92" t="s">
+        <v>943</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="89" t="s">
-        <v>937</v>
-      </c>
-      <c r="B7" s="90" t="s">
-        <v>938</v>
+      <c r="A7" s="92" t="s">
+        <v>945</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="89" t="s">
-        <v>939</v>
-      </c>
-      <c r="B8" s="90" t="s">
-        <v>940</v>
+      <c r="A8" s="92" t="s">
+        <v>947</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="89" t="s">
-        <v>941</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>942</v>
+      <c r="A9" s="92" t="s">
+        <v>949</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="89" t="s">
-        <v>943</v>
-      </c>
-      <c r="B10" s="90" t="s">
-        <v>944</v>
+      <c r="A10" s="92" t="s">
+        <v>951</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="89" t="s">
-        <v>945</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>946</v>
+      <c r="A11" s="92" t="s">
+        <v>953</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="89" t="s">
-        <v>947</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>948</v>
+      <c r="A12" s="92" t="s">
+        <v>955</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="89" t="s">
-        <v>949</v>
-      </c>
-      <c r="B13" s="90" t="s">
-        <v>950</v>
+      <c r="A13" s="92" t="s">
+        <v>957</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>958</v>
       </c>
     </row>
   </sheetData>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="977">
   <si>
     <t>id</t>
   </si>
@@ -799,7 +799,7 @@
     <t>Blood vessel in lamina propria of mucosa of colon (sdcol)</t>
   </si>
   <si>
-    <t>Soma of Symp preganglionic neuron in L3_Neuron B (sdcol)</t>
+    <t>Soma of SPR neuron in L3_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>NLX:154731</t>
@@ -808,7 +808,7 @@
     <t>neuron-b</t>
   </si>
   <si>
-    <t>Soma of Symp preganglionic neuron in L4_Neuron B (sdcol)</t>
+    <t>Soma of SPR neuron in L4_Neuron B (sdcol)</t>
   </si>
   <si>
     <t>Soma of spinal afferent neuron in T13 DRG_Neuron C (sdcol)</t>
@@ -835,7 +835,7 @@
     <t>dcn-img_d</t>
   </si>
   <si>
-    <t>Soma of Symp postganglionic neuron in IMG_Neuron D (sdcol)</t>
+    <t>Soma of SPO neuron in IMG_Neuron D (sdcol)</t>
   </si>
   <si>
     <t>neuron-d</t>
@@ -844,7 +844,7 @@
     <t>dcn-img_f</t>
   </si>
   <si>
-    <t>Soma of Symp postganglionic neuron in IMG_Neuron F (sdcol)</t>
+    <t>Soma of SPO neuron in IMG_Neuron F (sdcol)</t>
   </si>
   <si>
     <t>neuron-f</t>
@@ -853,7 +853,7 @@
     <t>dcn-img_g</t>
   </si>
   <si>
-    <t>Soma of Symp postganglionic neuron in IMG_Neuron G (sdcol)</t>
+    <t>Soma of SPO neuron in IMG_Neuron G (sdcol)</t>
   </si>
   <si>
     <t>neuron-g</t>
@@ -862,756 +862,789 @@
     <t>dcn-img_h</t>
   </si>
   <si>
+    <t>Soma of SPO neuron in IMG_Neuron H (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-h</t>
+  </si>
+  <si>
+    <t>dcn-mp_i</t>
+  </si>
+  <si>
+    <t>Soma of interneuron neuron in myenteric plexus of colon_Neuron I (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-i</t>
+  </si>
+  <si>
+    <t>dcn_mp_j</t>
+  </si>
+  <si>
+    <t>Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-j</t>
+  </si>
+  <si>
+    <t>dcn_mp2_j</t>
+  </si>
+  <si>
+    <t>Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J' (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-j2</t>
+  </si>
+  <si>
+    <t>dcn-mp_k</t>
+  </si>
+  <si>
+    <t>Soma of interneuron in myenteric plexus_Neuron K(sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-k</t>
+  </si>
+  <si>
+    <t>dcn-mp_l</t>
+  </si>
+  <si>
+    <t>Soma of inhibitory motor neuron in myenteric plexus_Neuron L (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-l</t>
+  </si>
+  <si>
+    <t>dcn-mp2_l</t>
+  </si>
+  <si>
+    <t>Soma of inhibitory motor neuron in myenteric plexus_Neuron L' (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-l2</t>
+  </si>
+  <si>
+    <t>dcn-mp_m</t>
+  </si>
+  <si>
+    <t>Soma of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-m</t>
+  </si>
+  <si>
+    <t>dcn-mp_n</t>
+  </si>
+  <si>
+    <t>Soma of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-n</t>
+  </si>
+  <si>
+    <t>dcn-sp-o</t>
+  </si>
+  <si>
+    <t>Soma of vasodilatory motor neuron in submucosal plexus_Neuron O (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-o</t>
+  </si>
+  <si>
+    <t>dcn-mp-p</t>
+  </si>
+  <si>
+    <t>Soma of secretomotor neuron in submucosal plexus of colon_Neuron P (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-p</t>
+  </si>
+  <si>
+    <t>dcn-mp_q</t>
+  </si>
+  <si>
+    <t>Soma of intestinofugal in myenteric plexus of colon_Neuron Q (sdcol)</t>
+  </si>
+  <si>
+    <t>neuron-q</t>
+  </si>
+  <si>
+    <t>n-lumspl</t>
+  </si>
+  <si>
+    <t>Lumbar Splanchnic nerve</t>
+  </si>
+  <si>
+    <t>UBERON:0018683</t>
+  </si>
+  <si>
+    <t>n-lumcol</t>
+  </si>
+  <si>
+    <t>Lumbar Colonic Nerve</t>
+  </si>
+  <si>
+    <t>FMA:5861</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>constant phenotypes</t>
+  </si>
+  <si>
+    <t>orthgonal phenotype groups</t>
+  </si>
+  <si>
+    <t>chain ordering</t>
+  </si>
+  <si>
+    <t>id list</t>
+  </si>
+  <si>
+    <t>list of id lists</t>
+  </si>
+  <si>
+    <t>list of chains?</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>predicate</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>housing lyph or external id</t>
+  </si>
+  <si>
+    <t>axon</t>
+  </si>
+  <si>
+    <t>dendrite</t>
+  </si>
+  <si>
+    <t>axon terminal</t>
+  </si>
+  <si>
+    <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>Expanded Term</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>Sympathetic Pre-Ganglionic neuron</t>
+  </si>
+  <si>
+    <t>SLM</t>
+  </si>
+  <si>
+    <t>Somatic Lower Motor neuron</t>
+  </si>
+  <si>
+    <t>PSPR</t>
+  </si>
+  <si>
+    <t>Parasympathetic Pre-Ganglionic neuron</t>
+  </si>
+  <si>
+    <t>SPO</t>
+  </si>
+  <si>
+    <t>Sympathetic Post-Ganglionic neuron</t>
+  </si>
+  <si>
+    <t>PSPO</t>
+  </si>
+  <si>
+    <t>Parasympathetic Post-Ganglionic neuron</t>
+  </si>
+  <si>
+    <t>FOS</t>
+  </si>
+  <si>
+    <t>First order sensory neuron</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>spinal afferent neuron</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>interneuron neuron</t>
+  </si>
+  <si>
+    <t>EMN</t>
+  </si>
+  <si>
+    <t>excitatory motor neuron</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>inhibitory motor neuron</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>intrinsic primary afferent neuron</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Model short name</t>
+  </si>
+  <si>
+    <t>Model Decription</t>
+  </si>
+  <si>
+    <t>This digital record documents the ApiNATOMY representation of the neural circuits controlling defensive breathing with components under the influence of the Superior Cervical Ganglion (SCG). ApiNATOMY is a set of tools that produces simple, consistent anatomy schematics overlaid with ontological information. These tools are used to build routing and connectivity graphs (or wiring diagrams). This record contains a docs folder and a README text file. The Docs folder contains a PDF document, with a schematic image of the ApiNATOMY model. The Source folder contains the ApiNATOMY representation of the model in JSON and .xlsx formats. Lastly, the README .md document includes a brief description, keywords, and reference publications to construct the knowledge within the model.</t>
+  </si>
+  <si>
+    <t>Link to annotated map in Google Slides</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1eIOtHAxuA_tyY9Mc-TM3W0RNVQwL5JKoZLca4wAUKdA/edit</t>
+  </si>
+  <si>
+    <t>Link to model in Github</t>
+  </si>
+  <si>
+    <t>https://github.com/open-physiology/apinatomy-models/tree/master/models/sawg-distal-colon</t>
+  </si>
+  <si>
+    <t>Link to model in Zenodo</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/deposit/4592401</t>
+  </si>
+  <si>
+    <t>Lnk to reference statements</t>
+  </si>
+  <si>
+    <t>Link to papers (internal)</t>
+  </si>
+  <si>
+    <t>SM_2</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>CHEBI:15377</t>
+  </si>
+  <si>
+    <t>SM_5</t>
+  </si>
+  <si>
+    <t>Extracellular fluid</t>
+  </si>
+  <si>
+    <t>CHEBI:24839</t>
+  </si>
+  <si>
+    <t>SM_6</t>
+  </si>
+  <si>
+    <t>Endothelium</t>
+  </si>
+  <si>
+    <t>UBERON:0001986</t>
+  </si>
+  <si>
+    <t>SM_7</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>UBERON:0000178</t>
+  </si>
+  <si>
+    <t>SM_8</t>
+  </si>
+  <si>
+    <t>Aqueous solution</t>
+  </si>
+  <si>
+    <t>FMA:85815</t>
+  </si>
+  <si>
+    <t>SM_2, SM_13, SM_14, SM_15, SM_16, SM_17, SM_18, SM_19, SM_20, SM_21</t>
+  </si>
+  <si>
+    <t>SM_9</t>
+  </si>
+  <si>
+    <t>Cerebrospinal fluid</t>
+  </si>
+  <si>
+    <t>UBERON:0001359</t>
+  </si>
+  <si>
+    <t>SM_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smooth muscle </t>
+  </si>
+  <si>
+    <t>UBERON:0001135</t>
+  </si>
+  <si>
+    <t>SM_11</t>
+  </si>
+  <si>
+    <t>Connective Tissue</t>
+  </si>
+  <si>
+    <t>UBERON:0002384</t>
+  </si>
+  <si>
+    <t>SM_13</t>
+  </si>
+  <si>
+    <t>Sodium ion</t>
+  </si>
+  <si>
+    <t>CHEBI:29101</t>
+  </si>
+  <si>
+    <t>SM_14</t>
+  </si>
+  <si>
+    <t>Potassium ion</t>
+  </si>
+  <si>
+    <t>CHEBI:29103</t>
+  </si>
+  <si>
+    <t>SM_15</t>
+  </si>
+  <si>
+    <t>Calcium ion</t>
+  </si>
+  <si>
+    <t>CHEBI:29108</t>
+  </si>
+  <si>
+    <t>SM_16</t>
+  </si>
+  <si>
+    <t>Chloride ion</t>
+  </si>
+  <si>
+    <t>CHEBI:17996</t>
+  </si>
+  <si>
+    <t>SM_17</t>
+  </si>
+  <si>
+    <t>Hydrogen ion</t>
+  </si>
+  <si>
+    <t>CHEBI:24636</t>
+  </si>
+  <si>
+    <t>SM_18</t>
+  </si>
+  <si>
+    <t>Hydroxide ion</t>
+  </si>
+  <si>
+    <t>CHEBI:16234</t>
+  </si>
+  <si>
+    <t>SM_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicarbonate ion </t>
+  </si>
+  <si>
+    <t>CHEBI:17544</t>
+  </si>
+  <si>
+    <t>SM_20</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>SM_21</t>
+  </si>
+  <si>
+    <t>Fluid</t>
+  </si>
+  <si>
+    <t>UBERON:0006314</t>
+  </si>
+  <si>
+    <t>SM_22</t>
+  </si>
+  <si>
+    <t>Peripheral nervous system tissue</t>
+  </si>
+  <si>
+    <t>UBERON:0000010</t>
+  </si>
+  <si>
+    <t>SM_23</t>
+  </si>
+  <si>
+    <t>Ependyma</t>
+  </si>
+  <si>
+    <t>UBERON:0004670</t>
+  </si>
+  <si>
+    <t>SM_24</t>
+  </si>
+  <si>
+    <t>Pia mater</t>
+  </si>
+  <si>
+    <t>UBERON:0002361</t>
+  </si>
+  <si>
+    <t>SM_25</t>
+  </si>
+  <si>
+    <t>Central nervous system tissue</t>
+  </si>
+  <si>
+    <t>UBERON:0001017</t>
+  </si>
+  <si>
+    <t>SM_26</t>
+  </si>
+  <si>
+    <t>Wall of vessel</t>
+  </si>
+  <si>
+    <t>UBERON:0035965</t>
+  </si>
+  <si>
+    <t>SM_27</t>
+  </si>
+  <si>
+    <t>White matter of CNS</t>
+  </si>
+  <si>
+    <t>UBERON:0016549</t>
+  </si>
+  <si>
+    <t>SM_28</t>
+  </si>
+  <si>
+    <t>Gray matter of CNS</t>
+  </si>
+  <si>
+    <t>UBERON:0016548</t>
+  </si>
+  <si>
+    <t>SM_77</t>
+  </si>
+  <si>
+    <t>lamina I of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0006118</t>
+  </si>
+  <si>
+    <t>SM_78</t>
+  </si>
+  <si>
+    <t>lamina II of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0002181</t>
+  </si>
+  <si>
+    <t>SM_79</t>
+  </si>
+  <si>
+    <t>lamina III of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016574</t>
+  </si>
+  <si>
+    <t>SM_80</t>
+  </si>
+  <si>
+    <t>lamina IV of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016575</t>
+  </si>
+  <si>
+    <t>SM_81</t>
+  </si>
+  <si>
+    <t>lamina V of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016576</t>
+  </si>
+  <si>
+    <t>SM_82</t>
+  </si>
+  <si>
+    <t>lamina VI of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016577</t>
+  </si>
+  <si>
+    <t>SM_83</t>
+  </si>
+  <si>
+    <t>lamina VII of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016578</t>
+  </si>
+  <si>
+    <t>SM_84</t>
+  </si>
+  <si>
+    <t>lamina VIII of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016579</t>
+  </si>
+  <si>
+    <t>SM_85</t>
+  </si>
+  <si>
+    <t>lamina IX of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016580</t>
+  </si>
+  <si>
+    <t>SM_86</t>
+  </si>
+  <si>
+    <t>lamina X of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0004677</t>
+  </si>
+  <si>
+    <t>SM_54</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>GO:0005829</t>
+  </si>
+  <si>
+    <t>SM_55</t>
+  </si>
+  <si>
+    <t>Membrane</t>
+  </si>
+  <si>
+    <t>GO:0016020</t>
+  </si>
+  <si>
+    <t>SM_56</t>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0005886</t>
+  </si>
+  <si>
+    <t>SM_116</t>
+  </si>
+  <si>
+    <t>GO:0005615</t>
+  </si>
+  <si>
+    <t>SM_87</t>
+  </si>
+  <si>
+    <t>Epithelium</t>
+  </si>
+  <si>
+    <t>UBERON:0000483</t>
+  </si>
+  <si>
+    <t>SM_89</t>
+  </si>
+  <si>
+    <t>Basement membrane</t>
+  </si>
+  <si>
+    <t>UBERON:0005769</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>conveyingLyph</t>
+  </si>
+  <si>
+    <t>publications</t>
+  </si>
+  <si>
+    <t>lnk-dcn-l3_b</t>
+  </si>
+  <si>
+    <t>link to Soma of Symp preganglionic neuron in L3_Neuron B (sdcol)</t>
+  </si>
+  <si>
+    <t>ns1</t>
+  </si>
+  <si>
+    <t>ns2</t>
+  </si>
+  <si>
+    <t>lnk-dcn-l4_b</t>
+  </si>
+  <si>
+    <t>link to Soma of Symp preganglionic neuron in L4_Neuron B (sdcol)</t>
+  </si>
+  <si>
+    <t>ns3</t>
+  </si>
+  <si>
+    <t>ns4</t>
+  </si>
+  <si>
+    <t>lnk-dcn-t13drg_c</t>
+  </si>
+  <si>
+    <t>link to Soma of spinal afferent neuron in T13 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>ns7</t>
+  </si>
+  <si>
+    <t>ns8</t>
+  </si>
+  <si>
+    <t>lnk-dcn-l1drg_c</t>
+  </si>
+  <si>
+    <t>link to Soma of spinal afferent neuron in L1 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>ns12</t>
+  </si>
+  <si>
+    <t>ns13</t>
+  </si>
+  <si>
+    <t>lnk-dcn-l2drg_c</t>
+  </si>
+  <si>
+    <t>link to Soma of spinal afferent neuron in L2 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>ns17</t>
+  </si>
+  <si>
+    <t>ns18</t>
+  </si>
+  <si>
+    <t>lnk-dcn-l3drg_c</t>
+  </si>
+  <si>
+    <t>link to Soma of spinal afferent neuron in L3 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>ns22</t>
+  </si>
+  <si>
+    <t>ns23</t>
+  </si>
+  <si>
+    <t>lnk-dcn-l4drg_c</t>
+  </si>
+  <si>
+    <t>link to Soma of spinal afferent neuron in L4 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>ns26</t>
+  </si>
+  <si>
+    <t>ns27</t>
+  </si>
+  <si>
+    <t>lnk-dcn-l5drg_c</t>
+  </si>
+  <si>
+    <t>link to Soma of spinal afferent neuron in L5 DRG_Neuron C (sdcol)</t>
+  </si>
+  <si>
+    <t>ns30</t>
+  </si>
+  <si>
+    <t>ns31</t>
+  </si>
+  <si>
+    <t>lnk-dcn-img_d</t>
+  </si>
+  <si>
+    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron D (sdcol)</t>
+  </si>
+  <si>
+    <t>ns34</t>
+  </si>
+  <si>
+    <t>ns35</t>
+  </si>
+  <si>
+    <t>lnk-dcn-img_f</t>
+  </si>
+  <si>
+    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron F (sdcol)</t>
+  </si>
+  <si>
+    <t>ns36</t>
+  </si>
+  <si>
+    <t>ns37</t>
+  </si>
+  <si>
+    <t>lnk-dcn-img_g</t>
+  </si>
+  <si>
+    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron G (sdcol)</t>
+  </si>
+  <si>
+    <t>ns39</t>
+  </si>
+  <si>
+    <t>ns40</t>
+  </si>
+  <si>
+    <t>lnk-dcn-img_h</t>
+  </si>
+  <si>
     <t>Soma of Symp postganglionic neuron in IMG_Neuron H (sdcol)</t>
   </si>
   <si>
-    <t>neuron-h</t>
-  </si>
-  <si>
-    <t>dcn-mp_i</t>
-  </si>
-  <si>
-    <t>Soma of interneuron neuron in myenteric plexus of colon_Neuron I (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-i</t>
-  </si>
-  <si>
-    <t>dcn_mp_j</t>
-  </si>
-  <si>
-    <t>Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-j</t>
-  </si>
-  <si>
-    <t>dcn_mp2_j</t>
-  </si>
-  <si>
-    <t>Soma of excitatory motor neuron in myenteric plexus of colon_Neuron J' (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-j2</t>
-  </si>
-  <si>
-    <t>dcn-mp_k</t>
-  </si>
-  <si>
-    <t>Soma of interneuron in myenteric plexus_Neuron K(sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-k</t>
-  </si>
-  <si>
-    <t>dcn-mp_l</t>
-  </si>
-  <si>
-    <t>Soma of inhibitory motor neuron in myenteric plexus_Neuron L (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-l</t>
-  </si>
-  <si>
-    <t>dcn-mp2_l</t>
-  </si>
-  <si>
-    <t>Soma of inhibitory motor neuron in myenteric plexus_Neuron L' (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-l2</t>
-  </si>
-  <si>
-    <t>dcn-mp_m</t>
-  </si>
-  <si>
-    <t>Soma of intrinsic primary afferent neuron in myenteric plexus of colon_Neuron M (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-m</t>
-  </si>
-  <si>
-    <t>dcn-mp_n</t>
-  </si>
-  <si>
-    <t>Soma of intrinsic primary afferent neurons in submucosal plexus of colon_Neuron N (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-n</t>
-  </si>
-  <si>
-    <t>dcn-sp-o</t>
-  </si>
-  <si>
-    <t>Soma of vasodilatory motor neuron in submucosal plexus_Neuron O (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-o</t>
-  </si>
-  <si>
-    <t>dcn-mp-p</t>
-  </si>
-  <si>
-    <t>Soma of secretomotor neuron in submucosal plexus of colon_Neuron P (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-p</t>
-  </si>
-  <si>
-    <t>dcn-mp_q</t>
-  </si>
-  <si>
-    <t>Soma of intestinafugal neuron in myenteric plexus of colon_Neuron Q (sdcol)</t>
-  </si>
-  <si>
-    <t>neuron-q</t>
-  </si>
-  <si>
-    <t>n-lumspl</t>
-  </si>
-  <si>
-    <t>Lumbar Splanchnic nerve</t>
-  </si>
-  <si>
-    <t>UBERON:0018683</t>
-  </si>
-  <si>
-    <t>n-lumcol</t>
-  </si>
-  <si>
-    <t>Lumbar Colonic Nerve</t>
-  </si>
-  <si>
-    <t>FMA:5861</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>constant phenotypes</t>
-  </si>
-  <si>
-    <t>orthgonal phenotype groups</t>
-  </si>
-  <si>
-    <t>chain ordering</t>
-  </si>
-  <si>
-    <t>id list</t>
-  </si>
-  <si>
-    <t>list of id lists</t>
-  </si>
-  <si>
-    <t>list of chains?</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>predicate</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>soma</t>
-  </si>
-  <si>
-    <t>housing lyph or external id</t>
-  </si>
-  <si>
-    <t>axon</t>
-  </si>
-  <si>
-    <t>dendrite</t>
-  </si>
-  <si>
-    <t>axon terminal</t>
-  </si>
-  <si>
-    <t>Abbreviations</t>
-  </si>
-  <si>
-    <t>Expanded Term</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>Sympathetic Pre-Ganglionic neuron</t>
-  </si>
-  <si>
-    <t>SLM</t>
-  </si>
-  <si>
-    <t>Somatic Lower Motor neuron</t>
-  </si>
-  <si>
-    <t>PSPR</t>
-  </si>
-  <si>
-    <t>Parasympathetic Pre-Ganglionic neuron</t>
-  </si>
-  <si>
-    <t>SPO</t>
-  </si>
-  <si>
-    <t>Sympathetic Post-Ganglionic neuron</t>
-  </si>
-  <si>
-    <t>PSPO</t>
-  </si>
-  <si>
-    <t>Parasympathetic Post-Ganglionic neuron</t>
-  </si>
-  <si>
-    <t>FOS</t>
-  </si>
-  <si>
-    <t>First order sensory neuron</t>
-  </si>
-  <si>
-    <t>Model Name</t>
-  </si>
-  <si>
-    <t>Model short name</t>
-  </si>
-  <si>
-    <t>Model Decription</t>
-  </si>
-  <si>
-    <t>This digital record documents the ApiNATOMY representation of the neural circuits controlling defensive breathing with components under the influence of the Superior Cervical Ganglion (SCG). ApiNATOMY is a set of tools that produces simple, consistent anatomy schematics overlaid with ontological information. These tools are used to build routing and connectivity graphs (or wiring diagrams). This record contains a docs folder and a README text file. The Docs folder contains a PDF document, with a schematic image of the ApiNATOMY model. The Source folder contains the ApiNATOMY representation of the model in JSON and .xlsx formats. Lastly, the README .md document includes a brief description, keywords, and reference publications to construct the knowledge within the model.</t>
-  </si>
-  <si>
-    <t>Link to annotated map in Google Slides</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1eIOtHAxuA_tyY9Mc-TM3W0RNVQwL5JKoZLca4wAUKdA/edit</t>
-  </si>
-  <si>
-    <t>Link to model in Github</t>
-  </si>
-  <si>
-    <t>https://github.com/open-physiology/apinatomy-models/tree/master/models/sawg-distal-colon</t>
-  </si>
-  <si>
-    <t>Link to model in Zenodo</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/deposit/4592401</t>
-  </si>
-  <si>
-    <t>Lnk to reference statements</t>
-  </si>
-  <si>
-    <t>Link to papers (internal)</t>
-  </si>
-  <si>
-    <t>SM_2</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>CHEBI:15377</t>
-  </si>
-  <si>
-    <t>SM_5</t>
-  </si>
-  <si>
-    <t>Extracellular fluid</t>
-  </si>
-  <si>
-    <t>CHEBI:24839</t>
-  </si>
-  <si>
-    <t>SM_6</t>
-  </si>
-  <si>
-    <t>Endothelium</t>
-  </si>
-  <si>
-    <t>UBERON:0001986</t>
-  </si>
-  <si>
-    <t>SM_7</t>
-  </si>
-  <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>UBERON:0000178</t>
-  </si>
-  <si>
-    <t>SM_8</t>
-  </si>
-  <si>
-    <t>Aqueous solution</t>
-  </si>
-  <si>
-    <t>FMA:85815</t>
-  </si>
-  <si>
-    <t>SM_2, SM_13, SM_14, SM_15, SM_16, SM_17, SM_18, SM_19, SM_20, SM_21</t>
-  </si>
-  <si>
-    <t>SM_9</t>
-  </si>
-  <si>
-    <t>Cerebrospinal fluid</t>
-  </si>
-  <si>
-    <t>UBERON:0001359</t>
-  </si>
-  <si>
-    <t>SM_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth muscle </t>
-  </si>
-  <si>
-    <t>UBERON:0001135</t>
-  </si>
-  <si>
-    <t>SM_11</t>
-  </si>
-  <si>
-    <t>Connective Tissue</t>
-  </si>
-  <si>
-    <t>UBERON:0002384</t>
-  </si>
-  <si>
-    <t>SM_13</t>
-  </si>
-  <si>
-    <t>Sodium ion</t>
-  </si>
-  <si>
-    <t>CHEBI:29101</t>
-  </si>
-  <si>
-    <t>SM_14</t>
-  </si>
-  <si>
-    <t>Potassium ion</t>
-  </si>
-  <si>
-    <t>CHEBI:29103</t>
-  </si>
-  <si>
-    <t>SM_15</t>
-  </si>
-  <si>
-    <t>Calcium ion</t>
-  </si>
-  <si>
-    <t>CHEBI:29108</t>
-  </si>
-  <si>
-    <t>SM_16</t>
-  </si>
-  <si>
-    <t>Chloride ion</t>
-  </si>
-  <si>
-    <t>CHEBI:17996</t>
-  </si>
-  <si>
-    <t>SM_17</t>
-  </si>
-  <si>
-    <t>Hydrogen ion</t>
-  </si>
-  <si>
-    <t>CHEBI:24636</t>
-  </si>
-  <si>
-    <t>SM_18</t>
-  </si>
-  <si>
-    <t>Hydroxide ion</t>
-  </si>
-  <si>
-    <t>CHEBI:16234</t>
-  </si>
-  <si>
-    <t>SM_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicarbonate ion </t>
-  </si>
-  <si>
-    <t>CHEBI:17544</t>
-  </si>
-  <si>
-    <t>SM_20</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>SM_21</t>
-  </si>
-  <si>
-    <t>Fluid</t>
-  </si>
-  <si>
-    <t>UBERON:0006314</t>
-  </si>
-  <si>
-    <t>SM_22</t>
-  </si>
-  <si>
-    <t>Peripheral nervous system tissue</t>
-  </si>
-  <si>
-    <t>UBERON:0000010</t>
-  </si>
-  <si>
-    <t>SM_23</t>
-  </si>
-  <si>
-    <t>Ependyma</t>
-  </si>
-  <si>
-    <t>UBERON:0004670</t>
-  </si>
-  <si>
-    <t>SM_24</t>
-  </si>
-  <si>
-    <t>Pia mater</t>
-  </si>
-  <si>
-    <t>UBERON:0002361</t>
-  </si>
-  <si>
-    <t>SM_25</t>
-  </si>
-  <si>
-    <t>Central nervous system tissue</t>
-  </si>
-  <si>
-    <t>UBERON:0001017</t>
-  </si>
-  <si>
-    <t>SM_26</t>
-  </si>
-  <si>
-    <t>Wall of vessel</t>
-  </si>
-  <si>
-    <t>UBERON:0035965</t>
-  </si>
-  <si>
-    <t>SM_27</t>
-  </si>
-  <si>
-    <t>White matter of CNS</t>
-  </si>
-  <si>
-    <t>UBERON:0016549</t>
-  </si>
-  <si>
-    <t>SM_28</t>
-  </si>
-  <si>
-    <t>Gray matter of CNS</t>
-  </si>
-  <si>
-    <t>UBERON:0016548</t>
-  </si>
-  <si>
-    <t>SM_77</t>
-  </si>
-  <si>
-    <t>lamina I of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0006118</t>
-  </si>
-  <si>
-    <t>SM_78</t>
-  </si>
-  <si>
-    <t>lamina II of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0002181</t>
-  </si>
-  <si>
-    <t>SM_79</t>
-  </si>
-  <si>
-    <t>lamina III of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016574</t>
-  </si>
-  <si>
-    <t>SM_80</t>
-  </si>
-  <si>
-    <t>lamina IV of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016575</t>
-  </si>
-  <si>
-    <t>SM_81</t>
-  </si>
-  <si>
-    <t>lamina V of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016576</t>
-  </si>
-  <si>
-    <t>SM_82</t>
-  </si>
-  <si>
-    <t>lamina VI of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016577</t>
-  </si>
-  <si>
-    <t>SM_83</t>
-  </si>
-  <si>
-    <t>lamina VII of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016578</t>
-  </si>
-  <si>
-    <t>SM_84</t>
-  </si>
-  <si>
-    <t>lamina VIII of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016579</t>
-  </si>
-  <si>
-    <t>SM_85</t>
-  </si>
-  <si>
-    <t>lamina IX of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016580</t>
-  </si>
-  <si>
-    <t>SM_86</t>
-  </si>
-  <si>
-    <t>lamina X of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0004677</t>
-  </si>
-  <si>
-    <t>SM_54</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>GO:0005829</t>
-  </si>
-  <si>
-    <t>SM_55</t>
-  </si>
-  <si>
-    <t>Membrane</t>
-  </si>
-  <si>
-    <t>GO:0016020</t>
-  </si>
-  <si>
-    <t>SM_56</t>
-  </si>
-  <si>
-    <t>Plasma membrane</t>
-  </si>
-  <si>
-    <t>GO:0005886</t>
-  </si>
-  <si>
-    <t>SM_116</t>
-  </si>
-  <si>
-    <t>GO:0005615</t>
-  </si>
-  <si>
-    <t>SM_87</t>
-  </si>
-  <si>
-    <t>Epithelium</t>
-  </si>
-  <si>
-    <t>UBERON:0000483</t>
-  </si>
-  <si>
-    <t>SM_89</t>
-  </si>
-  <si>
-    <t>Basement membrane</t>
-  </si>
-  <si>
-    <t>UBERON:0005769</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>conveyingLyph</t>
-  </si>
-  <si>
-    <t>publications</t>
-  </si>
-  <si>
-    <t>lnk-dcn-l3_b</t>
-  </si>
-  <si>
-    <t>link to Soma of Symp preganglionic neuron in L3_Neuron B (sdcol)</t>
-  </si>
-  <si>
-    <t>ns1</t>
-  </si>
-  <si>
-    <t>ns2</t>
-  </si>
-  <si>
-    <t>lnk-dcn-l4_b</t>
-  </si>
-  <si>
-    <t>link to Soma of Symp preganglionic neuron in L4_Neuron B (sdcol)</t>
-  </si>
-  <si>
-    <t>ns3</t>
-  </si>
-  <si>
-    <t>ns4</t>
-  </si>
-  <si>
-    <t>lnk-dcn-t13drg_c</t>
-  </si>
-  <si>
-    <t>link to Soma of spinal afferent neuron in T13 DRG_Neuron C (sdcol)</t>
-  </si>
-  <si>
-    <t>ns7</t>
-  </si>
-  <si>
-    <t>ns8</t>
-  </si>
-  <si>
-    <t>lnk-dcn-l1drg_c</t>
-  </si>
-  <si>
-    <t>link to Soma of spinal afferent neuron in L1 DRG_Neuron C (sdcol)</t>
-  </si>
-  <si>
-    <t>ns12</t>
-  </si>
-  <si>
-    <t>ns13</t>
-  </si>
-  <si>
-    <t>lnk-dcn-l2drg_c</t>
-  </si>
-  <si>
-    <t>link to Soma of spinal afferent neuron in L2 DRG_Neuron C (sdcol)</t>
-  </si>
-  <si>
-    <t>ns17</t>
-  </si>
-  <si>
-    <t>ns18</t>
-  </si>
-  <si>
-    <t>lnk-dcn-l3drg_c</t>
-  </si>
-  <si>
-    <t>link to Soma of spinal afferent neuron in L3 DRG_Neuron C (sdcol)</t>
-  </si>
-  <si>
-    <t>ns22</t>
-  </si>
-  <si>
-    <t>ns23</t>
-  </si>
-  <si>
-    <t>lnk-dcn-l4drg_c</t>
-  </si>
-  <si>
-    <t>link to Soma of spinal afferent neuron in L4 DRG_Neuron C (sdcol)</t>
-  </si>
-  <si>
-    <t>ns26</t>
-  </si>
-  <si>
-    <t>ns27</t>
-  </si>
-  <si>
-    <t>lnk-dcn-l5drg_c</t>
-  </si>
-  <si>
-    <t>link to Soma of spinal afferent neuron in L5 DRG_Neuron C (sdcol)</t>
-  </si>
-  <si>
-    <t>ns30</t>
-  </si>
-  <si>
-    <t>ns31</t>
-  </si>
-  <si>
-    <t>lnk-dcn-img_d</t>
-  </si>
-  <si>
-    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron D (sdcol)</t>
-  </si>
-  <si>
-    <t>ns34</t>
-  </si>
-  <si>
-    <t>ns35</t>
-  </si>
-  <si>
-    <t>lnk-dcn-img_f</t>
-  </si>
-  <si>
-    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron F (sdcol)</t>
-  </si>
-  <si>
-    <t>ns36</t>
-  </si>
-  <si>
-    <t>ns37</t>
-  </si>
-  <si>
-    <t>lnk-dcn-img_g</t>
-  </si>
-  <si>
-    <t>link to Soma of Symp postganglionic neuron in IMG_Neuron G (sdcol)</t>
-  </si>
-  <si>
-    <t>ns39</t>
-  </si>
-  <si>
-    <t>ns40</t>
-  </si>
-  <si>
-    <t>lnk-dcn-img_h</t>
-  </si>
-  <si>
     <t>ns42</t>
   </si>
   <si>
@@ -2701,12 +2734,18 @@
     <t>groups</t>
   </si>
   <si>
+    <t>neuronTypes</t>
+  </si>
+  <si>
     <t>Neuron b</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-sdcol-b</t>
   </si>
   <si>
+    <t>sympathetic pre-ganglionic neuron</t>
+  </si>
+  <si>
     <t>Neuron c</t>
   </si>
   <si>
@@ -2743,6 +2782,9 @@
     <t>ilxtr:neuron-type-sdcol-i</t>
   </si>
   <si>
+    <t>interneuron</t>
+  </si>
+  <si>
     <t>Neuron j</t>
   </si>
   <si>
@@ -2791,18 +2833,27 @@
     <t>ilxtr:neuron-type-sdcol-o</t>
   </si>
   <si>
+    <t xml:space="preserve">vasodilatory motor neuron </t>
+  </si>
+  <si>
     <t>Neuron p</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-sdcol-p</t>
   </si>
   <si>
+    <t>secretomotor neuron</t>
+  </si>
+  <si>
     <t>Neuron q</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-sdcol-q</t>
   </si>
   <si>
+    <t>intestinofugal neuron</t>
+  </si>
+  <si>
     <t>img-group</t>
   </si>
   <si>
@@ -2842,25 +2893,28 @@
     <t>notes</t>
   </si>
   <si>
+    <t>https://orcid.org/0000-0002-2308-8813</t>
+  </si>
+  <si>
+    <t>Monique Surles-Zeigler</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7509-4801</t>
+  </si>
+  <si>
+    <t>Thomas H Gillespie</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0638-5274</t>
+  </si>
+  <si>
+    <t>Bernard de Bono</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-8876-8468</t>
+  </si>
+  <si>
     <t>Gary Mawe</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-2308-8813</t>
-  </si>
-  <si>
-    <t>Monique Surles-Zeigler</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-7509-4801</t>
-  </si>
-  <si>
-    <t>Thomas H Gillespie</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0003-0638-5274</t>
-  </si>
-  <si>
-    <t>Bernard de Bono</t>
   </si>
   <si>
     <t>prefix</t>
@@ -2945,7 +2999,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2985,8 +3039,15 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -3025,15 +3086,12 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <b/>
       <sz val="9.0"/>
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -3041,9 +3099,6 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -3108,7 +3163,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3265,11 +3320,20 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -3277,19 +3341,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3298,10 +3362,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3310,13 +3374,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3331,16 +3395,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3349,35 +3413,35 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -3386,7 +3450,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3697,50 +3761,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>925</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89" t="s">
-        <v>926</v>
+      <c r="A2" s="92" t="s">
+        <v>943</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>944</v>
       </c>
       <c r="C2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="88" t="s">
-        <v>927</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>928</v>
+      <c r="A3" s="92" t="s">
+        <v>945</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>946</v>
       </c>
       <c r="C3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="88" t="s">
-        <v>929</v>
+      <c r="A4" s="92" t="s">
+        <v>947</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="88" t="s">
-        <v>931</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="A5" s="91" t="s">
+        <v>949</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>950</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3758,107 +3824,107 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="91" t="s">
-        <v>933</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>934</v>
+      <c r="A1" s="94" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="92" t="s">
-        <v>935</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>936</v>
+      <c r="A2" s="95" t="s">
+        <v>953</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="92" t="s">
-        <v>937</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>938</v>
+      <c r="A3" s="95" t="s">
+        <v>955</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="92" t="s">
-        <v>939</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>940</v>
+      <c r="A4" s="95" t="s">
+        <v>957</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="92" t="s">
-        <v>941</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>942</v>
+      <c r="A5" s="95" t="s">
+        <v>959</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="92" t="s">
-        <v>943</v>
-      </c>
-      <c r="B6" s="93" t="s">
-        <v>944</v>
+      <c r="A6" s="95" t="s">
+        <v>961</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="92" t="s">
-        <v>945</v>
-      </c>
-      <c r="B7" s="93" t="s">
-        <v>946</v>
+      <c r="A7" s="95" t="s">
+        <v>963</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="92" t="s">
-        <v>947</v>
-      </c>
-      <c r="B8" s="93" t="s">
-        <v>948</v>
+      <c r="A8" s="95" t="s">
+        <v>965</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="92" t="s">
-        <v>949</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>950</v>
+      <c r="A9" s="95" t="s">
+        <v>967</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="92" t="s">
-        <v>951</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>952</v>
+      <c r="A10" s="95" t="s">
+        <v>969</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="92" t="s">
-        <v>953</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>954</v>
+      <c r="A11" s="95" t="s">
+        <v>971</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="92" t="s">
-        <v>955</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>956</v>
+      <c r="A12" s="95" t="s">
+        <v>973</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="92" t="s">
-        <v>957</v>
-      </c>
-      <c r="B13" s="93" t="s">
-        <v>958</v>
+      <c r="A13" s="95" t="s">
+        <v>975</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -5965,10 +6031,10 @@
       <c r="A74" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D74" s="16"/>
@@ -5995,10 +6061,10 @@
       <c r="A75" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D75" s="16"/>
@@ -6024,7 +6090,7 @@
       <c r="B76" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D76" s="16"/>
@@ -6054,7 +6120,7 @@
       <c r="B77" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D77" s="16"/>
@@ -6080,7 +6146,7 @@
       <c r="B78" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D78" s="16"/>
@@ -6108,7 +6174,7 @@
       <c r="B79" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D79" s="16"/>
@@ -6136,7 +6202,7 @@
       <c r="B80" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="16"/>
@@ -6164,7 +6230,7 @@
       <c r="B81" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D81" s="16"/>
@@ -6189,10 +6255,10 @@
       <c r="A82" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D82" s="16"/>
@@ -6219,10 +6285,10 @@
       <c r="A83" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D83" s="16"/>
@@ -6249,10 +6315,10 @@
       <c r="A84" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="52" t="s">
+      <c r="C84" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D84" s="16"/>
@@ -6279,10 +6345,10 @@
       <c r="A85" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D85" s="16"/>
@@ -6312,7 +6378,7 @@
       <c r="B86" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D86" s="16"/>
@@ -6342,7 +6408,7 @@
       <c r="B87" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D87" s="16"/>
@@ -6372,7 +6438,7 @@
       <c r="B88" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D88" s="16"/>
@@ -6402,7 +6468,7 @@
       <c r="B89" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="C89" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D89" s="16"/>
@@ -6432,7 +6498,7 @@
       <c r="B90" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="52" t="s">
+      <c r="C90" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D90" s="16"/>
@@ -6462,7 +6528,7 @@
       <c r="B91" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="52" t="s">
+      <c r="C91" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D91" s="16"/>
@@ -6492,7 +6558,7 @@
       <c r="B92" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D92" s="16"/>
@@ -6522,7 +6588,7 @@
       <c r="B93" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D93" s="16"/>
@@ -6552,7 +6618,7 @@
       <c r="B94" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D94" s="16"/>
@@ -6582,7 +6648,7 @@
       <c r="B95" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D95" s="16"/>
@@ -6609,10 +6675,10 @@
       <c r="A96" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C96" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D96" s="16"/>
@@ -6894,7 +6960,7 @@
       <c r="A12" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>325</v>
       </c>
       <c r="C12" s="16"/>
@@ -6911,7 +6977,7 @@
       <c r="A13" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="54" t="s">
         <v>327</v>
       </c>
       <c r="C13" s="16"/>
@@ -6928,7 +6994,7 @@
       <c r="A14" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="54" t="s">
         <v>329</v>
       </c>
       <c r="C14" s="16"/>
@@ -6945,7 +7011,7 @@
       <c r="A15" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="54" t="s">
         <v>331</v>
       </c>
       <c r="C15" s="16"/>
@@ -6962,7 +7028,7 @@
       <c r="A16" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>333</v>
       </c>
       <c r="C16" s="16"/>
@@ -6979,7 +7045,7 @@
       <c r="A17" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="54" t="s">
         <v>335</v>
       </c>
       <c r="C17" s="16"/>
@@ -6993,8 +7059,12 @@
       <c r="K17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>337</v>
+      </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -7006,11 +7076,11 @@
       <c r="K18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>5</v>
+      <c r="A19" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>339</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -7023,124 +7093,205 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
+      <c r="A20" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>339</v>
-      </c>
+      <c r="A21" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="16"/>
+      <c r="A22" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23">
       <c r="A23" s="16"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="16"/>
+      <c r="A24" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26">
-      <c r="A26" s="16"/>
+      <c r="A26" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>341</v>
-      </c>
+      <c r="A28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
+      <c r="A29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="A30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
-        <v>346</v>
-      </c>
+      <c r="A31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="s">
-        <v>347</v>
-      </c>
+      <c r="A32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="16"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="A33" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="16"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B21:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B26:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B28"/>
-    <hyperlink r:id="rId2" ref="B29"/>
-    <hyperlink r:id="rId3" ref="B30"/>
+    <hyperlink r:id="rId1" ref="B33"/>
+    <hyperlink r:id="rId2" ref="B34"/>
+    <hyperlink r:id="rId3" ref="B35"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -7165,508 +7316,508 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="62" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61" t="s">
-        <v>348</v>
+      <c r="A2" s="64" t="s">
+        <v>358</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="61" t="s">
-        <v>351</v>
+      <c r="A3" s="64" t="s">
+        <v>361</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="61" t="s">
-        <v>354</v>
+      <c r="A4" s="64" t="s">
+        <v>364</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D4" s="48"/>
     </row>
     <row r="5">
-      <c r="A5" s="61" t="s">
-        <v>357</v>
+      <c r="A5" s="64" t="s">
+        <v>367</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="61" t="s">
-        <v>360</v>
+      <c r="A6" s="64" t="s">
+        <v>370</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="48" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="68" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="68" t="s">
+        <v>454</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="69" t="s">
+        <v>460</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="69" t="s">
+        <v>463</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>465</v>
+      </c>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="69" t="s">
+        <v>466</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>468</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="69" t="s">
+        <v>469</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="61" t="s">
-        <v>388</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="61" t="s">
-        <v>394</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>407</v>
-      </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="65" t="s">
-        <v>420</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="65" t="s">
-        <v>423</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="65" t="s">
-        <v>429</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="65" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="65" t="s">
-        <v>435</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="65" t="s">
-        <v>438</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="D32" s="24"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="65" t="s">
-        <v>444</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="66" t="s">
-        <v>450</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>455</v>
-      </c>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="66" t="s">
-        <v>456</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>458</v>
-      </c>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="66" t="s">
-        <v>459</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>460</v>
+      <c r="C39" s="71" t="s">
+        <v>470</v>
       </c>
       <c r="D39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="66" t="s">
-        <v>461</v>
+      <c r="A40" s="69" t="s">
+        <v>471</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>463</v>
+        <v>472</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>473</v>
       </c>
       <c r="D40" s="16"/>
     </row>
     <row r="41">
-      <c r="A41" s="66" t="s">
-        <v>464</v>
+      <c r="A41" s="69" t="s">
+        <v>474</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="C41" s="69" t="s">
-        <v>466</v>
+        <v>475</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>476</v>
       </c>
       <c r="D41" s="16"/>
     </row>
@@ -7695,463 +7846,463 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>468</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>469</v>
-      </c>
-      <c r="F1" s="71" t="s">
+      <c r="C1" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="71" t="s">
-        <v>470</v>
+      <c r="G1" s="74" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>480</v>
+        <v>489</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>490</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>484</v>
+        <v>493</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>494</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>488</v>
+        <v>497</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>498</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>492</v>
+        <v>501</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>502</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>496</v>
+        <v>505</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>506</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>500</v>
+        <v>509</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>510</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>504</v>
+        <v>513</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>514</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>508</v>
+        <v>517</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>518</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>512</v>
+        <v>521</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>522</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>266</v>
+        <v>526</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>519</v>
+        <v>529</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>530</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="75"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>523</v>
+        <v>533</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>534</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>527</v>
+        <v>537</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>538</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>535</v>
+        <v>545</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>546</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>539</v>
+        <v>549</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>550</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>543</v>
+        <v>553</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>554</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>547</v>
+        <v>557</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>558</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>551</v>
+        <v>561</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>562</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>555</v>
+        <v>565</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>566</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="72"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>559</v>
+        <v>569</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>570</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="F24" s="72"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="15"/>
     </row>
   </sheetData>
@@ -8186,66 +8337,66 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
-        <v>562</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>563</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>564</v>
-      </c>
-      <c r="G1" s="71" t="s">
+      <c r="D1" s="74" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="G1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="71" t="s">
-        <v>565</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>566</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>567</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>568</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>569</v>
+      <c r="H1" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>577</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>578</v>
+      </c>
+      <c r="K1" s="78" t="s">
+        <v>579</v>
+      </c>
+      <c r="L1" s="78" t="s">
+        <v>580</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G2" s="72"/>
+        <v>586</v>
+      </c>
+      <c r="G2" s="75"/>
       <c r="H2" s="3"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
@@ -8255,24 +8406,24 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>578</v>
+        <v>588</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>589</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G3" s="72"/>
+        <v>592</v>
+      </c>
+      <c r="G3" s="75"/>
       <c r="H3" s="3"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
@@ -8282,24 +8433,24 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>584</v>
+        <v>594</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>595</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="G4" s="72"/>
+        <v>598</v>
+      </c>
+      <c r="G4" s="75"/>
       <c r="H4" s="3"/>
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
@@ -8309,10 +8460,10 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>148</v>
@@ -8321,10 +8472,10 @@
         <v>146</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="72"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="3"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
@@ -8334,10 +8485,10 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>152</v>
@@ -8346,10 +8497,10 @@
         <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="72"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="3"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
@@ -8359,20 +8510,20 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>596</v>
+        <v>606</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>607</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="3" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="72"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="3" t="s">
         <v>227</v>
       </c>
@@ -8388,20 +8539,20 @@
     </row>
     <row r="8" ht="20.25" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="D8" s="78"/>
+        <v>609</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>610</v>
+      </c>
+      <c r="D8" s="81"/>
       <c r="E8" s="3" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="3" t="s">
@@ -8410,26 +8561,26 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="3" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="M8" s="16"/>
     </row>
     <row r="9" ht="20.25" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>596</v>
-      </c>
-      <c r="D9" s="78"/>
+        <v>615</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="81"/>
       <c r="E9" s="3" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="51"/>
@@ -8448,20 +8599,20 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="D10" s="78"/>
+        <v>617</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>610</v>
+      </c>
+      <c r="D10" s="81"/>
       <c r="E10" s="3" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="3" t="s">
@@ -8469,30 +8620,30 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="79" t="s">
-        <v>607</v>
-      </c>
-      <c r="L10" s="80" t="s">
-        <v>608</v>
+      <c r="K10" s="82" t="s">
+        <v>618</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>619</v>
       </c>
       <c r="M10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="D11" s="78"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="3" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="3" t="s">
@@ -8500,30 +8651,30 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="79" t="s">
-        <v>612</v>
-      </c>
-      <c r="L11" s="80" t="s">
-        <v>613</v>
+      <c r="K11" s="82" t="s">
+        <v>623</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>624</v>
       </c>
       <c r="M11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>596</v>
-      </c>
-      <c r="D12" s="78"/>
+        <v>626</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="D12" s="81"/>
       <c r="E12" s="3" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="3" t="s">
@@ -8531,30 +8682,30 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="79">
+      <c r="K12" s="82">
         <v>0.0</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="83" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D13" s="78"/>
+        <v>629</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D13" s="81"/>
       <c r="E13" s="3" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="3" t="s">
@@ -8562,30 +8713,30 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="79" t="s">
-        <v>620</v>
-      </c>
-      <c r="L13" s="80" t="s">
-        <v>621</v>
+      <c r="K13" s="82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>632</v>
       </c>
       <c r="M13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>623</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D14" s="78"/>
+        <v>634</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D14" s="81"/>
       <c r="E14" s="3" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="3" t="s">
@@ -8593,30 +8744,30 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="79" t="s">
-        <v>625</v>
-      </c>
-      <c r="L14" s="80" t="s">
-        <v>626</v>
+      <c r="K14" s="82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L14" s="83" t="s">
+        <v>637</v>
       </c>
       <c r="M14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D15" s="78"/>
+        <v>639</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D15" s="81"/>
       <c r="E15" s="3" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="3" t="s">
@@ -8624,30 +8775,30 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="79" t="s">
-        <v>630</v>
-      </c>
-      <c r="L15" s="80" t="s">
-        <v>626</v>
+      <c r="K15" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="L15" s="83" t="s">
+        <v>637</v>
       </c>
       <c r="M15" s="16"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>632</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D16" s="78"/>
+        <v>643</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D16" s="81"/>
       <c r="E16" s="3" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="3" t="s">
@@ -8655,30 +8806,30 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="79" t="s">
-        <v>634</v>
-      </c>
-      <c r="L16" s="80" t="s">
-        <v>626</v>
+      <c r="K16" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="L16" s="83" t="s">
+        <v>637</v>
       </c>
       <c r="M16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D17" s="78"/>
+        <v>647</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D17" s="81"/>
       <c r="E17" s="3" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="3" t="s">
@@ -8686,30 +8837,30 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="79" t="s">
-        <v>638</v>
-      </c>
-      <c r="L17" s="80" t="s">
-        <v>626</v>
+      <c r="K17" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="L17" s="83" t="s">
+        <v>637</v>
       </c>
       <c r="M17" s="16"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>596</v>
-      </c>
-      <c r="D18" s="78"/>
+        <v>651</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="D18" s="81"/>
       <c r="E18" s="3" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="3" t="s">
@@ -8717,30 +8868,30 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="79">
+      <c r="K18" s="82">
         <v>0.0</v>
       </c>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="83" t="s">
         <v>48</v>
       </c>
       <c r="M18" s="16"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D19" s="78"/>
+        <v>653</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D19" s="81"/>
       <c r="E19" s="3" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="3" t="s">
@@ -8748,30 +8899,30 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="79" t="s">
-        <v>620</v>
-      </c>
-      <c r="L19" s="80" t="s">
-        <v>644</v>
+      <c r="K19" s="82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L19" s="83" t="s">
+        <v>655</v>
       </c>
       <c r="M19" s="16"/>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D20" s="78"/>
+        <v>657</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" s="81"/>
       <c r="E20" s="3" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="3" t="s">
@@ -8779,30 +8930,30 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="79" t="s">
-        <v>625</v>
-      </c>
-      <c r="L20" s="80" t="s">
-        <v>648</v>
+      <c r="K20" s="82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L20" s="83" t="s">
+        <v>659</v>
       </c>
       <c r="M20" s="16"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>650</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D21" s="78"/>
+        <v>661</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D21" s="81"/>
       <c r="E21" s="3" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="3" t="s">
@@ -8810,30 +8961,30 @@
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="79" t="s">
-        <v>630</v>
-      </c>
-      <c r="L21" s="80" t="s">
-        <v>648</v>
+      <c r="K21" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="L21" s="83" t="s">
+        <v>659</v>
       </c>
       <c r="M21" s="16"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D22" s="78"/>
+        <v>664</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D22" s="81"/>
       <c r="E22" s="3" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="3" t="s">
@@ -8841,30 +8992,30 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="79" t="s">
-        <v>634</v>
-      </c>
-      <c r="L22" s="80" t="s">
-        <v>648</v>
+      <c r="K22" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="L22" s="83" t="s">
+        <v>659</v>
       </c>
       <c r="M22" s="16"/>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="D23" s="78"/>
+        <v>667</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D23" s="81"/>
       <c r="E23" s="3" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="3" t="s">
@@ -8872,30 +9023,30 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="79" t="s">
-        <v>638</v>
-      </c>
-      <c r="L23" s="80" t="s">
-        <v>648</v>
+      <c r="K23" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="L23" s="83" t="s">
+        <v>659</v>
       </c>
       <c r="M23" s="16"/>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>659</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>596</v>
-      </c>
-      <c r="D24" s="78"/>
+        <v>670</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="D24" s="81"/>
       <c r="E24" s="3" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="3" t="s">
@@ -8903,30 +9054,30 @@
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="79">
+      <c r="K24" s="82">
         <v>0.0</v>
       </c>
-      <c r="L24" s="80" t="s">
+      <c r="L24" s="83" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="16"/>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>599</v>
+        <v>672</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="3" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="3" t="s">
@@ -8934,30 +9085,30 @@
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="79" t="s">
-        <v>620</v>
-      </c>
-      <c r="L25" s="80" t="s">
-        <v>663</v>
+      <c r="K25" s="82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L25" s="83" t="s">
+        <v>674</v>
       </c>
       <c r="M25" s="16"/>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>665</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>599</v>
+        <v>676</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="3" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="3" t="s">
@@ -8965,30 +9116,30 @@
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="79" t="s">
-        <v>625</v>
-      </c>
-      <c r="L26" s="80" t="s">
-        <v>667</v>
+      <c r="K26" s="82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L26" s="83" t="s">
+        <v>678</v>
       </c>
       <c r="M26" s="16"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>599</v>
+        <v>680</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="3" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="3" t="s">
@@ -8996,30 +9147,30 @@
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="79" t="s">
-        <v>630</v>
-      </c>
-      <c r="L27" s="80" t="s">
-        <v>667</v>
+      <c r="K27" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="L27" s="83" t="s">
+        <v>678</v>
       </c>
       <c r="M27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>599</v>
+        <v>683</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="3" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="3" t="s">
@@ -9027,30 +9178,30 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="79" t="s">
-        <v>634</v>
-      </c>
-      <c r="L28" s="80" t="s">
-        <v>667</v>
+      <c r="K28" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="L28" s="83" t="s">
+        <v>678</v>
       </c>
       <c r="M28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>675</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>599</v>
+        <v>686</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="3" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="3" t="s">
@@ -9058,30 +9209,30 @@
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="79" t="s">
-        <v>638</v>
-      </c>
-      <c r="L29" s="80" t="s">
-        <v>667</v>
+      <c r="K29" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="L29" s="83" t="s">
+        <v>678</v>
       </c>
       <c r="M29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>596</v>
+        <v>689</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="3" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="3" t="s">
@@ -9089,30 +9240,30 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="79">
+      <c r="K30" s="82">
         <v>0.0</v>
       </c>
-      <c r="L30" s="80" t="s">
+      <c r="L30" s="83" t="s">
         <v>73</v>
       </c>
       <c r="M30" s="16"/>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>680</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>599</v>
+        <v>691</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="3" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="3" t="s">
@@ -9120,30 +9271,30 @@
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="79" t="s">
-        <v>620</v>
-      </c>
-      <c r="L31" s="80" t="s">
-        <v>682</v>
+      <c r="K31" s="82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L31" s="83" t="s">
+        <v>693</v>
       </c>
       <c r="M31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>599</v>
+        <v>695</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="3" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="3" t="s">
@@ -9151,30 +9302,30 @@
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="79" t="s">
-        <v>625</v>
-      </c>
-      <c r="L32" s="80" t="s">
-        <v>686</v>
+      <c r="K32" s="82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L32" s="83" t="s">
+        <v>697</v>
       </c>
       <c r="M32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>688</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>599</v>
+        <v>699</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="3" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="3" t="s">
@@ -9182,30 +9333,30 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="79" t="s">
-        <v>630</v>
-      </c>
-      <c r="L33" s="80" t="s">
-        <v>686</v>
+      <c r="K33" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="L33" s="83" t="s">
+        <v>697</v>
       </c>
       <c r="M33" s="16"/>
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>691</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>599</v>
+        <v>702</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="3" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="3" t="s">
@@ -9213,30 +9364,30 @@
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="79" t="s">
-        <v>634</v>
-      </c>
-      <c r="L34" s="80" t="s">
-        <v>686</v>
+      <c r="K34" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="L34" s="83" t="s">
+        <v>697</v>
       </c>
       <c r="M34" s="16"/>
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>694</v>
-      </c>
-      <c r="C35" s="81" t="s">
-        <v>599</v>
+        <v>705</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="3" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="3" t="s">
@@ -9244,30 +9395,30 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="79" t="s">
-        <v>638</v>
-      </c>
-      <c r="L35" s="80" t="s">
-        <v>686</v>
+      <c r="K35" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="L35" s="83" t="s">
+        <v>697</v>
       </c>
       <c r="M35" s="16"/>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>697</v>
-      </c>
-      <c r="C36" s="81" t="s">
-        <v>596</v>
+        <v>708</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="3" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="3" t="s">
@@ -9275,30 +9426,30 @@
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="79">
+      <c r="K36" s="82">
         <v>0.0</v>
       </c>
-      <c r="L36" s="80" t="s">
+      <c r="L36" s="83" t="s">
         <v>60</v>
       </c>
       <c r="M36" s="16"/>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="C37" s="81" t="s">
-        <v>599</v>
+        <v>710</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="3" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="3" t="s">
@@ -9306,30 +9457,30 @@
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="79" t="s">
-        <v>620</v>
-      </c>
-      <c r="L37" s="80" t="s">
-        <v>701</v>
+      <c r="K37" s="82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L37" s="83" t="s">
+        <v>712</v>
       </c>
       <c r="M37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>599</v>
+        <v>714</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="3" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="3" t="s">
@@ -9337,30 +9488,30 @@
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="79" t="s">
-        <v>625</v>
-      </c>
-      <c r="L38" s="80" t="s">
-        <v>705</v>
+      <c r="K38" s="82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L38" s="83" t="s">
+        <v>716</v>
       </c>
       <c r="M38" s="16"/>
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>599</v>
+        <v>718</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="3" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="3" t="s">
@@ -9368,30 +9519,30 @@
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="79" t="s">
-        <v>630</v>
-      </c>
-      <c r="L39" s="80" t="s">
-        <v>705</v>
+      <c r="K39" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="L39" s="83" t="s">
+        <v>716</v>
       </c>
       <c r="M39" s="16"/>
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="C40" s="81" t="s">
-        <v>599</v>
+        <v>721</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="3" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="3" t="s">
@@ -9399,30 +9550,30 @@
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="79" t="s">
-        <v>634</v>
-      </c>
-      <c r="L40" s="80" t="s">
-        <v>705</v>
+      <c r="K40" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="L40" s="83" t="s">
+        <v>716</v>
       </c>
       <c r="M40" s="16"/>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="C41" s="81" t="s">
-        <v>599</v>
+        <v>724</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="3" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="3" t="s">
@@ -9430,30 +9581,30 @@
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="79" t="s">
-        <v>638</v>
-      </c>
-      <c r="L41" s="80" t="s">
-        <v>705</v>
+      <c r="K41" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="L41" s="83" t="s">
+        <v>716</v>
       </c>
       <c r="M41" s="16"/>
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="C42" s="81" t="s">
-        <v>596</v>
+        <v>727</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="3" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="3" t="s">
@@ -9461,30 +9612,30 @@
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="79">
+      <c r="K42" s="82">
         <v>0.0</v>
       </c>
-      <c r="L42" s="80" t="s">
+      <c r="L42" s="83" t="s">
         <v>64</v>
       </c>
       <c r="M42" s="16"/>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>718</v>
-      </c>
-      <c r="C43" s="81" t="s">
-        <v>599</v>
+        <v>729</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="3" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="3" t="s">
@@ -9492,30 +9643,30 @@
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="79" t="s">
-        <v>620</v>
-      </c>
-      <c r="L43" s="80" t="s">
-        <v>720</v>
+      <c r="K43" s="82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L43" s="83" t="s">
+        <v>731</v>
       </c>
       <c r="M43" s="16"/>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>722</v>
-      </c>
-      <c r="C44" s="81" t="s">
-        <v>599</v>
+        <v>733</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="3" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="3" t="s">
@@ -9523,30 +9674,30 @@
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="79" t="s">
-        <v>625</v>
-      </c>
-      <c r="L44" s="80" t="s">
-        <v>724</v>
+      <c r="K44" s="82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L44" s="83" t="s">
+        <v>735</v>
       </c>
       <c r="M44" s="16"/>
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>726</v>
-      </c>
-      <c r="C45" s="81" t="s">
-        <v>599</v>
+        <v>737</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="3" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="3" t="s">
@@ -9554,30 +9705,30 @@
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="79" t="s">
-        <v>630</v>
-      </c>
-      <c r="L45" s="80" t="s">
-        <v>724</v>
+      <c r="K45" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="L45" s="83" t="s">
+        <v>735</v>
       </c>
       <c r="M45" s="16"/>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>599</v>
+        <v>740</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="3" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="3" t="s">
@@ -9585,30 +9736,30 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="79" t="s">
-        <v>634</v>
-      </c>
-      <c r="L46" s="80" t="s">
-        <v>724</v>
+      <c r="K46" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="L46" s="83" t="s">
+        <v>735</v>
       </c>
       <c r="M46" s="16"/>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>599</v>
+        <v>743</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="3" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="3" t="s">
@@ -9616,30 +9767,30 @@
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="79" t="s">
-        <v>638</v>
-      </c>
-      <c r="L47" s="80" t="s">
-        <v>724</v>
+      <c r="K47" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="L47" s="83" t="s">
+        <v>735</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="C48" s="81" t="s">
-        <v>599</v>
+        <v>746</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="3" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="3" t="s">
@@ -9647,30 +9798,30 @@
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="79">
+      <c r="K48" s="82">
         <v>0.0</v>
       </c>
-      <c r="L48" s="80" t="s">
+      <c r="L48" s="83" t="s">
         <v>304</v>
       </c>
       <c r="M48" s="16"/>
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="C49" s="81" t="s">
-        <v>599</v>
+        <v>749</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="3" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="3" t="s">
@@ -9678,30 +9829,30 @@
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="79" t="s">
+      <c r="K49" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="L49" s="80" t="s">
-        <v>740</v>
+      <c r="L49" s="83" t="s">
+        <v>751</v>
       </c>
       <c r="M49" s="16"/>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="C50" s="81" t="s">
-        <v>599</v>
+        <v>753</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="3" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="3" t="s">
@@ -9709,30 +9860,30 @@
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="79" t="s">
-        <v>744</v>
-      </c>
-      <c r="L50" s="80" t="s">
-        <v>745</v>
+      <c r="K50" s="82" t="s">
+        <v>755</v>
+      </c>
+      <c r="L50" s="83" t="s">
+        <v>756</v>
       </c>
       <c r="M50" s="16"/>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>747</v>
-      </c>
-      <c r="C51" s="81" t="s">
-        <v>599</v>
+        <v>758</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="3" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="3" t="s">
@@ -9740,30 +9891,30 @@
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="79" t="s">
-        <v>749</v>
-      </c>
-      <c r="L51" s="80" t="s">
-        <v>750</v>
+      <c r="K51" s="82" t="s">
+        <v>760</v>
+      </c>
+      <c r="L51" s="83" t="s">
+        <v>761</v>
       </c>
       <c r="M51" s="16"/>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>599</v>
+        <v>763</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="3" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="3" t="s">
@@ -9771,27 +9922,27 @@
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="79" t="s">
-        <v>754</v>
-      </c>
-      <c r="L52" s="80" t="s">
-        <v>755</v>
+      <c r="K52" s="82" t="s">
+        <v>765</v>
+      </c>
+      <c r="L52" s="83" t="s">
+        <v>766</v>
       </c>
       <c r="M52" s="16"/>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="C53" s="81" t="s">
-        <v>596</v>
+        <v>768</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -9800,30 +9951,30 @@
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="79">
+      <c r="K53" s="82">
         <v>0.0</v>
       </c>
-      <c r="L53" s="80" t="s">
+      <c r="L53" s="83" t="s">
         <v>146</v>
       </c>
       <c r="M53" s="16"/>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>759</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>599</v>
+        <v>770</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>610</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="3" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="3" t="s">
@@ -9831,26 +9982,26 @@
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="79" t="s">
-        <v>761</v>
+      <c r="K54" s="82" t="s">
+        <v>772</v>
       </c>
       <c r="L54" s="27" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="C55" s="81" t="s">
-        <v>596</v>
+        <v>775</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="3" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="15"/>
@@ -9859,7 +10010,7 @@
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="16"/>
-      <c r="K55" s="79">
+      <c r="K55" s="82">
         <v>0.0</v>
       </c>
       <c r="L55" s="45" t="s">
@@ -9868,20 +10019,20 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>599</v>
+        <v>777</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>610</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="3" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="3" t="s">
@@ -9889,27 +10040,27 @@
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="16"/>
-      <c r="K56" s="79" t="s">
-        <v>768</v>
-      </c>
-      <c r="L56" s="80" t="s">
-        <v>769</v>
+      <c r="K56" s="82" t="s">
+        <v>779</v>
+      </c>
+      <c r="L56" s="83" t="s">
+        <v>780</v>
       </c>
       <c r="M56" s="16"/>
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="C57" s="81" t="s">
-        <v>596</v>
+        <v>782</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="3" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -9919,27 +10070,27 @@
       <c r="I57" s="15"/>
       <c r="J57" s="16"/>
       <c r="K57" s="51"/>
-      <c r="L57" s="80" t="s">
+      <c r="L57" s="83" t="s">
         <v>146</v>
       </c>
       <c r="M57" s="16"/>
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="C58" s="81" t="s">
-        <v>599</v>
+        <v>784</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="3" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="3" t="s">
@@ -9947,27 +10098,27 @@
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="79" t="s">
-        <v>775</v>
-      </c>
-      <c r="L58" s="80" t="s">
-        <v>776</v>
+      <c r="K58" s="82" t="s">
+        <v>786</v>
+      </c>
+      <c r="L58" s="83" t="s">
+        <v>787</v>
       </c>
       <c r="M58" s="16"/>
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="C59" s="81" t="s">
-        <v>596</v>
+        <v>789</v>
+      </c>
+      <c r="C59" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="3" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -9983,20 +10134,20 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="C60" s="81" t="s">
-        <v>599</v>
+        <v>791</v>
+      </c>
+      <c r="C60" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="3" t="s">
@@ -10004,27 +10155,27 @@
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="79" t="s">
-        <v>782</v>
-      </c>
-      <c r="L60" s="80" t="s">
-        <v>783</v>
+      <c r="K60" s="82" t="s">
+        <v>793</v>
+      </c>
+      <c r="L60" s="83" t="s">
+        <v>794</v>
       </c>
       <c r="M60" s="16"/>
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>596</v>
+        <v>796</v>
+      </c>
+      <c r="C61" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="3" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -10033,30 +10184,30 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
-      <c r="K61" s="79">
+      <c r="K61" s="82">
         <v>2.0</v>
       </c>
-      <c r="L61" s="80" t="s">
+      <c r="L61" s="83" t="s">
         <v>150</v>
       </c>
       <c r="M61" s="16"/>
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="C62" s="81" t="s">
-        <v>599</v>
+        <v>798</v>
+      </c>
+      <c r="C62" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="3" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="3" t="s">
@@ -10064,27 +10215,27 @@
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="66">
+      <c r="K62" s="69">
         <v>2.0</v>
       </c>
-      <c r="L62" s="80" t="s">
+      <c r="L62" s="83" t="s">
         <v>150</v>
       </c>
       <c r="M62" s="16"/>
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="C63" s="81" t="s">
-        <v>596</v>
+        <v>801</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="3" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -10093,30 +10244,30 @@
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="66">
+      <c r="K63" s="69">
         <v>2.0</v>
       </c>
-      <c r="L63" s="80" t="s">
+      <c r="L63" s="83" t="s">
         <v>150</v>
       </c>
       <c r="M63" s="16"/>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="C64" s="81" t="s">
-        <v>599</v>
+        <v>803</v>
+      </c>
+      <c r="C64" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="3" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="3" t="s">
@@ -10124,27 +10275,27 @@
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="16"/>
-      <c r="K64" s="66" t="s">
-        <v>794</v>
+      <c r="K64" s="69" t="s">
+        <v>805</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="M64" s="16"/>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="C65" s="81" t="s">
-        <v>596</v>
+        <v>808</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="3" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -10153,30 +10304,30 @@
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="66">
+      <c r="K65" s="69">
         <v>2.0</v>
       </c>
-      <c r="L65" s="80" t="s">
+      <c r="L65" s="83" t="s">
         <v>150</v>
       </c>
       <c r="M65" s="16"/>
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="C66" s="81" t="s">
-        <v>599</v>
+        <v>810</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="3" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="3" t="s">
@@ -10184,27 +10335,27 @@
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="66" t="s">
-        <v>801</v>
+      <c r="K66" s="69" t="s">
+        <v>812</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="M66" s="16"/>
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="C67" s="81" t="s">
-        <v>596</v>
+        <v>814</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="3" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -10213,30 +10364,30 @@
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="66">
+      <c r="K67" s="69">
         <v>2.0</v>
       </c>
-      <c r="L67" s="80" t="s">
+      <c r="L67" s="83" t="s">
         <v>150</v>
       </c>
       <c r="M67" s="16"/>
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="C68" s="81" t="s">
-        <v>599</v>
+        <v>816</v>
+      </c>
+      <c r="C68" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="3" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="3" t="s">
@@ -10244,27 +10395,27 @@
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="66">
+      <c r="K68" s="69">
         <v>2.0</v>
       </c>
-      <c r="L68" s="80" t="s">
+      <c r="L68" s="83" t="s">
         <v>150</v>
       </c>
       <c r="M68" s="16"/>
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="C69" s="81" t="s">
-        <v>596</v>
+        <v>819</v>
+      </c>
+      <c r="C69" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="3" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -10273,30 +10424,30 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="66">
+      <c r="K69" s="69">
         <v>2.0</v>
       </c>
-      <c r="L69" s="80" t="s">
+      <c r="L69" s="83" t="s">
         <v>150</v>
       </c>
       <c r="M69" s="16"/>
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="C70" s="81" t="s">
-        <v>599</v>
+        <v>821</v>
+      </c>
+      <c r="C70" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="3" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="3" t="s">
@@ -10305,26 +10456,26 @@
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
       <c r="K70" s="3" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="M70" s="16"/>
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>814</v>
-      </c>
-      <c r="C71" s="81" t="s">
-        <v>596</v>
+        <v>825</v>
+      </c>
+      <c r="C71" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="3" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -10333,7 +10484,7 @@
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="66">
+      <c r="K71" s="69">
         <v>2.0</v>
       </c>
       <c r="L71" s="3" t="s">
@@ -10343,20 +10494,20 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="C72" s="81" t="s">
-        <v>599</v>
+        <v>827</v>
+      </c>
+      <c r="C72" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="3" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="3" t="s">
@@ -10365,26 +10516,26 @@
       <c r="I72" s="15"/>
       <c r="J72" s="16"/>
       <c r="K72" s="3" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="M72" s="16"/>
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>819</v>
-      </c>
-      <c r="C73" s="81" t="s">
-        <v>596</v>
+        <v>830</v>
+      </c>
+      <c r="C73" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="3" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -10393,7 +10544,7 @@
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="66">
+      <c r="K73" s="69">
         <v>2.0</v>
       </c>
       <c r="L73" s="3" t="s">
@@ -10403,27 +10554,27 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="C74" s="81" t="s">
-        <v>599</v>
+        <v>832</v>
+      </c>
+      <c r="C74" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="3" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
-      <c r="K74" s="66">
+      <c r="K74" s="69">
         <v>2.0</v>
       </c>
       <c r="L74" s="3" t="s">
@@ -10433,20 +10584,20 @@
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>824</v>
-      </c>
-      <c r="C75" s="81" t="s">
-        <v>599</v>
+        <v>835</v>
+      </c>
+      <c r="C75" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="3" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="3" t="s">
@@ -10454,30 +10605,30 @@
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="66" t="s">
-        <v>826</v>
+      <c r="K75" s="69" t="s">
+        <v>837</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="M75" s="16"/>
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="C76" s="81" t="s">
-        <v>599</v>
+        <v>840</v>
+      </c>
+      <c r="C76" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="3" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="3" t="s">
@@ -10485,27 +10636,27 @@
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="66" t="s">
-        <v>831</v>
+      <c r="K76" s="69" t="s">
+        <v>842</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="M76" s="16"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>834</v>
-      </c>
-      <c r="C77" s="81" t="s">
-        <v>596</v>
+        <v>845</v>
+      </c>
+      <c r="C77" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="3" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -10514,7 +10665,7 @@
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="66">
+      <c r="K77" s="69">
         <v>4.0</v>
       </c>
       <c r="L77" s="3" t="s">
@@ -10524,20 +10675,20 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="C78" s="81" t="s">
-        <v>599</v>
+        <v>847</v>
+      </c>
+      <c r="C78" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="3" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="3" t="s">
@@ -10545,30 +10696,30 @@
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="16"/>
-      <c r="K78" s="66" t="s">
-        <v>838</v>
+      <c r="K78" s="69" t="s">
+        <v>849</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="M78" s="16"/>
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="C79" s="81" t="s">
-        <v>599</v>
+        <v>851</v>
+      </c>
+      <c r="C79" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="3" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="3" t="s">
@@ -10576,7 +10727,7 @@
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="82">
+      <c r="K79" s="85">
         <v>4.0</v>
       </c>
       <c r="L79" s="3" t="s">
@@ -10586,20 +10737,20 @@
     </row>
     <row r="80">
       <c r="A80" s="13" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="C80" s="81" t="s">
-        <v>599</v>
+        <v>854</v>
+      </c>
+      <c r="C80" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="3" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="3" t="s">
@@ -10607,27 +10758,27 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="66" t="s">
-        <v>845</v>
+      <c r="K80" s="69" t="s">
+        <v>856</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="M80" s="16"/>
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>847</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>596</v>
+        <v>858</v>
+      </c>
+      <c r="C81" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="3" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -10636,7 +10787,7 @@
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="16"/>
-      <c r="K81" s="66">
+      <c r="K81" s="69">
         <v>4.0</v>
       </c>
       <c r="L81" s="3" t="s">
@@ -10646,20 +10797,20 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>849</v>
-      </c>
-      <c r="C82" s="81" t="s">
-        <v>599</v>
+        <v>860</v>
+      </c>
+      <c r="C82" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="3" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="3" t="s">
@@ -10667,27 +10818,27 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="16"/>
-      <c r="K82" s="66" t="s">
-        <v>851</v>
+      <c r="K82" s="69" t="s">
+        <v>862</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="M82" s="16"/>
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="C83" s="81" t="s">
-        <v>596</v>
+        <v>865</v>
+      </c>
+      <c r="C83" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="3" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -10696,7 +10847,7 @@
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="16"/>
-      <c r="K83" s="66">
+      <c r="K83" s="69">
         <v>4.0</v>
       </c>
       <c r="L83" s="3" t="s">
@@ -10706,20 +10857,20 @@
     </row>
     <row r="84">
       <c r="A84" s="13" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>856</v>
-      </c>
-      <c r="C84" s="81" t="s">
-        <v>599</v>
+        <v>867</v>
+      </c>
+      <c r="C84" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="3" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="3" t="s">
@@ -10727,27 +10878,27 @@
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="16"/>
-      <c r="K84" s="66" t="s">
-        <v>838</v>
+      <c r="K84" s="69" t="s">
+        <v>849</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="M84" s="16"/>
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="C85" s="81" t="s">
-        <v>596</v>
+        <v>870</v>
+      </c>
+      <c r="C85" s="84" t="s">
+        <v>607</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="3" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
@@ -10756,7 +10907,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="66">
+      <c r="K85" s="69">
         <v>2.0</v>
       </c>
       <c r="L85" s="3" t="s">
@@ -10766,20 +10917,20 @@
     </row>
     <row r="86">
       <c r="A86" s="43" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="C86" s="81" t="s">
-        <v>599</v>
+        <v>872</v>
+      </c>
+      <c r="C86" s="84" t="s">
+        <v>610</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="3" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="3" t="s">
@@ -10788,10 +10939,10 @@
       <c r="I86" s="15"/>
       <c r="J86" s="16"/>
       <c r="K86" s="3" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="M86" s="16"/>
     </row>
@@ -10817,101 +10968,101 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
-        <v>865</v>
+      <c r="D1" s="74" t="s">
+        <v>876</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+        <v>585</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="3" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+        <v>586</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="3" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="83" t="s">
-        <v>869</v>
+        <v>591</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="56" t="s">
+        <v>880</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="83" t="s">
-        <v>870</v>
+        <v>592</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="56" t="s">
+        <v>881</v>
       </c>
       <c r="E5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="83" t="s">
-        <v>871</v>
+        <v>597</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="56" t="s">
+        <v>882</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="83" t="s">
-        <v>872</v>
+        <v>598</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="56" t="s">
+        <v>883</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="45" t="s">
-        <v>590</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>873</v>
+        <v>601</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="83" t="s">
-        <v>874</v>
+        <v>604</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="56" t="s">
+        <v>885</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -10942,32 +11093,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>562</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>875</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>876</v>
-      </c>
-      <c r="G1" s="84" t="s">
-        <v>877</v>
+      <c r="D1" s="78" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>888</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>878</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>470</v>
+        <v>889</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="2">
@@ -10975,265 +11129,310 @@
         <v>247</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="85"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="16"/>
+      <c r="J2" s="89" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="86"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="28"/>
       <c r="H3" s="3"/>
       <c r="I3" s="16"/>
+      <c r="J3" s="19" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="86"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="28"/>
       <c r="H4" s="3"/>
       <c r="I4" s="16"/>
+      <c r="J4" s="89" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="D5" s="80"/>
+        <v>899</v>
+      </c>
+      <c r="D5" s="83"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="85"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="28"/>
       <c r="H5" s="3"/>
       <c r="I5" s="16"/>
+      <c r="J5" s="89" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="85"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="28"/>
       <c r="H6" s="3"/>
       <c r="I6" s="16"/>
+      <c r="J6" s="89" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="85"/>
+      <c r="F7" s="88"/>
       <c r="G7" s="28"/>
       <c r="H7" s="3"/>
       <c r="I7" s="16"/>
+      <c r="J7" s="89" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="D8" s="80"/>
+        <v>905</v>
+      </c>
+      <c r="D8" s="83"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="85"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
       <c r="I8" s="16"/>
+      <c r="J8" s="19" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="85"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="28"/>
       <c r="H9" s="3"/>
       <c r="I9" s="16"/>
+      <c r="J9" s="56" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="85"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="28"/>
       <c r="H10" s="3"/>
       <c r="I10" s="16"/>
+      <c r="J10" s="56" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="86"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="28"/>
       <c r="H11" s="3"/>
       <c r="I11" s="16"/>
+      <c r="J11" s="19" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="85"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="28"/>
       <c r="H12" s="3"/>
       <c r="I12" s="16"/>
+      <c r="J12" s="19" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="13" ht="36.0" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="86"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="28"/>
       <c r="H13" s="3"/>
       <c r="I13" s="16"/>
+      <c r="J13" s="19" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="14" ht="36.0" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="86"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="28"/>
       <c r="H14" s="3"/>
       <c r="I14" s="16"/>
+      <c r="J14" s="19" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="15" ht="36.0" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="28"/>
       <c r="H15" s="3"/>
       <c r="I15" s="16"/>
+      <c r="J15" s="19" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="16" ht="36.0" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="86"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="28"/>
       <c r="H16" s="3"/>
       <c r="I16" s="16"/>
+      <c r="J16" s="55" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="17" ht="36.0" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="13"/>
@@ -11241,16 +11440,19 @@
       <c r="G17" s="28"/>
       <c r="H17" s="3"/>
       <c r="I17" s="16"/>
+      <c r="J17" s="55" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="18" ht="36.0" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="13"/>
@@ -11258,13 +11460,16 @@
       <c r="G18" s="28"/>
       <c r="H18" s="3"/>
       <c r="I18" s="16"/>
+      <c r="J18" s="55" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="19" ht="36.0" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
@@ -11275,6 +11480,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="3"/>
       <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11302,42 +11508,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>915</v>
+        <v>932</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>916</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>917</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>918</v>
+        <v>934</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>919</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>920</v>
+        <v>936</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>921</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>922</v>
+        <v>938</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>923</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>924</v>
+        <v>940</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -270,7 +270,7 @@
     <t>S13</t>
   </si>
   <si>
-    <t>T13 Ventral Root ganglion (sdcol)</t>
+    <t>T13 Ventral Root (sdcol)</t>
   </si>
   <si>
     <t>UBERON:0002260</t>
@@ -279,25 +279,25 @@
     <t>S14</t>
   </si>
   <si>
-    <t>L1 Ventral Root ganglion (sdcol)</t>
+    <t>L1 Ventral Root  (sdcol)</t>
   </si>
   <si>
     <t>S15</t>
   </si>
   <si>
-    <t>L2 Ventral Root ganglion (sdcol)</t>
+    <t>L2 Ventral Root  (sdcol)</t>
   </si>
   <si>
     <t>S16</t>
   </si>
   <si>
-    <t>L3 Ventral Root ganglion (sdcol)</t>
+    <t>L3 Ventral Root (sdcol)</t>
   </si>
   <si>
     <t>S17</t>
   </si>
   <si>
-    <t>L4 Ventral Root ganglion (sdcol)</t>
+    <t>L4 Ventral Root (sdcol)</t>
   </si>
   <si>
     <t>S18</t>
@@ -615,7 +615,7 @@
     <t>epithelium of colon (sdcol)</t>
   </si>
   <si>
-    <t>FMA:17302</t>
+    <t>UBERON:0000397</t>
   </si>
   <si>
     <t>S55, S57</t>
@@ -3002,11 +3002,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3040,6 +3047,11 @@
     <font>
       <color rgb="FF3C4043"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF222222"/>
@@ -3105,7 +3117,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3126,8 +3138,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3162,48 +3186,240 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3211,224 +3427,38 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -3436,41 +3466,47 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3725,11 +3761,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="38.71"/>
-    <col customWidth="1" min="3" max="4" width="19.43"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col customWidth="1" min="2" max="2" width="33.88"/>
+    <col customWidth="1" min="3" max="4" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3771,7 +3807,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
@@ -3785,46 +3821,46 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="103" t="s">
         <v>943</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="104" t="s">
         <v>944</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="51" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="103" t="s">
         <v>946</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="51" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="103" t="s">
         <v>948</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="51" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="102" t="s">
         <v>950</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="61" t="s">
         <v>951</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="51" t="s">
         <v>945</v>
       </c>
     </row>
@@ -3847,112 +3883,112 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="35.57"/>
+    <col customWidth="1" min="2" max="2" width="31.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="105" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="105" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="106" t="s">
         <v>954</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="107" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="106" t="s">
         <v>956</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="107" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="106" t="s">
         <v>958</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="107" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="106" t="s">
         <v>960</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="107" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="106" t="s">
         <v>962</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="107" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="106" t="s">
         <v>964</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="107" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="106" t="s">
         <v>966</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="107" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="106" t="s">
         <v>968</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="107" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="106" t="s">
         <v>970</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="107" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="106" t="s">
         <v>972</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="107" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="106" t="s">
         <v>974</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="107" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="106" t="s">
         <v>976</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="107" t="s">
         <v>977</v>
       </c>
     </row>
@@ -3988,21 +4024,21 @@
       <selection activeCell="C3" sqref="C3" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="69.71"/>
-    <col customWidth="1" min="3" max="3" width="34.57"/>
-    <col customWidth="1" min="4" max="4" width="12.43"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="10.14"/>
-    <col hidden="1" min="7" max="7" width="14.43"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="22.14"/>
-    <col customWidth="1" min="9" max="9" width="34.43"/>
-    <col customWidth="1" min="11" max="11" width="12.29"/>
-    <col customWidth="1" min="12" max="12" width="40.43"/>
-    <col customWidth="1" min="13" max="13" width="25.29"/>
-    <col hidden="1" min="14" max="15" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="2" max="2" width="61.0"/>
+    <col customWidth="1" min="3" max="3" width="30.25"/>
+    <col customWidth="1" min="4" max="4" width="10.88"/>
+    <col customWidth="1" min="5" max="5" width="12.25"/>
+    <col customWidth="1" min="6" max="6" width="8.88"/>
+    <col hidden="1" min="7" max="7" width="12.63"/>
+    <col customWidth="1" hidden="1" min="8" max="8" width="19.38"/>
+    <col customWidth="1" min="9" max="9" width="30.13"/>
+    <col customWidth="1" min="11" max="11" width="10.75"/>
+    <col customWidth="1" min="12" max="12" width="35.38"/>
+    <col customWidth="1" min="13" max="13" width="22.13"/>
+    <col hidden="1" min="14" max="15" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4389,10 +4425,10 @@
       <c r="A13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="18"/>
@@ -4422,7 +4458,7 @@
       <c r="B14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="18"/>
@@ -4447,7 +4483,7 @@
       <c r="B15" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="18"/>
@@ -4473,7 +4509,7 @@
       <c r="B16" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="18"/>
@@ -4499,7 +4535,7 @@
       <c r="B17" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="18"/>
@@ -4525,7 +4561,7 @@
       <c r="B18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="18"/>
@@ -4548,10 +4584,10 @@
       <c r="A19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="32" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="18"/>
@@ -4706,7 +4742,7 @@
       <c r="A25" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="33" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -4732,7 +4768,7 @@
       <c r="A26" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="33" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -4758,7 +4794,7 @@
       <c r="A27" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="33" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -4784,7 +4820,7 @@
       <c r="A28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -4798,7 +4834,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="27"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="30"/>
+      <c r="L28" s="34"/>
       <c r="M28" s="23"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
@@ -4810,7 +4846,7 @@
       <c r="A29" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -4824,7 +4860,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="27"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="30"/>
+      <c r="L29" s="34"/>
       <c r="M29" s="23"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
@@ -4865,7 +4901,7 @@
       <c r="B31" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="30" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="18"/>
@@ -4928,7 +4964,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="27"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="31"/>
+      <c r="L33" s="35"/>
       <c r="M33" s="20"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
@@ -4954,7 +4990,7 @@
       <c r="I34" s="18"/>
       <c r="J34" s="27"/>
       <c r="K34" s="18"/>
-      <c r="L34" s="30"/>
+      <c r="L34" s="34"/>
       <c r="M34" s="23"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
@@ -5021,7 +5057,7 @@
       <c r="B37" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="30" t="s">
         <v>134</v>
       </c>
       <c r="D37" s="18"/>
@@ -5122,10 +5158,10 @@
       <c r="A41" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="30" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="18"/>
@@ -5157,11 +5193,11 @@
         <v>148</v>
       </c>
       <c r="D42" s="18"/>
-      <c r="E42" s="33"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="34"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="17"/>
       <c r="K42" s="18"/>
       <c r="L42" s="4" t="s">
@@ -5175,42 +5211,42 @@
       <c r="R42" s="18"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="40" t="s">
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="41"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="28" t="s">
+      <c r="J43" s="45"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="M43" s="42" t="s">
+      <c r="M43" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="33" t="s">
         <v>157</v>
       </c>
       <c r="C44" s="19" t="s">
@@ -5223,7 +5259,7 @@
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="43"/>
+      <c r="K44" s="47"/>
       <c r="L44" s="4" t="s">
         <v>159</v>
       </c>
@@ -5240,7 +5276,7 @@
       <c r="A45" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="33" t="s">
         <v>161</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -5253,8 +5289,8 @@
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44" t="s">
+      <c r="K45" s="47"/>
+      <c r="L45" s="48" t="s">
         <v>163</v>
       </c>
       <c r="M45" s="23" t="s">
@@ -5262,15 +5298,15 @@
       </c>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="33" t="s">
         <v>165</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -5281,7 +5317,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="46"/>
+      <c r="I46" s="50"/>
       <c r="J46" s="15"/>
       <c r="K46" s="18"/>
       <c r="L46" s="15" t="s">
@@ -5292,15 +5328,15 @@
       </c>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="33" t="s">
         <v>170</v>
       </c>
       <c r="C47" s="19" t="s">
@@ -5311,7 +5347,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
-      <c r="I47" s="46"/>
+      <c r="I47" s="50"/>
       <c r="J47" s="15"/>
       <c r="K47" s="18"/>
       <c r="L47" s="15" t="s">
@@ -5322,15 +5358,15 @@
       </c>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="33" t="s">
         <v>174</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -5343,24 +5379,24 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="45" t="s">
+      <c r="K48" s="47"/>
+      <c r="L48" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="M48" s="47">
+      <c r="M48" s="51">
         <v>0.0</v>
       </c>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -5373,8 +5409,8 @@
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="47" t="s">
+      <c r="K49" s="47"/>
+      <c r="L49" s="51" t="s">
         <v>180</v>
       </c>
       <c r="M49" s="4" t="s">
@@ -5382,18 +5418,18 @@
       </c>
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
     </row>
     <row r="50">
       <c r="A50" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="51" t="s">
         <v>184</v>
       </c>
       <c r="D50" s="18"/>
@@ -5403,7 +5439,7 @@
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="43"/>
+      <c r="K50" s="47"/>
       <c r="L50" s="23" t="s">
         <v>185</v>
       </c>
@@ -5417,7 +5453,7 @@
       <c r="A51" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="33" t="s">
         <v>187</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -5430,7 +5466,7 @@
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="43"/>
+      <c r="K51" s="47"/>
       <c r="L51" s="23" t="s">
         <v>189</v>
       </c>
@@ -5444,7 +5480,7 @@
       <c r="A52" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="33" t="s">
         <v>191</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5457,7 +5493,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="46"/>
+      <c r="I52" s="50"/>
       <c r="J52" s="15"/>
       <c r="K52" s="18"/>
       <c r="L52" s="14"/>
@@ -5472,7 +5508,7 @@
       <c r="A53" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="33" t="s">
         <v>194</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -5485,7 +5521,7 @@
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="43"/>
+      <c r="K53" s="47"/>
       <c r="L53" s="4"/>
       <c r="M53" s="20"/>
       <c r="N53" s="18"/>
@@ -5498,7 +5534,7 @@
       <c r="A54" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -5511,7 +5547,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="46"/>
+      <c r="I54" s="50"/>
       <c r="J54" s="17"/>
       <c r="K54" s="18"/>
       <c r="L54" s="17"/>
@@ -5526,7 +5562,7 @@
       <c r="A55" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -5537,11 +5573,11 @@
       <c r="F55" s="14"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="46"/>
+      <c r="I55" s="50"/>
       <c r="J55" s="17"/>
       <c r="K55" s="18"/>
       <c r="L55" s="14"/>
-      <c r="M55" s="48"/>
+      <c r="M55" s="52"/>
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
@@ -5559,11 +5595,11 @@
         <v>198</v>
       </c>
       <c r="D56" s="18"/>
-      <c r="E56" s="33"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="49"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="17"/>
       <c r="K56" s="18"/>
       <c r="L56" s="17"/>
@@ -5585,11 +5621,11 @@
         <v>198</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="33"/>
+      <c r="E57" s="37"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="49"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="17"/>
       <c r="K57" s="18"/>
       <c r="L57" s="17"/>
@@ -5611,11 +5647,11 @@
         <v>201</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="37"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="49"/>
+      <c r="I58" s="53"/>
       <c r="J58" s="17"/>
       <c r="K58" s="18"/>
       <c r="L58" s="17"/>
@@ -5637,11 +5673,11 @@
         <v>201</v>
       </c>
       <c r="D59" s="18"/>
-      <c r="E59" s="33"/>
+      <c r="E59" s="37"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="49"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="17"/>
       <c r="K59" s="18"/>
       <c r="L59" s="17"/>
@@ -5659,17 +5695,17 @@
       <c r="B60" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="54" t="s">
         <v>211</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="E60" s="33" t="b">
+      <c r="E60" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="49" t="s">
+      <c r="I60" s="53" t="s">
         <v>212</v>
       </c>
       <c r="J60" s="17"/>
@@ -5691,11 +5727,11 @@
       <c r="B61" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="54" t="s">
         <v>216</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="51" t="b">
+      <c r="E61" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F61" s="17"/>
@@ -5713,17 +5749,17 @@
       <c r="R61" s="18"/>
     </row>
     <row r="62">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="52" t="s">
         <v>217</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="54" t="s">
         <v>216</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="52" t="b">
+      <c r="E62" s="56" t="b">
         <v>1</v>
       </c>
       <c r="F62" s="14" t="s">
@@ -5732,7 +5768,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="53">
+      <c r="J62" s="57">
         <v>229.0</v>
       </c>
       <c r="K62" s="18"/>
@@ -5745,17 +5781,17 @@
       <c r="R62" s="18"/>
     </row>
     <row r="63">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="52" t="s">
         <v>219</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="54" t="s">
         <v>221</v>
       </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="52" t="b">
+      <c r="E63" s="56" t="b">
         <v>1</v>
       </c>
       <c r="F63" s="14" t="s">
@@ -5777,17 +5813,17 @@
       <c r="R63" s="18"/>
     </row>
     <row r="64">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="52" t="s">
         <v>224</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="54" t="s">
         <v>221</v>
       </c>
       <c r="D64" s="18"/>
-      <c r="E64" s="52" t="b">
+      <c r="E64" s="56" t="b">
         <v>1</v>
       </c>
       <c r="F64" s="14" t="s">
@@ -5809,17 +5845,17 @@
       <c r="R64" s="18"/>
     </row>
     <row r="65">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="52" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="54" t="s">
         <v>229</v>
       </c>
       <c r="D65" s="18"/>
-      <c r="E65" s="52" t="b">
+      <c r="E65" s="56" t="b">
         <v>1</v>
       </c>
       <c r="F65" s="14" t="s">
@@ -5841,17 +5877,17 @@
       <c r="R65" s="18"/>
     </row>
     <row r="66">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="52" t="s">
         <v>230</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="54" t="s">
         <v>229</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="52" t="b">
+      <c r="E66" s="56" t="b">
         <v>1</v>
       </c>
       <c r="F66" s="14" t="s">
@@ -5873,7 +5909,7 @@
       <c r="R66" s="18"/>
     </row>
     <row r="67">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="49" t="s">
         <v>232</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5883,7 +5919,7 @@
         <v>234</v>
       </c>
       <c r="D67" s="18"/>
-      <c r="E67" s="51" t="b">
+      <c r="E67" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F67" s="17"/>
@@ -5894,7 +5930,7 @@
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="18"/>
-      <c r="L67" s="48"/>
+      <c r="L67" s="52"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
       <c r="O67" s="18"/>
@@ -5903,7 +5939,7 @@
       <c r="R67" s="18"/>
     </row>
     <row r="68">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="49" t="s">
         <v>163</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -5921,7 +5957,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="18"/>
       <c r="L68" s="14"/>
-      <c r="M68" s="48"/>
+      <c r="M68" s="52"/>
       <c r="N68" s="20"/>
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
@@ -5929,7 +5965,7 @@
       <c r="R68" s="18"/>
     </row>
     <row r="69">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="49" t="s">
         <v>237</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -5947,7 +5983,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="18"/>
       <c r="L69" s="14"/>
-      <c r="M69" s="48"/>
+      <c r="M69" s="52"/>
       <c r="N69" s="20"/>
       <c r="O69" s="18"/>
       <c r="P69" s="18"/>
@@ -5955,7 +5991,7 @@
       <c r="R69" s="18"/>
     </row>
     <row r="70">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="49" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -5969,11 +6005,11 @@
       <c r="F70" s="14"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
-      <c r="I70" s="46"/>
+      <c r="I70" s="50"/>
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
       <c r="L70" s="14"/>
-      <c r="M70" s="48"/>
+      <c r="M70" s="52"/>
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
@@ -5981,7 +6017,7 @@
       <c r="R70" s="18"/>
     </row>
     <row r="71">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="49" t="s">
         <v>240</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -5995,11 +6031,11 @@
       <c r="F71" s="14"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
-      <c r="I71" s="46"/>
+      <c r="I71" s="50"/>
       <c r="J71" s="17"/>
       <c r="K71" s="18"/>
       <c r="L71" s="14"/>
-      <c r="M71" s="48"/>
+      <c r="M71" s="52"/>
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
@@ -6007,7 +6043,7 @@
       <c r="R71" s="18"/>
     </row>
     <row r="72">
-      <c r="A72" s="45" t="s">
+      <c r="A72" s="49" t="s">
         <v>176</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -6021,17 +6057,17 @@
       <c r="F72" s="14"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
-      <c r="I72" s="46"/>
+      <c r="I72" s="50"/>
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="14"/>
-      <c r="M72" s="48"/>
+      <c r="M72" s="52"/>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
     </row>
     <row r="73">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="49" t="s">
         <v>243</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -6045,11 +6081,11 @@
       <c r="F73" s="14"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="46"/>
+      <c r="I73" s="50"/>
       <c r="J73" s="17"/>
       <c r="K73" s="18"/>
       <c r="L73" s="14"/>
-      <c r="M73" s="48"/>
+      <c r="M73" s="52"/>
       <c r="N73" s="18"/>
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
@@ -6060,10 +6096,10 @@
       <c r="A74" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D74" s="18"/>
@@ -6071,13 +6107,13 @@
       <c r="F74" s="14"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
-      <c r="I74" s="46"/>
+      <c r="I74" s="50"/>
       <c r="J74" s="4">
         <v>229.0</v>
       </c>
       <c r="K74" s="18"/>
       <c r="L74" s="14"/>
-      <c r="M74" s="48"/>
+      <c r="M74" s="52"/>
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
@@ -6090,10 +6126,10 @@
       <c r="A75" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D75" s="18"/>
@@ -6101,13 +6137,13 @@
       <c r="F75" s="14"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
-      <c r="I75" s="46"/>
+      <c r="I75" s="50"/>
       <c r="J75" s="4">
         <v>229.0</v>
       </c>
       <c r="K75" s="18"/>
       <c r="L75" s="14"/>
-      <c r="M75" s="48"/>
+      <c r="M75" s="52"/>
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
       <c r="P75" s="18"/>
@@ -6116,10 +6152,10 @@
       <c r="A76" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D76" s="18"/>
@@ -6127,13 +6163,13 @@
       <c r="F76" s="14"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="46"/>
+      <c r="I76" s="50"/>
       <c r="J76" s="4">
         <v>229.0</v>
       </c>
       <c r="K76" s="18"/>
       <c r="L76" s="14"/>
-      <c r="M76" s="48"/>
+      <c r="M76" s="52"/>
       <c r="N76" s="18"/>
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
@@ -6146,10 +6182,10 @@
       <c r="A77" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D77" s="18"/>
@@ -6157,13 +6193,13 @@
       <c r="F77" s="14"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
-      <c r="I77" s="46"/>
+      <c r="I77" s="50"/>
       <c r="J77" s="4">
         <v>229.0</v>
       </c>
       <c r="K77" s="18"/>
       <c r="L77" s="14"/>
-      <c r="M77" s="48"/>
+      <c r="M77" s="52"/>
       <c r="N77" s="18"/>
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
@@ -6172,10 +6208,10 @@
       <c r="A78" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C78" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D78" s="18"/>
@@ -6183,13 +6219,13 @@
       <c r="F78" s="14"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
-      <c r="I78" s="46"/>
+      <c r="I78" s="50"/>
       <c r="J78" s="4">
         <v>229.0</v>
       </c>
       <c r="K78" s="18"/>
       <c r="L78" s="14"/>
-      <c r="M78" s="48"/>
+      <c r="M78" s="52"/>
       <c r="N78" s="18"/>
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
@@ -6200,10 +6236,10 @@
       <c r="A79" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D79" s="18"/>
@@ -6211,13 +6247,13 @@
       <c r="F79" s="14"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
-      <c r="I79" s="46"/>
+      <c r="I79" s="50"/>
       <c r="J79" s="4">
         <v>229.0</v>
       </c>
       <c r="K79" s="18"/>
       <c r="L79" s="14"/>
-      <c r="M79" s="48"/>
+      <c r="M79" s="52"/>
       <c r="N79" s="18"/>
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
@@ -6228,10 +6264,10 @@
       <c r="A80" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="18"/>
@@ -6239,13 +6275,13 @@
       <c r="F80" s="14"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
-      <c r="I80" s="46"/>
+      <c r="I80" s="50"/>
       <c r="J80" s="4">
         <v>229.0</v>
       </c>
       <c r="K80" s="18"/>
       <c r="L80" s="14"/>
-      <c r="M80" s="48"/>
+      <c r="M80" s="52"/>
       <c r="N80" s="18"/>
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
@@ -6256,10 +6292,10 @@
       <c r="A81" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D81" s="18"/>
@@ -6267,13 +6303,13 @@
       <c r="F81" s="14"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
-      <c r="I81" s="46"/>
+      <c r="I81" s="50"/>
       <c r="J81" s="4">
         <v>229.0</v>
       </c>
       <c r="K81" s="18"/>
       <c r="L81" s="14"/>
-      <c r="M81" s="48"/>
+      <c r="M81" s="52"/>
       <c r="N81" s="18"/>
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
@@ -6284,10 +6320,10 @@
       <c r="A82" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D82" s="18"/>
@@ -6295,13 +6331,13 @@
       <c r="F82" s="14"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
-      <c r="I82" s="46"/>
+      <c r="I82" s="50"/>
       <c r="J82" s="4">
         <v>229.0</v>
       </c>
       <c r="K82" s="18"/>
       <c r="L82" s="14"/>
-      <c r="M82" s="48"/>
+      <c r="M82" s="52"/>
       <c r="N82" s="18"/>
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
@@ -6314,10 +6350,10 @@
       <c r="A83" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D83" s="18"/>
@@ -6325,13 +6361,13 @@
       <c r="F83" s="14"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
-      <c r="I83" s="46"/>
+      <c r="I83" s="50"/>
       <c r="J83" s="4">
         <v>229.0</v>
       </c>
       <c r="K83" s="18"/>
       <c r="L83" s="14"/>
-      <c r="M83" s="48"/>
+      <c r="M83" s="52"/>
       <c r="N83" s="18"/>
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
@@ -6344,10 +6380,10 @@
       <c r="A84" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D84" s="18"/>
@@ -6355,13 +6391,13 @@
       <c r="F84" s="14"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
-      <c r="I84" s="46"/>
+      <c r="I84" s="50"/>
       <c r="J84" s="4">
         <v>229.0</v>
       </c>
       <c r="K84" s="18"/>
       <c r="L84" s="14"/>
-      <c r="M84" s="48"/>
+      <c r="M84" s="52"/>
       <c r="N84" s="18"/>
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
@@ -6374,10 +6410,10 @@
       <c r="A85" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D85" s="18"/>
@@ -6385,13 +6421,13 @@
       <c r="F85" s="14"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
-      <c r="I85" s="46"/>
+      <c r="I85" s="50"/>
       <c r="J85" s="4">
         <v>229.0</v>
       </c>
       <c r="K85" s="18"/>
       <c r="L85" s="14"/>
-      <c r="M85" s="48"/>
+      <c r="M85" s="52"/>
       <c r="N85" s="18"/>
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
@@ -6404,10 +6440,10 @@
       <c r="A86" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D86" s="18"/>
@@ -6415,13 +6451,13 @@
       <c r="F86" s="14"/>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
-      <c r="I86" s="46"/>
+      <c r="I86" s="50"/>
       <c r="J86" s="4">
         <v>229.0</v>
       </c>
       <c r="K86" s="18"/>
       <c r="L86" s="14"/>
-      <c r="M86" s="48"/>
+      <c r="M86" s="52"/>
       <c r="N86" s="18"/>
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
@@ -6434,10 +6470,10 @@
       <c r="A87" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D87" s="18"/>
@@ -6445,13 +6481,13 @@
       <c r="F87" s="14"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
-      <c r="I87" s="46"/>
+      <c r="I87" s="50"/>
       <c r="J87" s="4">
         <v>229.0</v>
       </c>
       <c r="K87" s="18"/>
       <c r="L87" s="14"/>
-      <c r="M87" s="48"/>
+      <c r="M87" s="52"/>
       <c r="N87" s="18"/>
       <c r="O87" s="18"/>
       <c r="P87" s="18"/>
@@ -6464,10 +6500,10 @@
       <c r="A88" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D88" s="18"/>
@@ -6475,13 +6511,13 @@
       <c r="F88" s="14"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
-      <c r="I88" s="46"/>
+      <c r="I88" s="50"/>
       <c r="J88" s="4">
         <v>229.0</v>
       </c>
       <c r="K88" s="18"/>
       <c r="L88" s="14"/>
-      <c r="M88" s="48"/>
+      <c r="M88" s="52"/>
       <c r="N88" s="18"/>
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
@@ -6494,10 +6530,10 @@
       <c r="A89" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D89" s="18"/>
@@ -6505,13 +6541,13 @@
       <c r="F89" s="14"/>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
-      <c r="I89" s="46"/>
+      <c r="I89" s="50"/>
       <c r="J89" s="4">
         <v>229.0</v>
       </c>
       <c r="K89" s="18"/>
       <c r="L89" s="14"/>
-      <c r="M89" s="48"/>
+      <c r="M89" s="52"/>
       <c r="N89" s="18"/>
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
@@ -6524,10 +6560,10 @@
       <c r="A90" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D90" s="18"/>
@@ -6535,13 +6571,13 @@
       <c r="F90" s="14"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
-      <c r="I90" s="46"/>
+      <c r="I90" s="50"/>
       <c r="J90" s="4">
         <v>229.0</v>
       </c>
       <c r="K90" s="18"/>
       <c r="L90" s="14"/>
-      <c r="M90" s="48"/>
+      <c r="M90" s="52"/>
       <c r="N90" s="18"/>
       <c r="O90" s="18"/>
       <c r="P90" s="18"/>
@@ -6554,10 +6590,10 @@
       <c r="A91" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D91" s="18"/>
@@ -6565,13 +6601,13 @@
       <c r="F91" s="14"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
-      <c r="I91" s="46"/>
+      <c r="I91" s="50"/>
       <c r="J91" s="4">
         <v>229.0</v>
       </c>
       <c r="K91" s="18"/>
       <c r="L91" s="14"/>
-      <c r="M91" s="48"/>
+      <c r="M91" s="52"/>
       <c r="N91" s="18"/>
       <c r="O91" s="18"/>
       <c r="P91" s="18"/>
@@ -6584,10 +6620,10 @@
       <c r="A92" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C92" s="54" t="s">
+      <c r="C92" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D92" s="18"/>
@@ -6595,13 +6631,13 @@
       <c r="F92" s="14"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
-      <c r="I92" s="46"/>
+      <c r="I92" s="50"/>
       <c r="J92" s="4">
         <v>229.0</v>
       </c>
       <c r="K92" s="18"/>
       <c r="L92" s="14"/>
-      <c r="M92" s="48"/>
+      <c r="M92" s="52"/>
       <c r="N92" s="18"/>
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
@@ -6614,10 +6650,10 @@
       <c r="A93" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D93" s="18"/>
@@ -6625,13 +6661,13 @@
       <c r="F93" s="14"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
-      <c r="I93" s="46"/>
+      <c r="I93" s="50"/>
       <c r="J93" s="4">
         <v>229.0</v>
       </c>
       <c r="K93" s="18"/>
       <c r="L93" s="14"/>
-      <c r="M93" s="48"/>
+      <c r="M93" s="52"/>
       <c r="N93" s="18"/>
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
@@ -6644,10 +6680,10 @@
       <c r="A94" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D94" s="18"/>
@@ -6655,13 +6691,13 @@
       <c r="F94" s="14"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
-      <c r="I94" s="46"/>
+      <c r="I94" s="50"/>
       <c r="J94" s="4">
         <v>229.0</v>
       </c>
       <c r="K94" s="18"/>
       <c r="L94" s="14"/>
-      <c r="M94" s="48"/>
+      <c r="M94" s="52"/>
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
@@ -6674,10 +6710,10 @@
       <c r="A95" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D95" s="18"/>
@@ -6685,13 +6721,13 @@
       <c r="F95" s="14"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
-      <c r="I95" s="46"/>
+      <c r="I95" s="50"/>
       <c r="J95" s="4">
         <v>229.0</v>
       </c>
       <c r="K95" s="18"/>
       <c r="L95" s="14"/>
-      <c r="M95" s="48"/>
+      <c r="M95" s="52"/>
       <c r="N95" s="18"/>
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
@@ -6704,10 +6740,10 @@
       <c r="A96" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D96" s="18"/>
@@ -6715,13 +6751,13 @@
       <c r="F96" s="14"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
-      <c r="I96" s="46"/>
+      <c r="I96" s="50"/>
       <c r="J96" s="4">
         <v>229.0</v>
       </c>
       <c r="K96" s="18"/>
       <c r="L96" s="14"/>
-      <c r="M96" s="48"/>
+      <c r="M96" s="52"/>
       <c r="N96" s="18"/>
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
@@ -6734,7 +6770,7 @@
       <c r="A97" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="33" t="s">
         <v>302</v>
       </c>
       <c r="C97" s="14" t="s">
@@ -6745,11 +6781,11 @@
       <c r="F97" s="14"/>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
-      <c r="I97" s="46"/>
+      <c r="I97" s="50"/>
       <c r="J97" s="17"/>
       <c r="K97" s="18"/>
       <c r="L97" s="14"/>
-      <c r="M97" s="48"/>
+      <c r="M97" s="52"/>
       <c r="N97" s="18"/>
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
@@ -6760,10 +6796,10 @@
       <c r="A98" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="30" t="s">
         <v>306</v>
       </c>
       <c r="D98" s="18"/>
@@ -6771,11 +6807,11 @@
       <c r="F98" s="14"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
-      <c r="I98" s="46"/>
+      <c r="I98" s="50"/>
       <c r="J98" s="17"/>
       <c r="K98" s="18"/>
       <c r="L98" s="14"/>
-      <c r="M98" s="48"/>
+      <c r="M98" s="52"/>
       <c r="N98" s="18"/>
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
@@ -6796,7 +6832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
@@ -6989,7 +7025,7 @@
       <c r="A12" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="59" t="s">
         <v>325</v>
       </c>
       <c r="C12" s="18"/>
@@ -7006,7 +7042,7 @@
       <c r="A13" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="59" t="s">
         <v>327</v>
       </c>
       <c r="C13" s="18"/>
@@ -7023,7 +7059,7 @@
       <c r="A14" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="59" t="s">
         <v>329</v>
       </c>
       <c r="C14" s="18"/>
@@ -7040,7 +7076,7 @@
       <c r="A15" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="59" t="s">
         <v>331</v>
       </c>
       <c r="C15" s="18"/>
@@ -7057,7 +7093,7 @@
       <c r="A16" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="59" t="s">
         <v>333</v>
       </c>
       <c r="C16" s="18"/>
@@ -7074,7 +7110,7 @@
       <c r="A17" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="59" t="s">
         <v>335</v>
       </c>
       <c r="C17" s="18"/>
@@ -7108,7 +7144,7 @@
       <c r="A19" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="60" t="s">
         <v>339</v>
       </c>
       <c r="C19" s="18"/>
@@ -7125,7 +7161,7 @@
       <c r="A20" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="60" t="s">
         <v>341</v>
       </c>
       <c r="C20" s="18"/>
@@ -7174,7 +7210,7 @@
     </row>
     <row r="23">
       <c r="A23" s="18"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -7189,7 +7225,7 @@
       <c r="A24" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="18"/>
@@ -7206,24 +7242,24 @@
       <c r="A25" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="34" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7246,46 +7282,46 @@
       <c r="A32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="63" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
     </row>
     <row r="35">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
@@ -7299,16 +7335,16 @@
     </row>
     <row r="38">
       <c r="A38" s="18"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7337,71 +7373,71 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.86"/>
-    <col customWidth="1" min="3" max="3" width="26.29"/>
-    <col customWidth="1" min="4" max="4" width="28.86"/>
+    <col customWidth="1" min="2" max="2" width="34.0"/>
+    <col customWidth="1" min="3" max="3" width="23.0"/>
+    <col customWidth="1" min="4" max="4" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="66" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="68" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="54" t="s">
         <v>360</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="54" t="s">
         <v>363</v>
       </c>
       <c r="D3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="68" t="s">
         <v>364</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="68" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="54" t="s">
         <v>369</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -7409,27 +7445,27 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="68" t="s">
         <v>370</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="69" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="68" t="s">
         <v>374</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>376</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -7437,115 +7473,115 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>379</v>
       </c>
       <c r="D8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="54" t="s">
         <v>382</v>
       </c>
       <c r="D9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="68" t="s">
         <v>383</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="54" t="s">
         <v>385</v>
       </c>
       <c r="D10" s="18"/>
     </row>
     <row r="11">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="68" t="s">
         <v>386</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="54" t="s">
         <v>388</v>
       </c>
       <c r="D11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="68" t="s">
         <v>389</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="54" t="s">
         <v>391</v>
       </c>
       <c r="D12" s="18"/>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="68" t="s">
         <v>392</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="54" t="s">
         <v>394</v>
       </c>
       <c r="D13" s="18"/>
     </row>
     <row r="14">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="68" t="s">
         <v>395</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="54" t="s">
         <v>397</v>
       </c>
       <c r="D14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="68" t="s">
         <v>398</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="54" t="s">
         <v>400</v>
       </c>
       <c r="D15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="68" t="s">
         <v>401</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="54" t="s">
         <v>403</v>
       </c>
       <c r="D16" s="18"/>
     </row>
     <row r="17">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="68" t="s">
         <v>404</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -7557,10 +7593,10 @@
       <c r="D17" s="18"/>
     </row>
     <row r="18">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="68" t="s">
         <v>406</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="54" t="s">
         <v>407</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -7569,13 +7605,13 @@
       <c r="D18" s="18"/>
     </row>
     <row r="19">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="68" t="s">
         <v>409</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="70" t="s">
         <v>411</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -7583,37 +7619,37 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="68" t="s">
         <v>412</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="71" t="s">
         <v>414</v>
       </c>
       <c r="D20" s="18"/>
     </row>
     <row r="21">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="68" t="s">
         <v>415</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="71" t="s">
         <v>417</v>
       </c>
       <c r="D21" s="18"/>
     </row>
     <row r="22">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="68" t="s">
         <v>418</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="71" t="s">
         <v>420</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -7621,13 +7657,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="54" t="s">
         <v>423</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -7635,31 +7671,31 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="68" t="s">
         <v>424</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="54" t="s">
         <v>426</v>
       </c>
       <c r="D24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="54" t="s">
         <v>428</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>429</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="72" t="s">
         <v>430</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -7671,7 +7707,7 @@
       <c r="D26" s="26"/>
     </row>
     <row r="27">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="72" t="s">
         <v>433</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -7683,7 +7719,7 @@
       <c r="D27" s="26"/>
     </row>
     <row r="28">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="72" t="s">
         <v>436</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -7695,7 +7731,7 @@
       <c r="D28" s="26"/>
     </row>
     <row r="29">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="72" t="s">
         <v>439</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -7707,7 +7743,7 @@
       <c r="D29" s="26"/>
     </row>
     <row r="30">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="72" t="s">
         <v>442</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -7719,7 +7755,7 @@
       <c r="D30" s="26"/>
     </row>
     <row r="31">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="72" t="s">
         <v>445</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -7731,7 +7767,7 @@
       <c r="D31" s="26"/>
     </row>
     <row r="32">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="72" t="s">
         <v>448</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -7743,7 +7779,7 @@
       <c r="D32" s="26"/>
     </row>
     <row r="33">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="72" t="s">
         <v>451</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -7755,7 +7791,7 @@
       <c r="D33" s="26"/>
     </row>
     <row r="34">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="72" t="s">
         <v>454</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -7767,7 +7803,7 @@
       <c r="D34" s="26"/>
     </row>
     <row r="35">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="72" t="s">
         <v>457</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -7779,73 +7815,73 @@
       <c r="D35" s="26"/>
     </row>
     <row r="36">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="73" t="s">
         <v>460</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="74" t="s">
         <v>462</v>
       </c>
       <c r="D36" s="18"/>
     </row>
     <row r="37">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="73" t="s">
         <v>463</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="74" t="s">
         <v>465</v>
       </c>
       <c r="D37" s="18"/>
     </row>
     <row r="38">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="73" t="s">
         <v>466</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="74" t="s">
         <v>468</v>
       </c>
       <c r="D38" s="18"/>
     </row>
     <row r="39">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="73" t="s">
         <v>469</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="75" t="s">
         <v>470</v>
       </c>
       <c r="D39" s="18"/>
     </row>
     <row r="40">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="73" t="s">
         <v>471</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="75" t="s">
         <v>473</v>
       </c>
       <c r="D40" s="18"/>
     </row>
     <row r="41">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="73" t="s">
         <v>474</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="76" t="s">
         <v>476</v>
       </c>
       <c r="D41" s="18"/>
@@ -7867,33 +7903,33 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="2" max="2" width="80.86"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
+    <col customWidth="1" min="1" max="1" width="14.63"/>
+    <col customWidth="1" min="2" max="2" width="70.75"/>
+    <col customWidth="1" min="5" max="5" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="78" t="s">
         <v>477</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="78" t="s">
         <v>478</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="78" t="s">
         <v>479</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="79" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7901,7 +7937,7 @@
       <c r="A2" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>482</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -7913,14 +7949,14 @@
       <c r="E2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>486</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -7932,14 +7968,14 @@
       <c r="E3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="81" t="s">
         <v>490</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -7951,14 +7987,14 @@
       <c r="E4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="78"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="81" t="s">
         <v>494</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -7970,14 +8006,14 @@
       <c r="E5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="81" t="s">
         <v>498</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -7989,14 +8025,14 @@
       <c r="E6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="81" t="s">
         <v>502</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -8008,14 +8044,14 @@
       <c r="E7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="81" t="s">
         <v>506</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -8027,14 +8063,14 @@
       <c r="E8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="17"/>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="81" t="s">
         <v>510</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -8046,14 +8082,14 @@
       <c r="E9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="17"/>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="81" t="s">
         <v>514</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -8065,14 +8101,14 @@
       <c r="E10" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="81" t="s">
         <v>518</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -8084,14 +8120,14 @@
       <c r="E11" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="81" t="s">
         <v>522</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -8103,14 +8139,14 @@
       <c r="E12" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="33" t="s">
         <v>526</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -8122,14 +8158,14 @@
       <c r="E13" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="81" t="s">
         <v>530</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -8141,14 +8177,14 @@
       <c r="E14" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="80"/>
       <c r="G14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="81" t="s">
         <v>534</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -8160,14 +8196,14 @@
       <c r="E15" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="81" t="s">
         <v>538</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -8179,14 +8215,14 @@
       <c r="E16" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="33" t="s">
         <v>542</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -8198,14 +8234,14 @@
       <c r="E17" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="17"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="81" t="s">
         <v>546</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -8217,14 +8253,14 @@
       <c r="E18" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="76"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="81" t="s">
         <v>550</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -8236,14 +8272,14 @@
       <c r="E19" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="80"/>
       <c r="G19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="81" t="s">
         <v>554</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -8255,14 +8291,14 @@
       <c r="E20" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="F20" s="76"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="17"/>
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="81" t="s">
         <v>558</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -8274,14 +8310,14 @@
       <c r="E21" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="17"/>
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="81" t="s">
         <v>562</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -8293,14 +8329,14 @@
       <c r="E22" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="76"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="81" t="s">
         <v>566</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -8312,14 +8348,14 @@
       <c r="E23" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="81" t="s">
         <v>570</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -8331,7 +8367,7 @@
       <c r="E24" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="17"/>
     </row>
   </sheetData>
@@ -8356,50 +8392,50 @@
       <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.14"/>
-    <col customWidth="1" min="2" max="7" width="40.29"/>
-    <col customWidth="1" min="10" max="10" width="15.0"/>
-    <col customWidth="1" min="11" max="11" width="20.29"/>
-    <col customWidth="1" min="12" max="12" width="21.0"/>
+    <col customWidth="1" min="1" max="1" width="12.38"/>
+    <col customWidth="1" min="2" max="7" width="35.25"/>
+    <col customWidth="1" min="10" max="10" width="13.13"/>
+    <col customWidth="1" min="11" max="11" width="17.75"/>
+    <col customWidth="1" min="12" max="12" width="18.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="78" t="s">
         <v>573</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="78" t="s">
         <v>574</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="78" t="s">
         <v>575</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="78" t="s">
         <v>576</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="78" t="s">
         <v>577</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="84" t="s">
         <v>578</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="83" t="s">
         <v>579</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="83" t="s">
         <v>580</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -8410,13 +8446,13 @@
       <c r="A2" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="34" t="s">
         <v>584</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -8425,7 +8461,7 @@
       <c r="F2" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="4"/>
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
@@ -8437,13 +8473,13 @@
       <c r="A3" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="85" t="s">
         <v>589</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="34" t="s">
         <v>590</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -8452,7 +8488,7 @@
       <c r="F3" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="4"/>
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
@@ -8464,13 +8500,13 @@
       <c r="A4" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="85" t="s">
         <v>595</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="34" t="s">
         <v>596</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -8479,7 +8515,7 @@
       <c r="F4" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="4"/>
       <c r="I4" s="17"/>
       <c r="J4" s="18"/>
@@ -8497,14 +8533,14 @@
       <c r="C5" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="34" t="s">
         <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>601</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="76"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
@@ -8516,20 +8552,20 @@
       <c r="A6" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>603</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="34" t="s">
         <v>150</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>604</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="76"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="4"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
@@ -8541,18 +8577,18 @@
       <c r="A7" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>607</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="4" t="s">
         <v>483</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="76"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="4" t="s">
         <v>227</v>
       </c>
@@ -8570,20 +8606,20 @@
       <c r="A8" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="58" t="s">
         <v>610</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="4" t="s">
         <v>484</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="4" t="s">
         <v>224</v>
       </c>
@@ -8601,18 +8637,18 @@
       <c r="A9" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="58" t="s">
         <v>607</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="4" t="s">
         <v>487</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="4" t="s">
         <v>227</v>
       </c>
@@ -8630,13 +8666,13 @@
       <c r="A10" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="58" t="s">
         <v>610</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="4" t="s">
         <v>488</v>
       </c>
@@ -8649,10 +8685,10 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="87" t="s">
         <v>618</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="88" t="s">
         <v>619</v>
       </c>
       <c r="M10" s="18"/>
@@ -8661,13 +8697,13 @@
       <c r="A11" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="58" t="s">
         <v>610</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="4" t="s">
         <v>611</v>
       </c>
@@ -8680,10 +8716,10 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="87" t="s">
         <v>623</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="88" t="s">
         <v>624</v>
       </c>
       <c r="M11" s="18"/>
@@ -8692,13 +8728,13 @@
       <c r="A12" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="89" t="s">
         <v>607</v>
       </c>
-      <c r="D12" s="82"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="4" t="s">
         <v>491</v>
       </c>
@@ -8711,10 +8747,10 @@
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="83">
+      <c r="K12" s="87">
         <v>0.0</v>
       </c>
-      <c r="L12" s="84" t="s">
+      <c r="L12" s="88" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="18"/>
@@ -8723,13 +8759,13 @@
       <c r="A13" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D13" s="82"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="4" t="s">
         <v>492</v>
       </c>
@@ -8742,10 +8778,10 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="83" t="s">
+      <c r="K13" s="87" t="s">
         <v>631</v>
       </c>
-      <c r="L13" s="84" t="s">
+      <c r="L13" s="88" t="s">
         <v>632</v>
       </c>
       <c r="M13" s="18"/>
@@ -8754,13 +8790,13 @@
       <c r="A14" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D14" s="82"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="4" t="s">
         <v>630</v>
       </c>
@@ -8773,10 +8809,10 @@
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="L14" s="88" t="s">
         <v>637</v>
       </c>
       <c r="M14" s="18"/>
@@ -8785,13 +8821,13 @@
       <c r="A15" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D15" s="82"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="4" t="s">
         <v>630</v>
       </c>
@@ -8804,10 +8840,10 @@
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="83" t="s">
+      <c r="K15" s="87" t="s">
         <v>641</v>
       </c>
-      <c r="L15" s="84" t="s">
+      <c r="L15" s="88" t="s">
         <v>637</v>
       </c>
       <c r="M15" s="18"/>
@@ -8816,13 +8852,13 @@
       <c r="A16" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="4" t="s">
         <v>630</v>
       </c>
@@ -8835,10 +8871,10 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="L16" s="84" t="s">
+      <c r="L16" s="88" t="s">
         <v>637</v>
       </c>
       <c r="M16" s="18"/>
@@ -8847,13 +8883,13 @@
       <c r="A17" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="4" t="s">
         <v>630</v>
       </c>
@@ -8866,10 +8902,10 @@
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="87" t="s">
         <v>649</v>
       </c>
-      <c r="L17" s="84" t="s">
+      <c r="L17" s="88" t="s">
         <v>637</v>
       </c>
       <c r="M17" s="18"/>
@@ -8878,13 +8914,13 @@
       <c r="A18" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="89" t="s">
         <v>607</v>
       </c>
-      <c r="D18" s="82"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="4" t="s">
         <v>495</v>
       </c>
@@ -8897,10 +8933,10 @@
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="83">
+      <c r="K18" s="87">
         <v>0.0</v>
       </c>
-      <c r="L18" s="84" t="s">
+      <c r="L18" s="88" t="s">
         <v>48</v>
       </c>
       <c r="M18" s="18"/>
@@ -8909,13 +8945,13 @@
       <c r="A19" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D19" s="82"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="4" t="s">
         <v>496</v>
       </c>
@@ -8928,10 +8964,10 @@
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="87" t="s">
         <v>631</v>
       </c>
-      <c r="L19" s="84" t="s">
+      <c r="L19" s="88" t="s">
         <v>655</v>
       </c>
       <c r="M19" s="18"/>
@@ -8940,13 +8976,13 @@
       <c r="A20" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="4" t="s">
         <v>654</v>
       </c>
@@ -8959,10 +8995,10 @@
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="83" t="s">
+      <c r="K20" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="L20" s="84" t="s">
+      <c r="L20" s="88" t="s">
         <v>659</v>
       </c>
       <c r="M20" s="18"/>
@@ -8971,13 +9007,13 @@
       <c r="A21" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D21" s="82"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="4" t="s">
         <v>654</v>
       </c>
@@ -8990,10 +9026,10 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="87" t="s">
         <v>641</v>
       </c>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="88" t="s">
         <v>659</v>
       </c>
       <c r="M21" s="18"/>
@@ -9002,13 +9038,13 @@
       <c r="A22" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D22" s="82"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="4" t="s">
         <v>654</v>
       </c>
@@ -9021,10 +9057,10 @@
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="83" t="s">
+      <c r="K22" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="L22" s="84" t="s">
+      <c r="L22" s="88" t="s">
         <v>659</v>
       </c>
       <c r="M22" s="18"/>
@@ -9033,13 +9069,13 @@
       <c r="A23" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="4" t="s">
         <v>654</v>
       </c>
@@ -9052,10 +9088,10 @@
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="83" t="s">
+      <c r="K23" s="87" t="s">
         <v>649</v>
       </c>
-      <c r="L23" s="84" t="s">
+      <c r="L23" s="88" t="s">
         <v>659</v>
       </c>
       <c r="M23" s="18"/>
@@ -9064,13 +9100,13 @@
       <c r="A24" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="89" t="s">
         <v>607</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="4" t="s">
         <v>499</v>
       </c>
@@ -9083,10 +9119,10 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="83">
+      <c r="K24" s="87">
         <v>0.0</v>
       </c>
-      <c r="L24" s="84" t="s">
+      <c r="L24" s="88" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="18"/>
@@ -9095,10 +9131,10 @@
       <c r="A25" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D25" s="17"/>
@@ -9114,10 +9150,10 @@
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="87" t="s">
         <v>631</v>
       </c>
-      <c r="L25" s="84" t="s">
+      <c r="L25" s="88" t="s">
         <v>674</v>
       </c>
       <c r="M25" s="18"/>
@@ -9126,10 +9162,10 @@
       <c r="A26" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D26" s="17"/>
@@ -9145,10 +9181,10 @@
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="83" t="s">
+      <c r="K26" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="L26" s="84" t="s">
+      <c r="L26" s="88" t="s">
         <v>678</v>
       </c>
       <c r="M26" s="18"/>
@@ -9157,10 +9193,10 @@
       <c r="A27" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D27" s="17"/>
@@ -9176,10 +9212,10 @@
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="83" t="s">
+      <c r="K27" s="87" t="s">
         <v>641</v>
       </c>
-      <c r="L27" s="84" t="s">
+      <c r="L27" s="88" t="s">
         <v>678</v>
       </c>
       <c r="M27" s="18"/>
@@ -9188,10 +9224,10 @@
       <c r="A28" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D28" s="17"/>
@@ -9207,10 +9243,10 @@
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="83" t="s">
+      <c r="K28" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="L28" s="84" t="s">
+      <c r="L28" s="88" t="s">
         <v>678</v>
       </c>
       <c r="M28" s="18"/>
@@ -9219,10 +9255,10 @@
       <c r="A29" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D29" s="17"/>
@@ -9238,10 +9274,10 @@
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="83" t="s">
+      <c r="K29" s="87" t="s">
         <v>649</v>
       </c>
-      <c r="L29" s="84" t="s">
+      <c r="L29" s="88" t="s">
         <v>678</v>
       </c>
       <c r="M29" s="18"/>
@@ -9250,10 +9286,10 @@
       <c r="A30" s="15" t="s">
         <v>688</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D30" s="17"/>
@@ -9269,10 +9305,10 @@
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="83">
+      <c r="K30" s="87">
         <v>0.0</v>
       </c>
-      <c r="L30" s="84" t="s">
+      <c r="L30" s="88" t="s">
         <v>73</v>
       </c>
       <c r="M30" s="18"/>
@@ -9281,10 +9317,10 @@
       <c r="A31" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D31" s="17"/>
@@ -9300,10 +9336,10 @@
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="83" t="s">
+      <c r="K31" s="87" t="s">
         <v>631</v>
       </c>
-      <c r="L31" s="84" t="s">
+      <c r="L31" s="88" t="s">
         <v>693</v>
       </c>
       <c r="M31" s="18"/>
@@ -9312,10 +9348,10 @@
       <c r="A32" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D32" s="17"/>
@@ -9331,10 +9367,10 @@
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="83" t="s">
+      <c r="K32" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="L32" s="84" t="s">
+      <c r="L32" s="88" t="s">
         <v>697</v>
       </c>
       <c r="M32" s="18"/>
@@ -9343,10 +9379,10 @@
       <c r="A33" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D33" s="17"/>
@@ -9362,10 +9398,10 @@
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="83" t="s">
+      <c r="K33" s="87" t="s">
         <v>641</v>
       </c>
-      <c r="L33" s="84" t="s">
+      <c r="L33" s="88" t="s">
         <v>697</v>
       </c>
       <c r="M33" s="18"/>
@@ -9374,10 +9410,10 @@
       <c r="A34" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D34" s="17"/>
@@ -9393,10 +9429,10 @@
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="83" t="s">
+      <c r="K34" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="L34" s="84" t="s">
+      <c r="L34" s="88" t="s">
         <v>697</v>
       </c>
       <c r="M34" s="18"/>
@@ -9405,10 +9441,10 @@
       <c r="A35" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D35" s="17"/>
@@ -9424,10 +9460,10 @@
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="83" t="s">
+      <c r="K35" s="87" t="s">
         <v>649</v>
       </c>
-      <c r="L35" s="84" t="s">
+      <c r="L35" s="88" t="s">
         <v>697</v>
       </c>
       <c r="M35" s="18"/>
@@ -9436,10 +9472,10 @@
       <c r="A36" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D36" s="17"/>
@@ -9455,10 +9491,10 @@
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="83">
+      <c r="K36" s="87">
         <v>0.0</v>
       </c>
-      <c r="L36" s="84" t="s">
+      <c r="L36" s="88" t="s">
         <v>60</v>
       </c>
       <c r="M36" s="18"/>
@@ -9467,10 +9503,10 @@
       <c r="A37" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D37" s="17"/>
@@ -9486,10 +9522,10 @@
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="83" t="s">
+      <c r="K37" s="87" t="s">
         <v>631</v>
       </c>
-      <c r="L37" s="84" t="s">
+      <c r="L37" s="88" t="s">
         <v>712</v>
       </c>
       <c r="M37" s="18"/>
@@ -9498,10 +9534,10 @@
       <c r="A38" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D38" s="17"/>
@@ -9517,10 +9553,10 @@
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="83" t="s">
+      <c r="K38" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="L38" s="84" t="s">
+      <c r="L38" s="88" t="s">
         <v>716</v>
       </c>
       <c r="M38" s="18"/>
@@ -9529,10 +9565,10 @@
       <c r="A39" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D39" s="17"/>
@@ -9548,10 +9584,10 @@
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="83" t="s">
+      <c r="K39" s="87" t="s">
         <v>641</v>
       </c>
-      <c r="L39" s="84" t="s">
+      <c r="L39" s="88" t="s">
         <v>716</v>
       </c>
       <c r="M39" s="18"/>
@@ -9560,10 +9596,10 @@
       <c r="A40" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D40" s="17"/>
@@ -9579,10 +9615,10 @@
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="83" t="s">
+      <c r="K40" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="L40" s="84" t="s">
+      <c r="L40" s="88" t="s">
         <v>716</v>
       </c>
       <c r="M40" s="18"/>
@@ -9591,10 +9627,10 @@
       <c r="A41" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D41" s="17"/>
@@ -9610,10 +9646,10 @@
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="83" t="s">
+      <c r="K41" s="87" t="s">
         <v>649</v>
       </c>
-      <c r="L41" s="84" t="s">
+      <c r="L41" s="88" t="s">
         <v>716</v>
       </c>
       <c r="M41" s="18"/>
@@ -9622,10 +9658,10 @@
       <c r="A42" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D42" s="17"/>
@@ -9641,10 +9677,10 @@
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="18"/>
-      <c r="K42" s="83">
+      <c r="K42" s="87">
         <v>0.0</v>
       </c>
-      <c r="L42" s="84" t="s">
+      <c r="L42" s="88" t="s">
         <v>64</v>
       </c>
       <c r="M42" s="18"/>
@@ -9653,10 +9689,10 @@
       <c r="A43" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D43" s="17"/>
@@ -9672,10 +9708,10 @@
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="83" t="s">
+      <c r="K43" s="87" t="s">
         <v>631</v>
       </c>
-      <c r="L43" s="84" t="s">
+      <c r="L43" s="88" t="s">
         <v>731</v>
       </c>
       <c r="M43" s="18"/>
@@ -9684,10 +9720,10 @@
       <c r="A44" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D44" s="17"/>
@@ -9703,10 +9739,10 @@
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="83" t="s">
+      <c r="K44" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="L44" s="84" t="s">
+      <c r="L44" s="88" t="s">
         <v>735</v>
       </c>
       <c r="M44" s="18"/>
@@ -9715,10 +9751,10 @@
       <c r="A45" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D45" s="17"/>
@@ -9734,10 +9770,10 @@
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="83" t="s">
+      <c r="K45" s="87" t="s">
         <v>641</v>
       </c>
-      <c r="L45" s="84" t="s">
+      <c r="L45" s="88" t="s">
         <v>735</v>
       </c>
       <c r="M45" s="18"/>
@@ -9746,10 +9782,10 @@
       <c r="A46" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D46" s="17"/>
@@ -9765,10 +9801,10 @@
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="83" t="s">
+      <c r="K46" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="L46" s="84" t="s">
+      <c r="L46" s="88" t="s">
         <v>735</v>
       </c>
       <c r="M46" s="18"/>
@@ -9777,10 +9813,10 @@
       <c r="A47" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D47" s="17"/>
@@ -9796,10 +9832,10 @@
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="83" t="s">
+      <c r="K47" s="87" t="s">
         <v>649</v>
       </c>
-      <c r="L47" s="84" t="s">
+      <c r="L47" s="88" t="s">
         <v>735</v>
       </c>
       <c r="M47" s="18"/>
@@ -9808,10 +9844,10 @@
       <c r="A48" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D48" s="17"/>
@@ -9827,10 +9863,10 @@
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="83">
+      <c r="K48" s="87">
         <v>0.0</v>
       </c>
-      <c r="L48" s="84" t="s">
+      <c r="L48" s="88" t="s">
         <v>304</v>
       </c>
       <c r="M48" s="18"/>
@@ -9839,10 +9875,10 @@
       <c r="A49" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D49" s="17"/>
@@ -9858,10 +9894,10 @@
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="83" t="s">
+      <c r="K49" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="L49" s="84" t="s">
+      <c r="L49" s="88" t="s">
         <v>751</v>
       </c>
       <c r="M49" s="18"/>
@@ -9870,10 +9906,10 @@
       <c r="A50" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D50" s="17"/>
@@ -9889,10 +9925,10 @@
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="83" t="s">
+      <c r="K50" s="87" t="s">
         <v>755</v>
       </c>
-      <c r="L50" s="84" t="s">
+      <c r="L50" s="88" t="s">
         <v>756</v>
       </c>
       <c r="M50" s="18"/>
@@ -9901,10 +9937,10 @@
       <c r="A51" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D51" s="17"/>
@@ -9920,10 +9956,10 @@
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="83" t="s">
+      <c r="K51" s="87" t="s">
         <v>760</v>
       </c>
-      <c r="L51" s="84" t="s">
+      <c r="L51" s="88" t="s">
         <v>761</v>
       </c>
       <c r="M51" s="18"/>
@@ -9932,10 +9968,10 @@
       <c r="A52" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D52" s="17"/>
@@ -9951,10 +9987,10 @@
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="18"/>
-      <c r="K52" s="83" t="s">
+      <c r="K52" s="87" t="s">
         <v>765</v>
       </c>
-      <c r="L52" s="84" t="s">
+      <c r="L52" s="88" t="s">
         <v>766</v>
       </c>
       <c r="M52" s="18"/>
@@ -9963,10 +9999,10 @@
       <c r="A53" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D53" s="17"/>
@@ -9980,10 +10016,10 @@
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="83">
+      <c r="K53" s="87">
         <v>0.0</v>
       </c>
-      <c r="L53" s="84" t="s">
+      <c r="L53" s="88" t="s">
         <v>146</v>
       </c>
       <c r="M53" s="18"/>
@@ -9992,10 +10028,10 @@
       <c r="A54" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="33" t="s">
         <v>770</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="58" t="s">
         <v>610</v>
       </c>
       <c r="D54" s="17"/>
@@ -10011,10 +10047,10 @@
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="83" t="s">
+      <c r="K54" s="87" t="s">
         <v>772</v>
       </c>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="33" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10022,10 +10058,10 @@
       <c r="A55" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="C55" s="85" t="s">
+      <c r="C55" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D55" s="17"/>
@@ -10039,10 +10075,10 @@
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="18"/>
-      <c r="K55" s="83">
+      <c r="K55" s="87">
         <v>0.0</v>
       </c>
-      <c r="L55" s="47" t="s">
+      <c r="L55" s="51" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10050,10 +10086,10 @@
       <c r="A56" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="33" t="s">
         <v>777</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="58" t="s">
         <v>610</v>
       </c>
       <c r="D56" s="17"/>
@@ -10069,10 +10105,10 @@
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="83" t="s">
+      <c r="K56" s="87" t="s">
         <v>779</v>
       </c>
-      <c r="L56" s="84" t="s">
+      <c r="L56" s="88" t="s">
         <v>780</v>
       </c>
       <c r="M56" s="18"/>
@@ -10081,10 +10117,10 @@
       <c r="A57" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="33" t="s">
         <v>782</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D57" s="17"/>
@@ -10098,8 +10134,8 @@
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="18"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="84" t="s">
+      <c r="K57" s="57"/>
+      <c r="L57" s="88" t="s">
         <v>146</v>
       </c>
       <c r="M57" s="18"/>
@@ -10108,10 +10144,10 @@
       <c r="A58" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="33" t="s">
         <v>784</v>
       </c>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D58" s="17"/>
@@ -10127,10 +10163,10 @@
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="83" t="s">
+      <c r="K58" s="87" t="s">
         <v>786</v>
       </c>
-      <c r="L58" s="84" t="s">
+      <c r="L58" s="88" t="s">
         <v>787</v>
       </c>
       <c r="M58" s="18"/>
@@ -10139,10 +10175,10 @@
       <c r="A59" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="33" t="s">
         <v>789</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D59" s="17"/>
@@ -10156,7 +10192,7 @@
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="18"/>
-      <c r="L59" s="47" t="s">
+      <c r="L59" s="51" t="s">
         <v>146</v>
       </c>
       <c r="M59" s="18"/>
@@ -10165,10 +10201,10 @@
       <c r="A60" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="33" t="s">
         <v>791</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D60" s="17"/>
@@ -10184,10 +10220,10 @@
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="18"/>
-      <c r="K60" s="83" t="s">
+      <c r="K60" s="87" t="s">
         <v>793</v>
       </c>
-      <c r="L60" s="84" t="s">
+      <c r="L60" s="88" t="s">
         <v>794</v>
       </c>
       <c r="M60" s="18"/>
@@ -10196,10 +10232,10 @@
       <c r="A61" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="33" t="s">
         <v>796</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D61" s="17"/>
@@ -10213,10 +10249,10 @@
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="83">
+      <c r="K61" s="87">
         <v>2.0</v>
       </c>
-      <c r="L61" s="84" t="s">
+      <c r="L61" s="88" t="s">
         <v>150</v>
       </c>
       <c r="M61" s="18"/>
@@ -10225,10 +10261,10 @@
       <c r="A62" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="33" t="s">
         <v>798</v>
       </c>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D62" s="17"/>
@@ -10244,10 +10280,10 @@
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="69">
+      <c r="K62" s="73">
         <v>2.0</v>
       </c>
-      <c r="L62" s="84" t="s">
+      <c r="L62" s="88" t="s">
         <v>150</v>
       </c>
       <c r="M62" s="18"/>
@@ -10256,10 +10292,10 @@
       <c r="A63" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="33" t="s">
         <v>801</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D63" s="17"/>
@@ -10273,10 +10309,10 @@
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="69">
+      <c r="K63" s="73">
         <v>2.0</v>
       </c>
-      <c r="L63" s="84" t="s">
+      <c r="L63" s="88" t="s">
         <v>150</v>
       </c>
       <c r="M63" s="18"/>
@@ -10285,10 +10321,10 @@
       <c r="A64" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="33" t="s">
         <v>803</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D64" s="17"/>
@@ -10304,7 +10340,7 @@
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="18"/>
-      <c r="K64" s="69" t="s">
+      <c r="K64" s="73" t="s">
         <v>805</v>
       </c>
       <c r="L64" s="4" t="s">
@@ -10316,10 +10352,10 @@
       <c r="A65" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="33" t="s">
         <v>808</v>
       </c>
-      <c r="C65" s="85" t="s">
+      <c r="C65" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D65" s="17"/>
@@ -10333,10 +10369,10 @@
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="69">
+      <c r="K65" s="73">
         <v>2.0</v>
       </c>
-      <c r="L65" s="84" t="s">
+      <c r="L65" s="88" t="s">
         <v>150</v>
       </c>
       <c r="M65" s="18"/>
@@ -10345,10 +10381,10 @@
       <c r="A66" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="33" t="s">
         <v>810</v>
       </c>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D66" s="17"/>
@@ -10364,7 +10400,7 @@
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="18"/>
-      <c r="K66" s="69" t="s">
+      <c r="K66" s="73" t="s">
         <v>812</v>
       </c>
       <c r="L66" s="4" t="s">
@@ -10376,10 +10412,10 @@
       <c r="A67" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="C67" s="85" t="s">
+      <c r="C67" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D67" s="17"/>
@@ -10393,10 +10429,10 @@
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="18"/>
-      <c r="K67" s="69">
+      <c r="K67" s="73">
         <v>2.0</v>
       </c>
-      <c r="L67" s="84" t="s">
+      <c r="L67" s="88" t="s">
         <v>150</v>
       </c>
       <c r="M67" s="18"/>
@@ -10405,10 +10441,10 @@
       <c r="A68" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D68" s="17"/>
@@ -10424,10 +10460,10 @@
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="69">
+      <c r="K68" s="73">
         <v>2.0</v>
       </c>
-      <c r="L68" s="84" t="s">
+      <c r="L68" s="88" t="s">
         <v>150</v>
       </c>
       <c r="M68" s="18"/>
@@ -10436,10 +10472,10 @@
       <c r="A69" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="33" t="s">
         <v>819</v>
       </c>
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D69" s="17"/>
@@ -10453,10 +10489,10 @@
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="18"/>
-      <c r="K69" s="69">
+      <c r="K69" s="73">
         <v>2.0</v>
       </c>
-      <c r="L69" s="84" t="s">
+      <c r="L69" s="88" t="s">
         <v>150</v>
       </c>
       <c r="M69" s="18"/>
@@ -10465,10 +10501,10 @@
       <c r="A70" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="33" t="s">
         <v>821</v>
       </c>
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D70" s="17"/>
@@ -10496,10 +10532,10 @@
       <c r="A71" s="15" t="s">
         <v>824</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="33" t="s">
         <v>825</v>
       </c>
-      <c r="C71" s="85" t="s">
+      <c r="C71" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D71" s="17"/>
@@ -10513,7 +10549,7 @@
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="69">
+      <c r="K71" s="73">
         <v>2.0</v>
       </c>
       <c r="L71" s="4" t="s">
@@ -10525,10 +10561,10 @@
       <c r="A72" s="15" t="s">
         <v>826</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="33" t="s">
         <v>827</v>
       </c>
-      <c r="C72" s="85" t="s">
+      <c r="C72" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D72" s="17"/>
@@ -10556,10 +10592,10 @@
       <c r="A73" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="33" t="s">
         <v>830</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D73" s="17"/>
@@ -10573,7 +10609,7 @@
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="18"/>
-      <c r="K73" s="69">
+      <c r="K73" s="73">
         <v>2.0</v>
       </c>
       <c r="L73" s="4" t="s">
@@ -10585,10 +10621,10 @@
       <c r="A74" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="33" t="s">
         <v>832</v>
       </c>
-      <c r="C74" s="85" t="s">
+      <c r="C74" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D74" s="17"/>
@@ -10603,7 +10639,7 @@
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="69">
+      <c r="K74" s="73">
         <v>2.0</v>
       </c>
       <c r="L74" s="4" t="s">
@@ -10615,10 +10651,10 @@
       <c r="A75" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="33" t="s">
         <v>835</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D75" s="17"/>
@@ -10634,7 +10670,7 @@
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="18"/>
-      <c r="K75" s="69" t="s">
+      <c r="K75" s="73" t="s">
         <v>837</v>
       </c>
       <c r="L75" s="4" t="s">
@@ -10646,10 +10682,10 @@
       <c r="A76" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="33" t="s">
         <v>840</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D76" s="17"/>
@@ -10665,7 +10701,7 @@
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="18"/>
-      <c r="K76" s="69" t="s">
+      <c r="K76" s="73" t="s">
         <v>842</v>
       </c>
       <c r="L76" s="4" t="s">
@@ -10677,10 +10713,10 @@
       <c r="A77" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="33" t="s">
         <v>845</v>
       </c>
-      <c r="C77" s="85" t="s">
+      <c r="C77" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D77" s="17"/>
@@ -10694,7 +10730,7 @@
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="69">
+      <c r="K77" s="73">
         <v>4.0</v>
       </c>
       <c r="L77" s="4" t="s">
@@ -10706,10 +10742,10 @@
       <c r="A78" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="C78" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D78" s="17"/>
@@ -10725,7 +10761,7 @@
       </c>
       <c r="I78" s="17"/>
       <c r="J78" s="18"/>
-      <c r="K78" s="69" t="s">
+      <c r="K78" s="73" t="s">
         <v>849</v>
       </c>
       <c r="L78" s="4" t="s">
@@ -10737,10 +10773,10 @@
       <c r="A79" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="33" t="s">
         <v>851</v>
       </c>
-      <c r="C79" s="85" t="s">
+      <c r="C79" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D79" s="17"/>
@@ -10756,7 +10792,7 @@
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="18"/>
-      <c r="K79" s="86">
+      <c r="K79" s="90">
         <v>4.0</v>
       </c>
       <c r="L79" s="4" t="s">
@@ -10768,10 +10804,10 @@
       <c r="A80" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="33" t="s">
         <v>854</v>
       </c>
-      <c r="C80" s="85" t="s">
+      <c r="C80" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D80" s="17"/>
@@ -10787,7 +10823,7 @@
       </c>
       <c r="I80" s="17"/>
       <c r="J80" s="18"/>
-      <c r="K80" s="69" t="s">
+      <c r="K80" s="73" t="s">
         <v>856</v>
       </c>
       <c r="L80" s="4" t="s">
@@ -10799,10 +10835,10 @@
       <c r="A81" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D81" s="17"/>
@@ -10816,7 +10852,7 @@
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="18"/>
-      <c r="K81" s="69">
+      <c r="K81" s="73">
         <v>4.0</v>
       </c>
       <c r="L81" s="4" t="s">
@@ -10828,10 +10864,10 @@
       <c r="A82" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="33" t="s">
         <v>860</v>
       </c>
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D82" s="17"/>
@@ -10847,7 +10883,7 @@
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="18"/>
-      <c r="K82" s="69" t="s">
+      <c r="K82" s="73" t="s">
         <v>862</v>
       </c>
       <c r="L82" s="4" t="s">
@@ -10859,10 +10895,10 @@
       <c r="A83" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C83" s="85" t="s">
+      <c r="C83" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D83" s="17"/>
@@ -10876,7 +10912,7 @@
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="69">
+      <c r="K83" s="73">
         <v>4.0</v>
       </c>
       <c r="L83" s="4" t="s">
@@ -10888,10 +10924,10 @@
       <c r="A84" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="33" t="s">
         <v>867</v>
       </c>
-      <c r="C84" s="85" t="s">
+      <c r="C84" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D84" s="17"/>
@@ -10907,7 +10943,7 @@
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="18"/>
-      <c r="K84" s="69" t="s">
+      <c r="K84" s="73" t="s">
         <v>849</v>
       </c>
       <c r="L84" s="4" t="s">
@@ -10919,10 +10955,10 @@
       <c r="A85" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="33" t="s">
         <v>870</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="89" t="s">
         <v>607</v>
       </c>
       <c r="D85" s="17"/>
@@ -10936,7 +10972,7 @@
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="18"/>
-      <c r="K85" s="69">
+      <c r="K85" s="73">
         <v>2.0</v>
       </c>
       <c r="L85" s="4" t="s">
@@ -10945,13 +10981,13 @@
       <c r="M85" s="18"/>
     </row>
     <row r="86">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="49" t="s">
         <v>871</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="33" t="s">
         <v>872</v>
       </c>
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="89" t="s">
         <v>610</v>
       </c>
       <c r="D86" s="17"/>
@@ -10991,22 +11027,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
+    <col customWidth="1" min="4" max="4" width="15.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="78" t="s">
         <v>876</v>
       </c>
       <c r="E1" s="17" t="s">
@@ -11017,8 +11053,8 @@
       <c r="A2" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="4" t="s">
         <v>878</v>
       </c>
@@ -11028,8 +11064,8 @@
       <c r="A3" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="4" t="s">
         <v>879</v>
       </c>
@@ -11039,8 +11075,8 @@
       <c r="A4" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="60" t="s">
         <v>880</v>
       </c>
       <c r="E4" s="17"/>
@@ -11049,8 +11085,8 @@
       <c r="A5" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="60" t="s">
         <v>881</v>
       </c>
       <c r="E5" s="17"/>
@@ -11059,8 +11095,8 @@
       <c r="A6" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="60" t="s">
         <v>882</v>
       </c>
       <c r="E6" s="17"/>
@@ -11069,18 +11105,18 @@
       <c r="A7" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="56" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="60" t="s">
         <v>883</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="60" t="s">
         <v>884</v>
       </c>
     </row>
@@ -11088,9 +11124,9 @@
       <c r="A9" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="56" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="60" t="s">
         <v>885</v>
       </c>
       <c r="E9" s="17"/>
@@ -11113,408 +11149,408 @@
       <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.29"/>
-    <col customWidth="1" min="2" max="2" width="9.71"/>
-    <col customWidth="1" min="3" max="3" width="25.57"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="7.0"/>
-    <col customWidth="1" min="6" max="6" width="8.43"/>
-    <col customWidth="1" min="7" max="7" width="8.86"/>
-    <col customWidth="1" min="8" max="8" width="8.0"/>
-    <col customWidth="1" min="10" max="10" width="31.29"/>
+    <col customWidth="1" min="1" max="1" width="8.13"/>
+    <col customWidth="1" min="2" max="2" width="8.5"/>
+    <col customWidth="1" min="3" max="3" width="22.38"/>
+    <col customWidth="1" min="4" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="6.13"/>
+    <col customWidth="1" min="6" max="6" width="7.38"/>
+    <col customWidth="1" min="7" max="7" width="7.75"/>
+    <col customWidth="1" min="8" max="8" width="7.0"/>
+    <col customWidth="1" min="10" max="10" width="27.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="91" t="s">
         <v>573</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="91" t="s">
         <v>886</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="91" t="s">
         <v>887</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="92" t="s">
         <v>888</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="93" t="s">
         <v>889</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="94" t="s">
         <v>480</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="95" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="94" t="s">
         <v>891</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="94" t="s">
         <v>892</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="94" t="s">
         <v>894</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="94" t="s">
         <v>895</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="94" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="98" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="94" t="s">
         <v>896</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="94" t="s">
         <v>897</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="90" t="s">
+      <c r="D4" s="94"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="94" t="s">
         <v>898</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="94" t="s">
         <v>899</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="94" t="s">
         <v>900</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="94" t="s">
         <v>901</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="94" t="s">
         <v>902</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="94" t="s">
         <v>903</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="94" t="s">
         <v>904</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="94" t="s">
         <v>905</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="94" t="s">
+      <c r="D8" s="100"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="98" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="94" t="s">
         <v>907</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="94" t="s">
         <v>908</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="97" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="101" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="94" t="s">
         <v>909</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="94" t="s">
         <v>910</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="97" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="101" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="94" t="s">
         <v>911</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="94" t="s">
         <v>912</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="94" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="98" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="94" t="s">
         <v>913</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="94" t="s">
         <v>914</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="94" t="s">
+      <c r="D12" s="94"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="98" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="94" t="s">
         <v>915</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="94" t="s">
         <v>916</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="94" t="s">
+      <c r="D13" s="94"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="98" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="94" t="s">
         <v>917</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="94" t="s">
         <v>918</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="94" t="s">
+      <c r="D14" s="94"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="98" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="94" t="s">
         <v>919</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="94" t="s">
         <v>920</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="94" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="98" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="94" t="s">
         <v>921</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="94" t="s">
         <v>922</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90" t="s">
+      <c r="D16" s="94"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="94" t="s">
         <v>924</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="94" t="s">
         <v>925</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90" t="s">
+      <c r="D17" s="94"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="94" t="s">
         <v>927</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="94" t="s">
         <v>928</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90" t="s">
+      <c r="D18" s="94"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="99" t="s">
         <v>930</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="94" t="s">
         <v>931</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95" t="s">
+      <c r="C19" s="99"/>
+      <c r="D19" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11529,9 +11565,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="38.14"/>
+    <col customWidth="1" min="3" max="3" width="33.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11549,34 +11585,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>934</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="102" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>936</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="102" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>938</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="102" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="51" t="s">
         <v>940</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="102" t="s">
         <v>941</v>
       </c>
     </row>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="983">
   <si>
     <t>id</t>
   </si>
@@ -261,7 +261,7 @@
     <t>L5 Dorsal Root ganglion (sdcol)</t>
   </si>
   <si>
-    <t>UBERON:0002261</t>
+    <t>UBERON:0002859</t>
   </si>
   <si>
     <t>dcn-l5drg_c</t>
@@ -315,7 +315,10 @@
     <t>S18</t>
   </si>
   <si>
-    <t>UBERON:0002859</t>
+    <t>L5 Ventral Root (sdcol)</t>
+  </si>
+  <si>
+    <t>ILX:0791148</t>
   </si>
   <si>
     <t>S19</t>
@@ -3305,7 +3308,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -3841,51 +3844,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="105" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="105" t="s">
+        <v>951</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>950</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>951</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="105" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="104" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -3914,106 +3917,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="107" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B1" s="107" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="108" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="108" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="108" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="108" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="108" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="108" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="108" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="108" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="108" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="108" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="108" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="108" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B13" s="109" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -4609,10 +4612,10 @@
         <v>83</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="4" t="b">
@@ -4634,13 +4637,13 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="21"/>
@@ -4660,13 +4663,13 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="21"/>
@@ -4686,13 +4689,13 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="21"/>
@@ -4712,13 +4715,13 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="21"/>
@@ -4738,13 +4741,13 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="21"/>
@@ -4764,13 +4767,13 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="21"/>
@@ -4790,13 +4793,13 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="21"/>
@@ -4816,13 +4819,13 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="21"/>
@@ -4842,13 +4845,13 @@
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="21"/>
@@ -4868,13 +4871,13 @@
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="21"/>
@@ -4894,13 +4897,13 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>114</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="21"/>
@@ -4920,13 +4923,13 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="21"/>
@@ -4946,13 +4949,13 @@
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="21"/>
@@ -4972,13 +4975,13 @@
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="21"/>
@@ -4998,13 +5001,13 @@
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="21"/>
@@ -5024,13 +5027,13 @@
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="21"/>
@@ -5050,13 +5053,13 @@
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="21"/>
@@ -5076,13 +5079,13 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="21"/>
@@ -5102,13 +5105,13 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="21"/>
@@ -5128,13 +5131,13 @@
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="21"/>
@@ -5154,13 +5157,13 @@
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="21"/>
@@ -5180,13 +5183,13 @@
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="4" t="b">
@@ -5208,13 +5211,13 @@
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="38"/>
@@ -5225,7 +5228,7 @@
       <c r="J42" s="21"/>
       <c r="K42" s="18"/>
       <c r="L42" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M42" s="24"/>
       <c r="N42" s="18"/>
@@ -5236,13 +5239,13 @@
     </row>
     <row r="43">
       <c r="A43" s="40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="44"/>
@@ -5250,15 +5253,15 @@
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
       <c r="I43" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J43" s="47"/>
       <c r="K43" s="43"/>
       <c r="L43" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M43" s="48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N43" s="43"/>
       <c r="O43" s="43"/>
@@ -5268,13 +5271,13 @@
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="21"/>
@@ -5285,7 +5288,7 @@
       <c r="J44" s="15"/>
       <c r="K44" s="49"/>
       <c r="L44" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M44" s="24" t="s">
         <v>47</v>
@@ -5298,13 +5301,13 @@
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="21"/>
@@ -5315,7 +5318,7 @@
       <c r="J45" s="15"/>
       <c r="K45" s="49"/>
       <c r="L45" s="50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M45" s="24" t="s">
         <v>47</v>
@@ -5328,13 +5331,13 @@
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="4"/>
@@ -5345,10 +5348,10 @@
       <c r="J46" s="15"/>
       <c r="K46" s="18"/>
       <c r="L46" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -5358,13 +5361,13 @@
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="4"/>
@@ -5375,10 +5378,10 @@
       <c r="J47" s="15"/>
       <c r="K47" s="18"/>
       <c r="L47" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
@@ -5388,13 +5391,13 @@
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="4"/>
@@ -5405,7 +5408,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="49"/>
       <c r="L48" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M48" s="17">
         <v>0.0</v>
@@ -5418,13 +5421,13 @@
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="4"/>
@@ -5435,10 +5438,10 @@
       <c r="J49" s="15"/>
       <c r="K49" s="49"/>
       <c r="L49" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
@@ -5448,13 +5451,13 @@
     </row>
     <row r="50">
       <c r="A50" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="4"/>
@@ -5465,23 +5468,23 @@
       <c r="J50" s="15"/>
       <c r="K50" s="49"/>
       <c r="L50" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
     </row>
     <row r="51">
       <c r="A51" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="4"/>
@@ -5492,23 +5495,23 @@
       <c r="J51" s="15"/>
       <c r="K51" s="49"/>
       <c r="L51" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
     </row>
     <row r="52">
       <c r="A52" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="4" t="b">
@@ -5530,13 +5533,13 @@
     </row>
     <row r="53">
       <c r="A53" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="21"/>
@@ -5556,13 +5559,13 @@
     </row>
     <row r="54">
       <c r="A54" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="4" t="b">
@@ -5584,13 +5587,13 @@
     </row>
     <row r="55">
       <c r="A55" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="4"/>
@@ -5610,13 +5613,13 @@
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="38"/>
@@ -5636,13 +5639,13 @@
     </row>
     <row r="57">
       <c r="A57" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="38"/>
@@ -5662,13 +5665,13 @@
     </row>
     <row r="58">
       <c r="A58" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="38"/>
@@ -5688,13 +5691,13 @@
     </row>
     <row r="59">
       <c r="A59" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="38"/>
@@ -5717,10 +5720,10 @@
         <v>24</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="38" t="b">
@@ -5730,7 +5733,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="18"/>
@@ -5739,20 +5742,20 @@
       <c r="N60" s="20"/>
       <c r="O60" s="18"/>
       <c r="P60" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="56" t="b">
@@ -5774,20 +5777,20 @@
     </row>
     <row r="62">
       <c r="A62" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="55" t="s">
         <v>221</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>220</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="57" t="b">
         <v>1</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
@@ -5806,25 +5809,25 @@
     </row>
     <row r="63">
       <c r="A63" s="53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="57" t="b">
         <v>1</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="18"/>
@@ -5838,25 +5841,25 @@
     </row>
     <row r="64">
       <c r="A64" s="53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="57" t="b">
         <v>1</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J64" s="21"/>
       <c r="K64" s="18"/>
@@ -5870,25 +5873,25 @@
     </row>
     <row r="65">
       <c r="A65" s="53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="57" t="b">
         <v>1</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J65" s="21"/>
       <c r="K65" s="18"/>
@@ -5902,25 +5905,25 @@
     </row>
     <row r="66">
       <c r="A66" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="55" t="s">
         <v>234</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="55" t="s">
-        <v>233</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="57" t="b">
         <v>1</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J66" s="21"/>
       <c r="K66" s="18"/>
@@ -5934,13 +5937,13 @@
     </row>
     <row r="67">
       <c r="A67" s="51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="56" t="b">
@@ -5950,7 +5953,7 @@
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J67" s="21"/>
       <c r="K67" s="18"/>
@@ -5964,13 +5967,13 @@
     </row>
     <row r="68">
       <c r="A68" s="51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="21"/>
@@ -5990,13 +5993,13 @@
     </row>
     <row r="69">
       <c r="A69" s="51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="21"/>
@@ -6016,13 +6019,13 @@
     </row>
     <row r="70">
       <c r="A70" s="51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="21"/>
@@ -6042,13 +6045,13 @@
     </row>
     <row r="71">
       <c r="A71" s="51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="21"/>
@@ -6068,13 +6071,13 @@
     </row>
     <row r="72">
       <c r="A72" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="21"/>
@@ -6092,13 +6095,13 @@
     </row>
     <row r="73">
       <c r="A73" s="51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="21"/>
@@ -6121,10 +6124,10 @@
         <v>34</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C74" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="21"/>
@@ -6142,7 +6145,7 @@
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
       <c r="Q74" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R74" s="4"/>
     </row>
@@ -6151,10 +6154,10 @@
         <v>39</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C75" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="21"/>
@@ -6177,10 +6180,10 @@
         <v>46</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="21"/>
@@ -6198,7 +6201,7 @@
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
       <c r="Q76" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R76" s="4"/>
     </row>
@@ -6207,10 +6210,10 @@
         <v>51</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C77" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="21"/>
@@ -6233,10 +6236,10 @@
         <v>55</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="21"/>
@@ -6261,10 +6264,10 @@
         <v>59</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C79" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="21"/>
@@ -6289,10 +6292,10 @@
         <v>63</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C80" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="21"/>
@@ -6317,10 +6320,10 @@
         <v>67</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C81" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="21"/>
@@ -6342,13 +6345,13 @@
     </row>
     <row r="82">
       <c r="A82" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C82" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="21"/>
@@ -6366,19 +6369,19 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C83" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="21"/>
@@ -6396,19 +6399,19 @@
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C84" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="21"/>
@@ -6426,19 +6429,19 @@
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
       <c r="Q84" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C85" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="21"/>
@@ -6456,19 +6459,19 @@
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
       <c r="Q85" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C86" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="21"/>
@@ -6486,19 +6489,19 @@
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
       <c r="Q86" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C87" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="21"/>
@@ -6516,19 +6519,19 @@
       <c r="O87" s="18"/>
       <c r="P87" s="18"/>
       <c r="Q87" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="21"/>
@@ -6546,19 +6549,19 @@
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
       <c r="Q88" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C89" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="21"/>
@@ -6576,19 +6579,19 @@
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
       <c r="Q89" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C90" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="21"/>
@@ -6606,19 +6609,19 @@
       <c r="O90" s="18"/>
       <c r="P90" s="18"/>
       <c r="Q90" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C91" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="21"/>
@@ -6636,19 +6639,19 @@
       <c r="O91" s="18"/>
       <c r="P91" s="18"/>
       <c r="Q91" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C92" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="21"/>
@@ -6666,19 +6669,19 @@
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C93" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="21"/>
@@ -6696,19 +6699,19 @@
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
       <c r="Q93" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C94" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="21"/>
@@ -6726,19 +6729,19 @@
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
       <c r="Q94" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C95" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="21"/>
@@ -6756,19 +6759,19 @@
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C96" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="21"/>
@@ -6786,19 +6789,19 @@
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
       <c r="Q96" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="21"/>
@@ -6818,13 +6821,13 @@
     </row>
     <row r="98">
       <c r="A98" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="21"/>
@@ -6860,16 +6863,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -6884,13 +6887,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -6928,13 +6931,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -6950,10 +6953,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -6967,10 +6970,10 @@
     <row r="7">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -6984,10 +6987,10 @@
     <row r="8">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -7001,10 +7004,10 @@
     <row r="9">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -7030,10 +7033,10 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -7047,10 +7050,10 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -7064,10 +7067,10 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -7081,10 +7084,10 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -7098,10 +7101,10 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -7115,10 +7118,10 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -7132,10 +7135,10 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -7149,10 +7152,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -7166,10 +7169,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -7183,10 +7186,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -7200,10 +7203,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -7217,10 +7220,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -7247,7 +7250,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>5</v>
@@ -7264,7 +7267,7 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>6</v>
@@ -7281,10 +7284,10 @@
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27">
@@ -7307,18 +7310,18 @@
     </row>
     <row r="33">
       <c r="A33" s="63" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="63" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
@@ -7332,10 +7335,10 @@
     </row>
     <row r="35">
       <c r="A35" s="63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C35" s="66"/>
       <c r="D35" s="66"/>
@@ -7349,12 +7352,12 @@
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38">
@@ -7420,493 +7423,493 @@
     </row>
     <row r="2">
       <c r="A2" s="69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3">
       <c r="A3" s="69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D3" s="18"/>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D4" s="55"/>
     </row>
     <row r="5">
       <c r="A5" s="69" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="69" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="69" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="69" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="69" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="69" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D12" s="18"/>
     </row>
     <row r="13">
       <c r="A13" s="69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D13" s="18"/>
     </row>
     <row r="14">
       <c r="A14" s="69" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D14" s="18"/>
     </row>
     <row r="15">
       <c r="A15" s="69" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="69" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="69" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D18" s="18"/>
     </row>
     <row r="19">
       <c r="A19" s="69" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D21" s="18"/>
     </row>
     <row r="22">
       <c r="A22" s="69" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="69" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="69" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D24" s="18"/>
     </row>
     <row r="25">
       <c r="A25" s="69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="74" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D26" s="27"/>
     </row>
     <row r="27">
       <c r="A27" s="74" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D27" s="27"/>
     </row>
     <row r="28">
       <c r="A28" s="74" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D28" s="27"/>
     </row>
     <row r="29">
       <c r="A29" s="74" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D29" s="27"/>
     </row>
     <row r="30">
       <c r="A30" s="74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D30" s="27"/>
     </row>
     <row r="31">
       <c r="A31" s="74" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D31" s="27"/>
     </row>
     <row r="32">
       <c r="A32" s="74" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D32" s="27"/>
     </row>
     <row r="33">
       <c r="A33" s="74" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D33" s="27"/>
     </row>
     <row r="34">
       <c r="A34" s="74" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D34" s="27"/>
     </row>
     <row r="35">
       <c r="A35" s="74" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D35" s="27"/>
     </row>
     <row r="36">
       <c r="A36" s="75" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C36" s="76" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D36" s="18"/>
     </row>
     <row r="37">
       <c r="A37" s="75" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C37" s="76" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D37" s="18"/>
     </row>
     <row r="38">
       <c r="A38" s="75" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D38" s="18"/>
     </row>
     <row r="39">
       <c r="A39" s="75" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D39" s="18"/>
     </row>
     <row r="40">
       <c r="A40" s="75" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D40" s="18"/>
     </row>
     <row r="41">
       <c r="A41" s="75" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C41" s="78" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D41" s="18"/>
     </row>
@@ -7942,33 +7945,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F1" s="80" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="81" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>34</v>
@@ -7978,16 +7981,16 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>39</v>
@@ -7997,16 +8000,16 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>46</v>
@@ -8016,16 +8019,16 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>51</v>
@@ -8035,16 +8038,16 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>55</v>
@@ -8054,16 +8057,16 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>59</v>
@@ -8073,16 +8076,16 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>63</v>
@@ -8092,16 +8095,16 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>67</v>
@@ -8111,285 +8114,285 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F10" s="82"/>
       <c r="G10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F11" s="82"/>
       <c r="G11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F12" s="82"/>
       <c r="G12" s="21"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="21"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F15" s="82"/>
       <c r="G15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="21"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F17" s="82"/>
       <c r="G17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F18" s="82"/>
       <c r="G18" s="21"/>
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F19" s="82"/>
       <c r="G19" s="21"/>
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F20" s="82"/>
       <c r="G20" s="21"/>
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F21" s="82"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F22" s="82"/>
       <c r="G22" s="21"/>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="21"/>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F24" s="82"/>
       <c r="G24" s="21"/>
@@ -8419,7 +8422,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.38"/>
-    <col customWidth="1" min="2" max="7" width="35.25"/>
+    <col customWidth="1" min="2" max="2" width="81.63"/>
+    <col customWidth="1" min="3" max="5" width="35.25"/>
+    <col customWidth="1" min="6" max="6" width="50.5"/>
+    <col customWidth="1" min="7" max="7" width="35.25"/>
     <col customWidth="1" min="10" max="10" width="13.13"/>
     <col customWidth="1" min="11" max="11" width="17.75"/>
     <col customWidth="1" min="12" max="12" width="18.38"/>
@@ -8436,54 +8442,54 @@
         <v>2</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J1" s="86" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G2" s="82"/>
       <c r="H2" s="4"/>
@@ -8495,22 +8501,22 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G3" s="82"/>
       <c r="H3" s="4"/>
@@ -8522,22 +8528,22 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G4" s="82"/>
       <c r="H4" s="4"/>
@@ -8549,19 +8555,19 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="82"/>
@@ -8574,19 +8580,19 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="82"/>
@@ -8599,22 +8605,22 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="82"/>
       <c r="H7" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="18"/>
@@ -8628,53 +8634,53 @@
     </row>
     <row r="8" ht="20.25" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D8" s="88"/>
       <c r="E8" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="18"/>
       <c r="K8" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M8" s="18"/>
     </row>
     <row r="9" ht="20.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D9" s="88"/>
       <c r="E9" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="58"/>
       <c r="H9" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="18"/>
@@ -8688,86 +8694,86 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D10" s="88"/>
       <c r="E10" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="18"/>
       <c r="K10" s="89" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L10" s="90" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D11" s="88"/>
       <c r="E11" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="18"/>
       <c r="K11" s="89" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L11" s="90" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D12" s="88"/>
       <c r="E12" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="18"/>
@@ -8781,179 +8787,179 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D13" s="88"/>
       <c r="E13" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="18"/>
       <c r="K13" s="89" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L13" s="90" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M13" s="18"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D14" s="88"/>
       <c r="E14" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="18"/>
       <c r="K14" s="89" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L14" s="90" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M14" s="18"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D15" s="88"/>
       <c r="E15" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="18"/>
       <c r="K15" s="89" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L15" s="90" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D16" s="88"/>
       <c r="E16" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="18"/>
       <c r="K16" s="89" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L16" s="90" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D17" s="88"/>
       <c r="E17" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="18"/>
       <c r="K17" s="89" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L17" s="90" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D18" s="88"/>
       <c r="E18" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="18"/>
@@ -8967,179 +8973,179 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D19" s="88"/>
       <c r="E19" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="18"/>
       <c r="K19" s="89" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L19" s="90" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M19" s="18"/>
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D20" s="88"/>
       <c r="E20" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="18"/>
       <c r="K20" s="89" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L20" s="90" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D21" s="88"/>
       <c r="E21" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="18"/>
       <c r="K21" s="89" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L21" s="90" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M21" s="18"/>
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D22" s="88"/>
       <c r="E22" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="18"/>
       <c r="K22" s="89" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L22" s="90" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M22" s="18"/>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D23" s="88"/>
       <c r="E23" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="18"/>
       <c r="K23" s="89" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L23" s="90" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M23" s="18"/>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D24" s="88"/>
       <c r="E24" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="18"/>
@@ -9153,179 +9159,179 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="18"/>
       <c r="K25" s="89" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L25" s="90" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="18"/>
       <c r="K26" s="89" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L26" s="90" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M26" s="18"/>
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="18"/>
       <c r="K27" s="89" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L27" s="90" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M27" s="18"/>
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="18"/>
       <c r="K28" s="89" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L28" s="90" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M28" s="18"/>
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="18"/>
       <c r="K29" s="89" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L29" s="90" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M29" s="18"/>
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="18"/>
@@ -9339,179 +9345,179 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C31" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="18"/>
       <c r="K31" s="89" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L31" s="90" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M31" s="18"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C32" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="18"/>
       <c r="K32" s="89" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L32" s="90" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M32" s="18"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="18"/>
       <c r="K33" s="89" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L33" s="90" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M33" s="18"/>
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="18"/>
       <c r="K34" s="89" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L34" s="90" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M34" s="18"/>
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="18"/>
       <c r="K35" s="89" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L35" s="90" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M35" s="18"/>
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="18"/>
@@ -9525,179 +9531,179 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="18"/>
       <c r="K37" s="89" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L37" s="90" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M37" s="18"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="18"/>
       <c r="K38" s="89" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L38" s="90" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M38" s="18"/>
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="18"/>
       <c r="K39" s="89" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L39" s="90" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M39" s="18"/>
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="18"/>
       <c r="K40" s="89" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L40" s="90" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M40" s="18"/>
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="18"/>
       <c r="K41" s="89" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L41" s="90" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M41" s="18"/>
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="18"/>
@@ -9711,179 +9717,179 @@
     </row>
     <row r="43">
       <c r="A43" s="15" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="18"/>
       <c r="K43" s="89" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L43" s="90" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M43" s="18"/>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="18"/>
       <c r="K44" s="89" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L44" s="90" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M44" s="18"/>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="18"/>
       <c r="K45" s="89" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L45" s="90" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M45" s="18"/>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="18"/>
       <c r="K46" s="89" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L46" s="90" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M46" s="18"/>
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="18"/>
       <c r="K47" s="89" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L47" s="90" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M47" s="18"/>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="18"/>
@@ -9891,152 +9897,152 @@
         <v>0.0</v>
       </c>
       <c r="L48" s="90" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M48" s="18"/>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="18"/>
       <c r="K49" s="89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L49" s="90" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M49" s="18"/>
     </row>
     <row r="50">
       <c r="A50" s="15" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="18"/>
       <c r="K50" s="89" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L50" s="90" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M50" s="18"/>
     </row>
     <row r="51">
       <c r="A51" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C51" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="18"/>
       <c r="K51" s="89" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L51" s="90" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M51" s="18"/>
     </row>
     <row r="52">
       <c r="A52" s="15" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C52" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="18"/>
       <c r="K52" s="89" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L52" s="90" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M52" s="18"/>
     </row>
     <row r="53">
       <c r="A53" s="15" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="18"/>
@@ -10044,58 +10050,58 @@
         <v>0.0</v>
       </c>
       <c r="L53" s="90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M53" s="18"/>
     </row>
     <row r="54">
       <c r="A54" s="15" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="18"/>
       <c r="K54" s="89" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L54" s="34" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="21"/>
       <c r="H55" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="18"/>
@@ -10103,173 +10109,173 @@
         <v>0.0</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="18"/>
       <c r="K56" s="89" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L56" s="90" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M56" s="18"/>
     </row>
     <row r="57">
       <c r="A57" s="15" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
       <c r="H57" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="18"/>
       <c r="K57" s="58"/>
       <c r="L57" s="90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M57" s="18"/>
     </row>
     <row r="58">
       <c r="A58" s="15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C58" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="18"/>
       <c r="K58" s="89" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L58" s="90" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M58" s="18"/>
     </row>
     <row r="59">
       <c r="A59" s="15" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="18"/>
       <c r="L59" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M59" s="18"/>
     </row>
     <row r="60">
       <c r="A60" s="15" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="18"/>
       <c r="K60" s="89" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L60" s="90" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M60" s="18"/>
     </row>
     <row r="61">
       <c r="A61" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C61" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="18"/>
@@ -10277,30 +10283,30 @@
         <v>2.0</v>
       </c>
       <c r="L61" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M61" s="18"/>
     </row>
     <row r="62">
       <c r="A62" s="15" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C62" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G62" s="21"/>
       <c r="H62" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="18"/>
@@ -10308,28 +10314,28 @@
         <v>2.0</v>
       </c>
       <c r="L62" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M62" s="18"/>
     </row>
     <row r="63">
       <c r="A63" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C63" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="18"/>
@@ -10337,59 +10343,59 @@
         <v>2.0</v>
       </c>
       <c r="L63" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M63" s="18"/>
     </row>
     <row r="64">
       <c r="A64" s="15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C64" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="18"/>
       <c r="K64" s="75" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M64" s="18"/>
     </row>
     <row r="65">
       <c r="A65" s="15" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="18"/>
@@ -10397,59 +10403,59 @@
         <v>2.0</v>
       </c>
       <c r="L65" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M65" s="18"/>
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C66" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="18"/>
       <c r="K66" s="75" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M66" s="18"/>
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C67" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I67" s="21"/>
       <c r="J67" s="18"/>
@@ -10457,30 +10463,30 @@
         <v>2.0</v>
       </c>
       <c r="L67" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M67" s="18"/>
     </row>
     <row r="68">
       <c r="A68" s="15" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="18"/>
@@ -10488,28 +10494,28 @@
         <v>2.0</v>
       </c>
       <c r="L68" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M68" s="18"/>
     </row>
     <row r="69">
       <c r="A69" s="15" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C69" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="18"/>
@@ -10517,59 +10523,59 @@
         <v>2.0</v>
       </c>
       <c r="L69" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M69" s="18"/>
     </row>
     <row r="70">
       <c r="A70" s="15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C70" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G70" s="21"/>
       <c r="H70" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I70" s="21"/>
       <c r="J70" s="18"/>
       <c r="K70" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M70" s="18"/>
     </row>
     <row r="71">
       <c r="A71" s="15" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C71" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="18"/>
@@ -10577,59 +10583,59 @@
         <v>2.0</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M71" s="18"/>
     </row>
     <row r="72">
       <c r="A72" s="15" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="18"/>
       <c r="K72" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M72" s="18"/>
     </row>
     <row r="73">
       <c r="A73" s="15" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
       <c r="H73" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I73" s="21"/>
       <c r="J73" s="18"/>
@@ -10637,29 +10643,29 @@
         <v>2.0</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M73" s="18"/>
     </row>
     <row r="74">
       <c r="A74" s="15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I74" s="21"/>
       <c r="J74" s="18"/>
@@ -10667,90 +10673,90 @@
         <v>2.0</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M74" s="18"/>
     </row>
     <row r="75">
       <c r="A75" s="15" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G75" s="21"/>
       <c r="H75" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="18"/>
       <c r="K75" s="75" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M75" s="18"/>
     </row>
     <row r="76">
       <c r="A76" s="15" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I76" s="21"/>
       <c r="J76" s="18"/>
       <c r="K76" s="75" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M76" s="18"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="15" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I77" s="21"/>
       <c r="J77" s="18"/>
@@ -10758,61 +10764,61 @@
         <v>4.0</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M77" s="18"/>
     </row>
     <row r="78">
       <c r="A78" s="15" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I78" s="21"/>
       <c r="J78" s="18"/>
       <c r="K78" s="75" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M78" s="18"/>
     </row>
     <row r="79">
       <c r="A79" s="15" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C79" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I79" s="21"/>
       <c r="J79" s="18"/>
@@ -10820,59 +10826,59 @@
         <v>4.0</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M79" s="18"/>
     </row>
     <row r="80">
       <c r="A80" s="15" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C80" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I80" s="21"/>
       <c r="J80" s="18"/>
       <c r="K80" s="75" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M80" s="18"/>
     </row>
     <row r="81">
       <c r="A81" s="15" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C81" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
       <c r="H81" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I81" s="21"/>
       <c r="J81" s="18"/>
@@ -10880,59 +10886,59 @@
         <v>4.0</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M81" s="18"/>
     </row>
     <row r="82">
       <c r="A82" s="15" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C82" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I82" s="21"/>
       <c r="J82" s="18"/>
       <c r="K82" s="75" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M82" s="18"/>
     </row>
     <row r="83">
       <c r="A83" s="15" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C83" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
       <c r="H83" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I83" s="21"/>
       <c r="J83" s="18"/>
@@ -10940,59 +10946,59 @@
         <v>4.0</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M83" s="18"/>
     </row>
     <row r="84">
       <c r="A84" s="15" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C84" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I84" s="21"/>
       <c r="J84" s="18"/>
       <c r="K84" s="75" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M84" s="18"/>
     </row>
     <row r="85">
       <c r="A85" s="15" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C85" s="91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
       <c r="H85" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="18"/>
@@ -11000,38 +11006,38 @@
         <v>2.0</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M85" s="18"/>
     </row>
     <row r="86">
       <c r="A86" s="51" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C86" s="91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I86" s="21"/>
       <c r="J86" s="18"/>
       <c r="K86" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="M86" s="18"/>
     </row>
@@ -11067,91 +11073,91 @@
         <v>2</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="80"/>
       <c r="D2" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
       <c r="D3" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C4" s="80"/>
       <c r="D4" s="61" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="61" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C6" s="80"/>
       <c r="D6" s="61" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="61" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="61" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E9" s="21"/>
     </row>
@@ -11197,36 +11203,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F1" s="93" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I1" s="96" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J1" s="97" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="96" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C2" s="96" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D2" s="96"/>
       <c r="E2" s="96"/>
@@ -11235,18 +11241,18 @@
       <c r="H2" s="96"/>
       <c r="I2" s="95"/>
       <c r="J2" s="96" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D3" s="96"/>
       <c r="E3" s="96"/>
@@ -11255,18 +11261,18 @@
       <c r="H3" s="96"/>
       <c r="I3" s="95"/>
       <c r="J3" s="100" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D4" s="96"/>
       <c r="E4" s="101"/>
@@ -11275,18 +11281,18 @@
       <c r="H4" s="96"/>
       <c r="I4" s="95"/>
       <c r="J4" s="96" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="101"/>
@@ -11295,18 +11301,18 @@
       <c r="H5" s="96"/>
       <c r="I5" s="95"/>
       <c r="J5" s="96" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D6" s="96"/>
       <c r="E6" s="101"/>
@@ -11315,18 +11321,18 @@
       <c r="H6" s="96"/>
       <c r="I6" s="95"/>
       <c r="J6" s="96" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C7" s="96" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D7" s="96"/>
       <c r="E7" s="101"/>
@@ -11335,18 +11341,18 @@
       <c r="H7" s="96"/>
       <c r="I7" s="95"/>
       <c r="J7" s="96" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="101"/>
@@ -11355,18 +11361,18 @@
       <c r="H8" s="96"/>
       <c r="I8" s="95"/>
       <c r="J8" s="100" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D9" s="96"/>
       <c r="E9" s="101"/>
@@ -11375,18 +11381,18 @@
       <c r="H9" s="96"/>
       <c r="I9" s="95"/>
       <c r="J9" s="103" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="96" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="101"/>
@@ -11395,18 +11401,18 @@
       <c r="H10" s="96"/>
       <c r="I10" s="95"/>
       <c r="J10" s="103" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D11" s="96"/>
       <c r="E11" s="101"/>
@@ -11415,18 +11421,18 @@
       <c r="H11" s="96"/>
       <c r="I11" s="95"/>
       <c r="J11" s="100" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="96" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D12" s="96"/>
       <c r="E12" s="101"/>
@@ -11435,18 +11441,18 @@
       <c r="H12" s="96"/>
       <c r="I12" s="95"/>
       <c r="J12" s="100" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="96" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D13" s="96"/>
       <c r="E13" s="101"/>
@@ -11455,18 +11461,18 @@
       <c r="H13" s="96"/>
       <c r="I13" s="95"/>
       <c r="J13" s="100" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D14" s="96"/>
       <c r="E14" s="101"/>
@@ -11475,18 +11481,18 @@
       <c r="H14" s="96"/>
       <c r="I14" s="95"/>
       <c r="J14" s="100" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D15" s="96"/>
       <c r="E15" s="101"/>
@@ -11495,18 +11501,18 @@
       <c r="H15" s="96"/>
       <c r="I15" s="95"/>
       <c r="J15" s="100" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="96" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C16" s="96" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D16" s="96"/>
       <c r="E16" s="101"/>
@@ -11515,18 +11521,18 @@
       <c r="H16" s="96"/>
       <c r="I16" s="95"/>
       <c r="J16" s="96" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C17" s="96" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D17" s="96"/>
       <c r="E17" s="101"/>
@@ -11535,18 +11541,18 @@
       <c r="H17" s="96"/>
       <c r="I17" s="95"/>
       <c r="J17" s="96" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="96" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D18" s="96"/>
       <c r="E18" s="101"/>
@@ -11555,19 +11561,19 @@
       <c r="H18" s="96"/>
       <c r="I18" s="95"/>
       <c r="J18" s="96" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="101" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C19" s="101"/>
       <c r="D19" s="101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19" s="101"/>
       <c r="F19" s="98"/>
@@ -11602,42 +11608,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C2" s="104" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1067">
   <si>
     <t>id</t>
   </si>
@@ -2272,6 +2272,9 @@
     <t>ns84</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
     <t>SM_2</t>
   </si>
   <si>
@@ -2428,6 +2431,9 @@
     <t>SM_22</t>
   </si>
   <si>
+    <t>UBERON:0003714</t>
+  </si>
+  <si>
     <t>UBERON:0000010</t>
   </si>
   <si>
@@ -2998,12 +3004,18 @@
     <t>ilxtr:neuron-type-sdcol-c</t>
   </si>
   <si>
+    <t>sensory neuron</t>
+  </si>
+  <si>
     <t>Neuron d</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-sdcol-d</t>
   </si>
   <si>
+    <t>sympathetic post-ganglionic neuron</t>
+  </si>
+  <si>
     <t>Neuron f</t>
   </si>
   <si>
@@ -3028,7 +3040,7 @@
     <t>ilxtr:neuron-type-sdcol-i</t>
   </si>
   <si>
-    <t>interneuron</t>
+    <t>enteric neuron</t>
   </si>
   <si>
     <t>Neuron j</t>
@@ -3494,7 +3506,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3965,8 +3977,14 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4292,51 +4310,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="162" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B2" s="163" t="s">
-        <v>1029</v>
+      <c r="A2" s="164" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B2" s="165" t="s">
+        <v>1033</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="162" t="s">
-        <v>1031</v>
+      <c r="A3" s="164" t="s">
+        <v>1035</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="162" t="s">
-        <v>1033</v>
+      <c r="A4" s="164" t="s">
+        <v>1037</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>1034</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>1030</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="161" t="s">
-        <v>1035</v>
+      <c r="A5" s="163" t="s">
+        <v>1039</v>
       </c>
       <c r="B5" s="142" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -4364,107 +4382,107 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="164" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B1" s="164" t="s">
-        <v>1038</v>
+      <c r="A1" s="166" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1" s="166" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="165" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B2" s="166" t="s">
-        <v>1040</v>
+      <c r="A2" s="167" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B2" s="168" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="165" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B3" s="166" t="s">
-        <v>1042</v>
+      <c r="A3" s="167" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B3" s="168" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="165" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" s="166" t="s">
-        <v>1044</v>
+      <c r="A4" s="167" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B4" s="168" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="165" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B5" s="166" t="s">
-        <v>1046</v>
+      <c r="A5" s="167" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B5" s="168" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="165" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B6" s="166" t="s">
-        <v>1048</v>
+      <c r="A6" s="167" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B6" s="168" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="165" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B7" s="166" t="s">
-        <v>1050</v>
+      <c r="A7" s="167" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B7" s="168" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="165" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B8" s="166" t="s">
-        <v>1052</v>
+      <c r="A8" s="167" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B8" s="168" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="165" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B9" s="166" t="s">
-        <v>1054</v>
+      <c r="A9" s="167" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B9" s="168" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="165" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B10" s="166" t="s">
-        <v>1056</v>
+      <c r="A10" s="167" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B10" s="168" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="165" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B11" s="166" t="s">
-        <v>1058</v>
+      <c r="A11" s="167" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B11" s="168" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="165" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B12" s="166" t="s">
-        <v>1060</v>
+      <c r="A12" s="167" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B12" s="168" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="165" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B13" s="166" t="s">
-        <v>1062</v>
+      <c r="A13" s="167" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -10730,9 +10748,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="23.0"/>
-    <col customWidth="1" min="3" max="3" width="34.0"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
+    <col customWidth="1" min="2" max="3" width="23.0"/>
+    <col customWidth="1" min="4" max="4" width="34.0"/>
+    <col customWidth="1" min="5" max="5" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10742,504 +10760,551 @@
       <c r="B1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="127" t="s">
+        <v>736</v>
+      </c>
+      <c r="D1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="E1" s="126" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="128" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>737</v>
-      </c>
-      <c r="C2" s="62" t="s">
         <v>738</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62" t="s">
+        <v>739</v>
+      </c>
+      <c r="E2" s="18"/>
     </row>
     <row r="3">
       <c r="A3" s="128" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>740</v>
-      </c>
-      <c r="C3" s="62" t="s">
         <v>741</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62" t="s">
+        <v>742</v>
+      </c>
+      <c r="E3" s="18"/>
     </row>
     <row r="4">
       <c r="A4" s="128" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>743</v>
-      </c>
-      <c r="C4" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="E4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="128" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>746</v>
-      </c>
-      <c r="C5" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="18" t="s">
         <v>748</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>749</v>
-      </c>
-      <c r="C6" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="C6" s="129"/>
+      <c r="D6" s="18" t="s">
         <v>751</v>
+      </c>
+      <c r="E6" s="130" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="128" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>753</v>
-      </c>
-      <c r="C7" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>748</v>
+      <c r="C7" s="62"/>
+      <c r="D7" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="128" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>756</v>
-      </c>
-      <c r="C8" s="62" t="s">
         <v>757</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62" t="s">
+        <v>758</v>
+      </c>
+      <c r="E8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="128" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>759</v>
-      </c>
-      <c r="C9" s="62" t="s">
         <v>760</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62" t="s">
+        <v>761</v>
+      </c>
+      <c r="E9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="128" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>762</v>
-      </c>
-      <c r="C10" s="131" t="s">
         <v>763</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="131" t="s">
+        <v>764</v>
+      </c>
+      <c r="E10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="128" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>765</v>
-      </c>
-      <c r="C11" s="131" t="s">
         <v>766</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="131" t="s">
+        <v>767</v>
+      </c>
+      <c r="E11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="128" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>768</v>
-      </c>
-      <c r="C12" s="131" t="s">
         <v>769</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="131" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" s="18"/>
     </row>
     <row r="13">
       <c r="A13" s="128" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>771</v>
-      </c>
-      <c r="C13" s="131" t="s">
         <v>772</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="131" t="s">
+        <v>773</v>
+      </c>
+      <c r="E13" s="18"/>
     </row>
     <row r="14">
       <c r="A14" s="128" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>774</v>
-      </c>
-      <c r="C14" s="131" t="s">
         <v>775</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="131" t="s">
+        <v>776</v>
+      </c>
+      <c r="E14" s="18"/>
     </row>
     <row r="15">
       <c r="A15" s="128" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="C15" s="131" t="s">
         <v>778</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="131" t="s">
+        <v>779</v>
+      </c>
+      <c r="E15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="128" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>780</v>
-      </c>
-      <c r="C16" s="131" t="s">
         <v>781</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="131" t="s">
+        <v>782</v>
+      </c>
+      <c r="E16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="128" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B17" s="132" t="s">
-        <v>749</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>783</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>750</v>
+      </c>
+      <c r="C17" s="132"/>
+      <c r="D17" s="131" t="s">
+        <v>784</v>
+      </c>
+      <c r="E17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="128" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>785</v>
-      </c>
-      <c r="C18" s="62" t="s">
         <v>786</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="62" t="s">
+        <v>787</v>
+      </c>
+      <c r="E18" s="18"/>
     </row>
     <row r="19">
       <c r="A19" s="128" t="s">
-        <v>787</v>
-      </c>
-      <c r="B19" s="133" t="s">
         <v>788</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="B19" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>739</v>
+      <c r="C19" s="133" t="s">
+        <v>790</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>791</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="128" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B20" s="134" t="s">
-        <v>791</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="D20" s="18"/>
+        <v>793</v>
+      </c>
+      <c r="C20" s="134"/>
+      <c r="D20" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="E20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="128" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>794</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="D21" s="18"/>
+        <v>796</v>
+      </c>
+      <c r="C21" s="134"/>
+      <c r="D21" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="E21" s="18"/>
     </row>
     <row r="22">
       <c r="A22" s="128" t="s">
-        <v>796</v>
-      </c>
-      <c r="B22" s="134" t="s">
-        <v>797</v>
-      </c>
-      <c r="C22" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>739</v>
+      <c r="B22" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>799</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="128" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>800</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>801</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>758</v>
+        <v>802</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62" t="s">
+        <v>803</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="128" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B24" s="135" t="s">
-        <v>803</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>805</v>
+      </c>
+      <c r="C24" s="135"/>
+      <c r="D24" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="E24" s="18"/>
     </row>
     <row r="25">
       <c r="A25" s="128" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>806</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>807</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>808</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62" t="s">
+        <v>809</v>
+      </c>
+      <c r="E25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="136" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="D26" s="28"/>
+        <v>811</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="E26" s="28"/>
     </row>
     <row r="27">
       <c r="A27" s="136" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>812</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="D27" s="28"/>
+        <v>814</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>815</v>
+      </c>
+      <c r="E27" s="28"/>
     </row>
     <row r="28">
       <c r="A28" s="136" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>815</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="D28" s="28"/>
+        <v>817</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="E28" s="28"/>
     </row>
     <row r="29">
       <c r="A29" s="136" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="D29" s="28"/>
+        <v>820</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>821</v>
+      </c>
+      <c r="E29" s="28"/>
     </row>
     <row r="30">
       <c r="A30" s="136" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="D30" s="28"/>
+        <v>823</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="E30" s="28"/>
     </row>
     <row r="31">
       <c r="A31" s="136" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="D31" s="28"/>
+        <v>826</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="E31" s="28"/>
     </row>
     <row r="32">
       <c r="A32" s="136" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="D32" s="28"/>
+        <v>829</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="E32" s="28"/>
     </row>
     <row r="33">
       <c r="A33" s="136" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>830</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>831</v>
-      </c>
-      <c r="D33" s="28"/>
+        <v>832</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>833</v>
+      </c>
+      <c r="E33" s="28"/>
     </row>
     <row r="34">
       <c r="A34" s="136" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>833</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="D34" s="28"/>
+        <v>835</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>836</v>
+      </c>
+      <c r="E34" s="28"/>
     </row>
     <row r="35">
       <c r="A35" s="136" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>836</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>837</v>
-      </c>
-      <c r="D35" s="28"/>
+        <v>838</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="E35" s="28"/>
     </row>
     <row r="36">
       <c r="A36" s="116" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>839</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>840</v>
-      </c>
-      <c r="D36" s="18"/>
+        <v>841</v>
+      </c>
+      <c r="C36" s="137"/>
+      <c r="D36" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="E36" s="18"/>
     </row>
     <row r="37">
       <c r="A37" s="116" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B37" s="137" t="s">
-        <v>842</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>843</v>
-      </c>
-      <c r="D37" s="18"/>
+        <v>844</v>
+      </c>
+      <c r="C37" s="137"/>
+      <c r="D37" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="E37" s="18"/>
     </row>
     <row r="38">
       <c r="A38" s="116" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B38" s="137" t="s">
-        <v>845</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>846</v>
-      </c>
-      <c r="D38" s="18"/>
+        <v>847</v>
+      </c>
+      <c r="C38" s="137"/>
+      <c r="D38" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="E38" s="18"/>
     </row>
     <row r="39">
       <c r="A39" s="116" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>848</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>741</v>
-      </c>
-      <c r="D39" s="18"/>
+        <v>850</v>
+      </c>
+      <c r="C39" s="138"/>
+      <c r="D39" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="E39" s="18"/>
     </row>
     <row r="40">
       <c r="A40" s="116" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B40" s="138" t="s">
-        <v>850</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="D40" s="18"/>
+        <v>852</v>
+      </c>
+      <c r="C40" s="138"/>
+      <c r="D40" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="E40" s="18"/>
     </row>
     <row r="41">
       <c r="A41" s="116" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B41" s="139" t="s">
-        <v>853</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>854</v>
-      </c>
-      <c r="D41" s="18"/>
+        <v>855</v>
+      </c>
+      <c r="C41" s="139"/>
+      <c r="D41" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="E41" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11258,16 +11323,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -11282,13 +11347,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -11326,13 +11391,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -11348,10 +11413,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -11365,10 +11430,10 @@
     <row r="7">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -11382,10 +11447,10 @@
     <row r="8">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>868</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>866</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -11399,10 +11464,10 @@
     <row r="9">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -11428,10 +11493,10 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -11445,10 +11510,10 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B12" s="140" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -11462,10 +11527,10 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B13" s="140" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -11479,10 +11544,10 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B14" s="140" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -11496,10 +11561,10 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B15" s="140" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -11513,10 +11578,10 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B16" s="140" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -11530,10 +11595,10 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B17" s="140" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -11547,10 +11612,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -11564,10 +11629,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -11581,10 +11646,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B20" s="141" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -11598,10 +11663,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -11615,10 +11680,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -11645,10 +11710,10 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B24" s="142" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -11662,7 +11727,7 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>6</v>
@@ -11679,10 +11744,10 @@
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27">
@@ -11705,18 +11770,18 @@
     </row>
     <row r="33">
       <c r="A33" s="143" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B33" s="144" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="143" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B34" s="145" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C34" s="144"/>
       <c r="D34" s="144"/>
@@ -11730,10 +11795,10 @@
     </row>
     <row r="35">
       <c r="A35" s="143" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B35" s="145" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C35" s="146"/>
       <c r="D35" s="146"/>
@@ -11747,12 +11812,12 @@
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="38">
@@ -11811,13 +11876,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>10</v>
@@ -11828,10 +11893,10 @@
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>361</v>
@@ -11847,10 +11912,10 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>375</v>
@@ -11866,10 +11931,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>391</v>
@@ -11885,10 +11950,10 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B5" s="148" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>423</v>
@@ -11904,10 +11969,10 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B6" s="148" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>447</v>
@@ -11923,10 +11988,10 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B7" s="148" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>470</v>
@@ -11942,10 +12007,10 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B8" s="148" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>493</v>
@@ -11961,10 +12026,10 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B9" s="148" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>516</v>
@@ -11980,10 +12045,10 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B10" s="148" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>562</v>
@@ -11999,10 +12064,10 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B11" s="148" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>601</v>
@@ -12018,10 +12083,10 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B12" s="148" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>610</v>
@@ -12037,10 +12102,10 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>619</v>
@@ -12056,10 +12121,10 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B14" s="148" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>628</v>
@@ -12075,10 +12140,10 @@
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B15" s="148" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>635</v>
@@ -12094,10 +12159,10 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B16" s="148" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>644</v>
@@ -12113,10 +12178,10 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>652</v>
@@ -12132,10 +12197,10 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B18" s="148" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>659</v>
@@ -12151,10 +12216,10 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>666</v>
@@ -12170,10 +12235,10 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B20" s="148" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>673</v>
@@ -12189,10 +12254,10 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B21" s="148" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>690</v>
@@ -12208,10 +12273,10 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B22" s="148" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>705</v>
@@ -12227,10 +12292,10 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B23" s="148" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>714</v>
@@ -12246,10 +12311,10 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B24" s="148" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>722</v>
@@ -12265,10 +12330,10 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B25" s="148" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>731</v>
@@ -12314,10 +12379,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2">
@@ -12327,7 +12392,7 @@
       <c r="B2" s="73"/>
       <c r="C2" s="71"/>
       <c r="D2" s="4" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E2" s="22"/>
     </row>
@@ -12338,7 +12403,7 @@
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="4" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E3" s="22"/>
     </row>
@@ -12348,7 +12413,7 @@
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="141" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E4" s="22"/>
     </row>
@@ -12358,7 +12423,7 @@
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="141" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -12368,7 +12433,7 @@
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="141" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E6" s="22"/>
     </row>
@@ -12379,7 +12444,7 @@
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
       <c r="D7" s="141" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E7" s="22"/>
     </row>
@@ -12388,7 +12453,7 @@
         <v>353</v>
       </c>
       <c r="D8" s="141" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9">
@@ -12398,7 +12463,7 @@
       <c r="B9" s="71"/>
       <c r="C9" s="71"/>
       <c r="D9" s="141" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E9" s="22"/>
     </row>
@@ -12447,22 +12512,22 @@
         <v>323</v>
       </c>
       <c r="E1" s="150" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F1" s="150" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G1" s="151" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H1" s="152" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="I1" s="153" t="s">
         <v>332</v>
       </c>
       <c r="J1" s="154" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2">
@@ -12470,19 +12535,19 @@
         <v>258</v>
       </c>
       <c r="B2" s="153" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D2" s="153"/>
       <c r="E2" s="153"/>
       <c r="F2" s="155"/>
       <c r="G2" s="153"/>
       <c r="H2" s="153"/>
-      <c r="I2" s="152"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="153" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3">
@@ -12490,19 +12555,19 @@
         <v>261</v>
       </c>
       <c r="B3" s="153" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C3" s="153" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D3" s="153"/>
       <c r="E3" s="153"/>
       <c r="F3" s="156"/>
       <c r="G3" s="153"/>
       <c r="H3" s="153"/>
-      <c r="I3" s="152"/>
+      <c r="I3" s="153"/>
       <c r="J3" s="157" t="s">
-        <v>885</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -12510,19 +12575,19 @@
         <v>269</v>
       </c>
       <c r="B4" s="153" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C4" s="153" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="D4" s="153"/>
       <c r="E4" s="158"/>
       <c r="F4" s="156"/>
       <c r="G4" s="153"/>
       <c r="H4" s="153"/>
-      <c r="I4" s="152"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="153" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5">
@@ -12530,19 +12595,19 @@
         <v>272</v>
       </c>
       <c r="B5" s="153" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="C5" s="153" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="D5" s="159"/>
       <c r="E5" s="158"/>
       <c r="F5" s="155"/>
       <c r="G5" s="153"/>
       <c r="H5" s="153"/>
-      <c r="I5" s="152"/>
+      <c r="I5" s="153"/>
       <c r="J5" s="153" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6">
@@ -12550,19 +12615,19 @@
         <v>275</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="C6" s="153" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="158"/>
       <c r="F6" s="155"/>
       <c r="G6" s="153"/>
       <c r="H6" s="153"/>
-      <c r="I6" s="152"/>
+      <c r="I6" s="153"/>
       <c r="J6" s="153" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7">
@@ -12570,19 +12635,19 @@
         <v>278</v>
       </c>
       <c r="B7" s="153" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="D7" s="153"/>
       <c r="E7" s="158"/>
       <c r="F7" s="155"/>
       <c r="G7" s="153"/>
       <c r="H7" s="153"/>
-      <c r="I7" s="152"/>
+      <c r="I7" s="153"/>
       <c r="J7" s="153" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8">
@@ -12590,10 +12655,10 @@
         <v>281</v>
       </c>
       <c r="B8" s="153" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="D8" s="159"/>
       <c r="E8" s="158"/>
@@ -12601,8 +12666,8 @@
       <c r="G8" s="153"/>
       <c r="H8" s="153"/>
       <c r="I8" s="152"/>
-      <c r="J8" s="157" t="s">
-        <v>988</v>
+      <c r="J8" s="160" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="9">
@@ -12610,19 +12675,19 @@
         <v>284</v>
       </c>
       <c r="B9" s="153" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="C9" s="153" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="D9" s="153"/>
       <c r="E9" s="158"/>
       <c r="F9" s="155"/>
       <c r="G9" s="153"/>
       <c r="H9" s="153"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="160" t="s">
-        <v>889</v>
+      <c r="I9" s="153"/>
+      <c r="J9" s="161" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="10">
@@ -12630,19 +12695,19 @@
         <v>287</v>
       </c>
       <c r="B10" s="153" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="C10" s="153" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="D10" s="153"/>
       <c r="E10" s="158"/>
       <c r="F10" s="155"/>
       <c r="G10" s="153"/>
       <c r="H10" s="153"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="160" t="s">
-        <v>889</v>
+      <c r="I10" s="153"/>
+      <c r="J10" s="161" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="11">
@@ -12650,19 +12715,19 @@
         <v>290</v>
       </c>
       <c r="B11" s="153" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="C11" s="153" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="D11" s="153"/>
       <c r="E11" s="158"/>
       <c r="F11" s="156"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="157" t="s">
-        <v>988</v>
+      <c r="I11" s="153"/>
+      <c r="J11" s="160" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="12">
@@ -12670,19 +12735,19 @@
         <v>293</v>
       </c>
       <c r="B12" s="153" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="153"/>
       <c r="E12" s="158"/>
       <c r="F12" s="155"/>
       <c r="G12" s="153"/>
       <c r="H12" s="153"/>
-      <c r="I12" s="152"/>
+      <c r="I12" s="153"/>
       <c r="J12" s="157" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13">
@@ -12690,19 +12755,19 @@
         <v>296</v>
       </c>
       <c r="B13" s="153" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="C13" s="153" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="D13" s="153"/>
       <c r="E13" s="158"/>
       <c r="F13" s="156"/>
       <c r="G13" s="153"/>
       <c r="H13" s="153"/>
-      <c r="I13" s="152"/>
+      <c r="I13" s="153"/>
       <c r="J13" s="157" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14">
@@ -12710,10 +12775,10 @@
         <v>299</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="153" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="153"/>
       <c r="E14" s="158"/>
@@ -12721,8 +12786,8 @@
       <c r="G14" s="153"/>
       <c r="H14" s="153"/>
       <c r="I14" s="152"/>
-      <c r="J14" s="157" t="s">
-        <v>893</v>
+      <c r="J14" s="160" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="15">
@@ -12730,10 +12795,10 @@
         <v>302</v>
       </c>
       <c r="B15" s="153" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C15" s="153" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="153"/>
       <c r="E15" s="158"/>
@@ -12741,8 +12806,8 @@
       <c r="G15" s="153"/>
       <c r="H15" s="153"/>
       <c r="I15" s="152"/>
-      <c r="J15" s="157" t="s">
-        <v>893</v>
+      <c r="J15" s="160" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="16">
@@ -12750,19 +12815,19 @@
         <v>305</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C16" s="153" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="D16" s="153"/>
       <c r="E16" s="158"/>
       <c r="F16" s="156"/>
       <c r="G16" s="153"/>
       <c r="H16" s="153"/>
-      <c r="I16" s="152"/>
+      <c r="I16" s="153"/>
       <c r="J16" s="153" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="17">
@@ -12770,10 +12835,10 @@
         <v>308</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C17" s="153" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D17" s="153"/>
       <c r="E17" s="158"/>
@@ -12781,8 +12846,8 @@
       <c r="G17" s="153"/>
       <c r="H17" s="153"/>
       <c r="I17" s="152"/>
-      <c r="J17" s="153" t="s">
-        <v>1008</v>
+      <c r="J17" s="162" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="18">
@@ -12790,10 +12855,10 @@
         <v>311</v>
       </c>
       <c r="B18" s="153" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C18" s="153" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="D18" s="153"/>
       <c r="E18" s="158"/>
@@ -12801,8 +12866,8 @@
       <c r="G18" s="153"/>
       <c r="H18" s="153"/>
       <c r="I18" s="152"/>
-      <c r="J18" s="153" t="s">
-        <v>1011</v>
+      <c r="J18" s="162" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="19">
@@ -12810,10 +12875,10 @@
         <v>314</v>
       </c>
       <c r="B19" s="153" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="C19" s="153" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="153"/>
       <c r="E19" s="158"/>
@@ -12821,16 +12886,16 @@
       <c r="G19" s="153"/>
       <c r="H19" s="153"/>
       <c r="I19" s="152"/>
-      <c r="J19" s="153" t="s">
-        <v>1014</v>
+      <c r="J19" s="162" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="158" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B20" s="153" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C20" s="158"/>
       <c r="D20" s="158" t="s">
@@ -12869,42 +12934,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C2" s="161" t="s">
-        <v>1020</v>
+        <v>1023</v>
+      </c>
+      <c r="C2" s="163" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C3" s="161" t="s">
-        <v>1022</v>
+        <v>1025</v>
+      </c>
+      <c r="C3" s="163" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C4" s="161" t="s">
-        <v>1024</v>
+        <v>1027</v>
+      </c>
+      <c r="C4" s="163" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C5" s="161" t="s">
-        <v>1026</v>
+        <v>1029</v>
+      </c>
+      <c r="C5" s="163" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1075">
   <si>
     <t>id</t>
   </si>
@@ -1165,7 +1165,7 @@
     <t>ns5</t>
   </si>
   <si>
-    <t>6,0,0,0,0,0</t>
+    <t>6,13,0,0,0,0</t>
   </si>
   <si>
     <t>S4, S4, S16, S39, S27, S33</t>
@@ -3049,6 +3049,9 @@
     <t>ilxtr:neuron-type-sdcol-j</t>
   </si>
   <si>
+    <t>enteric excitatory motor neuron</t>
+  </si>
+  <si>
     <t>Neuron j2</t>
   </si>
   <si>
@@ -3067,6 +3070,12 @@
     <t>ilxtr:neuron-type-sdcol-l</t>
   </si>
   <si>
+    <t>PMID:8601295</t>
+  </si>
+  <si>
+    <t>enteric NOS inhibitory motor neuron</t>
+  </si>
+  <si>
     <t>Neuron l2</t>
   </si>
   <si>
@@ -3079,6 +3088,9 @@
     <t>ilxtr:neuron-type-sdcol-m</t>
   </si>
   <si>
+    <t>enteric intrinsic primary afferent neuron</t>
+  </si>
+  <si>
     <t>Neuron n</t>
   </si>
   <si>
@@ -3091,7 +3103,7 @@
     <t>ilxtr:neuron-type-sdcol-o</t>
   </si>
   <si>
-    <t xml:space="preserve">vasodilatory motor neuron </t>
+    <t>enteric vasodilatory motor neuron</t>
   </si>
   <si>
     <t>Neuron p</t>
@@ -3100,7 +3112,7 @@
     <t>ilxtr:neuron-type-sdcol-p</t>
   </si>
   <si>
-    <t>secretomotor neuron</t>
+    <t>enteric secretomotor neuron</t>
   </si>
   <si>
     <t>Neuron q</t>
@@ -3157,6 +3169,12 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/4044909/</t>
   </si>
   <si>
+    <t>from Tom for inhibitory motor neuron</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/8601295/</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -3263,13 +3281,19 @@
   </si>
   <si>
     <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>https://doi.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3383,6 +3407,10 @@
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -3506,7 +3534,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4000,6 +4028,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4310,51 +4341,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="164" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B2" s="165" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="164" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="164" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="163" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B5" s="142" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>1040</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -4383,106 +4414,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="166" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="166" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="167" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="168" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="167" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="168" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="167" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B4" s="168" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="167" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="B5" s="168" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="167" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="B6" s="168" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="167" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="B7" s="168" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="167" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="B8" s="168" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="167" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B9" s="168" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="167" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B10" s="168" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="167" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="B11" s="168" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="167" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B12" s="168" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="167" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="B13" s="168" t="s">
-        <v>1066</v>
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B14" s="169" t="s">
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -4499,8 +4538,9 @@
     <hyperlink r:id="rId10" ref="B11"/>
     <hyperlink r:id="rId11" ref="B12"/>
     <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -12687,7 +12727,7 @@
       <c r="H9" s="153"/>
       <c r="I9" s="153"/>
       <c r="J9" s="161" t="s">
-        <v>891</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10">
@@ -12695,10 +12735,10 @@
         <v>287</v>
       </c>
       <c r="B10" s="153" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C10" s="153" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D10" s="153"/>
       <c r="E10" s="158"/>
@@ -12707,7 +12747,7 @@
       <c r="H10" s="153"/>
       <c r="I10" s="153"/>
       <c r="J10" s="161" t="s">
-        <v>891</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11">
@@ -12715,10 +12755,10 @@
         <v>290</v>
       </c>
       <c r="B11" s="153" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C11" s="153" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D11" s="153"/>
       <c r="E11" s="158"/>
@@ -12735,19 +12775,21 @@
         <v>293</v>
       </c>
       <c r="B12" s="153" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D12" s="153"/>
       <c r="E12" s="158"/>
       <c r="F12" s="155"/>
       <c r="G12" s="153"/>
       <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
+      <c r="I12" s="16" t="s">
+        <v>1002</v>
+      </c>
       <c r="J12" s="157" t="s">
-        <v>893</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13">
@@ -12755,19 +12797,21 @@
         <v>296</v>
       </c>
       <c r="B13" s="153" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C13" s="153" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D13" s="153"/>
       <c r="E13" s="158"/>
       <c r="F13" s="156"/>
       <c r="G13" s="153"/>
       <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
+      <c r="I13" s="16" t="s">
+        <v>1002</v>
+      </c>
       <c r="J13" s="157" t="s">
-        <v>893</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="14">
@@ -12775,19 +12819,18 @@
         <v>299</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C14" s="153" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D14" s="153"/>
       <c r="E14" s="158"/>
       <c r="F14" s="156"/>
       <c r="G14" s="153"/>
       <c r="H14" s="153"/>
-      <c r="I14" s="152"/>
       <c r="J14" s="160" t="s">
-        <v>895</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="15">
@@ -12795,19 +12838,18 @@
         <v>302</v>
       </c>
       <c r="B15" s="153" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C15" s="153" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="153"/>
       <c r="E15" s="158"/>
       <c r="F15" s="156"/>
       <c r="G15" s="153"/>
       <c r="H15" s="153"/>
-      <c r="I15" s="152"/>
       <c r="J15" s="160" t="s">
-        <v>895</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="16">
@@ -12815,10 +12857,10 @@
         <v>305</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C16" s="153" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="153"/>
       <c r="E16" s="158"/>
@@ -12827,7 +12869,7 @@
       <c r="H16" s="153"/>
       <c r="I16" s="153"/>
       <c r="J16" s="153" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17">
@@ -12835,10 +12877,10 @@
         <v>308</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C17" s="153" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="153"/>
       <c r="E17" s="158"/>
@@ -12847,7 +12889,7 @@
       <c r="H17" s="153"/>
       <c r="I17" s="152"/>
       <c r="J17" s="162" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18">
@@ -12855,10 +12897,10 @@
         <v>311</v>
       </c>
       <c r="B18" s="153" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="C18" s="153" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="153"/>
       <c r="E18" s="158"/>
@@ -12867,7 +12909,7 @@
       <c r="H18" s="153"/>
       <c r="I18" s="152"/>
       <c r="J18" s="162" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="19">
@@ -12875,10 +12917,10 @@
         <v>314</v>
       </c>
       <c r="B19" s="153" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C19" s="153" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D19" s="153"/>
       <c r="E19" s="158"/>
@@ -12887,15 +12929,15 @@
       <c r="H19" s="153"/>
       <c r="I19" s="152"/>
       <c r="J19" s="162" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="158" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B20" s="153" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C20" s="158"/>
       <c r="D20" s="158" t="s">
@@ -12927,49 +12969,60 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>1.0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="163" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C3" s="163" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="C4" s="163" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="C5" s="163" t="s">
-        <v>1030</v>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C6" s="163" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -12978,7 +13031,8 @@
     <hyperlink r:id="rId2" ref="C3"/>
     <hyperlink r:id="rId3" ref="C4"/>
     <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink r:id="rId5" ref="C6"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -1201,7 +1201,7 @@
     <t>ns4</t>
   </si>
   <si>
-    <t>6,0,0</t>
+    <t>6,13,0</t>
   </si>
   <si>
     <t>S5, S5, S17</t>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1075">
   <si>
     <t>id</t>
   </si>
@@ -12969,8 +12969,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1069">
   <si>
     <t>id</t>
   </si>
@@ -1777,9 +1777,6 @@
     <t>Axon chain of Symp postganglionic neuron in Arteriole in longitudinal muscle layer of colon _Neuron F (sdcol)</t>
   </si>
   <si>
-    <t>SAO:1770195790</t>
-  </si>
-  <si>
     <t>f-term-root-S60</t>
   </si>
   <si>
@@ -1792,9 +1789,6 @@
     <t>Axon chain of Symp postganglionic neuron in Arteriole in serosa of colon _Neuron F (sdcol)</t>
   </si>
   <si>
-    <t>SAO:1770195791</t>
-  </si>
-  <si>
     <t>f-term-root-S61</t>
   </si>
   <si>
@@ -1807,9 +1801,6 @@
     <t>Axon chain of Symp postganglionic neuron in Arteriole in myenteric nerve plexus in colon_NeuronF (sdcol)</t>
   </si>
   <si>
-    <t>SAO:1770195792</t>
-  </si>
-  <si>
     <t>f-term-root-S62</t>
   </si>
   <si>
@@ -1822,9 +1813,6 @@
     <t>Axon chain of Symp postganglionic neuron in Arteriole in submucosal nerve plexus of colon_Neuron F (sdcol)</t>
   </si>
   <si>
-    <t>SAO:1770195793</t>
-  </si>
-  <si>
     <t>f-term-root-S63</t>
   </si>
   <si>
@@ -1837,9 +1825,6 @@
     <t>Axon chain of Symp postganglionic neuron in Arteriole in circular muscle layer in colon_Neuron F (sdcol)</t>
   </si>
   <si>
-    <t>SAO:1770195794</t>
-  </si>
-  <si>
     <t>f-term-root-S64</t>
   </si>
   <si>
@@ -1852,9 +1837,6 @@
     <t>Axon chain of Symp postganglionic neuron in Arteriole in lamina propria of mucosa of colon _Neuron F (sdcol)</t>
   </si>
   <si>
-    <t>SAO:1770195795</t>
-  </si>
-  <si>
     <t>f-term-root-S65</t>
   </si>
   <si>
@@ -2194,7 +2176,7 @@
     <t>ns75</t>
   </si>
   <si>
-    <t>3,0</t>
+    <t>3,1</t>
   </si>
   <si>
     <t>S42,S64</t>
@@ -3534,7 +3516,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3868,6 +3850,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -4341,51 +4326,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="165" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B2" s="166" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="165" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="165" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="164" t="s">
+      <c r="B4" s="18" t="s">
         <v>1038</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="C4" s="16" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="164" t="s">
         <v>1039</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="B5" s="143" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="164" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="164" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="163" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B5" s="142" t="s">
-        <v>1046</v>
-      </c>
       <c r="C5" s="16" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -4413,115 +4398,115 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1" s="167" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="168" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B2" s="169" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="168" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="168" t="s">
         <v>1047</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B4" s="169" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="167" t="s">
+    <row r="5">
+      <c r="A5" s="168" t="s">
         <v>1049</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="B5" s="169" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="167" t="s">
+    <row r="6">
+      <c r="A6" s="168" t="s">
         <v>1051</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B6" s="169" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="167" t="s">
+    <row r="7">
+      <c r="A7" s="168" t="s">
         <v>1053</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B7" s="169" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="167" t="s">
+    <row r="8">
+      <c r="A8" s="168" t="s">
         <v>1055</v>
       </c>
-      <c r="B5" s="168" t="s">
+      <c r="B8" s="169" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="167" t="s">
+    <row r="9">
+      <c r="A9" s="168" t="s">
         <v>1057</v>
       </c>
-      <c r="B6" s="168" t="s">
+      <c r="B9" s="169" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="167" t="s">
+    <row r="10">
+      <c r="A10" s="168" t="s">
         <v>1059</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B10" s="169" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="167" t="s">
+    <row r="11">
+      <c r="A11" s="168" t="s">
         <v>1061</v>
       </c>
-      <c r="B8" s="168" t="s">
+      <c r="B11" s="169" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="167" t="s">
+    <row r="12">
+      <c r="A12" s="168" t="s">
         <v>1063</v>
       </c>
-      <c r="B9" s="168" t="s">
+      <c r="B12" s="169" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="167" t="s">
+    <row r="13">
+      <c r="A13" s="168" t="s">
         <v>1065</v>
       </c>
-      <c r="B10" s="168" t="s">
+      <c r="B13" s="169" t="s">
         <v>1066</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="167" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B11" s="168" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="167" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B12" s="168" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="167" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B13" s="168" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B14" s="169" t="s">
-        <v>1074</v>
+        <v>1067</v>
+      </c>
+      <c r="B14" s="170" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -9522,15 +9507,15 @@
       <c r="B63" s="105" t="s">
         <v>570</v>
       </c>
-      <c r="C63" s="99" t="s">
-        <v>571</v>
+      <c r="C63" s="113" t="s">
+        <v>364</v>
       </c>
       <c r="D63" s="107"/>
       <c r="E63" s="90" t="s">
+        <v>571</v>
+      </c>
+      <c r="F63" s="90" t="s">
         <v>572</v>
-      </c>
-      <c r="F63" s="90" t="s">
-        <v>573</v>
       </c>
       <c r="G63" s="107"/>
       <c r="H63" s="90" t="s">
@@ -9539,30 +9524,30 @@
       <c r="I63" s="107"/>
       <c r="J63" s="19"/>
       <c r="K63" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="L63" s="113" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="L63" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="M63" s="113"/>
-      <c r="N63" s="114"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="115"/>
     </row>
     <row r="64">
       <c r="A64" s="90" t="s">
+        <v>573</v>
+      </c>
+      <c r="B64" s="105" t="s">
         <v>574</v>
       </c>
-      <c r="B64" s="105" t="s">
-        <v>575</v>
-      </c>
-      <c r="C64" s="99" t="s">
-        <v>576</v>
+      <c r="C64" s="113" t="s">
+        <v>364</v>
       </c>
       <c r="D64" s="107"/>
       <c r="E64" s="90" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F64" s="90" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G64" s="107"/>
       <c r="H64" s="90" t="s">
@@ -9571,30 +9556,30 @@
       <c r="I64" s="107"/>
       <c r="J64" s="19"/>
       <c r="K64" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="L64" s="113" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="L64" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="M64" s="113"/>
-      <c r="N64" s="114"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="115"/>
     </row>
     <row r="65">
       <c r="A65" s="90" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>580</v>
-      </c>
-      <c r="C65" s="99" t="s">
-        <v>581</v>
+        <v>578</v>
+      </c>
+      <c r="C65" s="113" t="s">
+        <v>364</v>
       </c>
       <c r="D65" s="107"/>
       <c r="E65" s="90" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F65" s="90" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G65" s="107"/>
       <c r="H65" s="90" t="s">
@@ -9603,30 +9588,30 @@
       <c r="I65" s="107"/>
       <c r="J65" s="19"/>
       <c r="K65" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="L65" s="113" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="L65" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="M65" s="113"/>
-      <c r="N65" s="114"/>
+      <c r="M65" s="114"/>
+      <c r="N65" s="115"/>
     </row>
     <row r="66">
       <c r="A66" s="90" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>585</v>
-      </c>
-      <c r="C66" s="99" t="s">
-        <v>586</v>
+        <v>582</v>
+      </c>
+      <c r="C66" s="113" t="s">
+        <v>364</v>
       </c>
       <c r="D66" s="107"/>
       <c r="E66" s="90" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F66" s="90" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G66" s="107"/>
       <c r="H66" s="90" t="s">
@@ -9635,30 +9620,30 @@
       <c r="I66" s="107"/>
       <c r="J66" s="19"/>
       <c r="K66" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="L66" s="113" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="L66" s="114" t="s">
         <v>248</v>
       </c>
-      <c r="M66" s="113"/>
-      <c r="N66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="115"/>
     </row>
     <row r="67">
       <c r="A67" s="90" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>590</v>
-      </c>
-      <c r="C67" s="99" t="s">
-        <v>591</v>
+        <v>586</v>
+      </c>
+      <c r="C67" s="113" t="s">
+        <v>364</v>
       </c>
       <c r="D67" s="107"/>
       <c r="E67" s="90" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F67" s="90" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G67" s="107"/>
       <c r="H67" s="90" t="s">
@@ -9667,30 +9652,30 @@
       <c r="I67" s="107"/>
       <c r="J67" s="19"/>
       <c r="K67" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="L67" s="113" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="L67" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="M67" s="113"/>
-      <c r="N67" s="114"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="115"/>
     </row>
     <row r="68">
       <c r="A68" s="90" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B68" s="105" t="s">
-        <v>595</v>
-      </c>
-      <c r="C68" s="99" t="s">
-        <v>596</v>
+        <v>590</v>
+      </c>
+      <c r="C68" s="113" t="s">
+        <v>364</v>
       </c>
       <c r="D68" s="107"/>
       <c r="E68" s="90" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F68" s="90" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G68" s="107"/>
       <c r="H68" s="90" t="s">
@@ -9699,27 +9684,27 @@
       <c r="I68" s="107"/>
       <c r="J68" s="19"/>
       <c r="K68" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="113" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="L68" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="M68" s="113"/>
-      <c r="N68" s="114"/>
+      <c r="M68" s="114"/>
+      <c r="N68" s="115"/>
     </row>
     <row r="69">
       <c r="A69" s="104" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B69" s="105" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C69" s="106" t="s">
         <v>360</v>
       </c>
       <c r="D69" s="107"/>
       <c r="E69" s="90" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F69" s="90"/>
       <c r="G69" s="107"/>
@@ -9731,28 +9716,28 @@
       <c r="K69" s="97">
         <v>0.0</v>
       </c>
-      <c r="L69" s="113" t="s">
+      <c r="L69" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="M69" s="113"/>
-      <c r="N69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="115"/>
     </row>
     <row r="70">
       <c r="A70" s="104" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B70" s="105" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C70" s="106" t="s">
         <v>364</v>
       </c>
       <c r="D70" s="107"/>
       <c r="E70" s="90" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F70" s="90" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G70" s="107"/>
       <c r="H70" s="90" t="s">
@@ -9761,29 +9746,29 @@
       <c r="I70" s="107"/>
       <c r="J70" s="19"/>
       <c r="K70" s="97" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L70" s="108" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="M70" s="108" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="N70" s="19"/>
     </row>
     <row r="71">
       <c r="A71" s="82" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B71" s="83" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C71" s="84" t="s">
         <v>360</v>
       </c>
       <c r="D71" s="87"/>
       <c r="E71" s="86" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F71" s="87"/>
       <c r="G71" s="87"/>
@@ -9803,20 +9788,20 @@
     </row>
     <row r="72">
       <c r="A72" s="82" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C72" s="84" t="s">
         <v>364</v>
       </c>
       <c r="D72" s="87"/>
       <c r="E72" s="86" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F72" s="86" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G72" s="87"/>
       <c r="H72" s="86" t="s">
@@ -9825,27 +9810,27 @@
       <c r="I72" s="87"/>
       <c r="J72" s="89"/>
       <c r="K72" s="110" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="L72" s="98" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="M72" s="98"/>
       <c r="N72" s="89"/>
     </row>
     <row r="73">
       <c r="A73" s="15" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C73" s="99" t="s">
         <v>360</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
@@ -9865,20 +9850,20 @@
     </row>
     <row r="74">
       <c r="A74" s="15" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B74" s="77" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C74" s="99" t="s">
         <v>364</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="4" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G74" s="22"/>
       <c r="H74" s="4" t="s">
@@ -9887,27 +9872,27 @@
       <c r="I74" s="22"/>
       <c r="J74" s="18"/>
       <c r="K74" s="102" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L74" s="103" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="M74" s="103"/>
       <c r="N74" s="18"/>
     </row>
     <row r="75">
       <c r="A75" s="82" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B75" s="83" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C75" s="84" t="s">
         <v>360</v>
       </c>
       <c r="D75" s="87"/>
       <c r="E75" s="86" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F75" s="87"/>
       <c r="G75" s="87"/>
@@ -9927,20 +9912,20 @@
     </row>
     <row r="76">
       <c r="A76" s="82" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B76" s="83" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C76" s="84" t="s">
         <v>364</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="86" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F76" s="86" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G76" s="87"/>
       <c r="H76" s="86" t="s">
@@ -9948,7 +9933,7 @@
       </c>
       <c r="I76" s="87"/>
       <c r="J76" s="89"/>
-      <c r="K76" s="115">
+      <c r="K76" s="116">
         <v>5.0</v>
       </c>
       <c r="L76" s="98" t="s">
@@ -9959,17 +9944,17 @@
     </row>
     <row r="77">
       <c r="A77" s="15" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B77" s="77" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C77" s="99" t="s">
         <v>360</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="4" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
@@ -9978,7 +9963,7 @@
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="116">
+      <c r="K77" s="117">
         <v>5.0</v>
       </c>
       <c r="L77" s="103" t="s">
@@ -9989,20 +9974,20 @@
     </row>
     <row r="78">
       <c r="A78" s="15" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B78" s="77" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C78" s="99" t="s">
         <v>364</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G78" s="22"/>
       <c r="H78" s="4" t="s">
@@ -10010,28 +9995,28 @@
       </c>
       <c r="I78" s="22"/>
       <c r="J78" s="18"/>
-      <c r="K78" s="116" t="s">
-        <v>640</v>
+      <c r="K78" s="117" t="s">
+        <v>634</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="18"/>
     </row>
     <row r="79">
       <c r="A79" s="82" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C79" s="84" t="s">
         <v>360</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="86" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F79" s="87"/>
       <c r="G79" s="87"/>
@@ -10040,7 +10025,7 @@
       </c>
       <c r="I79" s="87"/>
       <c r="J79" s="89"/>
-      <c r="K79" s="115">
+      <c r="K79" s="116">
         <v>5.0</v>
       </c>
       <c r="L79" s="98" t="s">
@@ -10051,20 +10036,20 @@
     </row>
     <row r="80">
       <c r="A80" s="82" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B80" s="83" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C80" s="84" t="s">
         <v>364</v>
       </c>
       <c r="D80" s="87"/>
       <c r="E80" s="86" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F80" s="86" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G80" s="87"/>
       <c r="H80" s="86" t="s">
@@ -10072,28 +10057,28 @@
       </c>
       <c r="I80" s="87"/>
       <c r="J80" s="89"/>
-      <c r="K80" s="115" t="s">
-        <v>649</v>
+      <c r="K80" s="116" t="s">
+        <v>643</v>
       </c>
       <c r="L80" s="86" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M80" s="86"/>
       <c r="N80" s="89"/>
     </row>
     <row r="81">
       <c r="A81" s="15" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B81" s="77" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C81" s="99" t="s">
         <v>360</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="4" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
@@ -10102,7 +10087,7 @@
       </c>
       <c r="I81" s="22"/>
       <c r="J81" s="18"/>
-      <c r="K81" s="116">
+      <c r="K81" s="117">
         <v>5.0</v>
       </c>
       <c r="L81" s="103" t="s">
@@ -10113,20 +10098,20 @@
     </row>
     <row r="82">
       <c r="A82" s="15" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B82" s="77" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C82" s="99" t="s">
         <v>364</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="4" t="s">
@@ -10134,7 +10119,7 @@
       </c>
       <c r="I82" s="22"/>
       <c r="J82" s="18"/>
-      <c r="K82" s="116">
+      <c r="K82" s="117">
         <v>5.0</v>
       </c>
       <c r="L82" s="103" t="s">
@@ -10145,17 +10130,17 @@
     </row>
     <row r="83">
       <c r="A83" s="82" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B83" s="83" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C83" s="84" t="s">
         <v>360</v>
       </c>
       <c r="D83" s="87"/>
       <c r="E83" s="86" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F83" s="87"/>
       <c r="G83" s="87"/>
@@ -10164,7 +10149,7 @@
       </c>
       <c r="I83" s="87"/>
       <c r="J83" s="89"/>
-      <c r="K83" s="115">
+      <c r="K83" s="116">
         <v>5.0</v>
       </c>
       <c r="L83" s="98" t="s">
@@ -10175,20 +10160,20 @@
     </row>
     <row r="84">
       <c r="A84" s="82" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B84" s="83" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C84" s="84" t="s">
         <v>364</v>
       </c>
       <c r="D84" s="87"/>
       <c r="E84" s="86" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F84" s="86" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G84" s="87"/>
       <c r="H84" s="86" t="s">
@@ -10197,27 +10182,27 @@
       <c r="I84" s="87"/>
       <c r="J84" s="89"/>
       <c r="K84" s="86" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L84" s="86" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M84" s="86"/>
       <c r="N84" s="89"/>
     </row>
     <row r="85">
       <c r="A85" s="15" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B85" s="77" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C85" s="99" t="s">
         <v>360</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
@@ -10226,7 +10211,7 @@
       </c>
       <c r="I85" s="22"/>
       <c r="J85" s="18"/>
-      <c r="K85" s="116">
+      <c r="K85" s="117">
         <v>5.0</v>
       </c>
       <c r="L85" s="4" t="s">
@@ -10237,20 +10222,20 @@
     </row>
     <row r="86">
       <c r="A86" s="15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B86" s="77" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C86" s="99" t="s">
         <v>364</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="4" t="s">
@@ -10259,153 +10244,153 @@
       <c r="I86" s="22"/>
       <c r="J86" s="18"/>
       <c r="K86" s="4" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="18"/>
     </row>
     <row r="87">
-      <c r="A87" s="117" t="s">
-        <v>671</v>
-      </c>
-      <c r="B87" s="118" t="s">
-        <v>672</v>
-      </c>
-      <c r="C87" s="119" t="s">
+      <c r="A87" s="118" t="s">
+        <v>665</v>
+      </c>
+      <c r="B87" s="119" t="s">
+        <v>666</v>
+      </c>
+      <c r="C87" s="120" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="120"/>
-      <c r="E87" s="121" t="s">
-        <v>673</v>
-      </c>
-      <c r="F87" s="120"/>
-      <c r="G87" s="120"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="122" t="s">
+        <v>667</v>
+      </c>
+      <c r="F87" s="121"/>
+      <c r="G87" s="121"/>
       <c r="H87" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="I87" s="120"/>
-      <c r="J87" s="122"/>
-      <c r="K87" s="123">
+      <c r="I87" s="121"/>
+      <c r="J87" s="123"/>
+      <c r="K87" s="124">
         <v>5.0</v>
       </c>
-      <c r="L87" s="121" t="s">
+      <c r="L87" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="M87" s="121"/>
-      <c r="N87" s="122"/>
+      <c r="M87" s="122"/>
+      <c r="N87" s="123"/>
     </row>
     <row r="88">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="118" t="s">
+        <v>668</v>
+      </c>
+      <c r="B88" s="119" t="s">
+        <v>669</v>
+      </c>
+      <c r="C88" s="120" t="s">
+        <v>364</v>
+      </c>
+      <c r="D88" s="121"/>
+      <c r="E88" s="122" t="s">
+        <v>670</v>
+      </c>
+      <c r="F88" s="122" t="s">
+        <v>671</v>
+      </c>
+      <c r="G88" s="125"/>
+      <c r="H88" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="I88" s="121"/>
+      <c r="J88" s="123"/>
+      <c r="K88" s="124">
+        <v>5.0</v>
+      </c>
+      <c r="L88" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="M88" s="122"/>
+      <c r="N88" s="123"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="118" t="s">
+        <v>672</v>
+      </c>
+      <c r="B89" s="119" t="s">
+        <v>673</v>
+      </c>
+      <c r="C89" s="120" t="s">
+        <v>364</v>
+      </c>
+      <c r="D89" s="121"/>
+      <c r="E89" s="122" t="s">
+        <v>670</v>
+      </c>
+      <c r="F89" s="122" t="s">
         <v>674</v>
       </c>
-      <c r="B88" s="118" t="s">
+      <c r="G89" s="121"/>
+      <c r="H89" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="I89" s="121"/>
+      <c r="J89" s="123"/>
+      <c r="K89" s="124" t="s">
         <v>675</v>
       </c>
-      <c r="C88" s="119" t="s">
+      <c r="L89" s="122" t="s">
+        <v>676</v>
+      </c>
+      <c r="M89" s="122"/>
+      <c r="N89" s="123"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="118" t="s">
+        <v>677</v>
+      </c>
+      <c r="B90" s="119" t="s">
+        <v>678</v>
+      </c>
+      <c r="C90" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="D88" s="120"/>
-      <c r="E88" s="121" t="s">
-        <v>676</v>
-      </c>
-      <c r="F88" s="121" t="s">
-        <v>677</v>
-      </c>
-      <c r="G88" s="124"/>
-      <c r="H88" s="121" t="s">
-        <v>224</v>
-      </c>
-      <c r="I88" s="120"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="123">
-        <v>5.0</v>
-      </c>
-      <c r="L88" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="M88" s="121"/>
-      <c r="N88" s="122"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="117" t="s">
-        <v>678</v>
-      </c>
-      <c r="B89" s="118" t="s">
+      <c r="D90" s="121"/>
+      <c r="E90" s="122" t="s">
+        <v>670</v>
+      </c>
+      <c r="F90" s="122" t="s">
         <v>679</v>
       </c>
-      <c r="C89" s="119" t="s">
-        <v>364</v>
-      </c>
-      <c r="D89" s="120"/>
-      <c r="E89" s="121" t="s">
-        <v>676</v>
-      </c>
-      <c r="F89" s="121" t="s">
+      <c r="G90" s="121"/>
+      <c r="H90" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="I90" s="121"/>
+      <c r="J90" s="123"/>
+      <c r="K90" s="124" t="s">
         <v>680</v>
       </c>
-      <c r="G89" s="120"/>
-      <c r="H89" s="121" t="s">
-        <v>232</v>
-      </c>
-      <c r="I89" s="120"/>
-      <c r="J89" s="122"/>
-      <c r="K89" s="123" t="s">
+      <c r="L90" s="122" t="s">
         <v>681</v>
       </c>
-      <c r="L89" s="121" t="s">
-        <v>682</v>
-      </c>
-      <c r="M89" s="121"/>
-      <c r="N89" s="122"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="117" t="s">
-        <v>683</v>
-      </c>
-      <c r="B90" s="118" t="s">
-        <v>684</v>
-      </c>
-      <c r="C90" s="119" t="s">
-        <v>364</v>
-      </c>
-      <c r="D90" s="120"/>
-      <c r="E90" s="121" t="s">
-        <v>676</v>
-      </c>
-      <c r="F90" s="121" t="s">
-        <v>685</v>
-      </c>
-      <c r="G90" s="120"/>
-      <c r="H90" s="121" t="s">
-        <v>232</v>
-      </c>
-      <c r="I90" s="120"/>
-      <c r="J90" s="122"/>
-      <c r="K90" s="123" t="s">
-        <v>686</v>
-      </c>
-      <c r="L90" s="121" t="s">
-        <v>687</v>
-      </c>
-      <c r="M90" s="121"/>
-      <c r="N90" s="122"/>
+      <c r="M90" s="122"/>
+      <c r="N90" s="123"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="82" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B91" s="83" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C91" s="84" t="s">
         <v>360</v>
       </c>
       <c r="D91" s="87"/>
       <c r="E91" s="86" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F91" s="87"/>
       <c r="G91" s="87"/>
@@ -10414,7 +10399,7 @@
       </c>
       <c r="I91" s="87"/>
       <c r="J91" s="89"/>
-      <c r="K91" s="115">
+      <c r="K91" s="116">
         <v>3.0</v>
       </c>
       <c r="L91" s="86" t="s">
@@ -10425,20 +10410,20 @@
     </row>
     <row r="92">
       <c r="A92" s="82" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B92" s="83" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C92" s="84" t="s">
         <v>364</v>
       </c>
       <c r="D92" s="87"/>
       <c r="E92" s="86" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F92" s="86" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="86" t="s">
@@ -10446,31 +10431,31 @@
       </c>
       <c r="I92" s="87"/>
       <c r="J92" s="89"/>
-      <c r="K92" s="115" t="s">
-        <v>695</v>
+      <c r="K92" s="116" t="s">
+        <v>689</v>
       </c>
       <c r="L92" s="86" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M92" s="86"/>
       <c r="N92" s="89"/>
     </row>
     <row r="93">
       <c r="A93" s="82" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B93" s="83" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C93" s="84" t="s">
         <v>364</v>
       </c>
       <c r="D93" s="87"/>
       <c r="E93" s="86" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F93" s="86" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G93" s="87"/>
       <c r="H93" s="86" t="s">
@@ -10478,7 +10463,7 @@
       </c>
       <c r="I93" s="87"/>
       <c r="J93" s="89"/>
-      <c r="K93" s="125">
+      <c r="K93" s="126">
         <v>3.0</v>
       </c>
       <c r="L93" s="86" t="s">
@@ -10489,20 +10474,20 @@
     </row>
     <row r="94">
       <c r="A94" s="82" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C94" s="84" t="s">
         <v>364</v>
       </c>
       <c r="D94" s="87"/>
       <c r="E94" s="86" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F94" s="86" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G94" s="87"/>
       <c r="H94" s="86" t="s">
@@ -10510,28 +10495,28 @@
       </c>
       <c r="I94" s="87"/>
       <c r="J94" s="89"/>
-      <c r="K94" s="115" t="s">
-        <v>702</v>
+      <c r="K94" s="116" t="s">
+        <v>696</v>
       </c>
       <c r="L94" s="86" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="M94" s="86"/>
       <c r="N94" s="89"/>
     </row>
     <row r="95">
       <c r="A95" s="15" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B95" s="77" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C95" s="99" t="s">
         <v>360</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="4" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
@@ -10540,7 +10525,7 @@
       </c>
       <c r="I95" s="22"/>
       <c r="J95" s="18"/>
-      <c r="K95" s="116">
+      <c r="K95" s="117">
         <v>3.0</v>
       </c>
       <c r="L95" s="4" t="s">
@@ -10551,20 +10536,20 @@
     </row>
     <row r="96">
       <c r="A96" s="15" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B96" s="77" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C96" s="99" t="s">
         <v>364</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="4" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G96" s="22"/>
       <c r="H96" s="4" t="s">
@@ -10572,28 +10557,28 @@
       </c>
       <c r="I96" s="22"/>
       <c r="J96" s="18"/>
-      <c r="K96" s="116" t="s">
-        <v>710</v>
+      <c r="K96" s="117" t="s">
+        <v>704</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="18"/>
     </row>
     <row r="97">
       <c r="A97" s="82" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B97" s="83" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C97" s="84" t="s">
         <v>360</v>
       </c>
       <c r="D97" s="87"/>
       <c r="E97" s="86" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F97" s="87"/>
       <c r="G97" s="87"/>
@@ -10602,7 +10587,7 @@
       </c>
       <c r="I97" s="87"/>
       <c r="J97" s="89"/>
-      <c r="K97" s="115">
+      <c r="K97" s="116">
         <v>3.0</v>
       </c>
       <c r="L97" s="86" t="s">
@@ -10613,20 +10598,20 @@
     </row>
     <row r="98">
       <c r="A98" s="82" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B98" s="83" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C98" s="84" t="s">
         <v>364</v>
       </c>
       <c r="D98" s="87"/>
       <c r="E98" s="86" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F98" s="86" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="86" t="s">
@@ -10634,28 +10619,28 @@
       </c>
       <c r="I98" s="87"/>
       <c r="J98" s="89"/>
-      <c r="K98" s="115" t="s">
-        <v>695</v>
+      <c r="K98" s="116" t="s">
+        <v>689</v>
       </c>
       <c r="L98" s="86" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="M98" s="86"/>
       <c r="N98" s="89"/>
     </row>
     <row r="99">
       <c r="A99" s="15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B99" s="77" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C99" s="99" t="s">
         <v>360</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="4" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
@@ -10664,7 +10649,7 @@
       </c>
       <c r="I99" s="22"/>
       <c r="J99" s="18"/>
-      <c r="K99" s="116">
+      <c r="K99" s="117">
         <v>5.0</v>
       </c>
       <c r="L99" s="4" t="s">
@@ -10675,20 +10660,20 @@
     </row>
     <row r="100">
       <c r="A100" s="58" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B100" s="77" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C100" s="99" t="s">
         <v>364</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="4" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="4" t="s">
@@ -10697,27 +10682,27 @@
       <c r="I100" s="22"/>
       <c r="J100" s="18"/>
       <c r="K100" s="4" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="18"/>
     </row>
     <row r="101">
       <c r="A101" s="15" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B101" s="77" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C101" s="99" t="s">
         <v>360</v>
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="4" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
@@ -10726,7 +10711,7 @@
       </c>
       <c r="I101" s="22"/>
       <c r="J101" s="18"/>
-      <c r="K101" s="116">
+      <c r="K101" s="117">
         <v>5.0</v>
       </c>
       <c r="L101" s="4" t="s">
@@ -10737,20 +10722,20 @@
     </row>
     <row r="102">
       <c r="A102" s="58" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B102" s="77" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C102" s="99" t="s">
         <v>364</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="4" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="4" t="s">
@@ -10759,10 +10744,10 @@
       <c r="I102" s="22"/>
       <c r="J102" s="18"/>
       <c r="K102" s="4" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="18"/>
@@ -10794,555 +10779,555 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="127" t="s">
-        <v>736</v>
-      </c>
-      <c r="D1" s="126" t="s">
+      <c r="C1" s="128" t="s">
+        <v>730</v>
+      </c>
+      <c r="D1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="127" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="128" t="s">
-        <v>737</v>
+      <c r="A2" s="129" t="s">
+        <v>731</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="128" t="s">
-        <v>740</v>
+      <c r="A3" s="129" t="s">
+        <v>734</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="62" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="128" t="s">
-        <v>743</v>
+      <c r="A4" s="129" t="s">
+        <v>737</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="18" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E4" s="62"/>
     </row>
     <row r="5">
-      <c r="A5" s="128" t="s">
-        <v>746</v>
+      <c r="A5" s="129" t="s">
+        <v>740</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="129" t="s">
+        <v>743</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>744</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="129" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>748</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="128" t="s">
-        <v>749</v>
-      </c>
-      <c r="B6" s="129" t="s">
-        <v>750</v>
-      </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="E6" s="130" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="128" t="s">
-        <v>753</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>754</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="18" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="128" t="s">
-        <v>756</v>
+      <c r="A8" s="129" t="s">
+        <v>750</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="62" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="128" t="s">
-        <v>759</v>
+      <c r="A9" s="129" t="s">
+        <v>753</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62" t="s">
+        <v>755</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="129" t="s">
+        <v>756</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="132" t="s">
+        <v>758</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="129" t="s">
+        <v>759</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>760</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="132" t="s">
         <v>761</v>
       </c>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="128" t="s">
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="129" t="s">
         <v>762</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B12" s="62" t="s">
         <v>763</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="131" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="132" t="s">
         <v>764</v>
       </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="128" t="s">
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B13" s="62" t="s">
         <v>766</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="131" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="132" t="s">
         <v>767</v>
       </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="128" t="s">
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="129" t="s">
         <v>768</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B14" s="62" t="s">
         <v>769</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="131" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="132" t="s">
         <v>770</v>
       </c>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="128" t="s">
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="129" t="s">
         <v>771</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B15" s="62" t="s">
         <v>772</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="131" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="132" t="s">
         <v>773</v>
       </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="128" t="s">
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="129" t="s">
         <v>774</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B16" s="62" t="s">
         <v>775</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="131" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="132" t="s">
         <v>776</v>
       </c>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="128" t="s">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="129" t="s">
         <v>777</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B17" s="133" t="s">
+        <v>744</v>
+      </c>
+      <c r="C17" s="133"/>
+      <c r="D17" s="132" t="s">
         <v>778</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="131" t="s">
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="129" t="s">
         <v>779</v>
       </c>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="128" t="s">
+      <c r="B18" s="29" t="s">
         <v>780</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>781</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="131" t="s">
-        <v>782</v>
-      </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="128" t="s">
-        <v>783</v>
-      </c>
-      <c r="B17" s="132" t="s">
-        <v>750</v>
-      </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="131" t="s">
-        <v>784</v>
-      </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="128" t="s">
-        <v>785</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>786</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="62" t="s">
+        <v>781</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="129" t="s">
+        <v>782</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="C19" s="134" t="s">
+        <v>784</v>
+      </c>
+      <c r="D19" s="132" t="s">
+        <v>785</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="129" t="s">
+        <v>786</v>
+      </c>
+      <c r="B20" s="135" t="s">
         <v>787</v>
       </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="128" t="s">
+      <c r="C20" s="135"/>
+      <c r="D20" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="129" t="s">
         <v>789</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="B21" s="135" t="s">
         <v>790</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="C21" s="135"/>
+      <c r="D21" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="128" t="s">
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="129" t="s">
         <v>792</v>
       </c>
-      <c r="B20" s="134" t="s">
+      <c r="B22" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="C22" s="135" t="s">
         <v>793</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="128" t="s">
+      <c r="E22" s="20" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="129" t="s">
         <v>795</v>
       </c>
-      <c r="B21" s="134" t="s">
+      <c r="B23" s="62" t="s">
         <v>796</v>
-      </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="128" t="s">
-        <v>798</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>789</v>
-      </c>
-      <c r="C22" s="134" t="s">
-        <v>799</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>800</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="128" t="s">
-        <v>801</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>802</v>
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="62" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="128" t="s">
-        <v>804</v>
-      </c>
-      <c r="B24" s="135" t="s">
-        <v>805</v>
-      </c>
-      <c r="C24" s="135"/>
+      <c r="A24" s="129" t="s">
+        <v>798</v>
+      </c>
+      <c r="B24" s="136" t="s">
+        <v>799</v>
+      </c>
+      <c r="C24" s="136"/>
       <c r="D24" s="20" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="128" t="s">
-        <v>807</v>
+      <c r="A25" s="129" t="s">
+        <v>801</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C25" s="62"/>
       <c r="D25" s="62" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="136" t="s">
-        <v>810</v>
+      <c r="A26" s="137" t="s">
+        <v>804</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="136" t="s">
-        <v>813</v>
+      <c r="A27" s="137" t="s">
+        <v>807</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="136" t="s">
-        <v>816</v>
+      <c r="A28" s="137" t="s">
+        <v>810</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="136" t="s">
-        <v>819</v>
+      <c r="A29" s="137" t="s">
+        <v>813</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E29" s="28"/>
     </row>
     <row r="30">
-      <c r="A30" s="136" t="s">
-        <v>822</v>
+      <c r="A30" s="137" t="s">
+        <v>816</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="136" t="s">
-        <v>825</v>
+      <c r="A31" s="137" t="s">
+        <v>819</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="136" t="s">
-        <v>828</v>
+      <c r="A32" s="137" t="s">
+        <v>822</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="136" t="s">
-        <v>831</v>
+      <c r="A33" s="137" t="s">
+        <v>825</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="136" t="s">
-        <v>834</v>
+      <c r="A34" s="137" t="s">
+        <v>828</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="136" t="s">
-        <v>837</v>
+      <c r="A35" s="137" t="s">
+        <v>831</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
+        <v>833</v>
+      </c>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="117" t="s">
+        <v>834</v>
+      </c>
+      <c r="B36" s="138" t="s">
+        <v>835</v>
+      </c>
+      <c r="C36" s="138"/>
+      <c r="D36" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="117" t="s">
+        <v>837</v>
+      </c>
+      <c r="B37" s="138" t="s">
+        <v>838</v>
+      </c>
+      <c r="C37" s="138"/>
+      <c r="D37" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="116" t="s">
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="117" t="s">
         <v>840</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B38" s="138" t="s">
         <v>841</v>
       </c>
-      <c r="C36" s="137"/>
-      <c r="D36" s="22" t="s">
+      <c r="C38" s="138"/>
+      <c r="D38" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="116" t="s">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="117" t="s">
         <v>843</v>
       </c>
-      <c r="B37" s="137" t="s">
+      <c r="B39" s="139" t="s">
         <v>844</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="22" t="s">
+      <c r="C39" s="139"/>
+      <c r="D39" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="117" t="s">
         <v>845</v>
       </c>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="116" t="s">
+      <c r="B40" s="139" t="s">
         <v>846</v>
       </c>
-      <c r="B38" s="137" t="s">
+      <c r="C40" s="139"/>
+      <c r="D40" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="22" t="s">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="117" t="s">
         <v>848</v>
       </c>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="116" t="s">
+      <c r="B41" s="140" t="s">
         <v>849</v>
       </c>
-      <c r="B39" s="138" t="s">
+      <c r="C41" s="140"/>
+      <c r="D41" s="22" t="s">
         <v>850</v>
-      </c>
-      <c r="C39" s="138"/>
-      <c r="D39" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="116" t="s">
-        <v>851</v>
-      </c>
-      <c r="B40" s="138" t="s">
-        <v>852</v>
-      </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="116" t="s">
-        <v>854</v>
-      </c>
-      <c r="B41" s="139" t="s">
-        <v>855</v>
-      </c>
-      <c r="C41" s="139"/>
-      <c r="D41" s="22" t="s">
-        <v>856</v>
       </c>
       <c r="E41" s="18"/>
     </row>
@@ -11363,16 +11348,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -11387,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -11431,13 +11416,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -11453,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -11470,10 +11455,10 @@
     <row r="7">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -11487,10 +11472,10 @@
     <row r="8">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -11504,10 +11489,10 @@
     <row r="9">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -11533,10 +11518,10 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -11550,10 +11535,10 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="B12" s="140" t="s">
-        <v>875</v>
+        <v>868</v>
+      </c>
+      <c r="B12" s="141" t="s">
+        <v>869</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -11567,10 +11552,10 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="B13" s="140" t="s">
-        <v>877</v>
+        <v>870</v>
+      </c>
+      <c r="B13" s="141" t="s">
+        <v>871</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -11584,10 +11569,10 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>878</v>
-      </c>
-      <c r="B14" s="140" t="s">
-        <v>879</v>
+        <v>872</v>
+      </c>
+      <c r="B14" s="141" t="s">
+        <v>873</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -11601,10 +11586,10 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="B15" s="140" t="s">
-        <v>881</v>
+        <v>874</v>
+      </c>
+      <c r="B15" s="141" t="s">
+        <v>875</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -11618,10 +11603,10 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>882</v>
-      </c>
-      <c r="B16" s="140" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="B16" s="141" t="s">
+        <v>877</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -11635,10 +11620,10 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="B17" s="140" t="s">
-        <v>885</v>
+        <v>878</v>
+      </c>
+      <c r="B17" s="141" t="s">
+        <v>879</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -11652,10 +11637,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -11669,10 +11654,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="B19" s="141" t="s">
-        <v>889</v>
+        <v>882</v>
+      </c>
+      <c r="B19" s="142" t="s">
+        <v>883</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -11686,10 +11671,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="B20" s="141" t="s">
-        <v>891</v>
+        <v>884</v>
+      </c>
+      <c r="B20" s="142" t="s">
+        <v>885</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -11703,10 +11688,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -11720,10 +11705,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -11737,7 +11722,7 @@
     </row>
     <row r="23">
       <c r="A23" s="18"/>
-      <c r="B23" s="142"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -11750,10 +11735,10 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>896</v>
-      </c>
-      <c r="B24" s="142" t="s">
-        <v>897</v>
+        <v>890</v>
+      </c>
+      <c r="B24" s="143" t="s">
+        <v>891</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -11767,27 +11752,27 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27">
@@ -11809,69 +11794,69 @@
       <c r="A32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="143" t="s">
-        <v>901</v>
-      </c>
-      <c r="B33" s="144" t="s">
-        <v>902</v>
+      <c r="A33" s="144" t="s">
+        <v>895</v>
+      </c>
+      <c r="B33" s="145" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="143" t="s">
-        <v>903</v>
-      </c>
-      <c r="B34" s="145" t="s">
-        <v>904</v>
-      </c>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
+      <c r="A34" s="144" t="s">
+        <v>897</v>
+      </c>
+      <c r="B34" s="146" t="s">
+        <v>898</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
     </row>
     <row r="35">
-      <c r="A35" s="143" t="s">
-        <v>905</v>
-      </c>
-      <c r="B35" s="145" t="s">
-        <v>906</v>
-      </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
+      <c r="A35" s="144" t="s">
+        <v>899</v>
+      </c>
+      <c r="B35" s="146" t="s">
+        <v>900</v>
+      </c>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="18"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11909,20 +11894,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>10</v>
@@ -11933,10 +11918,10 @@
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>361</v>
@@ -11952,10 +11937,10 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>375</v>
@@ -11971,10 +11956,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="B4" s="148" t="s">
-        <v>917</v>
+        <v>910</v>
+      </c>
+      <c r="B4" s="149" t="s">
+        <v>911</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>391</v>
@@ -11986,14 +11971,14 @@
         <v>46</v>
       </c>
       <c r="F4" s="78"/>
-      <c r="G4" s="149"/>
+      <c r="G4" s="150"/>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>919</v>
+        <v>912</v>
+      </c>
+      <c r="B5" s="149" t="s">
+        <v>913</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>423</v>
@@ -12009,10 +11994,10 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>920</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>921</v>
+        <v>914</v>
+      </c>
+      <c r="B6" s="149" t="s">
+        <v>915</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>447</v>
@@ -12028,10 +12013,10 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>922</v>
-      </c>
-      <c r="B7" s="148" t="s">
-        <v>923</v>
+        <v>916</v>
+      </c>
+      <c r="B7" s="149" t="s">
+        <v>917</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>470</v>
@@ -12047,10 +12032,10 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>924</v>
-      </c>
-      <c r="B8" s="148" t="s">
-        <v>925</v>
+        <v>918</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>919</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>493</v>
@@ -12066,10 +12051,10 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>926</v>
-      </c>
-      <c r="B9" s="148" t="s">
-        <v>927</v>
+        <v>920</v>
+      </c>
+      <c r="B9" s="149" t="s">
+        <v>921</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>516</v>
@@ -12085,10 +12070,10 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="B10" s="148" t="s">
-        <v>929</v>
+        <v>922</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>923</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>562</v>
@@ -12104,16 +12089,16 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>930</v>
-      </c>
-      <c r="B11" s="148" t="s">
-        <v>931</v>
+        <v>924</v>
+      </c>
+      <c r="B11" s="149" t="s">
+        <v>925</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>270</v>
@@ -12123,16 +12108,16 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>932</v>
-      </c>
-      <c r="B12" s="148" t="s">
-        <v>933</v>
+        <v>926</v>
+      </c>
+      <c r="B12" s="149" t="s">
+        <v>927</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>273</v>
@@ -12142,16 +12127,16 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>276</v>
@@ -12161,16 +12146,16 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="B14" s="148" t="s">
-        <v>937</v>
+        <v>930</v>
+      </c>
+      <c r="B14" s="149" t="s">
+        <v>931</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>279</v>
@@ -12180,16 +12165,16 @@
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="B15" s="148" t="s">
-        <v>939</v>
+        <v>932</v>
+      </c>
+      <c r="B15" s="149" t="s">
+        <v>933</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>282</v>
@@ -12199,16 +12184,16 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="B16" s="148" t="s">
-        <v>941</v>
+        <v>934</v>
+      </c>
+      <c r="B16" s="149" t="s">
+        <v>935</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>285</v>
@@ -12218,16 +12203,16 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>288</v>
@@ -12237,16 +12222,16 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>944</v>
-      </c>
-      <c r="B18" s="148" t="s">
-        <v>945</v>
+        <v>938</v>
+      </c>
+      <c r="B18" s="149" t="s">
+        <v>939</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>291</v>
@@ -12256,16 +12241,16 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>946</v>
-      </c>
-      <c r="B19" s="148" t="s">
-        <v>947</v>
+        <v>940</v>
+      </c>
+      <c r="B19" s="149" t="s">
+        <v>941</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>294</v>
@@ -12275,16 +12260,16 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>948</v>
-      </c>
-      <c r="B20" s="148" t="s">
-        <v>949</v>
+        <v>942</v>
+      </c>
+      <c r="B20" s="149" t="s">
+        <v>943</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>297</v>
@@ -12294,16 +12279,16 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>950</v>
-      </c>
-      <c r="B21" s="148" t="s">
-        <v>951</v>
+        <v>944</v>
+      </c>
+      <c r="B21" s="149" t="s">
+        <v>945</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>300</v>
@@ -12313,16 +12298,16 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>952</v>
-      </c>
-      <c r="B22" s="148" t="s">
-        <v>953</v>
+        <v>946</v>
+      </c>
+      <c r="B22" s="149" t="s">
+        <v>947</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>303</v>
@@ -12332,16 +12317,16 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>954</v>
-      </c>
-      <c r="B23" s="148" t="s">
-        <v>955</v>
+        <v>948</v>
+      </c>
+      <c r="B23" s="149" t="s">
+        <v>949</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>306</v>
@@ -12351,16 +12336,16 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>956</v>
-      </c>
-      <c r="B24" s="148" t="s">
-        <v>957</v>
+        <v>950</v>
+      </c>
+      <c r="B24" s="149" t="s">
+        <v>951</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>309</v>
@@ -12370,16 +12355,16 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>958</v>
-      </c>
-      <c r="B25" s="148" t="s">
-        <v>959</v>
+        <v>952</v>
+      </c>
+      <c r="B25" s="149" t="s">
+        <v>953</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>312</v>
@@ -12419,10 +12404,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2">
@@ -12432,7 +12417,7 @@
       <c r="B2" s="73"/>
       <c r="C2" s="71"/>
       <c r="D2" s="4" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E2" s="22"/>
     </row>
@@ -12443,7 +12428,7 @@
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="4" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="E3" s="22"/>
     </row>
@@ -12452,8 +12437,8 @@
         <v>343</v>
       </c>
       <c r="C4" s="71"/>
-      <c r="D4" s="141" t="s">
-        <v>964</v>
+      <c r="D4" s="142" t="s">
+        <v>958</v>
       </c>
       <c r="E4" s="22"/>
     </row>
@@ -12462,8 +12447,8 @@
         <v>344</v>
       </c>
       <c r="C5" s="71"/>
-      <c r="D5" s="141" t="s">
-        <v>965</v>
+      <c r="D5" s="142" t="s">
+        <v>959</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -12472,8 +12457,8 @@
         <v>349</v>
       </c>
       <c r="C6" s="71"/>
-      <c r="D6" s="141" t="s">
-        <v>966</v>
+      <c r="D6" s="142" t="s">
+        <v>960</v>
       </c>
       <c r="E6" s="22"/>
     </row>
@@ -12483,8 +12468,8 @@
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
-      <c r="D7" s="141" t="s">
-        <v>967</v>
+      <c r="D7" s="142" t="s">
+        <v>961</v>
       </c>
       <c r="E7" s="22"/>
     </row>
@@ -12492,8 +12477,8 @@
       <c r="A8" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="141" t="s">
-        <v>968</v>
+      <c r="D8" s="142" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="9">
@@ -12502,8 +12487,8 @@
       </c>
       <c r="B9" s="71"/>
       <c r="C9" s="71"/>
-      <c r="D9" s="141" t="s">
-        <v>969</v>
+      <c r="D9" s="142" t="s">
+        <v>963</v>
       </c>
       <c r="E9" s="22"/>
     </row>
@@ -12539,416 +12524,416 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="151" t="s">
+        <v>964</v>
+      </c>
+      <c r="F1" s="151" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1" s="152" t="s">
+        <v>966</v>
+      </c>
+      <c r="H1" s="153" t="s">
+        <v>967</v>
+      </c>
+      <c r="I1" s="154" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="155" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="154" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="154" t="s">
+        <v>969</v>
+      </c>
+      <c r="C2" s="154" t="s">
         <v>970</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154" t="s">
         <v>971</v>
       </c>
-      <c r="G1" s="151" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="154" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="154" t="s">
         <v>972</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="C3" s="154" t="s">
         <v>973</v>
       </c>
-      <c r="I1" s="153" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" s="154" t="s">
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="158" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="153" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="153" t="s">
+    <row r="4">
+      <c r="A4" s="154" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="154" t="s">
         <v>975</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C4" s="154" t="s">
         <v>976</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153" t="s">
+      <c r="D4" s="154"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="153" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="153" t="s">
+    <row r="5">
+      <c r="A5" s="154" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="154" t="s">
         <v>978</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C5" s="154" t="s">
         <v>979</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="157" t="s">
+      <c r="D5" s="160"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="154" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="154" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="153" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="153" t="s">
+      <c r="C6" s="154" t="s">
         <v>981</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="D6" s="154"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="154" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="154" t="s">
         <v>982</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153" t="s">
+      <c r="C7" s="154" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="153" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="153" t="s">
+      <c r="D7" s="154"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="154" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="154" t="s">
         <v>984</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C8" s="154" t="s">
         <v>985</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="153" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="153" t="s">
+      <c r="D8" s="160"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="161" t="s">
         <v>986</v>
       </c>
-      <c r="C6" s="153" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="154" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="154" t="s">
         <v>987</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="153" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="153" t="s">
+      <c r="C9" s="154" t="s">
         <v>988</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="D9" s="154"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="162" t="s">
         <v>989</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="153" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="153" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="154" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="154" t="s">
         <v>990</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C10" s="154" t="s">
         <v>991</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="160" t="s">
+      <c r="D10" s="154"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="162" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="154" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="154" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="153" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="153" t="s">
+      <c r="C11" s="154" t="s">
         <v>993</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="D11" s="154"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="161" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="154" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="154" t="s">
         <v>994</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="161" t="s">
+      <c r="C12" s="154" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="153" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="153" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="16" t="s">
         <v>996</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="J12" s="158" t="s">
         <v>997</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="161" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="153" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="153" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="154" t="s">
         <v>998</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C13" s="154" t="s">
         <v>999</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="160" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="153" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="153" t="s">
+      <c r="D13" s="154"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="J13" s="158" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="154" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="154" t="s">
         <v>1000</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C14" s="154" t="s">
         <v>1001</v>
       </c>
-      <c r="D12" s="153"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="16" t="s">
+      <c r="D14" s="154"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="J14" s="161" t="s">
         <v>1002</v>
       </c>
-      <c r="J12" s="157" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="154" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="154" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="153" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="153" t="s">
+      <c r="C15" s="154" t="s">
         <v>1004</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="D15" s="154"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="J15" s="161" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="154" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="154" t="s">
         <v>1005</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="16" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J13" s="157" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="153" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="153" t="s">
+      <c r="C16" s="154" t="s">
         <v>1006</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="D16" s="154"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154" t="s">
         <v>1007</v>
       </c>
-      <c r="D14" s="153"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="J14" s="160" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="154" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="154" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="153" t="s">
-        <v>302</v>
-      </c>
-      <c r="B15" s="153" t="s">
+      <c r="C17" s="154" t="s">
         <v>1009</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="D17" s="154"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="163" t="s">
         <v>1010</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="J15" s="160" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="153" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="153" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="154" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="154" t="s">
         <v>1011</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="C18" s="154" t="s">
         <v>1012</v>
       </c>
-      <c r="D16" s="153"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153" t="s">
+      <c r="D18" s="154"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="163" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="153" t="s">
-        <v>308</v>
-      </c>
-      <c r="B17" s="153" t="s">
+    <row r="19">
+      <c r="A19" s="154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="154" t="s">
         <v>1014</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C19" s="154" t="s">
         <v>1015</v>
       </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="162" t="s">
+      <c r="D19" s="154"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="163" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="153" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" s="153" t="s">
+    <row r="20">
+      <c r="A20" s="159" t="s">
         <v>1017</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="B20" s="154" t="s">
         <v>1018</v>
       </c>
-      <c r="D18" s="153"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="162" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="153" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="153" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C19" s="153" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="162" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="158" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B20" s="153" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158" t="s">
+      <c r="C20" s="159"/>
+      <c r="D20" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12976,53 +12961,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C2" s="163" t="s">
-        <v>1028</v>
+        <v>1021</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C3" s="163" t="s">
-        <v>1030</v>
+        <v>1023</v>
+      </c>
+      <c r="C3" s="164" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C4" s="163" t="s">
-        <v>1032</v>
+        <v>1025</v>
+      </c>
+      <c r="C4" s="164" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C5" s="163" t="s">
-        <v>1034</v>
+        <v>1027</v>
+      </c>
+      <c r="C5" s="164" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C6" s="163" t="s">
-        <v>1036</v>
+        <v>1029</v>
+      </c>
+      <c r="C6" s="164" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>

--- a/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
+++ b/models/sawg-distal-colon/source/sawg-distal-colon.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1067">
   <si>
     <t>id</t>
   </si>
@@ -1025,12 +1025,6 @@
   </si>
   <si>
     <t>Lumbar Colonic Nerve</t>
-  </si>
-  <si>
-    <t>Dendrite terminal or axon sensory terminal (sdcol)</t>
-  </si>
-  <si>
-    <t>Dendrite segment or axon sensory segment (sdcol)</t>
   </si>
   <si>
     <t>lyphs</t>
@@ -4326,51 +4320,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="165" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B2" s="166" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1032</v>
-      </c>
-      <c r="B2" s="166" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="165" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="165" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="164" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -4399,114 +4393,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="167" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B1" s="167" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="168" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B2" s="169" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="168" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B3" s="169" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="168" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="169" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="168" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B5" s="169" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="168" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="168" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="168" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="168" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B9" s="169" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="168" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B10" s="169" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="168" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B11" s="169" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="168" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="168" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B13" s="169" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B14" s="170" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -7369,134 +7363,6 @@
       <c r="Q99" s="18"/>
       <c r="R99" s="18"/>
     </row>
-    <row r="100">
-      <c r="A100" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J100" s="22"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J101" s="22"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J102" s="22"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J103" s="22"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -7545,57 +7411,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="71" t="s">
         <v>323</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>324</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>325</v>
       </c>
       <c r="G1" s="71" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="K1" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="L1" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="M1" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="N1" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="D2" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="E2" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="F2" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="G2" s="78"/>
       <c r="H2" s="4"/>
@@ -7608,22 +7474,22 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="D3" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="E3" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="F3" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="G3" s="78"/>
       <c r="H3" s="4"/>
@@ -7636,22 +7502,22 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="D4" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="E4" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="F4" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="G4" s="78"/>
       <c r="H4" s="4"/>
@@ -7664,10 +7530,10 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>152</v>
@@ -7676,7 +7542,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="78"/>
@@ -7690,19 +7556,19 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>356</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>155</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="78"/>
@@ -7716,17 +7582,17 @@
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="84" t="s">
         <v>358</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>360</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="88"/>
@@ -7746,20 +7612,20 @@
     </row>
     <row r="8" ht="20.25" customHeight="1">
       <c r="A8" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="84" t="s">
         <v>362</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>364</v>
       </c>
       <c r="D8" s="91"/>
       <c r="E8" s="86" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="86" t="s">
@@ -7768,30 +7634,30 @@
       <c r="I8" s="87"/>
       <c r="J8" s="89"/>
       <c r="K8" s="94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L8" s="86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M8" s="86"/>
       <c r="N8" s="89"/>
     </row>
     <row r="9" ht="20.25" customHeight="1">
       <c r="A9" s="82" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D9" s="91"/>
       <c r="E9" s="92" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F9" s="95" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G9" s="93"/>
       <c r="H9" s="86" t="s">
@@ -7803,24 +7669,24 @@
         <v>173</v>
       </c>
       <c r="L9" s="86" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M9" s="86"/>
       <c r="N9" s="89"/>
     </row>
     <row r="10" ht="20.25" customHeight="1">
       <c r="A10" s="82" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D10" s="91"/>
       <c r="E10" s="86" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="93"/>
@@ -7840,20 +7706,20 @@
     </row>
     <row r="11">
       <c r="A11" s="82" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="86" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G11" s="96"/>
       <c r="H11" s="86" t="s">
@@ -7862,30 +7728,30 @@
       <c r="I11" s="87"/>
       <c r="J11" s="89"/>
       <c r="K11" s="97" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L11" s="98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M11" s="98"/>
       <c r="N11" s="89"/>
     </row>
     <row r="12">
       <c r="A12" s="82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D12" s="91"/>
       <c r="E12" s="92" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F12" s="95" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G12" s="96"/>
       <c r="H12" s="86" t="s">
@@ -7894,30 +7760,30 @@
       <c r="I12" s="87"/>
       <c r="J12" s="89"/>
       <c r="K12" s="97" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M12" s="98"/>
       <c r="N12" s="89"/>
     </row>
     <row r="13">
       <c r="A13" s="82" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D13" s="91"/>
       <c r="E13" s="95" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F13" s="86" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G13" s="96"/>
       <c r="H13" s="86" t="s">
@@ -7929,27 +7795,27 @@
         <v>173</v>
       </c>
       <c r="L13" s="98" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M13" s="98"/>
       <c r="N13" s="89"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D14" s="100"/>
       <c r="E14" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="4" t="s">
@@ -7968,20 +7834,20 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D15" s="100"/>
       <c r="E15" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="4" t="s">
@@ -7990,30 +7856,30 @@
       <c r="I15" s="22"/>
       <c r="J15" s="18"/>
       <c r="K15" s="97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L15" s="103" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M15" s="103"/>
       <c r="N15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D16" s="100"/>
       <c r="E16" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="4" t="s">
@@ -8022,30 +7888,30 @@
       <c r="I16" s="22"/>
       <c r="J16" s="18"/>
       <c r="K16" s="102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L16" s="103" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M16" s="103"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D17" s="100"/>
       <c r="E17" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="4" t="s">
@@ -8054,30 +7920,30 @@
       <c r="I17" s="22"/>
       <c r="J17" s="18"/>
       <c r="K17" s="102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L17" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M17" s="103"/>
       <c r="N17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D18" s="100"/>
       <c r="E18" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="4" t="s">
@@ -8086,30 +7952,30 @@
       <c r="I18" s="22"/>
       <c r="J18" s="18"/>
       <c r="K18" s="102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L18" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M18" s="103"/>
       <c r="N18" s="18"/>
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D19" s="100"/>
       <c r="E19" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="4" t="s">
@@ -8118,30 +7984,30 @@
       <c r="I19" s="22"/>
       <c r="J19" s="18"/>
       <c r="K19" s="102" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L19" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M19" s="103"/>
       <c r="N19" s="18"/>
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D20" s="100"/>
       <c r="E20" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="4" t="s">
@@ -8150,30 +8016,30 @@
       <c r="I20" s="22"/>
       <c r="J20" s="18"/>
       <c r="K20" s="102" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L20" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M20" s="103"/>
       <c r="N20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="4" t="s">
@@ -8192,20 +8058,20 @@
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="4" t="s">
@@ -8214,30 +8080,30 @@
       <c r="I22" s="22"/>
       <c r="J22" s="18"/>
       <c r="K22" s="102" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L22" s="103" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M22" s="103"/>
       <c r="N22" s="18"/>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D23" s="100"/>
       <c r="E23" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="4" t="s">
@@ -8246,30 +8112,30 @@
       <c r="I23" s="22"/>
       <c r="J23" s="18"/>
       <c r="K23" s="102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L23" s="103" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M23" s="103"/>
       <c r="N23" s="18"/>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="4" t="s">
@@ -8278,30 +8144,30 @@
       <c r="I24" s="22"/>
       <c r="J24" s="18"/>
       <c r="K24" s="102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L24" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M24" s="103"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D25" s="100"/>
       <c r="E25" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="4" t="s">
@@ -8310,30 +8176,30 @@
       <c r="I25" s="22"/>
       <c r="J25" s="18"/>
       <c r="K25" s="102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L25" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M25" s="103"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C26" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D26" s="100"/>
       <c r="E26" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="4" t="s">
@@ -8342,30 +8208,30 @@
       <c r="I26" s="22"/>
       <c r="J26" s="18"/>
       <c r="K26" s="102" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L26" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M26" s="103"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C27" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D27" s="100"/>
       <c r="E27" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="4" t="s">
@@ -8374,30 +8240,30 @@
       <c r="I27" s="22"/>
       <c r="J27" s="18"/>
       <c r="K27" s="102" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L27" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M27" s="103"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F28" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="4" t="s">
@@ -8416,20 +8282,20 @@
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="4" t="s">
@@ -8438,30 +8304,30 @@
       <c r="I29" s="22"/>
       <c r="J29" s="18"/>
       <c r="K29" s="102" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L29" s="103" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M29" s="103"/>
       <c r="N29" s="18"/>
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B30" s="77" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="4" t="s">
@@ -8470,30 +8336,30 @@
       <c r="I30" s="22"/>
       <c r="J30" s="18"/>
       <c r="K30" s="102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L30" s="103" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M30" s="103"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="4" t="s">
@@ -8502,30 +8368,30 @@
       <c r="I31" s="22"/>
       <c r="J31" s="18"/>
       <c r="K31" s="102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L31" s="103" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M31" s="103"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C32" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="4" t="s">
@@ -8534,30 +8400,30 @@
       <c r="I32" s="22"/>
       <c r="J32" s="18"/>
       <c r="K32" s="102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L32" s="103" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M32" s="103"/>
       <c r="N32" s="18"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B33" s="77" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C33" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="4" t="s">
@@ -8566,30 +8432,30 @@
       <c r="I33" s="22"/>
       <c r="J33" s="18"/>
       <c r="K33" s="102" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L33" s="103" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M33" s="103"/>
       <c r="N33" s="18"/>
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C34" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="4" t="s">
@@ -8598,30 +8464,30 @@
       <c r="I34" s="22"/>
       <c r="J34" s="18"/>
       <c r="K34" s="102" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L34" s="103" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M34" s="103"/>
       <c r="N34" s="18"/>
     </row>
     <row r="35">
       <c r="A35" s="104" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D35" s="107"/>
       <c r="E35" s="90" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F35" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G35" s="107"/>
       <c r="H35" s="4" t="s">
@@ -8640,20 +8506,20 @@
     </row>
     <row r="36">
       <c r="A36" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B36" s="77" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="4" t="s">
@@ -8662,30 +8528,30 @@
       <c r="I36" s="22"/>
       <c r="J36" s="18"/>
       <c r="K36" s="102" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L36" s="103" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M36" s="103"/>
       <c r="N36" s="18"/>
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C37" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="4" t="s">
@@ -8694,30 +8560,30 @@
       <c r="I37" s="22"/>
       <c r="J37" s="18"/>
       <c r="K37" s="102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L37" s="103" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M37" s="103"/>
       <c r="N37" s="18"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B38" s="77" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C38" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="4" t="s">
@@ -8726,30 +8592,30 @@
       <c r="I38" s="22"/>
       <c r="J38" s="18"/>
       <c r="K38" s="102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L38" s="103" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M38" s="103"/>
       <c r="N38" s="18"/>
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B39" s="77" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C39" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="4" t="s">
@@ -8758,30 +8624,30 @@
       <c r="I39" s="22"/>
       <c r="J39" s="18"/>
       <c r="K39" s="102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L39" s="103" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M39" s="103"/>
       <c r="N39" s="18"/>
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B40" s="77" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C40" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="4" t="s">
@@ -8790,30 +8656,30 @@
       <c r="I40" s="22"/>
       <c r="J40" s="18"/>
       <c r="K40" s="102" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L40" s="103" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M40" s="103"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B41" s="77" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C41" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="4" t="s">
@@ -8822,30 +8688,30 @@
       <c r="I41" s="22"/>
       <c r="J41" s="18"/>
       <c r="K41" s="102" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L41" s="103" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M41" s="103"/>
       <c r="N41" s="18"/>
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B42" s="77" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C42" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F42" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="4" t="s">
@@ -8864,20 +8730,20 @@
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B43" s="77" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C43" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="4" t="s">
@@ -8886,30 +8752,30 @@
       <c r="I43" s="22"/>
       <c r="J43" s="18"/>
       <c r="K43" s="102" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L43" s="103" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M43" s="103"/>
       <c r="N43" s="18"/>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B44" s="77" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C44" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="4" t="s">
@@ -8918,30 +8784,30 @@
       <c r="I44" s="22"/>
       <c r="J44" s="18"/>
       <c r="K44" s="102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L44" s="103" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M44" s="103"/>
       <c r="N44" s="18"/>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C45" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="4" t="s">
@@ -8950,30 +8816,30 @@
       <c r="I45" s="22"/>
       <c r="J45" s="18"/>
       <c r="K45" s="102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L45" s="103" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M45" s="103"/>
       <c r="N45" s="18"/>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B46" s="77" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C46" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="4" t="s">
@@ -8982,30 +8848,30 @@
       <c r="I46" s="22"/>
       <c r="J46" s="18"/>
       <c r="K46" s="102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L46" s="103" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M46" s="103"/>
       <c r="N46" s="18"/>
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B47" s="77" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C47" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="4" t="s">
@@ -9014,30 +8880,30 @@
       <c r="I47" s="22"/>
       <c r="J47" s="18"/>
       <c r="K47" s="102" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L47" s="103" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M47" s="103"/>
       <c r="N47" s="18"/>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B48" s="77" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C48" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="4" t="s">
@@ -9046,30 +8912,30 @@
       <c r="I48" s="22"/>
       <c r="J48" s="18"/>
       <c r="K48" s="102" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L48" s="103" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M48" s="103"/>
       <c r="N48" s="18"/>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B49" s="77" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C49" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F49" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="4" t="s">
@@ -9088,20 +8954,20 @@
     </row>
     <row r="50">
       <c r="A50" s="16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B50" s="77" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C50" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="4" t="s">
@@ -9110,30 +8976,30 @@
       <c r="I50" s="22"/>
       <c r="J50" s="18"/>
       <c r="K50" s="102" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L50" s="103" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M50" s="103"/>
       <c r="N50" s="18"/>
     </row>
     <row r="51">
       <c r="A51" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C51" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="4" t="s">
@@ -9142,30 +9008,30 @@
       <c r="I51" s="22"/>
       <c r="J51" s="18"/>
       <c r="K51" s="102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L51" s="103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M51" s="103"/>
       <c r="N51" s="18"/>
     </row>
     <row r="52">
       <c r="A52" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B52" s="77" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C52" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="4" t="s">
@@ -9174,30 +9040,30 @@
       <c r="I52" s="22"/>
       <c r="J52" s="18"/>
       <c r="K52" s="102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L52" s="103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M52" s="103"/>
       <c r="N52" s="18"/>
     </row>
     <row r="53">
       <c r="A53" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B53" s="77" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C53" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="4" t="s">
@@ -9206,30 +9072,30 @@
       <c r="I53" s="22"/>
       <c r="J53" s="18"/>
       <c r="K53" s="102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L53" s="103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M53" s="103"/>
       <c r="N53" s="18"/>
     </row>
     <row r="54">
       <c r="A54" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B54" s="77" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C54" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="4" t="s">
@@ -9238,30 +9104,30 @@
       <c r="I54" s="22"/>
       <c r="J54" s="18"/>
       <c r="K54" s="102" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L54" s="103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M54" s="103"/>
       <c r="N54" s="18"/>
     </row>
     <row r="55">
       <c r="A55" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B55" s="77" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C55" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="4" t="s">
@@ -9270,30 +9136,30 @@
       <c r="I55" s="22"/>
       <c r="J55" s="18"/>
       <c r="K55" s="102" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L55" s="103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M55" s="103"/>
       <c r="N55" s="18"/>
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B56" s="77" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C56" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="4" t="s">
@@ -9312,20 +9178,20 @@
     </row>
     <row r="57">
       <c r="A57" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B57" s="77" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C57" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="109" t="s">
@@ -9334,30 +9200,30 @@
       <c r="I57" s="22"/>
       <c r="J57" s="18"/>
       <c r="K57" s="102" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L57" s="103" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M57" s="103"/>
       <c r="N57" s="18"/>
     </row>
     <row r="58">
       <c r="A58" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B58" s="77" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C58" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="109" t="s">
@@ -9366,30 +9232,30 @@
       <c r="I58" s="22"/>
       <c r="J58" s="18"/>
       <c r="K58" s="97" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L58" s="103" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M58" s="103"/>
       <c r="N58" s="18"/>
     </row>
     <row r="59">
       <c r="A59" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B59" s="77" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C59" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="109" t="s">
@@ -9398,30 +9264,30 @@
       <c r="I59" s="22"/>
       <c r="J59" s="18"/>
       <c r="K59" s="97" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L59" s="103" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M59" s="103"/>
       <c r="N59" s="18"/>
     </row>
     <row r="60">
       <c r="A60" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B60" s="77" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C60" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="109" t="s">
@@ -9430,27 +9296,27 @@
       <c r="I60" s="22"/>
       <c r="J60" s="18"/>
       <c r="K60" s="97" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L60" s="103" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M60" s="103"/>
       <c r="N60" s="18"/>
     </row>
     <row r="61">
       <c r="A61" s="82" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C61" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D61" s="87"/>
       <c r="E61" s="86" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F61" s="87"/>
       <c r="G61" s="87"/>
@@ -9470,20 +9336,20 @@
     </row>
     <row r="62">
       <c r="A62" s="82" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B62" s="83" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D62" s="87"/>
       <c r="E62" s="86" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F62" s="86" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G62" s="87"/>
       <c r="H62" s="86" t="s">
@@ -9492,30 +9358,30 @@
       <c r="I62" s="87"/>
       <c r="J62" s="89"/>
       <c r="K62" s="110" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L62" s="111" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M62" s="111"/>
       <c r="N62" s="112"/>
     </row>
     <row r="63">
       <c r="A63" s="90" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C63" s="113" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D63" s="107"/>
       <c r="E63" s="90" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F63" s="90" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G63" s="107"/>
       <c r="H63" s="90" t="s">
@@ -9534,20 +9400,20 @@
     </row>
     <row r="64">
       <c r="A64" s="90" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C64" s="113" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D64" s="107"/>
       <c r="E64" s="90" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F64" s="90" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G64" s="107"/>
       <c r="H64" s="90" t="s">
@@ -9566,20 +9432,20 @@
     </row>
     <row r="65">
       <c r="A65" s="90" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C65" s="113" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D65" s="107"/>
       <c r="E65" s="90" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F65" s="90" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G65" s="107"/>
       <c r="H65" s="90" t="s">
@@ -9598,20 +9464,20 @@
     </row>
     <row r="66">
       <c r="A66" s="90" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C66" s="113" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D66" s="107"/>
       <c r="E66" s="90" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F66" s="90" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G66" s="107"/>
       <c r="H66" s="90" t="s">
@@ -9630,20 +9496,20 @@
     </row>
     <row r="67">
       <c r="A67" s="90" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C67" s="113" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D67" s="107"/>
       <c r="E67" s="90" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F67" s="90" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G67" s="107"/>
       <c r="H67" s="90" t="s">
@@ -9662,20 +9528,20 @@
     </row>
     <row r="68">
       <c r="A68" s="90" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B68" s="105" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C68" s="113" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D68" s="107"/>
       <c r="E68" s="90" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F68" s="90" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G68" s="107"/>
       <c r="H68" s="90" t="s">
@@ -9694,17 +9560,17 @@
     </row>
     <row r="69">
       <c r="A69" s="104" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B69" s="105" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C69" s="106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D69" s="107"/>
       <c r="E69" s="90" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F69" s="90"/>
       <c r="G69" s="107"/>
@@ -9724,20 +9590,20 @@
     </row>
     <row r="70">
       <c r="A70" s="104" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B70" s="105" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C70" s="106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D70" s="107"/>
       <c r="E70" s="90" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F70" s="90" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G70" s="107"/>
       <c r="H70" s="90" t="s">
@@ -9746,29 +9612,29 @@
       <c r="I70" s="107"/>
       <c r="J70" s="19"/>
       <c r="K70" s="97" t="s">
+        <v>597</v>
+      </c>
+      <c r="L70" s="108" t="s">
+        <v>598</v>
+      </c>
+      <c r="M70" s="108" t="s">
         <v>599</v>
-      </c>
-      <c r="L70" s="108" t="s">
-        <v>600</v>
-      </c>
-      <c r="M70" s="108" t="s">
-        <v>601</v>
       </c>
       <c r="N70" s="19"/>
     </row>
     <row r="71">
       <c r="A71" s="82" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B71" s="83" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C71" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D71" s="87"/>
       <c r="E71" s="86" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F71" s="87"/>
       <c r="G71" s="87"/>
@@ -9788,20 +9654,20 @@
     </row>
     <row r="72">
       <c r="A72" s="82" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C72" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D72" s="87"/>
       <c r="E72" s="86" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F72" s="86" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G72" s="87"/>
       <c r="H72" s="86" t="s">
@@ -9810,27 +9676,27 @@
       <c r="I72" s="87"/>
       <c r="J72" s="89"/>
       <c r="K72" s="110" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L72" s="98" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M72" s="98"/>
       <c r="N72" s="89"/>
     </row>
     <row r="73">
       <c r="A73" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
@@ -9850,20 +9716,20 @@
     </row>
     <row r="74">
       <c r="A74" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B74" s="77" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C74" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G74" s="22"/>
       <c r="H74" s="4" t="s">
@@ -9872,27 +9738,27 @@
       <c r="I74" s="22"/>
       <c r="J74" s="18"/>
       <c r="K74" s="102" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L74" s="103" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M74" s="103"/>
       <c r="N74" s="18"/>
     </row>
     <row r="75">
       <c r="A75" s="82" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B75" s="83" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C75" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D75" s="87"/>
       <c r="E75" s="86" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F75" s="87"/>
       <c r="G75" s="87"/>
@@ -9912,20 +9778,20 @@
     </row>
     <row r="76">
       <c r="A76" s="82" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B76" s="83" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C76" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="86" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F76" s="86" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G76" s="87"/>
       <c r="H76" s="86" t="s">
@@ -9944,17 +9810,17 @@
     </row>
     <row r="77">
       <c r="A77" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B77" s="77" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
@@ -9974,20 +9840,20 @@
     </row>
     <row r="78">
       <c r="A78" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B78" s="77" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C78" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G78" s="22"/>
       <c r="H78" s="4" t="s">
@@ -9996,27 +9862,27 @@
       <c r="I78" s="22"/>
       <c r="J78" s="18"/>
       <c r="K78" s="117" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="18"/>
     </row>
     <row r="79">
       <c r="A79" s="82" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C79" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="86" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F79" s="87"/>
       <c r="G79" s="87"/>
@@ -10036,20 +9902,20 @@
     </row>
     <row r="80">
       <c r="A80" s="82" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B80" s="83" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C80" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D80" s="87"/>
       <c r="E80" s="86" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F80" s="86" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G80" s="87"/>
       <c r="H80" s="86" t="s">
@@ -10058,27 +9924,27 @@
       <c r="I80" s="87"/>
       <c r="J80" s="89"/>
       <c r="K80" s="116" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L80" s="86" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M80" s="86"/>
       <c r="N80" s="89"/>
     </row>
     <row r="81">
       <c r="A81" s="15" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B81" s="77" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C81" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
@@ -10098,20 +9964,20 @@
     </row>
     <row r="82">
       <c r="A82" s="15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B82" s="77" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C82" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="4" t="s">
@@ -10130,17 +9996,17 @@
     </row>
     <row r="83">
       <c r="A83" s="82" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B83" s="83" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C83" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D83" s="87"/>
       <c r="E83" s="86" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F83" s="87"/>
       <c r="G83" s="87"/>
@@ -10160,20 +10026,20 @@
     </row>
     <row r="84">
       <c r="A84" s="82" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B84" s="83" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C84" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D84" s="87"/>
       <c r="E84" s="86" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F84" s="86" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G84" s="87"/>
       <c r="H84" s="86" t="s">
@@ -10182,27 +10048,27 @@
       <c r="I84" s="87"/>
       <c r="J84" s="89"/>
       <c r="K84" s="86" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L84" s="86" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M84" s="86"/>
       <c r="N84" s="89"/>
     </row>
     <row r="85">
       <c r="A85" s="15" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B85" s="77" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C85" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
@@ -10222,20 +10088,20 @@
     </row>
     <row r="86">
       <c r="A86" s="15" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B86" s="77" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C86" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="4" t="s">
@@ -10244,27 +10110,27 @@
       <c r="I86" s="22"/>
       <c r="J86" s="18"/>
       <c r="K86" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="18"/>
     </row>
     <row r="87">
       <c r="A87" s="118" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B87" s="119" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C87" s="120" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D87" s="121"/>
       <c r="E87" s="122" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F87" s="121"/>
       <c r="G87" s="121"/>
@@ -10284,20 +10150,20 @@
     </row>
     <row r="88">
       <c r="A88" s="118" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B88" s="119" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C88" s="120" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D88" s="121"/>
       <c r="E88" s="122" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F88" s="122" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G88" s="125"/>
       <c r="H88" s="122" t="s">
@@ -10316,20 +10182,20 @@
     </row>
     <row r="89">
       <c r="A89" s="118" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B89" s="119" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C89" s="120" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D89" s="121"/>
       <c r="E89" s="122" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F89" s="122" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G89" s="121"/>
       <c r="H89" s="122" t="s">
@@ -10338,30 +10204,30 @@
       <c r="I89" s="121"/>
       <c r="J89" s="123"/>
       <c r="K89" s="124" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L89" s="122" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M89" s="122"/>
       <c r="N89" s="123"/>
     </row>
     <row r="90">
       <c r="A90" s="118" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B90" s="119" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C90" s="120" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D90" s="121"/>
       <c r="E90" s="122" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F90" s="122" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G90" s="121"/>
       <c r="H90" s="122" t="s">
@@ -10370,27 +10236,27 @@
       <c r="I90" s="121"/>
       <c r="J90" s="123"/>
       <c r="K90" s="124" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L90" s="122" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M90" s="122"/>
       <c r="N90" s="123"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="82" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B91" s="83" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C91" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D91" s="87"/>
       <c r="E91" s="86" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F91" s="87"/>
       <c r="G91" s="87"/>
@@ -10410,20 +10276,20 @@
     </row>
     <row r="92">
       <c r="A92" s="82" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B92" s="83" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C92" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D92" s="87"/>
       <c r="E92" s="86" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F92" s="86" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="86" t="s">
@@ -10432,30 +10298,30 @@
       <c r="I92" s="87"/>
       <c r="J92" s="89"/>
       <c r="K92" s="116" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L92" s="86" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M92" s="86"/>
       <c r="N92" s="89"/>
     </row>
     <row r="93">
       <c r="A93" s="82" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B93" s="83" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C93" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D93" s="87"/>
       <c r="E93" s="86" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F93" s="86" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G93" s="87"/>
       <c r="H93" s="86" t="s">
@@ -10474,20 +10340,20 @@
     </row>
     <row r="94">
       <c r="A94" s="82" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C94" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D94" s="87"/>
       <c r="E94" s="86" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F94" s="86" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G94" s="87"/>
       <c r="H94" s="86" t="s">
@@ -10496,27 +10362,27 @@
       <c r="I94" s="87"/>
       <c r="J94" s="89"/>
       <c r="K94" s="116" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L94" s="86" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M94" s="86"/>
       <c r="N94" s="89"/>
     </row>
     <row r="95">
       <c r="A95" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B95" s="77" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C95" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
@@ -10536,20 +10402,20 @@
     </row>
     <row r="96">
       <c r="A96" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B96" s="77" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C96" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G96" s="22"/>
       <c r="H96" s="4" t="s">
@@ -10558,27 +10424,27 @@
       <c r="I96" s="22"/>
       <c r="J96" s="18"/>
       <c r="K96" s="117" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="18"/>
     </row>
     <row r="97">
       <c r="A97" s="82" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B97" s="83" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C97" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D97" s="87"/>
       <c r="E97" s="86" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F97" s="87"/>
       <c r="G97" s="87"/>
@@ -10598,20 +10464,20 @@
     </row>
     <row r="98">
       <c r="A98" s="82" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B98" s="83" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C98" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D98" s="87"/>
       <c r="E98" s="86" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F98" s="86" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="86" t="s">
@@ -10620,27 +10486,27 @@
       <c r="I98" s="87"/>
       <c r="J98" s="89"/>
       <c r="K98" s="116" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L98" s="86" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M98" s="86"/>
       <c r="N98" s="89"/>
     </row>
     <row r="99">
       <c r="A99" s="15" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B99" s="77" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C99" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
@@ -10660,20 +10526,20 @@
     </row>
     <row r="100">
       <c r="A100" s="58" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B100" s="77" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C100" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="4" t="s">
@@ -10682,27 +10548,27 @@
       <c r="I100" s="22"/>
       <c r="J100" s="18"/>
       <c r="K100" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="18"/>
     </row>
     <row r="101">
       <c r="A101" s="15" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B101" s="77" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C101" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
@@ -10722,20 +10588,20 @@
     </row>
     <row r="102">
       <c r="A102" s="58" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B102" s="77" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C102" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="4" t="s">
@@ -10744,10 +10610,10 @@
       <c r="I102" s="22"/>
       <c r="J102" s="18"/>
       <c r="K102" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="18"/>
@@ -10786,7 +10652,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="128" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D1" s="127" t="s">
         <v>1</v>
@@ -10797,537 +10663,537 @@
     </row>
     <row r="2">
       <c r="A2" s="129" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E2" s="18"/>
     </row>
     <row r="3">
       <c r="A3" s="129" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E3" s="18"/>
     </row>
     <row r="4">
       <c r="A4" s="129" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="129" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="18" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="129" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C6" s="130"/>
       <c r="D6" s="18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="129" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="129" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="62" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="129" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="129" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="132" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="129" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="132" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="129" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="132" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E12" s="18"/>
     </row>
     <row r="13">
       <c r="A13" s="129" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C13" s="62"/>
       <c r="D13" s="132" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E13" s="18"/>
     </row>
     <row r="14">
       <c r="A14" s="129" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="132" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E14" s="18"/>
     </row>
     <row r="15">
       <c r="A15" s="129" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C15" s="62"/>
       <c r="D15" s="132" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="129" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="132" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="129" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C17" s="133"/>
       <c r="D17" s="132" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="129" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="62" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E18" s="18"/>
     </row>
     <row r="19">
       <c r="A19" s="129" t="s">
+        <v>780</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>782</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="D19" s="132" t="s">
         <v>783</v>
       </c>
-      <c r="C19" s="134" t="s">
-        <v>784</v>
-      </c>
-      <c r="D19" s="132" t="s">
-        <v>785</v>
-      </c>
       <c r="E19" s="20" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="129" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B20" s="135" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C20" s="135"/>
       <c r="D20" s="18" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="129" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B21" s="135" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C21" s="135"/>
       <c r="D21" s="18" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E21" s="18"/>
     </row>
     <row r="22">
       <c r="A22" s="129" t="s">
+        <v>790</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>791</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>783</v>
-      </c>
-      <c r="C22" s="135" t="s">
-        <v>793</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>794</v>
-      </c>
       <c r="E22" s="20" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="129" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="62" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="129" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B24" s="136" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C24" s="136"/>
       <c r="D24" s="20" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E24" s="18"/>
     </row>
     <row r="25">
       <c r="A25" s="129" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C25" s="62"/>
       <c r="D25" s="62" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="137" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E26" s="28"/>
     </row>
     <row r="27">
       <c r="A27" s="137" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E27" s="28"/>
     </row>
     <row r="28">
       <c r="A28" s="137" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E28" s="28"/>
     </row>
     <row r="29">
       <c r="A29" s="137" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E29" s="28"/>
     </row>
     <row r="30">
       <c r="A30" s="137" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E30" s="28"/>
     </row>
     <row r="31">
       <c r="A31" s="137" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E31" s="28"/>
     </row>
     <row r="32">
       <c r="A32" s="137" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E32" s="28"/>
     </row>
     <row r="33">
       <c r="A33" s="137" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E33" s="28"/>
     </row>
     <row r="34">
       <c r="A34" s="137" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E34" s="28"/>
     </row>
     <row r="35">
       <c r="A35" s="137" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E35" s="28"/>
     </row>
     <row r="36">
       <c r="A36" s="117" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C36" s="138"/>
       <c r="D36" s="22" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E36" s="18"/>
     </row>
     <row r="37">
       <c r="A37" s="117" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C37" s="138"/>
       <c r="D37" s="22" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E37" s="18"/>
     </row>
     <row r="38">
       <c r="A38" s="117" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C38" s="138"/>
       <c r="D38" s="22" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E38" s="18"/>
     </row>
     <row r="39">
       <c r="A39" s="117" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B39" s="139" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C39" s="139"/>
       <c r="D39" s="22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E39" s="18"/>
     </row>
     <row r="40">
       <c r="A40" s="117" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B40" s="139" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="22" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E40" s="18"/>
     </row>
     <row r="41">
       <c r="A41" s="117" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B41" s="140" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C41" s="140"/>
       <c r="D41" s="22" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E41" s="18"/>
     </row>
@@ -11348,16 +11214,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>851</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>852</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>854</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -11372,13 +11238,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>855</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>857</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -11416,13 +11282,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>858</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>860</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -11438,10 +11304,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -11455,10 +11321,10 @@
     <row r="7">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -11472,10 +11338,10 @@
     <row r="8">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -11489,10 +11355,10 @@
     <row r="9">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -11518,10 +11384,10 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -11535,10 +11401,10 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B12" s="141" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -11552,10 +11418,10 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B13" s="141" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -11569,10 +11435,10 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B14" s="141" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -11586,10 +11452,10 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B15" s="141" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -11603,10 +11469,10 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B16" s="141" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -11620,10 +11486,10 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B17" s="141" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -11637,10 +11503,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -11654,10 +11520,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B19" s="142" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -11671,10 +11537,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B20" s="142" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -11688,10 +11554,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -11705,10 +11571,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -11735,10 +11601,10 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B24" s="143" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -11752,7 +11618,7 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>6</v>
@@ -11769,10 +11635,10 @@
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27">
@@ -11795,18 +11661,18 @@
     </row>
     <row r="33">
       <c r="A33" s="144" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B33" s="145" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="144" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B34" s="146" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C34" s="145"/>
       <c r="D34" s="145"/>
@@ -11820,10 +11686,10 @@
     </row>
     <row r="35">
       <c r="A35" s="144" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B35" s="146" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C35" s="147"/>
       <c r="D35" s="147"/>
@@ -11837,12 +11703,12 @@
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38">
@@ -11901,33 +11767,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="71" t="s">
+        <v>901</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>902</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>903</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>904</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>905</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="73" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>34</v>
@@ -11937,16 +11803,16 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>39</v>
@@ -11956,16 +11822,16 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B4" s="149" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>46</v>
@@ -11975,16 +11841,16 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B5" s="149" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>51</v>
@@ -11994,16 +11860,16 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B6" s="149" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>55</v>
@@ -12013,16 +11879,16 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B7" s="149" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>59</v>
@@ -12032,16 +11898,16 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B8" s="149" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>63</v>
@@ -12051,16 +11917,16 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B9" s="149" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>67</v>
@@ -12070,16 +11936,16 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B10" s="149" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>267</v>
@@ -12089,16 +11955,16 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B11" s="149" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>270</v>
@@ -12108,16 +11974,16 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B12" s="149" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>273</v>
@@ -12127,16 +11993,16 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>276</v>
@@ -12146,16 +12012,16 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B14" s="149" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>279</v>
@@ -12165,16 +12031,16 @@
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B15" s="149" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>282</v>
@@ -12184,16 +12050,16 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B16" s="149" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>285</v>
@@ -12203,16 +12069,16 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>288</v>
@@ -12222,16 +12088,16 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B18" s="149" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>291</v>
@@ -12241,16 +12107,16 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>294</v>
@@ -12260,16 +12126,16 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B20" s="149" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>297</v>
@@ -12279,16 +12145,16 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B21" s="149" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>300</v>
@@ -12298,16 +12164,16 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B22" s="149" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>303</v>
@@ -12317,16 +12183,16 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B23" s="149" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>306</v>
@@ -12336,16 +12202,16 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B24" s="149" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>309</v>
@@ -12355,16 +12221,16 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B25" s="149" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>312</v>
@@ -12404,91 +12270,91 @@
         <v>2</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B2" s="73"/>
       <c r="C2" s="71"/>
       <c r="D2" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E2" s="22"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E3" s="22"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="142" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="142" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="142" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
       <c r="D7" s="142" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B9" s="71"/>
       <c r="C9" s="71"/>
       <c r="D9" s="142" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E9" s="22"/>
     </row>
@@ -12534,25 +12400,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E1" s="151" t="s">
+        <v>962</v>
+      </c>
+      <c r="F1" s="151" t="s">
+        <v>963</v>
+      </c>
+      <c r="G1" s="152" t="s">
         <v>964</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="H1" s="153" t="s">
         <v>965</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="I1" s="154" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="155" t="s">
         <v>966</v>
-      </c>
-      <c r="H1" s="153" t="s">
-        <v>967</v>
-      </c>
-      <c r="I1" s="154" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" s="155" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="2">
@@ -12560,10 +12426,10 @@
         <v>258</v>
       </c>
       <c r="B2" s="154" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C2" s="154" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D2" s="154"/>
       <c r="E2" s="154"/>
@@ -12572,7 +12438,7 @@
       <c r="H2" s="154"/>
       <c r="I2" s="154"/>
       <c r="J2" s="154" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3">
@@ -12580,10 +12446,10 @@
         <v>261</v>
       </c>
       <c r="B3" s="154" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C3" s="154" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D3" s="154"/>
       <c r="E3" s="154"/>
@@ -12592,7 +12458,7 @@
       <c r="H3" s="154"/>
       <c r="I3" s="154"/>
       <c r="J3" s="158" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4">
@@ -12600,10 +12466,10 @@
         <v>269</v>
       </c>
       <c r="B4" s="154" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C4" s="154" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D4" s="154"/>
       <c r="E4" s="159"/>
@@ -12612,7 +12478,7 @@
       <c r="H4" s="154"/>
       <c r="I4" s="154"/>
       <c r="J4" s="154" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5">
@@ -12620,10 +12486,10 @@
         <v>272</v>
       </c>
       <c r="B5" s="154" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C5" s="154" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D5" s="160"/>
       <c r="E5" s="159"/>
@@ -12632,7 +12498,7 @@
       <c r="H5" s="154"/>
       <c r="I5" s="154"/>
       <c r="J5" s="154" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6">
@@ -12640,10 +12506,10 @@
         <v>275</v>
       </c>
       <c r="B6" s="154" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D6" s="154"/>
       <c r="E6" s="159"/>
@@ -12652,7 +12518,7 @@
       <c r="H6" s="154"/>
       <c r="I6" s="154"/>
       <c r="J6" s="154" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7">
@@ -12660,10 +12526,10 @@
         <v>278</v>
       </c>
       <c r="B7" s="154" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C7" s="154" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D7" s="154"/>
       <c r="E7" s="159"/>
@@ -12672,7 +12538,7 @@
       <c r="H7" s="154"/>
       <c r="I7" s="154"/>
       <c r="J7" s="154" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="8">
@@ -12680,10 +12546,10 @@
         <v>281</v>
       </c>
       <c r="B8" s="154" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C8" s="154" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D8" s="160"/>
       <c r="E8" s="159"/>
@@ -12692,7 +12558,7 @@
       <c r="H8" s="154"/>
       <c r="I8" s="153"/>
       <c r="J8" s="161" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="9">
@@ -12700,10 +12566,10 @@
         <v>284</v>
       </c>
       <c r="B9" s="154" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C9" s="154" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D9" s="154"/>
       <c r="E9" s="159"/>
@@ -12712,7 +12578,7 @@
       <c r="H9" s="154"/>
       <c r="I9" s="154"/>
       <c r="J9" s="162" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10">
@@ -12720,10 +12586,10 @@
         <v>287</v>
       </c>
       <c r="B10" s="154" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C10" s="154" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D10" s="154"/>
       <c r="E10" s="159"/>
@@ -12732,7 +12598,7 @@
       <c r="H10" s="154"/>
       <c r="I10" s="154"/>
       <c r="J10" s="162" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="11">
@@ -12740,10 +12606,10 @@
         <v>290</v>
       </c>
       <c r="B11" s="154" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C11" s="154" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D11" s="154"/>
       <c r="E11" s="159"/>
@@ -12752,7 +12618,7 @@
       <c r="H11" s="154"/>
       <c r="I11" s="154"/>
       <c r="J11" s="161" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12">
@@ -12760,10 +12626,10 @@
         <v>293</v>
       </c>
       <c r="B12" s="154" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C12" s="154" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D12" s="154"/>
       <c r="E12" s="159"/>
@@ -12771,10 +12637,10 @@
       <c r="G12" s="154"/>
       <c r="H12" s="154"/>
       <c r="I12" s="16" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="J12" s="158" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13">
@@ -12782,10 +12648,10 @@
         <v>296</v>
       </c>
       <c r="B13" s="154" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="159"/>
@@ -12793,10 +12659,10 @@
       <c r="G13" s="154"/>
       <c r="H13" s="154"/>
       <c r="I13" s="16" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="J13" s="158" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="14">
@@ -12804,10 +12670,10 @@
         <v>299</v>
       </c>
       <c r="B14" s="154" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C14" s="154" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D14" s="154"/>
       <c r="E14" s="159"/>
@@ -12815,7 +12681,7 @@
       <c r="G14" s="154"/>
       <c r="H14" s="154"/>
       <c r="J14" s="161" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -12823,10 +12689,10 @@
         <v>302</v>
       </c>
       <c r="B15" s="154" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C15" s="154" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D15" s="154"/>
       <c r="E15" s="159"/>
@@ -12834,7 +12700,7 @@
       <c r="G15" s="154"/>
       <c r="H15" s="154"/>
       <c r="J15" s="161" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -12842,10 +12708,10 @@
         <v>305</v>
       </c>
       <c r="B16" s="154" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C16" s="154" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D16" s="154"/>
       <c r="E16" s="159"/>
@@ -12854,7 +12720,7 @@
       <c r="H16" s="154"/>
       <c r="I16" s="154"/>
       <c r="J16" s="154" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="17">
@@ -12862,10 +12728,10 @@
         <v>308</v>
       </c>
       <c r="B17" s="154" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C17" s="154" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="159"/>
@@ -12874,7 +12740,7 @@
       <c r="H17" s="154"/>
       <c r="I17" s="153"/>
       <c r="J17" s="163" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18">
@@ -12882,10 +12748,10 @@
         <v>311</v>
       </c>
       <c r="B18" s="154" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C18" s="154" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="159"/>
@@ -12894,7 +12760,7 @@
       <c r="H18" s="154"/>
       <c r="I18" s="153"/>
       <c r="J18" s="163" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="19">
@@ -12902,10 +12768,10 @@
         <v>314</v>
       </c>
       <c r="B19" s="154" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C19" s="154" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="159"/>
@@ -12914,15 +12780,15 @@
       <c r="H19" s="154"/>
       <c r="I19" s="153"/>
       <c r="J19" s="163" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="159" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B20" s="154" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C20" s="159"/>
       <c r="D20" s="159" t="s">
@@ -12961,53 +12827,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C2" s="164" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="164" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C5" s="164" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
